--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="14400" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>用例名称</t>
+  </si>
+  <si>
     <t>模块</t>
   </si>
   <si>
@@ -36,12 +39,21 @@
     <t>预期结果</t>
   </si>
   <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
     <t>是否运行</t>
   </si>
   <si>
     <t>首页feed流推荐数据</t>
   </si>
   <si>
+    <t>feed流</t>
+  </si>
+  <si>
     <t>/api/recommend/get_recommend_content_list</t>
   </si>
   <si>
@@ -49,6 +61,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -157,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +201,13 @@
       <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,16 +241,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,29 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,14 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -363,19 +375,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,163 +447,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +589,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,21 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -659,52 +671,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,91 +728,91 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,10 +827,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1168,23 +1180,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="57.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1206,22 +1219,66 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="1:5">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="57" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12270"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>id</t>
   </si>
@@ -33,21 +33,30 @@
     <t>请求类型</t>
   </si>
   <si>
+    <t>请求头</t>
+  </si>
+  <si>
     <t>请求参数</t>
   </si>
   <si>
+    <t>需要保存的返回字段</t>
+  </si>
+  <si>
+    <t>数据依赖字段</t>
+  </si>
+  <si>
     <t>预期结果</t>
   </si>
   <si>
     <t>实际结果</t>
   </si>
   <si>
+    <t>是否运行</t>
+  </si>
+  <si>
     <t>测试结果</t>
   </si>
   <si>
-    <t>是否运行</t>
-  </si>
-  <si>
     <t>首页feed流推荐数据</t>
   </si>
   <si>
@@ -66,18 +75,134 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>{</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'page'</t>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Content-Type'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'application/json'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'channel'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'default'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'X-Token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'4b5e4c5a02'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Authorization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Authorization</t>
     </r>
     <r>
       <rPr>
@@ -86,7 +211,63 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>: page</t>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{'page':'1', 'pageSize': '20', 'app_key': 'lemondream'}</t>
+  </si>
+  <si>
+    <t>"msg":"请求成功"</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>第三方登陆</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>/api/user/third_login</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'avatar'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100'</t>
     </r>
     <r>
       <rPr>
@@ -95,16 +276,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'pageSize'</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'birthday'</t>
     </r>
     <r>
       <rPr>
@@ -113,16 +294,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'20'</t>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'2000-01-01'</t>
     </r>
     <r>
       <rPr>
@@ -131,16 +312,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'app_key'</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'city'</t>
     </r>
     <r>
       <rPr>
@@ -149,16 +330,34 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'lemondream'</t>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'device'</t>
     </r>
     <r>
       <rPr>
@@ -167,8 +366,301 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'nickname'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ssk'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'openid'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'FD717EC03696FFB9E78AADEC85E6565D'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'province'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'sex'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'type'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>"uid":1042</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>阅读漫画单篇</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>/api/comic/get_comic_single_info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'comic_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'48283683'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>"comic_index_id":"48283683"</t>
   </si>
 </sst>
 </file>
@@ -176,12 +668,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,14 +693,18 @@
       <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -272,6 +768,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -280,82 +851,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
+      <color rgb="FF9876AA"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -365,6 +862,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6897BB"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -375,49 +878,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,127 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,21 +1092,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +1146,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -674,10 +1177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,137 +1189,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,7 +1333,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1180,24 +1689,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="27" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1228,57 +1741,111 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" s="1" customFormat="1" ht="99.75" spans="1:12">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="156.75" spans="1:12">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="99.75" spans="1:12">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="57" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>用例名称</t>
+    <t>case_name</t>
   </si>
   <si>
     <t>模块</t>
@@ -60,7 +60,7 @@
     <t>首页feed流推荐数据</t>
   </si>
   <si>
-    <t>feed流</t>
+    <t>feed</t>
   </si>
   <si>
     <t>/api/recommend/get_recommend_content_list</t>
@@ -572,9 +572,6 @@
   </si>
   <si>
     <t>"uid":1042</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>阅读漫画单篇</t>
@@ -668,8 +665,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -686,6 +683,12 @@
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -701,14 +704,121 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,123 +833,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,6 +875,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -903,138 +1032,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,45 +1066,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1128,20 +1086,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,6 +1116,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1177,149 +1174,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1329,16 +1326,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,7 +1692,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1714,7 +1714,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1761,20 +1761,20 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1792,27 +1792,27 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="99.75" spans="1:12">
@@ -1820,32 +1820,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="首页" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="4" r:id="rId2"/>
+    <sheet name="阅读" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>id</t>
   </si>
@@ -60,7 +60,7 @@
     <t>首页feed流推荐数据</t>
   </si>
   <si>
-    <t>feed</t>
+    <t>首页</t>
   </si>
   <si>
     <t>/api/recommend/get_recommend_content_list</t>
@@ -221,16 +221,449 @@
     <t>"msg":"请求成功"</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>第三方登陆</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>/api/user/third_login</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'avatar'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'birthday'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'2000-01-01'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'city'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'device'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'nickname'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ssk'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'openid'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'FD717EC03696FFB9E78AADEC85E6565D'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'province'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'sex'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'type'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>"uid":1042</t>
+  </si>
+  <si>
+    <t>阅读漫画单篇_id存在</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>/api/comic/get_comic_single_info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'comic_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'48283683'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>"comic_index_id":"48283683"</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>第三方登陆</t>
-  </si>
-  <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>/api/user/third_login</t>
+    <t>阅读漫画单篇_id为空</t>
   </si>
   <si>
     <r>
@@ -249,25 +682,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'avatar'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100'</t>
+      <t>'comic_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:''</t>
     </r>
     <r>
       <rPr>
@@ -285,25 +709,69 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'birthday'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'2000-01-01'</t>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>"msg":"内容已失效"</t>
+  </si>
+  <si>
+    <t>阅读漫画单篇_id不存在</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'comic_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'111148283683'</t>
     </r>
     <r>
       <rPr>
@@ -321,311 +789,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'city'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>''</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'device'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'nickname'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'ssk'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'openid'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'FD717EC03696FFB9E78AADEC85E6565D'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'province'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>''</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'sex'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'type'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>access_token</t>
-  </si>
-  <si>
-    <t>"uid":1042</t>
-  </si>
-  <si>
-    <t>阅读漫画单篇</t>
-  </si>
-  <si>
-    <t>阅读</t>
-  </si>
-  <si>
-    <t>/api/comic/get_comic_single_info</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'comic_id'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:'48283683'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>'access_token'</t>
     </r>
     <r>
@@ -655,9 +818,6 @@
       </rPr>
       <t>]}</t>
     </r>
-  </si>
-  <si>
-    <t>"comic_index_id":"48283683"</t>
   </si>
 </sst>
 </file>
@@ -665,9 +825,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -686,26 +846,72 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,14 +926,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,17 +946,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,81 +993,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,13 +1035,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,18 +1125,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -923,19 +1143,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,91 +1191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,6 +1226,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1084,15 +1268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1104,41 +1279,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,12 +1300,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,10 +1334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,133 +1346,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,25 +1481,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1689,162 +1849,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="99.75" spans="1:12">
-      <c r="A2" s="1">
+    <row r="2" s="5" customFormat="1" ht="99.75" spans="1:12">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="156.75" spans="1:12">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="99.75" spans="1:12">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1858,16 +1952,103 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="156.75" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1875,14 +2056,161 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="114" spans="1:13">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="99.75" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="114" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -221,7 +221,7 @@
     <t>"msg":"请求成功"</t>
   </si>
   <si>
-    <t>no</t>
+    <t>yes</t>
   </si>
   <si>
     <t>第三方登陆</t>
@@ -571,6 +571,9 @@
     <t>access_token</t>
   </si>
   <si>
+    <t>{"uid":1042,"is_bind":1}</t>
+  </si>
+  <si>
     <t>"uid":1042</t>
   </si>
   <si>
@@ -658,9 +661,6 @@
   </si>
   <si>
     <t>"comic_index_id":"48283683"</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>阅读漫画单篇_id为空</t>
@@ -825,10 +825,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -866,6 +866,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,50 +948,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +973,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1035,6 +1035,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1089,6 +1119,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1138,48 +1180,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,6 +1226,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1244,15 +1268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1264,36 +1279,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,6 +1303,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1334,10 +1334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,133 +1346,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1849,13 +1849,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -1865,8 +1865,8 @@
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1939,6 +1939,39 @@
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="156.75" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1955,7 +1988,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2041,7 +2074,7 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>20</v>
@@ -2058,14 +2091,15 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2110,18 +2144,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="114" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="99.75" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -2130,17 +2164,17 @@
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -2152,10 +2186,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -2174,10 +2208,10 @@
         <v>35</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="114" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="99.75" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2185,10 +2219,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -2207,7 +2241,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -7,16 +7,17 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="首页" sheetId="1" r:id="rId1"/>
-    <sheet name="登录" sheetId="4" r:id="rId2"/>
-    <sheet name="阅读" sheetId="3" r:id="rId3"/>
+    <sheet name="app通用" sheetId="5" r:id="rId1"/>
+    <sheet name="首页" sheetId="1" r:id="rId2"/>
+    <sheet name="登录" sheetId="4" r:id="rId3"/>
+    <sheet name="阅读" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +58,60 @@
     <t>测试结果</t>
   </si>
   <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>app通用</t>
+  </si>
+  <si>
+    <t>/api/app/install</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '', 'Authorization': Authorization}</t>
+  </si>
+  <si>
+    <t>{'device_token': '354730010176117','dreampix_device_id': 'V1_0d277735443e8931f8c89d976d0ee6a4a88b1511fc1a391180ef73134eb92682','nonce': 'vm0rq26','timestamp':timestamp}</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>"guest_id"</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>get_module_unread</t>
+  </si>
+  <si>
+    <t>/api/app/get_module_unread</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+  </si>
+  <si>
+    <t>"flow_window_activity"</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>emoji_package</t>
+  </si>
+  <si>
+    <t>/api/emoji_package/get_emoji_package_list</t>
+  </si>
+  <si>
+    <t>{'last_time':'0'}</t>
+  </si>
+  <si>
+    <t>{"package_id","title_image","emoji_list"}</t>
+  </si>
+  <si>
     <t>首页feed流推荐数据</t>
   </si>
   <si>
@@ -66,16 +121,7 @@
     <t>/api/recommend/get_recommend_content_list</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>{</t>
     </r>
     <r>
@@ -218,10 +264,239 @@
     <t>{'page':'1', 'pageSize': '20', 'app_key': 'lemondream'}</t>
   </si>
   <si>
-    <t>"msg":"请求成功"</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>{"msg":"请求成功"}</t>
+  </si>
+  <si>
+    <t>意见反馈</t>
+  </si>
+  <si>
+    <t>APP反馈</t>
+  </si>
+  <si>
+    <t>/api/app/feedback</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Content-Type'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'application/json'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'channel'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'default'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'X-Token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'4b5e4c5a02'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Authorization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Authorization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'content':'反馈内容','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>star'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>{
+  "code": 0,
+  "msg": "请求成功"
+}</t>
   </si>
   <si>
     <t>第三方登陆</t>
@@ -568,13 +843,7 @@
     </r>
   </si>
   <si>
-    <t>access_token</t>
-  </si>
-  <si>
     <t>{"uid":1042,"is_bind":1}</t>
-  </si>
-  <si>
-    <t>"uid":1042</t>
   </si>
   <si>
     <t>阅读漫画单篇_id存在</t>
@@ -830,7 +1099,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +1131,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1334,10 +1609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,137 +1621,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,8 +1773,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1849,10 +2133,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="20.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="10" customWidth="1"/>
+    <col min="8" max="14" width="9" style="10"/>
+    <col min="15" max="15" width="43.125" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:12">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:12">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:12">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1863,10 +2300,10 @@
     <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="69.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1874,7 +2311,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1916,63 +2353,63 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="156.75" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="99.75" spans="1:12">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1982,13 +2419,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2002,7 +2439,7 @@
     <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2052,32 +2489,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2086,13 +2523,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2149,32 +2586,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -2183,32 +2620,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="99.75" spans="1:12">
@@ -2216,32 +2653,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="app通用" sheetId="5" r:id="rId1"/>
-    <sheet name="首页" sheetId="1" r:id="rId2"/>
-    <sheet name="登录" sheetId="4" r:id="rId3"/>
-    <sheet name="阅读" sheetId="3" r:id="rId4"/>
+    <sheet name="直播" sheetId="6" r:id="rId1"/>
+    <sheet name="创作" sheetId="7" r:id="rId2"/>
+    <sheet name="app通用" sheetId="5" r:id="rId3"/>
+    <sheet name="首页" sheetId="1" r:id="rId4"/>
+    <sheet name="登录" sheetId="4" r:id="rId5"/>
+    <sheet name="阅读" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +60,157 @@
     <t>测试结果</t>
   </si>
   <si>
+    <t>创建视频直播间</t>
+  </si>
+  <si>
+    <t>直播</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/create_broadcasting</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.0','Connection':'keep-alive'}</t>
+  </si>
+  <si>
+    <t>{'studio_type':1,'studio_cover':'','studio_title':'语音直播间','studio_label':'搞笑的','province':'广东','city':'广州'}</t>
+  </si>
+  <si>
+    <t>live_id</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>{'live_id','room_id','rtmp_push_url','rtmp_play_url','hls_play_url','flv_play_url'}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "请求成功",
+    "data": {
+        "live_id": "19096", //直播场次ID
+        "room_id": "1", //房间ID
+        "rtmp_push_url": "rtmp://3891.livepush.myqcloud.com/live/3891_user_054da0bd_8a10?bizid=3891&amp;txSecret=5b98bc9065b402d8a73be8962b9004e4&amp;txTime=5D8ADE40", //推流地址
+        "rtmp_play_url": "rtmp://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10", //播放地址（RTMP）
+        "hls_play_url": "http://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10.m3u8", //播放地址（FLV）
+        "flv_play_url": "http://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10.flv" //播放地址（HLS）
+    }
+}</t>
+  </si>
+  <si>
+    <t>创建语音直播间</t>
+  </si>
+  <si>
+    <t>{'studio_type':2,'studio_cover':'','studio_title':'语音直播间','studio_label':'搞笑的','province':'广东','city':'广州','bgm_img':''}</t>
+  </si>
+  <si>
+    <t>直播礼物列表</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/get_gift_list</t>
+  </si>
+  <si>
+    <t>{
+    "list":[
+            {
+                "gift_id":1,//礼物ID
+                "title_image":"http://demo.lemondream.cn/aaa.jpg", //礼物封面
+                "icon_url":"http://demo.lemondream.cn/bbb.jpg", //礼物icon地址
+                "title":"礼物名称",
+                "price_type":1, //货币类型：1为铜币，2为银币，3为金币
+                "price":"10",//货币数量
+                "is_effect":1,//是否是特效礼物
+                "banner_type":1,//横幅类型@1:为大横幅@2:小横幅
+                "effect_url":"http://demo.lemondream.cn/aaa.jpg", //单送特效礼物文件，非特效礼物该字段值为空'''
+                "multi_give_json":"1314,1688" //连送数量，备注多个连送数量用英文逗号分隔
+            }
+        ]
+}</t>
+  </si>
+  <si>
+    <t>直播送礼-单送</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/give_gift</t>
+  </si>
+  <si>
+    <t>{'gift_id',1,'live_id':'single_num':'1'}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 0,
+  "msg": "请求成功",
+  "data": []
+}</t>
+  </si>
+  <si>
+    <t>直播送礼-银币余额不足</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银币余额不足情况返回的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 88000</t>
+    </r>
+  </si>
+  <si>
+    <t>直播送礼-铜币余额不足</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铜币余额不足情况返回的 code为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>88003</t>
+    </r>
+  </si>
+  <si>
     <t>install</t>
   </si>
   <si>
@@ -67,9 +220,6 @@
     <t>/api/app/install</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '', 'Authorization': Authorization}</t>
   </si>
   <si>
@@ -122,6 +272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -283,16 +439,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'Content-Type'</t>
+      <t>{'content':'反馈内容','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>star'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:5</t>
     </r>
     <r>
       <rPr>
@@ -301,7 +466,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">: </t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -310,34 +475,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'application/json'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'channel'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
     </r>
     <r>
       <rPr>
@@ -346,70 +493,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'default'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'X-Token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'4b5e4c5a02'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'Authorization'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Authorization</t>
+      <t>'access_token'</t>
     </r>
     <r>
       <rPr>
@@ -418,79 +502,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{'content':'反馈内容','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>star'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:token[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>]}</t>
     </r>
-  </si>
-  <si>
-    <t>access_token</t>
   </si>
   <si>
     <t>{
@@ -1094,12 +1107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1150,39 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFCE9178"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1154,6 +1200,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1162,26 +1292,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1193,96 +1308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF9876AA"/>
       <name val="宋体"/>
@@ -1300,6 +1325,18 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1310,55 +1347,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,127 +1509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,6 +1538,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1519,15 +1571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1539,6 +1582,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,30 +1638,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1609,10 +1646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1621,34 +1658,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1657,97 +1694,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1773,17 +1810,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2133,27 +2170,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="20.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="10" customWidth="1"/>
-    <col min="8" max="14" width="9" style="10"/>
-    <col min="15" max="15" width="43.125" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="69.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="56.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2190,91 +2229,151 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="108" spans="1:12">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" ht="283.5" spans="2:11">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" ht="108" spans="1:12">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" ht="283.5" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" ht="351" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>26</v>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" ht="108" spans="1:12">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    <row r="5" ht="67.5" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="54" spans="2:11">
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>21</v>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="54" spans="2:11">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2286,10 +2385,179 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="43.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2311,7 +2579,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2353,30 +2621,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="99.75" spans="1:12">
@@ -2384,32 +2652,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2419,12 +2687,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2489,32 +2757,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2523,13 +2791,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2586,32 +2854,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -2620,32 +2888,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="99.75" spans="1:12">
@@ -2653,32 +2921,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8370" windowWidth="20385"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="8370" windowWidth="20385"/>
   </bookViews>
   <sheets>
     <sheet name="app通用" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="登录" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="首页" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="首页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="注册登录" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="个人空间页" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="邀请好友注册" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="直播" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="内容创作" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="漫画" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="漫剧" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="爬虫内容" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="爬虫内容" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="漫画" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="漫剧" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -647,10 +647,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -972,243 +975,333 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="19"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="9"/>
-    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" width="19"/>
+    <col customWidth="1" max="14" min="14" style="2" width="19"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9.142857142857141"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>install</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>app通用</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/app/install</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{'device_token': '354730010176117','dreampix_device_id': 'V1_0d277735443e8931f8c89d976d0ee6a4a88b1511fc1a391180ef73134eb92682','nonce': 'vm0rq26','timestamp':timestamp}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json','channel': 'default', 'X-Token': '', 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{"device_token":"867672030793812","dreampix_device_id":"V1_d0f338928d64b38a038a772d4424891ad3e177ddb94986772c2de4256121d019","nonce":"k5427if","timestamp":timestamp}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>guest_id</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>bbbb</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '485142510342'}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>get_module_unread</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>app通用</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/app/get_module_unread</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>"flow_window_activity"</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{"access_token":""}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>{"flow_window_activity","fans_module"}</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': None, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>emoji_package</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>app通用</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/emoji_package/get_emoji_package_list</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>{'last_time':'0'}</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{"last_time":"0"}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>{"package_id","title_image","emoji_list"}</t>
         </is>
       </c>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1586685190}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="5" s="2">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>get_home_page_alert</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>app通用</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/home_page/get_home_page_alert</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{"device_token":"867672030793812"}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1234,7 +1327,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -1256,212 +1349,218 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>爬虫图片</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>爬虫内容</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>/api/External/get_external_content_info</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>漫剧详情页</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>漫剧</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/adventure/get_game_single_info</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{'content_id':'190652561','access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'single_id':adventure_id['adventure_id'],'access_token':token['access_token']}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>access_token,adventure_id</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>爬虫图片</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>爬虫内容</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>/api/External/get_external_content_new_comment_list</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>漫剧评论</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>漫剧</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/adventure/get_game_single_new_comment_list</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{'content_id':'190652561','access_token':token['access_token'],'page':1,'pagesize':20}</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{'single_id':adventure_id['adventure_id'],'access_token':token['access_token'],'page':1,'pagesize':20}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>access_token,adventure_id</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>爬虫图片</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>爬虫内容</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>相关推荐</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>漫剧</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_relate_rec_content_list</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a03', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>{'type':'9','obj_id':'190652561','app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'2','obj_id':adventure_id['adventure_id'],'app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>access_token,adventure_id</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1484,13 +1583,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="9"/>
     <col customWidth="1" max="2" min="2" width="19"/>
@@ -1505,279 +1604,397 @@
     <col customWidth="1" max="11" min="11" width="19"/>
     <col customWidth="1" max="13" min="12" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" width="19"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>第三方登陆</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>/api/user/third_login</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>首页feed流推荐数据</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_recommend_content_list</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{'avatar':'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015','birthday':'2000-01-01','city':'','device':1,'nickname':'嗯啦','openid':'7D16713132BEF9883D7F0D2B7731B737','province':'','sex':1,'type':2}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>{"uid":1060,"is_bind":1}</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'page':'1', 'pageSize': '20', 'app_key': 'lemondream'}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>obj_id</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>手机号登录-发短信</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>/api/app/sendsms</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>首页分类tab</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_home_page_zone_list</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{
- 'device': '867672030793812',
- 'mobile': '12345678998'
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>{"zone_id":-1,"title":"推荐"}</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>手机号登录-输入验证码</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>/api/user/token</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>ABtest</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_rec_abtest</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>{
- 'smscode': '8998',
- 'device': 1,
- 'mobile': '12345678998',
- 'grant_type': 'smscode'
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>{"uid":87}</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{'scene_id':'2002'}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>用户信息</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>/api/user/profile</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>推荐tab内容</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>api/recommend/get_zone_content_list</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>{'access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>{"id","nickname"}</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'-1','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>首页banner</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>/api/banner/get_banner_list</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'4'}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1800,13 +2017,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="9"/>
     <col customWidth="1" max="2" min="2" width="19"/>
@@ -1821,236 +2038,368 @@
     <col customWidth="1" max="11" min="11" width="19"/>
     <col customWidth="1" max="13" min="12" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
+    <col customWidth="1" max="14" min="14" width="19"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>首页feed流推荐数据</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>首页</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>/api/recommend/get_recommend_content_list</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>第三方登陆</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>注册登录</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/third_login</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization, 'biData':biData}</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{'page':'1', 'pageSize': '20', 'app_key': 'lemondream'}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>obj_id</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'avatar':'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015','birthday':'2000-01-01','city':'','device':1,'nickname':'嗯啦','openid':'7D16713132BEF9883D7F0D2B7731B737','province':'','sex':1,'type':2}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"uid":1060,"is_bind":1}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'is_bind': 1, 'access_token': '3ow7dyz6muu4it44aiqwgzizj', 'refresh_token': 'wocp585z34nv3lp0cj8nr77bi', 'expires_in': 3600, 'uid': 1060}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>手机号登录-发短信</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>注册登录</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/app/sendsms</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{
+ 'device': '867672030793812',
+ 'mobile': '12345678998'
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>手机号登录-输入验证码</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>注册登录</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/token</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{
+ 'smscode': '8998',
+ 'device': 1,
+ 'mobile': '12345678998',
+ 'grant_type': 'smscode'
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"uid":87}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>用户信息</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>注册登录</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/profile</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{'access_token':token}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"id","nickname"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 1060, 'showid': 'ag1060', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'sex': 1, 'nickname': '嗯啦', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'third_type': 2, 'is_anchor': 1, 'is_anchor_ban': 0}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>sync</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>注册登录</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/sync</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{"access_token":token,"device_brand":"OPPO","location":"default","device_model":"OPPO A57","device_token":"867672030793812","device_type":1,"dreampix_device_id":"V1_d0f338928d64b38a038a772d4424891ad3e177ddb94986772c2de4256121d019"}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579444664004499', 'title': None, 'content': '最后一张没有小樱会怎样呢?', 'like_num': 1446, 'has_like': 0, 'tags': '', 'author_id': 82, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/0064cce751.jpg', 'width': 847, 'height': 2048, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1909178610', 'title': '小圆-まどか', 'content': None, 'like_num': 967, 'has_like': 0, 'tags': '', 'author_id': 93, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftk7leagxoj30xc13jx6p.jpg', 'width': 1024, 'height': 1214, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579282157004226', 'title': None, 'content': 'emmmm🤔🤔', 'like_num': 1844, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/82a1289b63.jpg', 'width': 720, 'height': 1290, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU3NzE5MjUzNDAwMTIxNzc1NCM3MjQjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910636', 'title': '想對你俯首稱臣。溢出畫面的超凡魅力特輯', 'content': None, 'like_num': 1586, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0l3daeqbhj30lc0v9n2a.jpg', 'width': 768, 'height': 1125, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190610724', 'title': 'cos预告-息红泪', 'content': '出镜 雪落阡陌摄影 流云天魔后期 爱墨妆娘 花七醉', 'like_num': 1596, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/sbQjri974Vls3g93.png', 'width': 1080, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19099745', 'title': '美图推荐——萌特辑', 'content': "今天是十月十日——萌的节日！所以小编这一期要卖萌ฅ'ω'ฅ", 'like_num': 1505, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_5bbdb3f33408f.jpg', 'width': 720, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19067180', 'title': None, 'content': '原作:碧蓝航线高雄cn:@星野saoli爱宕cn:@迷失人形QUQ摄影:@三火_皮   ', 'like_num': 1051, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_72290c8a-1ebe-41d3-aaae-9b86f5a27c90.jpg', 'width': 2000, 'height': 3000, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19067094', 'title': '阴阳师 般若 cos正片', 'content': '喂喂，来陪我玩会嘛？来嘛～如果是，美丽的我的话…会被人所喜爱吧？第一次发cos正片，跪求鼓励支持！般若:宸羽摄影:螃蟹后期:海鲜妆娘:氧气另外特别鸣谢找我替她出片的好闺蜜柒银！鸣谢阴阳师正片团所有成员的帮助！期待团片的发布！喜欢就关注我吧！', 'like_num': 1320, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/wkntV3K0tqa76UDD.jpg', 'width': 2296, 'height': 1528, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101872', 'title': '冲神-沖神', 'content': None, 'like_num': 2200, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftdmo0e6wyj30tu0zk0v7.jpg', 'width': 1024, 'height': 1220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579073963004545', 'title': None, 'content': '你的壁纸', 'like_num': 1840, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f17d4ae85b.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk2MDMyNzY2NjY1NTIzMiM0ODYjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097487', 'title': '美图推荐——画师们的收藏夹（十一）', 'content': '在这个大图库中，好顶赞的图数不胜数，真要认真每张都翻起来得累死半个人，不过俗话说得好：别人的永远是最好的，这个道理放在收藏界也不例外！画师们的收藏夹第十一期走起！', 'like_num': 2914, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_57987a9909b99.jpg', 'width': 360, 'height': 225, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19107923', 'title': '弹丸论破-ダンガンロンパ-时间2018年7月5日', 'content': None, 'like_num': 616, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftl50565njj30xc0xcqv5.jpg', 'width': 1024, 'height': 1024, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097365', 'title': '每日手机壁纸推荐第20190218期', 'content': None, 'like_num': 2616, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/61-1Z21Q0193LA.jpg', 'width': 337, 'height': 200, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1909178232', 'title': '想被夹在谷间-挟まれたい谷間', 'content': None, 'like_num': 1890, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftlaa8qk79j30m80m743y.jpg', 'width': 800, 'height': 799, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19063347', 'title': '【汉服美女图片第六十期】各处搜集的汉服图片', 'content': '汉服，全称汉民族传统服饰，起源于黄帝制衣冠，至明末清初逐渐消亡。       现代汉服在年轻人中日渐普及。现代汉服兼具时尚与传统，古典与流行，十分美丽，下面我们就来看看吧。（来源见水印，本期是汉服店铺未央令，洛水令，最后一张忘记出处了，搬运网络侵权致歉）', 'like_num': 2899, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/Z2Tx3ATdD62fjBSu.jpg', 'width': 656, 'height': 984, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190910310', 'title': '东方Project 萌系壁纸美图', 'content': None, 'like_num': 2988, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/7-1606231P914a8.jpg', 'width': 526, 'height': 497, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190630453', 'title': '转自百度', 'content': '哎呀妈呀这个是百度贴吧里的侵权删除“亲眼所见 亦非真实 ”“我的每个人格，都有记得爱你。”杰克和奈布的故事，谁又能说的准呢？、或许只有亲身演绎一番，才知其中的滋味吧？？cn：杰克：@一只从天而降的小白 佣兵：@涵涵今天吃晚饭了吗摄影/后期：@冰渣BZING￼￼￼￼￼￼￼', 'like_num': 986, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/NchSFfEWNRgBmPQ9.jpg', 'width': 640, 'height': 427, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190615895', 'title': '打上花火，请看到最后哦', 'content': '##后期接单展示# 在夜空中绽放后，又悄悄的消失。出镜:六儿酱摄影@馒头_机智的小夜猫 后期：@coser_六儿酱', 'like_num': 1871, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/CvA9ksQgXZF53icJ.jpg', 'width': 1228, 'height': 1840, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097943', 'title': '精细绘制美少女插画 电脑桌面壁纸', 'content': None, 'like_num': 1889, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/22-1612261T03R18.jpg', 'width': 350, 'height': 250, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579122731004426', 'title': None, 'content': '他们简直太美了（水经验）', 'like_num': 1310, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/24d1bb8064.jpg', 'width': 720, 'height': 976, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20157, 'tag_show_info': {'show_tag_type': 2}}}</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>首页分类tab</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>首页</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>/api/recommend/get_home_page_zone_list</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization, 'biData':biData}</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>{"zone_id":-1,"title":"推荐"}</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>首页tab内容</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>首页</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>/api/recommend/get_zone_content_list</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization, 'biData':biData}</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>{
- 'zone_id': '1',
- 'page': '1',
- 'pagesize': '20',
- 'app_key': 'lemondream_3',
- 'scene_id': '001',
- 'device_token': '867672030793812'
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>{"obj_id"}</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2073,13 +2422,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="7"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="9"/>
     <col customWidth="1" max="2" min="2" width="19"/>
@@ -2097,365 +2446,388 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>主页详情</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/user_home_page/get_user_home_page_info</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{'user_id':id['id'],'access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'user_id':id,'access_token':token}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token,id</t>
         </is>
       </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 1060, 'showid': 'ag1060', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'sex': 1, 'nickname': '嗯啦', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 6, 'receive_lemon_num': 1, 'release_content_num': 29, 'tag_list': [{'title': '推荐标签888'}], 'anchor_info': {'live_id': '2020041', 'is_online': 0}, 'is_follow': 0, 'follow_num': 14, 'fans_num': 12}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>已发布的作品列表</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/user_home_page/get_user_work_list</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{'user_id':id['id'],'page':'1','pagesize':'20','access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{'user_id':id,'page':'1','pagesize':'20','access_token':token}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token,id</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>砸柠檬列表</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/user_home_page/get_user_give_lemon_list</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>{'user_id':id['id'],'page':'1','pagesize':'20','access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{'user_id':id,'page':'1','pagesize':'20','access_token':token}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token,id</t>
         </is>
       </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>用户资源</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/user_res/get_user_res_info</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>{'access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{'access_token':token}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>banner</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/api/banner/get_banner_list</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>{'type':3,'access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{'type':3,'access_token':token}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>意见反馈</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>APP反馈</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>/api/app/feedback</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>{'content':'反馈内容','star':5,'access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>{'content':'反馈内容','star':5,'access_token':token}</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2503,316 +2875,316 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>第三方登陆</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/user/third_login</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'avatar':'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100','birthday':'2000-01-01','city':'','device':1,'nickname':'ssk','openid':'FD717EC03696FFB9E78AADEC85E6565D','province':'','sex':2,'type':2}</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{"uid":1042,"is_bind":1}</t>
         </is>
       </c>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>我的邀请详情</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/share/my_invite_reg_info</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>{"user_id":1042}</t>
         </is>
       </c>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>战绩记录列表</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/share/get_invite_reg_record_list</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>填写邀请码</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/share/submit_invite_reg_code</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{'invite_code':'EEOI6J'}</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>获取邀请码用户的信息</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/api/share/get_invite_reg_uinfo</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{'share_token':'MTA0Mg=='}</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2860,97 +3232,97 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>创建视频直播间</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>直播</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/live_broadcast/create_broadcasting</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -2962,7 +3334,7 @@
 }</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{
  'bgm_img': 'http://psb1lisd3.bkt.clouddn.com/live_broadcast/bgm/100.png',
@@ -2976,50 +3348,50 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>live_id</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>创建直播间组</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>直播</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/live_broadcast/create_group</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -3031,51 +3403,51 @@
 }</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{'live_id':live_id['live_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token,live_id</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>获取直播间信息</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>直播</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/live_broadcast/get_studio_info</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -3087,51 +3459,51 @@
 }</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{'live_id':live_id['live_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token,live_id</t>
         </is>
       </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>开启直播间</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>直播</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/live_broadcast/start_broadcasting</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -3143,47 +3515,47 @@
 }</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{'live_id':live_id['live_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token,live_id</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>关闭直播间</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/api/live_broadcast/stop_broadcasting</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -3195,47 +3567,47 @@
 }</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{'live_id':live_id['live_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token,live_id</t>
         </is>
       </c>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>关获取直播间关闭信息</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>/api/live_broadcast/get_studio_close_info</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -3247,25 +3619,25 @@
 }</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>{'live_id':live_id['live_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>access_token,live_id</t>
         </is>
       </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3313,97 +3685,97 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>配音tab</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/voice_template/get_tab_list</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -3415,51 +3787,51 @@
 }</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'page':'1','pagesize':'20','access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>配音模板</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/voice_template/get_voice_template_list</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{
  'versionCode': 'android_1.0.0',
@@ -3471,25 +3843,25 @@
 }</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{'tab_id':'3','page':'1','pagesize':'20','access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3507,6 +3879,259 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="19"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="7" min="7" width="19"/>
+    <col customWidth="1" max="8" min="8" width="19"/>
+    <col customWidth="1" max="9" min="9" width="9"/>
+    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="11" min="11" width="19"/>
+    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="13" width="9"/>
+    <col customWidth="1" max="14" min="14" width="19"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="40" r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>请求类型</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>请求头</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>请求参数</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>需要保存的返回字段</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>数据依赖字段</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>是否运行</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="2">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>爬虫内容</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/get_external_content_info</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'content_id':'190652561','access_token':token['access_token']}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>爬虫内容</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/get_external_content_new_comment_list</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{'content_id':'190652561','access_token':token['access_token'],'page':1,'pagesize':20}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>爬虫内容</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_relate_rec_content_list</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a03', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'9','obj_id':'190652561','app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3537,526 +4162,267 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>漫画详情页</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/comic/get_comic_single_info</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token,comic_id</t>
         </is>
       </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>漫画评论</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/comic/get_comic_single_new_comment_list</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token,comic_id</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>快速评论词</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/comment/get_comment_default_word_list</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{'access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>相关推荐</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_relate_rec_content_list</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{'type':'4','obj_id':comic_id['comic_id'],'app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token,comic_id</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0">
-    <oddHeader>&amp;C&amp;P</oddHeader>
-    <oddFooter>&amp;C&amp;F</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="19"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="8" min="6" width="19"/>
-    <col customWidth="1" max="7" min="7" width="19"/>
-    <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="9"/>
-    <col customWidth="1" max="11" min="10" width="19"/>
-    <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" width="9"/>
-    <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" width="19"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>case_name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>模块</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>请求类型</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>请求头</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>请求参数</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>需要保存的返回字段</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>数据依赖字段</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>预期结果</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>实际结果</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>是否运行</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>测试结果</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>漫剧详情页</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>漫剧</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>/api/adventure/get_game_single_info</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{'single_id':adventure_id['adventure_id'],'access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>access_token,adventure_id</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>漫剧评论</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>漫剧</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>/api/adventure/get_game_single_new_comment_list</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{'single_id':adventure_id['adventure_id'],'access_token':token['access_token'],'page':1,'pagesize':20}</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>access_token,adventure_id</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>相关推荐</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>漫剧</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>/api/recommend/get_relate_rec_content_list</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>{'type':'2','obj_id':adventure_id['adventure_id'],'app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>access_token,adventure_id</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="8370" windowWidth="20385"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet name="app通用" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="首页" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="注册登录" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="个人空间页" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="邀请好友注册" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="直播" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="内容创作" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="内容创作" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="邀请好友注册" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="直播" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="爬虫内容" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="漫画" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="漫剧" sheetId="10" state="visible" r:id="rId10"/>
@@ -45,15 +45,21 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -62,7 +68,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,8 +88,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -98,14 +103,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -113,24 +110,17 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +136,30 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,14 +173,8 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -181,15 +188,8 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +208,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,115 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,17 +402,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,6 +415,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -436,6 +456,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -458,192 +493,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="164">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="23" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="17" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="20" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="14" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="10" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="19" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,7 +978,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json','channel': 'default', 'X-Token': '', 'Authorization': Authorization, 'biData':biData}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json','channel': 'default', 'X-Token': '', 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '485142510342'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '48504a590b42'}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': None, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1586760966#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1586685190}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 8, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/expression/05a5628086a9c935eaae132c1c899911.png', 'emoji_list': [{'emoji': 550, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/01.svga'}, {'emoji': 551, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/02.svga'}, {'emoji': 552, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/03.svga'}, {'emoji': 553, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/04.svga'}, {'emoji': 554, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/05.svga'}, {'emoji': 555, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/06.svga'}, {'emoji': 556, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/07.svga'}, {'emoji': 557, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/08.svga'}, {'emoji': 558, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/09.svga'}, {'emoji': 559, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/10.svga'}, {'emoji': 560, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/11.svga'}, {'emoji': 561, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 50, 'mtime': 1582877567, 'is_big': 0, 'is_dynamic': 1}, {'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ffc99adeae1bbcf3e5d132c3707cc3c6.jpeg', 'emoji_list': [{'emoji': 529, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/266570269943bc54d2504af4934b698b.png', 'status': 1, 'sort': 6, 'mtime': 1566285946, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d68c62bdaa032b55eb340847e6adae92.png', 'status': 1, 'sort': 5, 'mtime': 1566285896, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0b4945fddf836e5e8b3cf62a03944ad.png', 'status': 1, 'sort': 4, 'mtime': 1566285830, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/569ce9c8a1597ad1b1bc96da5cdd9f00.png', 'status': 1, 'sort': 3, 'mtime': 1566285817, 'emoji_url': ''}, {'emoji': 525, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3dce3d7e58e38f821230fd0d02520ad9.png', 'status': 1, 'sort': 2, 'mtime': 1566285535, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d79aaa21775a51b6ca8a8cedbc5900b.png', 'status': 1, 'sort': 1, 'mtime': 1566367219, 'emoji_url': ''}], 'status': 0, 'sort': 11, 'mtime': 1566367219, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 5, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8d214494b577a02ba64e650318eae42f.png', 'emoji_list': [{'emoji': 538, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3fa0dfa27d8fd638d8da48b20bd6efca.png', 'status': 1, 'sort': 10, 'mtime': 1566367231, 'emoji_url': ''}, {'emoji': 539, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e71263a63516acac9b0df8e71b51c89.png', 'status': 1, 'sort': 10, 'mtime': 1566353239, 'emoji_url': ''}, {'emoji': 540, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/9800e643e1a1cd071e4e55aac8563673.png', 'status': 1, 'sort': 10, 'mtime': 1566353247, 'emoji_url': ''}, {'emoji': 541, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/458da521e30a6da1e583a826604dda2a.png', 'status': 1, 'sort': 10, 'mtime': 1566358782, 'emoji_url': ''}, {'emoji': 542, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e362c4b3e6438f480afa3e6b4e70ed8e.png', 'status': 1, 'sort': 10, 'mtime': 1566353351, 'emoji_url': ''}, {'emoji': 543, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b51db99c04163cad156b4100e8369b1e.png', 'status': 1, 'sort': 10, 'mtime': 1566353268, 'emoji_url': ''}, {'emoji': 544, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/94b5f4e0c3ffa14962cbec85db085ccf.png', 'status': 1, 'sort': 10, 'mtime': 1566353275, 'emoji_url': ''}, {'emoji': 545, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c13013e590e4c72ed20192be10064cf5.png', 'status': 1, 'sort': 10, 'mtime': 1566358997, 'emoji_url': ''}, {'emoji': 546, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ecc2852366cab53feec85d88ce54348b.png', 'status': 0, 'sort': 10, 'mtime': 1566442870, 'emoji_url': ''}], 'status': 1, 'sort': 10, 'mtime': 1566562782, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1586760967}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -1585,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1718,13 +1718,21 @@
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191049772', 'title': None, 'content': '老妈偷偷给我的300块', 'like_num': 2810, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9ede7337dc.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2334750.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190629463', 'title': '面码 纱裙 COS', 'content': '我不喜欢下雨天，尤其是秋天的雨。但还好有你，让我觉得今天还没有很糟糕。', 'like_num': 2707, 'has_like': 0, 'tags': '', 'author_id': 16, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yAw40HNMyPF1TlwK.jpg', 'width': 708, 'height': 1064, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190647166', 'title': '月泷泷月', 'content': '高月&amp;千泷灵魂的交流吧和cp一起拍的也是旧图全套大图请移步微博：oyasumi喵', 'like_num': 1976, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/DNBVELXCUEGZPCGN.jpg', 'width': 640, 'height': 2294, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '190911710', 'title': '约会大作战 电脑壁纸', 'content': None, 'like_num': 1736, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/7-160ZG444344I.jpg', 'width': 445, 'height': 342, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190629737', 'title': '【cos试妆】你们是不是都喜欢我妹妹呀？', 'content': '是拉姆', 'like_num': 1545, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/lgs2g1NeDbEzqoU9.jpg', 'width': 1440, 'height': 2560, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190916879', 'title': ' 【画师】-931043', 'content': None, 'like_num': 1268, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/c4ca4238a0b923820dcc509a6f75849b-2-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1579784109004921', 'title': None, 'content': '新人报道第一天，是时候贡献一波了', 'like_num': 2656, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/52c36e0560.jpg', 'width': 800, 'height': 1027, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191073568', 'title': None, 'content': '一句我想你了，可以跨过山河大海，异地恋没你想的那么难', 'like_num': 2474, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/19c099f6e7.jpg', 'width': 640, 'height': 938, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2416500.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190911310', 'title': 'LOL德玛西亚之力壁纸', 'content': None, 'like_num': 1929, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/13-16120Q426270-L.jpg', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1580985605004290', 'title': None, 'content': '我要退这个坑了，\n和这个没有一点关系了\n我至少会记得\n我曾经喜欢过《我的英雄学院》这个番剧\n我喜欢过里面的人物，\n但现在再见了\n啊不\n永远不见', 'like_num': 1265, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7474dd0d60.jpg', 'width': 800, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190917848', 'title': ' 【动漫】9月11日 日榜及杂图', 'content': None, 'like_num': 1120, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/a08c82267a740337581cf5c7e6424b77-800x566.jpg', 'width': 800, 'height': 566, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191059411', 'title': None, 'content': '可能这就是远古的声音吧。', 'like_num': 1106, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d6f3a43941.jpg', 'width': 304, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2346700.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1583818496004406', 'title': None, 'content': '有大佬知道这是什么番剧啊，我化学老师头像，有点好奇', 'like_num': 570, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/f75216667b.jpg', 'width': 754, 'height': 754, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190648490', 'title': '【cos试装】lol星之守护者辛德拉', 'content': '明天去拍片手臂的纹身贴还没掉，十分尴尬了头饰是自己随便做的', 'like_num': 2243, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/KCJGMYKAXYXNSWSG.jpg', 'width': 2109, 'height': 2109, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190915858', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2909, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/57009eea00636d5d302e16d2e8a8a44a-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1579797750004170', 'title': None, 'content': '萝莉一波', 'like_num': 1704, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/55489bd099.jpg', 'width': 283, 'height': 400, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583902582004371', 'title': None, 'content': '这是神马操作', 'like_num': 830, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/12d110b88b.jpg', 'width': 240, 'height': 240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191118220', 'title': None, 'content': '天太冷 出镜只录到膝盖 所以………一定要看完…', 'like_num': 716, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0dbbec570e.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/292670.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1581487226004465', 'title': None, 'content': '来孩子们喝酒！', 'like_num': 1519, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/aae06f6f8d.jpg', 'width': 1010, 'height': 661, 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+        </is>
+      </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="3" t="n"/>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="3">
       <c r="A3" s="3" t="n">
@@ -1752,7 +1760,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -1763,13 +1771,21 @@
           <t>{"zone_id":-1,"title":"推荐"}</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20191', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 3, 'title': 'Cosplay', 'scence_info': {'scence_id': '2001003004', 'act_id': '20192', 'maidian_name': 'disp_030', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_cos', 'event_id': '001'}}, {'zone_id': 4, 'title': '段子', 'scence_info': {'scence_id': '2001003007', 'act_id': '20195', 'maidian_name': 'disp_033', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_duanzi', 'event_id': '001'}}, {'zone_id': 5, 'title': '插画', 'scence_info': {'scence_id': '2001003005', 'act_id': '20193', 'maidian_name': 'disp_031', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_chahua', 'event_id': '001'}}, {'zone_id': 6, 'title': '动漫', 'scence_info': {'scence_id': '2001003006', 'act_id': '20194', 'maidian_name': 'disp_032', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_dongman', 'event_id': '001'}}], 'act_id': 20135, 'serviceId': '19'}}</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="3" t="n"/>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="4">
       <c r="A4" s="3" t="n">
@@ -1797,7 +1813,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -1808,13 +1824,21 @@
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 0, 'style_type': 2}, 'read_style_abtest': {'act_id': 20086, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
+        </is>
+      </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M4" s="3" t="n"/>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="5">
       <c r="A5" s="3" t="n">
@@ -1832,7 +1856,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>api/recommend/get_zone_content_list</t>
+          <t>/api/recommend/get_zone_content_list</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -1842,7 +1866,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -1853,13 +1877,21 @@
       <c r="H5" s="3" t="n"/>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [], 'act_id': 0}}</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M5" s="3" t="n"/>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="6">
       <c r="A6" s="3" t="n">
@@ -1887,7 +1919,7 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -1898,13 +1930,21 @@
       <c r="H6" s="3" t="n"/>
       <c r="I6" s="3" t="n"/>
       <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 4, 'title_image': 'http://demo.lemondream.cn/live/1dfc2cb5621ee264ba1e18279dd850fb.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonFacialMatch/index.html?timestamp=1586745491#/main', 'jump_type': 0, 'rule_title': '', 'rule_detail': '', 'banner_id': 9}, {'type': 4, 'title_image': 'http://demo.lemondream.cn/expression/dd8b6315471c5089f9baaa77a1cb3cb2.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 4}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/cos_banner_01.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 3}]}}</t>
+        </is>
+      </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M6" s="3" t="n"/>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="7">
       <c r="A7" s="3" t="n"/>
@@ -2020,7 +2060,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
@@ -2134,7 +2174,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -2155,7 +2195,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'is_bind': 1, 'access_token': '3ow7dyz6muu4it44aiqwgzizj', 'refresh_token': 'wocp585z34nv3lp0cj8nr77bi', 'expires_in': 3600, 'uid': 1060}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'is_bind': 1, 'access_token': '191slnpnxbw9xhd038f5ivq30', 'refresh_token': 'o3x4seaec1kdzewh1egfk0w37', 'expires_in': 3600, 'uid': 1060}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -2195,7 +2235,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -2243,7 +2283,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -2301,7 +2341,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -2366,7 +2406,7 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -2422,13 +2462,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="9"/>
     <col customWidth="1" max="2" min="2" width="19"/>
@@ -2538,24 +2578,28 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{'user_id':id,'access_token':token}</t>
+          <t>{'user_id':uid,'access_token':token}</t>
         </is>
       </c>
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>access_token,id</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="n"/>
+          <t>access_token,uid</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"id","showid","avatar"}</t>
+        </is>
+      </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 1060, 'showid': 'ag1060', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'sex': 1, 'nickname': '嗯啦', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 6, 'receive_lemon_num': 1, 'release_content_num': 29, 'tag_list': [{'title': '推荐标签888'}], 'anchor_info': {'live_id': '2020041', 'is_online': 0}, 'is_follow': 0, 'follow_num': 14, 'fans_num': 12}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 1060, 'showid': 'ag1060', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'sex': 1, 'nickname': '嗯啦', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 6, 'receive_lemon_num': 1, 'release_content_num': 47, 'tag_list': [{'title': '推荐标签888'}], 'anchor_info': {'live_id': '2020041', 'is_online': 0}, 'is_follow': 0, 'follow_num': 14, 'fans_num': 12}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -2595,28 +2639,40 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>{'user_id':id,'page':'1','pagesize':'20','access_token':token}</t>
+          <t>{'user_id':uid,'page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>access_token,id</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
+          <t>access_token,uid</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '200441', 'title': '1586759346913', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200440', 'title': '1586759294560', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200439', 'title': '1586758802291', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200438', 'title': '1586758755005', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200437', 'title': '1586758716838', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200436', 'title': '1586758677703', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200435', 'title': '1586758564752', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200434', 'title': '1586758519173', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200433', 'title': '1586758438929', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200432', 'title': '1586758366702', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200431', 'title': '1586758276189', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200430', 'title': '1586749809391', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200429', 'title': '1586749786337', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200428', 'title': '1586749750704', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200427', 'title': '1586749683038', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200425', 'title': '1586749049339', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200424', 'title': '06133', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200423', 'title': '06133', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2003235', 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280}, {'obj_id': '2003234', 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650}]}</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="4">
       <c r="A4" s="3" t="n">
@@ -2644,28 +2700,40 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>{'user_id':id,'page':'1','pagesize':'20','access_token':token}</t>
+          <t>{'user_id':uid,'page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>access_token,id</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
+          <t>access_token,uid</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': '4', 'obj_id': '77851917', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '11', 'obj_id': '1908172', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '11', 'obj_id': '190937', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '14', 'obj_id': '190914', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '9', 'obj_id': '190652757', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '7', 'obj_id': '1907104335', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}]}}</t>
+        </is>
+      </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="5">
       <c r="A5" s="3" t="n">
@@ -2673,7 +2741,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>用户资源</t>
+          <t>banner</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -2683,7 +2751,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>/api/user_res/get_user_res_info</t>
+          <t>/api/banner/get_banner_list</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -2693,12 +2761,12 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>{'access_token':token}</t>
+          <t>{'type':3,'access_token':token}</t>
         </is>
       </c>
       <c r="H5" s="3" t="n"/>
@@ -2707,14 +2775,26 @@
           <t>access_token</t>
         </is>
       </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="6">
       <c r="A6" s="3" t="n">
@@ -2722,7 +2802,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>banner</t>
+          <t>意见反馈</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -2732,7 +2812,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>/api/banner/get_banner_list</t>
+          <t>/api/app/feedback</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -2742,12 +2822,12 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>{'type':3,'access_token':token}</t>
+          <t>{'content':'反馈内容','star':5,'access_token':token}</t>
         </is>
       </c>
       <c r="H6" s="3" t="n"/>
@@ -2756,14 +2836,26 @@
           <t>access_token</t>
         </is>
       </c>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="7">
       <c r="A7" s="3" t="n">
@@ -2771,17 +2863,17 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>意见反馈</t>
+          <t>用户资源</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>APP反馈</t>
+          <t>个人空间</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>/api/app/feedback</t>
+          <t>/api/user_res/get_user_res_info</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -2791,12 +2883,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>{'content':'反馈内容','star':5,'access_token':token}</t>
+          <t>{'access_token':token}</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -2805,29 +2897,435 @@
           <t>access_token</t>
         </is>
       </c>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_res_info': {'copper': '29734', 'silver': '9900', 'gold': '91.39'}, 'lemon_res_desc': '&lt;p&gt;青柠，是柠檬精平台的通用货币，目前青柠的唯一来源是通过参与平台内的活动、任务而获得。青柠目前可用于购买直播间特定礼物等消耗，或者按照平台的比例兑换成人民币提现。&lt;/p&gt;&lt;p&gt;金条，是柠檬精充值平台的中间货币，目前金条的唯一来源是通过充值获得。充值即视为消费，不予退款。当您在柠檬精平台直播间进行礼物打赏时，可直接用于支付。金条，不能用于兑换人民币提现。&lt;/p&gt;&lt;p&gt;彩钻，是用户通过直播表演，获得礼物后，所产生的货币。彩钻可按照平台的比例兑换成人民币提现。&lt;/p&gt;', 'withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1586760543#/czDrawCash'}, 'copper_withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1586760543#/qnDrawCash'}}}</t>
+        </is>
+      </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>充值资源商品列表</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_res/get_charge_scales</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{'page':'1','pagesize':'21','access_token':token}</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>{"rmb_num","item_id","silver_num"}</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'rmb_num': 0.01, 'item_id': '1', 'silver_num': 1, 'icon_text': ''}, {'rmb_num': 0.06, 'item_id': '2', 'silver_num': 6, 'icon_text': ''}, {'rmb_num': 0.15, 'item_id': '5', 'silver_num': 15, 'icon_text': ''}, {'rmb_num': 0.36, 'item_id': '6', 'silver_num': 36, 'icon_text': ''}, {'rmb_num': 0.88, 'item_id': '7', 'silver_num': 88, 'icon_text': ''}, {'rmb_num': 2.18, 'item_id': '8', 'silver_num': 218, 'icon_text': ''}, {'rmb_num': 5, 'item_id': '11', 'silver_num': 500, 'icon_text': ''}]}}</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>用户青柠收支记录</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_res/get_user_res_record_list</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'1','page':'1','pagesize':'20','access_token':token}</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20200383', 'log_pay_type': 1, 'log_type': '1_1_9', 'log_time': 1585044065, 'res_type': 1, 'res_val': 1000, 'rmb_num': '', 'log_type_name': '活动获奖'}, {'log_id': '20200367', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028684, 'res_type': 1, 'res_val': 5, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200365', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028677, 'res_type': 1, 'res_val': 35, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200366', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028677, 'res_type': 1, 'res_val': 18, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200363', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028647, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200364', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028647, 'res_type': 1, 'res_val': 18, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001325', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579080442, 'res_type': 1, 'res_val': 971, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001297', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071476, 'res_type': 1, 'res_val': 20, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001296', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071286, 'res_type': 1, 'res_val': 15, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001295', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071178, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001294', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071151, 'res_type': 1, 'res_val': 5, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001137', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478227, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001133', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478226, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001131', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478226, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001132', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478226, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001112', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001111', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001110', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001126', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001116', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}]}}</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>用户金条收支记录</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_res/get_user_res_record_list</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'2','page':'1','pagesize':'20','access_token':token}</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20191217', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774853, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 半屏特效C', '支出对象：  用户ID84', '创建时间：  2019-12-31 14:47:33', '订单编号：  201912_67']}}, {'log_id': '20191216', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774803, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 半屏特效C', '支出对象：  用户ID85', '创建时间：  2019-12-31 14:46:43', '订单编号：  201912_65']}}, {'log_id': '20191215', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774744, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 半屏特效C', '支出对象：  用户ID85', '创建时间：  2019-12-31 14:45:44', '订单编号：  201912_63']}}, {'log_id': '20191214', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774697, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/eea45d7d87b36a3e60f4a99a106737c6.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 2', '支出对象：  用户ID85', '创建时间：  2019-12-31 14:44:57', '订单编号：  201912_61']}}, {'log_id': '20191213', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774423, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/eea45d7d87b36a3e60f4a99a106737c6.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 2', '支出对象：  用户ID84', '创建时间：  2019-12-31 14:40:23', '订单编号：  201912_60']}}, {'log_id': '201911160', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183951, 'res_type': 2, 'res_val': 2, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/eea45d7d87b36a3e60f4a99a106737c6.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:32:31', '订单编号：  201911_157']}}, {'log_id': '201911159', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1573183938, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-08 11:32:18', '订单编号：  177-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '201911158', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183917, 'res_type': 2, 'res_val': 40, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:31:57', '订单编号：  201911_156']}}, {'log_id': '201911157', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1573183916, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-08 11:31:56', '订单编号：  176-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '201911156', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183885, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:31:25', '订单编号：  201911_155']}}, {'log_id': '201911155', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183749, 'res_type': 2, 'res_val': 330, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift14.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:29:09', '订单编号：  201911_154']}}, {'log_id': '201911154', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1573183321, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-08 11:22:01', '订单编号：  174-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '20191179', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1572920521, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-05 10:22:01', '订单编号：  145-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '20191171', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861254, 'res_type': 2, 'res_val': 6, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/111e78092c006d61708b0d8ed2885ec1.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:54:14', '订单编号：  201911_66']}}, {'log_id': '20191169', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861250, 'res_type': 2, 'res_val': 8, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/73f380e5bae93f5de9582215c840d259.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:54:10', '订单编号：  201911_64']}}, {'log_id': '20191163', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861081, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:51:21', '订单编号：  201911_53']}}, {'log_id': '20191158', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861035, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:50:35', '订单编号：  201911_48']}}, {'log_id': '20191157', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572860961, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:49:21', '订单编号：  201911_47']}}, {'log_id': '20191156', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572860956, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:49:16', '订单编号：  201911_46']}}, {'log_id': '20191153', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572860631, 'res_type': 2, 'res_val': 6, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/111e78092c006d61708b0d8ed2885ec1.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:43:51', '订单编号：  201911_43']}}]}}</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>用户彩钻收支记录</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_res/get_user_res_record_list</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'3','page':'1','pagesize':'20','access_token':token}</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '2020011', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1577935560, 'res_type': 3, 'res_val': 0.65, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191145', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573032026, 'res_type': 3, 'res_val': 0.13, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191144', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573031997, 'res_type': 3, 'res_val': 0.13, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191120', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572867487, 'res_type': 3, 'res_val': 21.45, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191119', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572867436, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191118', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572867350, 'res_type': 3, 'res_val': 21.45, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191117', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572863291, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019119', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572603677, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019118', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572603002, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019117', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572602974, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019116', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572602489, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191029', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503705, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191028', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503695, 'res_type': 3, 'res_val': 0.13, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191027', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503563, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191026', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503462, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191025', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503311, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191024', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503168, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191023', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572502930, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191022', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572502891, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191021', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572502779, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}]}}</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="22">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2845,6 +3343,351 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
+    <col customWidth="1" max="7" min="7" width="19"/>
+    <col customWidth="1" max="8" min="8" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
+    <col customWidth="1" max="11" min="11" width="19"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
+    <col customWidth="1" max="13" min="13" width="9"/>
+    <col customWidth="1" max="14" min="14" style="2" width="19"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9.142857142857141"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="40" r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>请求类型</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>请求头</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>请求参数</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>需要保存的返回字段</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>数据依赖字段</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>是否运行</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>配音tab</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>内容创作</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/voice_template/get_tab_list</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'page':'1','pagesize':'20','access_token':token}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'tab_id': 5, 'title': '校园'}, {'tab_id': 8, 'title': '牛批轰轰'}, {'tab_id': 7, 'title': '不开心'}, {'tab_id': 6, 'title': '骚里骚气'}, {'tab_id': 3, 'title': '漫画'}, {'tab_id': 4, 'title': '漫剧'}]}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>配音模板</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>内容创作</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/voice_template/get_voice_template_list</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{'page':'1','pagesize':'20','access_token':token}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>access_token,id</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>发布内容</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>内容创作</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/release_content/add_content_info</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{"create_type":1,"desc":"2020","img_list":"[{\"u\":\"user\/88\/image\/edb1285c7a7e48d19de11f45b4fb6819.jpg\",\"w\":1080,\"h\":1920}]","is_open":0,"material_json":"user\/88\/data\/0092f2c4eaa0486c8219cadaf1819d28.json","material_type":"","title":timestamp,"title_image":"{\"u\":\"user\/88\/image\/f808471729d44cef9e9087ac114367a3.jpg\",\"w\":1080,\"h\":1920}","type":11,"access_token":token}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>obj_id</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>access_token,timestamp</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '200441', 'title': '1586759346913', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>用户发布内容详情</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>内容创作</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/release_content/get_content_info</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{"release_id":release_id,"access_token":token}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>access_token,release_id</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'type': 11, 'title': '1586759346913', 'desc': '2020', 'material_json': 'http://psb1lisd3.bkt.clouddn.com/user\\\\/88\\\\/data\\\\/0092f2c4eaa0486c8219cadaf1819d28.json', 'is_open': 0, 'source_obj_type': 0, 'source_obj_id': '', 'like_num': 0, 'lemon_num': 0, 'has_like': 0, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'img_list_obj': [{'url': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/edb1285c7a7e48d19de11f45b4fb6819.jpg', 'max_height': 1920, 'max_width': 1080}], 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}, 'user_id': 1060, 'tags': '', 'has_share': 0, 'has_give_lemon': 0, 'allow_share_img': 1, 'allow_save_img': 0, 'is_allow_download': 0, 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1586759551#/invitation/MjAwNDQx?mode=DEMO&amp;product_type=2'}}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3201,7 +4044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3638,230 +4481,6 @@
         </is>
       </c>
       <c r="M7" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0">
-    <oddHeader>&amp;C&amp;P</oddHeader>
-    <oddFooter>&amp;C&amp;F</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="2"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="19"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="8" min="6" width="19"/>
-    <col customWidth="1" max="7" min="7" width="19"/>
-    <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="9"/>
-    <col customWidth="1" max="11" min="10" width="19"/>
-    <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" width="9"/>
-    <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" width="19"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>case_name</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>模块</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>请求类型</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>请求头</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>请求参数</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>需要保存的返回字段</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>数据依赖字段</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>预期结果</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>实际结果</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>是否运行</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>测试结果</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>配音tab</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>内容创作</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>/api/voice_template/get_tab_list</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>{
- 'versionCode': 'android_1.0.0',
- 'Token': '4b5e4c5a02',
- 'Authorization': Authorization,
- 'Content-Type': 'application/json',
- 'User-Agent': 'okhttp/3.12.0',
- 'Connection': 'keep-alive'
-}</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{'page':'1','pagesize':'20','access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>配音模板</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>内容创作</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>/api/voice_template/get_voice_template_list</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>{
- 'versionCode': 'android_1.0.0',
- 'Token': '4b5e4c5a02',
- 'Authorization': Authorization,
- 'Content-Type': 'application/json',
- 'User-Agent': 'okhttp/3.12.0',
- 'Connection': 'keep-alive'
-}</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{'tab_id':'3','page':'1','pagesize':'20','access_token':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="8370" windowWidth="20385"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet name="app通用" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,8 @@
     <sheet name="注册登录" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="个人空间页" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="内容创作" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="h5配音活动" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="h5cos赛道" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="h5cos赛道" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="h5配音活动" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="邀请好友注册" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="漫画" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="漫剧" sheetId="10" state="visible" r:id="rId10"/>
@@ -30,7 +30,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <name val="Arial"/>
       <charset val="0"/>
@@ -44,8 +44,26 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <sz val="10"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -64,15 +82,8 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,14 +98,15 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -108,38 +120,8 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +146,29 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,8 +181,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -187,14 +190,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +208,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,31 +244,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,31 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,49 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,43 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +399,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,6 +452,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,214 +499,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="12" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="23" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="167">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="21" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="22" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,13 +655,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,327 +977,327 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="9"/>
-    <col customWidth="1" max="2" min="2" style="3" width="19"/>
-    <col customWidth="1" max="3" min="3" style="3" width="9"/>
-    <col customWidth="1" max="4" min="4" style="3" width="19"/>
-    <col customWidth="1" max="5" min="5" style="3" width="9"/>
-    <col customWidth="1" max="8" min="6" style="3" width="19"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" style="3" width="9"/>
-    <col customWidth="1" max="11" min="10" style="3" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" style="3" width="9"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" style="3" width="19"/>
-    <col customWidth="1" max="16384" min="15" style="3" width="9.142857142857141"/>
+    <col customWidth="1" max="14" min="14" style="2" width="19"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9.142857142857141"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>install</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>app通用</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/app/install</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json','channel': 'default', 'X-Token': '', 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{"device_token":"867672030793812","dreampix_device_id":"V1_d0f338928d64b38a038a772d4424891ad3e177ddb94986772c2de4256121d019","nonce":"k5427if","timestamp":timestamp}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>guest_id</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功1"}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '4b594b590b4a'}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>get_module_unread</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>app通用</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/app/get_module_unread</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{"access_token":""}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>{"flow_window_activity","fans_module"}</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362100#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>emoji_package</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>app通用</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/emoji_package/get_emoji_package_list</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{"last_time":"0"}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"package_id","title_image","emoji_list"}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 8, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/expression/05a5628086a9c935eaae132c1c899911.png', 'emoji_list': [{'emoji': 550, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/01.svga'}, {'emoji': 551, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/02.svga'}, {'emoji': 552, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/03.svga'}, {'emoji': 553, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/04.svga'}, {'emoji': 554, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/05.svga'}, {'emoji': 555, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/06.svga'}, {'emoji': 556, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/07.svga'}, {'emoji': 557, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/08.svga'}, {'emoji': 558, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/09.svga'}, {'emoji': 559, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/10.svga'}, {'emoji': 560, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/11.svga'}, {'emoji': 561, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 50, 'mtime': 1582877567, 'is_big': 0, 'is_dynamic': 1}, {'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ffc99adeae1bbcf3e5d132c3707cc3c6.jpeg', 'emoji_list': [{'emoji': 529, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/266570269943bc54d2504af4934b698b.png', 'status': 1, 'sort': 6, 'mtime': 1566285946, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d68c62bdaa032b55eb340847e6adae92.png', 'status': 1, 'sort': 5, 'mtime': 1566285896, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0b4945fddf836e5e8b3cf62a03944ad.png', 'status': 1, 'sort': 4, 'mtime': 1566285830, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/569ce9c8a1597ad1b1bc96da5cdd9f00.png', 'status': 1, 'sort': 3, 'mtime': 1566285817, 'emoji_url': ''}, {'emoji': 525, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3dce3d7e58e38f821230fd0d02520ad9.png', 'status': 1, 'sort': 2, 'mtime': 1566285535, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d79aaa21775a51b6ca8a8cedbc5900b.png', 'status': 1, 'sort': 1, 'mtime': 1566367219, 'emoji_url': ''}], 'status': 0, 'sort': 11, 'mtime': 1566367219, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 5, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8d214494b577a02ba64e650318eae42f.png', 'emoji_list': [{'emoji': 538, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3fa0dfa27d8fd638d8da48b20bd6efca.png', 'status': 1, 'sort': 10, 'mtime': 1566367231, 'emoji_url': ''}, {'emoji': 539, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e71263a63516acac9b0df8e71b51c89.png', 'status': 1, 'sort': 10, 'mtime': 1566353239, 'emoji_url': ''}, {'emoji': 540, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/9800e643e1a1cd071e4e55aac8563673.png', 'status': 1, 'sort': 10, 'mtime': 1566353247, 'emoji_url': ''}, {'emoji': 541, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/458da521e30a6da1e583a826604dda2a.png', 'status': 1, 'sort': 10, 'mtime': 1566358782, 'emoji_url': ''}, {'emoji': 542, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e362c4b3e6438f480afa3e6b4e70ed8e.png', 'status': 1, 'sort': 10, 'mtime': 1566353351, 'emoji_url': ''}, {'emoji': 543, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b51db99c04163cad156b4100e8369b1e.png', 'status': 1, 'sort': 10, 'mtime': 1566353268, 'emoji_url': ''}, {'emoji': 544, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/94b5f4e0c3ffa14962cbec85db085ccf.png', 'status': 1, 'sort': 10, 'mtime': 1566353275, 'emoji_url': ''}, {'emoji': 545, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c13013e590e4c72ed20192be10064cf5.png', 'status': 1, 'sort': 10, 'mtime': 1566358997, 'emoji_url': ''}, {'emoji': 546, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ecc2852366cab53feec85d88ce54348b.png', 'status': 0, 'sort': 10, 'mtime': 1566442870, 'emoji_url': ''}], 'status': 1, 'sort': 10, 'mtime': 1566562782, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1587362101}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="5" s="2">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>get_home_page_alert</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>app通用</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/home_page/get_home_page_alert</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{"device_token":"867672030793812"}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '48504a51074a'}}</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>get_module_unread</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>app通用</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>/api/app/get_module_unread</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>{"access_token":""}</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>{"flow_window_activity","fans_module"}</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1586763943#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>emoji_package</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>app通用</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>/api/emoji_package/get_emoji_package_list</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>{"last_time":"0"}</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>{"package_id","title_image","emoji_list"}</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 8, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/expression/05a5628086a9c935eaae132c1c899911.png', 'emoji_list': [{'emoji': 550, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/01.svga'}, {'emoji': 551, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/02.svga'}, {'emoji': 552, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/03.svga'}, {'emoji': 553, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/04.svga'}, {'emoji': 554, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/05.svga'}, {'emoji': 555, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/06.svga'}, {'emoji': 556, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/07.svga'}, {'emoji': 557, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/08.svga'}, {'emoji': 558, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/09.svga'}, {'emoji': 559, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/10.svga'}, {'emoji': 560, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/11.svga'}, {'emoji': 561, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 50, 'mtime': 1582877567, 'is_big': 0, 'is_dynamic': 1}, {'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ffc99adeae1bbcf3e5d132c3707cc3c6.jpeg', 'emoji_list': [{'emoji': 529, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/266570269943bc54d2504af4934b698b.png', 'status': 1, 'sort': 6, 'mtime': 1566285946, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d68c62bdaa032b55eb340847e6adae92.png', 'status': 1, 'sort': 5, 'mtime': 1566285896, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0b4945fddf836e5e8b3cf62a03944ad.png', 'status': 1, 'sort': 4, 'mtime': 1566285830, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/569ce9c8a1597ad1b1bc96da5cdd9f00.png', 'status': 1, 'sort': 3, 'mtime': 1566285817, 'emoji_url': ''}, {'emoji': 525, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3dce3d7e58e38f821230fd0d02520ad9.png', 'status': 1, 'sort': 2, 'mtime': 1566285535, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d79aaa21775a51b6ca8a8cedbc5900b.png', 'status': 1, 'sort': 1, 'mtime': 1566367219, 'emoji_url': ''}], 'status': 0, 'sort': 11, 'mtime': 1566367219, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 5, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8d214494b577a02ba64e650318eae42f.png', 'emoji_list': [{'emoji': 538, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3fa0dfa27d8fd638d8da48b20bd6efca.png', 'status': 1, 'sort': 10, 'mtime': 1566367231, 'emoji_url': ''}, {'emoji': 539, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e71263a63516acac9b0df8e71b51c89.png', 'status': 1, 'sort': 10, 'mtime': 1566353239, 'emoji_url': ''}, {'emoji': 540, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/9800e643e1a1cd071e4e55aac8563673.png', 'status': 1, 'sort': 10, 'mtime': 1566353247, 'emoji_url': ''}, {'emoji': 541, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/458da521e30a6da1e583a826604dda2a.png', 'status': 1, 'sort': 10, 'mtime': 1566358782, 'emoji_url': ''}, {'emoji': 542, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e362c4b3e6438f480afa3e6b4e70ed8e.png', 'status': 1, 'sort': 10, 'mtime': 1566353351, 'emoji_url': ''}, {'emoji': 543, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b51db99c04163cad156b4100e8369b1e.png', 'status': 1, 'sort': 10, 'mtime': 1566353268, 'emoji_url': ''}, {'emoji': 544, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/94b5f4e0c3ffa14962cbec85db085ccf.png', 'status': 1, 'sort': 10, 'mtime': 1566353275, 'emoji_url': ''}, {'emoji': 545, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c13013e590e4c72ed20192be10064cf5.png', 'status': 1, 'sort': 10, 'mtime': 1566358997, 'emoji_url': ''}, {'emoji': 546, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ecc2852366cab53feec85d88ce54348b.png', 'status': 0, 'sort': 10, 'mtime': 1566442870, 'emoji_url': ''}], 'status': 1, 'sort': 10, 'mtime': 1566562782, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1586763944}}</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="5" s="3">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>get_home_page_alert</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>app通用</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>/api/home_page/get_home_page_alert</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token':XToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>{"device_token":"867672030793812"}</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1360,218 +1349,218 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>漫剧详情页</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>漫剧</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/adventure/get_game_single_info</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'single_id':adventure_id['adventure_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token,adventure_id</t>
         </is>
       </c>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M2" s="5" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>漫剧评论</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>漫剧</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/adventure/get_game_single_new_comment_list</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{'single_id':adventure_id['adventure_id'],'access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token,adventure_id</t>
         </is>
       </c>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M3" s="5" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>相关推荐</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>漫剧</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_relate_rec_content_list</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{'type':'2','obj_id':adventure_id['adventure_id'],'app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token,adventure_id</t>
         </is>
       </c>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M4" s="5" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1594,10 +1583,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -1618,495 +1607,762 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>首页feed流推荐数据</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>首页</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_recommend_content_list</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'page':'1', 'pageSize': '20', 'app_key': 'lemondream'}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>obj_id</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191073998', 'title': None, 'content': '哈哈哈哈哈哈哈哈哈哈哈', 'like_num': 584, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e1e22010db.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2470680.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190917299', 'title': ' 【动漫】6月1日-2日 日榜', 'content': None, 'like_num': 2046, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/12e8ee4ae7181b44c3cf44fd6f6886ce-422x600.jpg', 'width': 422, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190919006', 'title': ' 【日榜】2018年8月28日 Pixiv日榜美图 #P01', 'content': None, 'like_num': 1963, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d2e0d965790aa40eeaa6f2e6743c5467-800x533.jpg', 'width': 800, 'height': 533, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '190921151', 'title': ' 【动漫】伊莉雅 第十二弹', 'content': None, 'like_num': 1179, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/0915e7ae3c24d1c01026b30b509c7f58-600x600.jpg', 'width': 600, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1582178857004524', 'title': None, 'content': '都是杀过人的上弦鬼，凭什么就他一个鬼被扣上屑这个字，童磨可恨，但也可悲，天天想着救赎世人却用了错误的方式，单纯，也可怕，被环境所影响的性格，不相信神却又扮演着神，香奈乎和被忍救赎，但神明却没有去救赎他', 'like_num': 2524, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1eb6dd2b02.jpg', 'width': 908, 'height': 898, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191069107', 'title': None, 'content': '为什么我憋了6分钟', 'like_num': 1309, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/02cf14856f.jpg', 'width': 1024, 'height': 576, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2472570.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190919567', 'title': ' 【动漫】中二病也要谈恋爱 第一弹', 'content': None, 'like_num': 2348, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/db6738b99d6b6b18639bea298f3a242b-422x600.jpg', 'width': 422, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191121833', 'title': None, 'content': '买盐', 'like_num': 2595, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9ce948d73c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1917230.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190921412', 'title': ' 【动漫】魔法少女小圆 第一发', 'content': None, 'like_num': 1322, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/dabaff20914c002aed8883d0572f68dd-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191082504', 'title': None, 'content': '别走，我给你说完', 'like_num': 2510, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9cf0780369.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2356050.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190643741', 'title': 'fgo玛修学妹cosplay正片', 'content': 'cn 苏杭', 'like_num': 793, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NTE0NDc4OTE4NTYzODc1MyMxMzQjaW1hZ2U=', 'width': 980, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '1586322592004350', 'title': None, 'content': '回望过去，曾经做过的一切都是那么的不值得', 'like_num': 1267, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cf9142e8e2.jpg', 'width': 627, 'height': 886, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190645260', 'title': '夏尔', 'content': '这里秋桑，坐标新疆阿克苏。请多关照', 'like_num': 2878, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/W8cIkuPSR8QjKUAj.jpg', 'width': 720, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190646193', 'title': '再多喜欢阿离一点可以么', 'content': '刚才发错位置了，从新发一下。。\r这里fine君，特别感谢嘎崩豆的摄影和hope的后期，，嗯。。。还有什么呢，，这只是个预告啦，正片什么的，，敬请期待吧。\r以后还会认真出更多作品，希望各位小伙伴支持。阿里嘎多', 'like_num': 1601, 'has_like': 0, 'tags': '', 'author_id': 80, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/FUQ2oQ2nxKcjQSKt.jpg', 'width': 1824, 'height': 1368, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '1585891934004336', 'title': None, 'content': '唉呀呀', 'like_num': 1479, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/dabf669046.jpg', 'width': 550, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583992156004380', 'title': None, 'content': '分享快乐，果然花🌸保佑了我，探女张嘴了', 'like_num': 2864, 'has_like': 0, 'tags': '', 'author_id': 45, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/0d9aa79bb1.jpg', 'width': 2244, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190917028', 'title': ' 【动漫】4月14日-15日 日榜', 'content': None, 'like_num': 2789, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/184ce1423a19e852aa845913d91ace0a-800x566.jpg', 'width': 800, 'height': 566, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191095514', 'title': None, 'content': '好险', 'like_num': 2455, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/23cdbd3669.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/23683036990_1568697872225.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1581488215004489', 'title': None, 'content': '没发过帖子发一下试试', 'like_num': 954, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/62d40109bb.jpg', 'width': 860, 'height': 1853, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190917122', 'title': ' 【图站精选】safebooru 5.12', 'content': None, 'like_num': 2823, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/9d8fe872e94c441c1e4fec29ae263b5c-450x600.jpg', 'width': 450, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191121616', 'title': None, 'content': '麦哲伦秒杀黑胡子团——强势五杀，你好毒！', 'like_num': 636, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/321cc2c028.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2265040.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190645480', 'title': '我的妹妹是黄漫老师', 'content': '(๑•ㅂ•)✧  (๑•ㅂ•)✧  (๑•ㅂ•)✧', 'like_num': 2609, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/3xYtoJjiw2eFC6Cs.jpg', 'width': 1619, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191122022', 'title': None, 'content': '少侠好身手', 'like_num': 1854, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6a14db01c9.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2444300.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '190648135', 'title': '萤火虫漫展返图 酒吞 fgo', 'content': '我又来搬图啦～喜欢不？', 'like_num': 1171, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/RTKBRIAUQTQASTAH.jpg', 'width': 720, 'height': 1078, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191063230', 'title': None, 'content': '吃什么对前列腺有好处？听专家说完后，赶紧在家里储备些', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_video/cover/333bb4b94bdb4c75906f9b5982b603c5.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/e4e1b5f724924b388f6d9970903d8c82.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190918293', 'title': ' 【zerochan日榜】2018.01.04zerochan日榜美图', 'content': None, 'like_num': 1049, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/e410946e1ee501f05456759841d6370c-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1586155722004372', 'title': None, 'content': '百妖谱', 'like_num': 861, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/43834ddc10.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4NjE1MDUyMTk1MjI0MDEzNCM5MTUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191062680', 'title': None, 'content': '在线调戏超管', 'like_num': 2901, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/875e4b4e73.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2467910.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1586583899004262', 'title': None, 'content': '海贼王系列头像', 'like_num': 1191, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1f94886721.jpg', 'width': 598, 'height': 599, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191121223', 'title': None, 'content': '老爷子醒酒的绝技', 'like_num': 1448, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/808ebd2056.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2083530.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190918695', 'title': ' 【萌图兔日榜】2018.04.30萌图兔日榜美图', 'content': None, 'like_num': 996, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/4ef6b5c1cc2a05ae8fe4a9c73b567c8a-418x600.jpg', 'width': 418, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190644993', 'title': '【cos预告】梅林&amp;阿尔托莉雅', 'content': '崔斯坦卿曾经这样说过：“亚瑟王，不懂人心。”阿尔托莉雅：原po梅林：飞飞妆面：未舞（梅林） 凌子（呆毛）摄影&amp;后期：布丁后勤：JH 叽兔 海豹写在最后：这套片子是7月初拍的，当时天气热死，反季节斗士无所畏惧！先发一个预告（小剧场，英灵满破图，表情包），目测9-10月成片，微博@风初今年也要欧 希望大家可以关注一下，阿里嘎多！', 'like_num': 2612, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/j1JcwCjrgXSoyzu8.jpg', 'width': 1000, 'height': 2000, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190918668', 'title': ' 【yande日榜】2018.03.16yande日榜美图', 'content': None, 'like_num': 2044, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d5f4e53ce8ee90c7649cd664f715557e-407x600.jpg', 'width': 407, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191062783', 'title': None, 'content': '得了脂肪肝怎么办？采取这两种方式调解，身体马上恢复健康！', 'like_num': 1366, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_video/cover/49aa4241ef7447d2936d21f8108e0ead.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2ab63924d94444f6842fafacd443f4db.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190918391', 'title': ' 【动漫】pixivision2018.02.10焦急与可爱♡可爱的身高差特辑', 'content': None, 'like_num': 1586, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/0e00b9aafc286fb543e4648f4b0618c7-597x600.jpg', 'width': 597, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190916988', 'title': ' 【图站精选】safebooru 4.5', 'content': None, 'like_num': 627, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d16559c6ab71660822d5f0c335b672bb-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190918638', 'title': ' 【日榜】2018年4月21日 Pixiv日榜美图', 'content': None, 'like_num': 2192, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/224ac6b003f45518502b7ce1dbc3a352-519x600.jpg', 'width': 519, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191091222', 'title': None, 'content': '皮友们，帮我看看这个哈士奇纯不纯？', 'like_num': 510, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/aaa3b01b37.jpg', 'width': 576, 'height': 730, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2475660.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1579775689004742', 'title': None, 'content': '刀劍神域 劇場版-序列爭戰｜你不可不知的六大看點｜小次郎', 'like_num': 775, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/dd6938a560.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDE5MzQ3NDU3OTI2OTM0OCM3NzQjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190920310', 'title': ' 【动漫】制服少女', 'content': None, 'like_num': 580, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d6910806523261479e29329e11059678-479x600.jpg', 'width': 479, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>首页分类tab</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>首页</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_home_page_zone_list</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>{"zone_id":-1,"title":"推荐"}</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20191', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 3, 'title': 'Cosplay', 'scence_info': {'scence_id': '2001003004', 'act_id': '20192', 'maidian_name': 'disp_030', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_cos', 'event_id': '001'}}, {'zone_id': 4, 'title': '段子', 'scence_info': {'scence_id': '2001003007', 'act_id': '20195', 'maidian_name': 'disp_033', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_duanzi', 'event_id': '001'}}, {'zone_id': 5, 'title': '插画', 'scence_info': {'scence_id': '2001003005', 'act_id': '20193', 'maidian_name': 'disp_031', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_chahua', 'event_id': '001'}}, {'zone_id': 6, 'title': '动漫', 'scence_info': {'scence_id': '2001003006', 'act_id': '20194', 'maidian_name': 'disp_032', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_dongman', 'event_id': '001'}}], 'act_id': 20135, 'serviceId': '19'}}</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20191', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 3, 'title': 'Cosplay', 'scence_info': {'scence_id': '2001003004', 'act_id': '20158', 'maidian_name': 'disp_030', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_cos', 'event_id': '001'}}, {'zone_id': 5, 'title': '插画', 'scence_info': {'scence_id': '2001003005', 'act_id': '20193', 'maidian_name': 'disp_031', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_chahua', 'event_id': '001'}}], 'act_id': 20134, 'serviceId': '18'}}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>ABtest</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>首页</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_rec_abtest</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{'scene_id':'2002'}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 0, 'style_type': 2}, 'read_style_abtest': {'act_id': 20086, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 0, 'style_type': 2}, 'read_style_abtest': {'act_id': 20088, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>推荐tab内容第一页</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>首页</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_recommend_content_list</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'-1','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191096222', 'title': None, 'content': '最喜欢的四驱之王    –    兰德酷路泽', 'like_num': 2425, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b57dfe843c.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2425460.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1586499289004267', 'title': None, 'content': '想换霸气侧漏的初音😜', 'like_num': 2819, 'has_like': 0, 'tags': '', 'author_id': 16, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1636675114.jpg', 'width': 1242, 'height': 2688, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1586230837004212', 'title': None, 'content': '朱迪试妆嘿嘿😁', 'like_num': 2463, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/fc1c307a0f.jpg', 'width': 1200, 'height': 1600, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '190646721', 'title': '【cos正片】是年轻的，不成熟的王', 'content': '有小bug，谅解', 'like_num': 2331, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/jrWIDqEbukQv070b.jpg', 'width': 912, 'height': 1368, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190916349', 'title': ' 【日榜】 福利满满 2017.3.17', 'content': None, 'like_num': 511, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz36ci1infj31yt1ecwhl.jpg', 'width': 1024, 'height': 728, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191076257', 'title': None, 'content': '这是制服诱惑吗？', 'like_num': 873, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/36c5848ccc.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2362140.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190917922', 'title': ' 【图站精选】safebooruⅡ 10.3', 'content': None, 'like_num': 967, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/79846e037589369a3768673eb1e5224d-800x564.jpg', 'width': 800, 'height': 564, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190916888', 'title': ' 【Pixiv Spotlight】四季交替。一幅图画尽春夏秋冬的插画特辑', 'content': None, 'like_num': 1051, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/e93320cdfa61635617a082daa607568c-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1582468497004393', 'title': None, 'content': '曾经有份真挚的资格码放在我面前，我没有珍惜。现在才来，后悔莫及。\n但是我们星期一就要到星期天下午的课，我还能怎么办？', 'like_num': 707, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6a8dbd89ca.jpg', 'width': 1080, 'height': 2340, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583987550004244', 'title': None, 'content': '哥布林杀手女神官', 'like_num': 2497, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cc3902dffa.jpg', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191121759', 'title': None, 'content': '神评就是标题，交给你们了~嗷~', 'like_num': 1658, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e487ce056d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2443310.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190628252', 'title': '王昭君 cos 不美你打我', 'content': '心已经融化\r◇◇◇寒冰，永不腐朽◇◇◇\r王昭君cn:rioko凉凉子\rPhx：@不开心不开心的胖 \rEdit：@_Sumiko_澄子 \rStaff：@有棱老方 \r抄送：@峡谷同人局', 'like_num': 1894, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/L8V0ihZuSTq4BJf6.jpg', 'width': 720, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190648169', 'title': 'Fate strange fake 恩奇都cos', 'content': '将我唤醒的，不是母亲指尖的轻抚，也不是父亲叱咤的喝声。\u3000\u3000我之所以抬起沉重的眼帘醒来，是因为我察觉到了那呼唤。出镜：原po摄影：arir后期妆面：自理感叹下，头皮屑特效真的很好用！！ｸﾞｯ!(๑•ㅂ•)✧或者下次我可以考虑下用2哈做我的master！ｸﾞｯ!(๑•ㅂ•)✧喜欢的可以给我个糖果吗？我永远爱恩奇都！', 'like_num': 2086, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/XX8H6Kr5trnhO6qF.jpg', 'width': 1600, 'height': 1037, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '1581654271004279', 'title': None, 'content': '有天天和宁次的真爱粉吗？快来报道', 'like_num': 1265, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/052733a701.jpg', 'width': 745, 'height': 745, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583471784004375', 'title': None, 'content': '初音 嘻嘻', 'like_num': 1719, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/fb1e0ea8a0.jpg', 'width': 500, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191095007', 'title': None, 'content': '一个有毒的视频', 'like_num': 1712, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c2f14a7ea3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2473870.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191115499', 'title': None, 'content': '周星驰《九品芝麻官》太有梗,这8个梗今天还是很经典', 'like_num': 2261, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/75a88cac12.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1059880.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111499', 'title': None, 'content': '遇到这样的，你想干啥！', 'like_num': 2248, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f1522994fb.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617460.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191057821', 'title': None, 'content': '甩头发最酷的人之一！', 'like_num': 944, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b8492105a5.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2288170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190627584', 'title': '【JK制服】《去看海啊》及教程', 'content': '《去看海啊》教程，核心内容是如何利用蒙版提亮人物肤色以及如何打造清新的海边JK写真色调←真正的BT.转自微博.cr:星卷卷-', 'like_num': 1545, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/VDQa5lpNSyfqFuhQ.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cosplay'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>推荐tab内容第二页</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_recommend_content_list</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'-1','page':'2','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191121315', 'title': None, 'content': '面试成功，明天你俩可以来上班。', 'like_num': 2853, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/029b99f9bd.jpg', 'width': 540, 'height': 952, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2229830.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190917733', 'title': ' 【动漫】8月20日日榜及杂图', 'content': None, 'like_num': 2075, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/947877faa88909e02dd7670b941b5226-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1583129812004476', 'title': None, 'content': '跟我一起转圈圈', 'like_num': 1711, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ddbf709a40.jpg', 'width': 589, 'height': 525, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190648464', 'title': '中山漫展day P2', 'content': '不要停，P2', 'like_num': 1309, 'has_like': 0, 'tags': '', 'author_id': 93, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/EHXESDRWZTWCEMEG.jpg', 'width': 2109, 'height': 2812, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190911718', 'title': '假面骑士穿越战争单骑狂虐怪物军团', 'content': None, 'like_num': 2769, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/7-161206153203310.jpg', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191044270', 'title': None, 'content': '法拉利', 'like_num': 1621, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f00d1ce88c.jpg', 'width': 480, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2463860.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191082565', 'title': None, 'content': '看着有用😅️', 'like_num': 2557, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f975daff99.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2469350.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1581847196004496', 'title': None, 'content': '我并没有被讨厌（义勇）', 'like_num': 2345, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/39f81b37c0.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4MTgyNjc4MDI3MDgxODAzNyM0MDgjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191052339', 'title': None, 'content': '来了来了，哎哟我去～我去', 'like_num': 2731, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7bd048e14e.jpg', 'width': 960, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2339260.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1581228854004562', 'title': None, 'content': '古风美人cg怎么可以这么美丽', 'like_num': 1310, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0a261cf07c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4MTIxNTA4MzE4MzI3ODg1MCM2MDYjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190919934', 'title': ' 【动漫】lovelive 第四弹', 'content': None, 'like_num': 1143, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d9587b6304c0ce09adeebad9d2ac444b-531x600.jpg', 'width': 531, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191115860', 'title': None, 'content': '是时候跑你们知道我的真面目了', 'like_num': 2719, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8940788cf7.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1239980.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1584084589004452', 'title': None, 'content': '#声之形  声音是有形的，也是沉重的', 'like_num': 1859, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8673a2dd70.jpg', 'width': 1088, 'height': 1920, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4NDAxNzU3NzI5MjY1MjIyNiMyMDgjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190644379', 'title': '二周年的舞会与三周年的小公主', 'content': '玛修的三周年礼装！太可爱了！巴太太也很可爱！三轮的布姐太吉儿潮了！我永远喜欢fate', 'like_num': 891, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/TbTNwWR7nJjoJdcS.jpg', 'width': 1620, 'height': 2160, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190917932', 'title': ' 【画师】-4894', 'content': None, 'like_num': 1985, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/f1c774f5f619edff8b90b5ad65f641ab-800x572.jpg', 'width': 800, 'height': 572, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190917846', 'title': ' 【画师】-3287661', 'content': None, 'like_num': 1961, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/9bf31c7ff062936a96d3c8bd1f8f2ff3-2-450x600.jpg', 'width': 450, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190644916', 'title': '偶像大师灰姑娘女孩', 'content': '四季漫-夏的场照', 'like_num': 678, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/JKDdYdsYFwLsNpu4.jpg', 'width': 2600, 'height': 1735, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191121338', 'title': None, 'content': '球真的大', 'like_num': 1842, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5164578e87.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2312460.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>推荐tab内容第三页</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_recommend_content_list</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'-1','page':'3','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1584680018004259', 'title': None, 'content': '别问，问就是穿三了（狗头）', 'like_num': 2641, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/24a1289dfe.jpg', 'width': 1088, 'height': 1088, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4NDYwMzUxMTIwOTk2NzcxNyM0NzUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191115645', 'title': None, 'content': '这不是我斑爷，谁把我斑爷换成娘炮的？', 'like_num': 1395, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/dc28581823.jpg', 'width': 1920, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2413080.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190910995', 'title': '佐贺偶像是传奇 本子 福利 二次元萌图', 'content': None, 'like_num': 2889, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/42-1Q12G50226433.jpg', 'width': 337, 'height': 200, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191056915', 'title': None, 'content': '真丑鸭！', 'like_num': 2905, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2fe17e2dab.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2441230.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1582785324004486', 'title': None, 'content': '小妹妹我们回家', 'like_num': 1519, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/c5d3111152.jpg', 'width': 1920, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191081903', 'title': None, 'content': '神秘女子心狠手辣，专在雨天行凶，居然只为了一张假身份证', 'like_num': 2792, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/84c82e3f7b.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2474090.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191051777', 'title': None, 'content': '好秀！', 'like_num': 927, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/31b33fc7d5.jpg', 'width': 816, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2433670.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190916801', 'title': ' 【zerochan日榜】2017.01.21zerochan日榜美图', 'content': None, 'like_num': 1880, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/1e26f12d76248d9e0f3b700a8f6734fc-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190921207', 'title': ' 【动漫】我的妹妹不可能这么可爱 第四弹', 'content': None, 'like_num': 1472, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/52378576c64891bb111d9f346d23c435-800x500.jpg', 'width': 800, 'height': 500, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191118284', 'title': None, 'content': '六小龄童看见会哭不？猴子演出自己的屁都吓坏了。蒙圈了。哈哈', 'like_num': 2323, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b393a0b05b.jpg', 'width': 268, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/11847921950_1557068068504.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1579789718004199', 'title': None, 'content': '随便买几张都比找的好啊', 'like_num': 2534, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cf05b247e0.jpg', 'width': 3264, 'height': 2448, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190917815', 'title': ' 【动漫】9月4日 日榜及杂图', 'content': None, 'like_num': 866, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/06afb5492bf94ef2f8f7878d56121b42.jpg', 'width': 450, 'height': 450, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190915902', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2099, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz30cbuudzj30rs0zht9s.jpg', 'width': 1000, 'height': 1277, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190640859', 'title': '山兔 稚兔童心正片 cos正片', 'content': '出境 原po cn诺卡摄影 然叔后期 原po萌新第一次出片！求扩列求糖果！企鹅2630229610', 'like_num': 1389, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/3rrrldvTIXogs60G.jpg', 'width': 1440, 'height': 2160, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190917267', 'title': ' 【Pixiv Spotlight】迷人的双唇♡美丽的口红特辑', 'content': None, 'like_num': 2496, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ac53fbcba0390bdddac3c3d899918927-688x600.jpg', 'width': 688, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190643216', 'title': '#原创脑洞试妆#春夏/秋冬', 'content': '没什么文案，就这样！感谢收看❤️', 'like_num': 2428, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OXEHZUICDQZYHFND.jpg', 'width': 3494, 'height': 2620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '1583727908004329', 'title': None, 'content': '各位在疫情期间都在做些什么呐？我一直在看番呢～', 'like_num': 2829, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/9decb01b8a.jpg', 'width': 400, 'height': 710, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191121890', 'title': None, 'content': '偶像剧都是骗人的，谁说倒立就不会流泪的！', 'like_num': 748, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d894c8ef5f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1586440.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190917742', 'title': ' 【日榜】2017.08.19 Pixiv日榜美图', 'content': None, 'like_num': 1220, 'has_like': 0, 'tags': '', 'author_id': 51, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/1b7dc0eb339ae2cfc55d1e8df4e793e1-423x600.jpg', 'width': 423, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>首页banner</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>/api/banner/get_banner_list</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'4'}</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fb167782a36e58400ed7dbbb8a58eea3.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonFacialMatch/index.html?timestamp=1586745491#/main', 'jump_type': 0, 'rule_title': '', 'rule_detail': '', 'banner_id': 9}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7800a945cc68c30293e1225384890ebb.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 4}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/523e37acdab601b7fdddfa5897f549a2.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 3}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/48edc92bed67258b6b55dfc96e6d9491.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '测试啦', 'rule_detail': '', 'banner_id': 16}]}}</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>首页小视频tab</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_zone_content_list</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>{'zone_id':'-1','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [], 'act_id': 0}}</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'8','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, '1': {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, '2': {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, '3': {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, '4': {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, '5': {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, '6': {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, '7': {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, '8': {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, '9': {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, '10': {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, '11': {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, '12': {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}, 'list': [{'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}], 'act_id': 0}}</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>推荐tab内容第二页</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
+    <row customHeight="1" ht="40" r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>首页cosplaytab</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>首页</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_zone_content_list</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>{'zone_id':'-1','page':'2','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [], 'act_id': 0}}</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'2','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'3','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '19069162', 'title': '【COS】我的妹妹不可能这么可爱 打歌服ver.', 'content': None, 'like_num': 1775, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/w6qHR69X0OawwqKg.jpg', 'width': 760, 'height': 1142, 'lemon_num': 0, 'rec_package_id': ''}, '1': {'obj_id': '190628045', 'title': '【拍摄速报】伊斯塔凛泳装', 'content': None, 'like_num': 1151, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/FTzZ8fX2u8VUouml.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, '2': {'obj_id': '19067540', 'title': None, 'content': '小乔原画师——小柔，cos小乔皮肤——天鹅之梦，真的快要美到窒息了啊！小柔实在是太萌了，不仅将小乔的乖巧可爱表现了出来，妆容里又透露出危险和黑暗的气息，妆容也是万分的精致，简直是120%的相似啊！', 'like_num': 1774, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_f9b558df-4467-4047-9a9f-123a17c9d380.jpg', 'width': 640, 'height': 960, 'lemon_num': 0, 'rec_package_id': ''}, '3': {'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 1200, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, '4': {'obj_id': '190617385', 'title': '三个不同的啾咪~', 'content': '我疯了，你们别害怕，我不吃人', 'like_num': 869, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/SITUbJFCCGZxNvPl.gif', 'width': 360, 'height': 360, 'lemon_num': 0, 'rec_package_id': ''}, '5': {'obj_id': '190616053', 'title': '【阴阳师】花鸟卷 IDO场照返图', 'content': '【转侵删】出镜/后期：走路摇摄影：求止血', 'like_num': 2692, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yd5vqqr4uxP3ggfq.jpg', 'width': 650, 'height': 836, 'lemon_num': 0, 'rec_package_id': ''}, '6': {'obj_id': '190646618', 'title': '【cos预告】君与彼女与彼女之恋', 'content': '要来哔哩哔哩吗', 'like_num': 2055, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/z3aKWk1TUyGIZvwA.jpg', 'width': 1212, 'height': 1827, 'lemon_num': 0, 'rec_package_id': ''}, '7': {'obj_id': '190620575', 'title': '（集邮）之前活动和美少女们的集邮！', 'content': '看在这么多美少女的份上给糖呀~', 'like_num': 1018, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ugxLGfNUSEVIRx7h.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, '8': {'obj_id': '190618401', 'title': '刺客伍六七', 'content': '刺客伍六七伍六七:梦白摄影:小安后期:清酱', 'like_num': 1448, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T6vts2H5NGq63Pas.jpg', 'width': 2400, 'height': 1600, 'lemon_num': 0, 'rec_package_id': ''}, '9': {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, '10': {'obj_id': '190626551', 'title': '【cos正片】宇智波一家', 'content': '"爸爸和妈妈的心是连在一起的吗""嗯"宇智波佐助:@大贱_沉迷薛洋无法自拔i  春野樱:@君山桃花_孙翔好核桃_olo  佐良娜:原po摄影:@摄影菌菌菌庄爸爸  后期:@zeo不梦游  +@莲子_小法  +原po排版:@Me是君爱  团片存档，非独家', 'like_num': 726, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/VF5vNTtruSGBQwxB.jpg', 'width': 3360, 'height': 2240, 'lemon_num': 0, 'rec_package_id': ''}, '11': {'obj_id': '190611036', 'title': '关于洛丽塔', 'content': '沙雕的我，一般般的出现', 'like_num': 2406, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ZyAXYPymewwpOWR6.jpg', 'width': 1032, 'height': 1715, 'lemon_num': 0, 'rec_package_id': ''}, '12': {'obj_id': '190625954', 'title': '【COS正片】西木野真姬旗手未觉醒ver.', 'content': None, 'like_num': 1871, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/70BTnSzawvCvzdh4.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': ''}, '13': {'obj_id': '190623915', 'title': '好看吗，胤儿小哥哥', 'content': None, 'like_num': 1235, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/Jw8uLDvVbRtmK8l2.jpg', 'width': 733, 'height': 1299, 'lemon_num': 0, 'rec_package_id': ''}, '14': {'obj_id': '1578935742004224', 'title': None, 'content': '【Hikarin/Rein Cos】我英黑帮老大', 'like_num': 648, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/dcbaf17698.jpg', 'width': 1500, 'height': 952, 'lemon_num': 0, 'rec_package_id': ''}, '15': {'obj_id': '19062940', 'title': '【妄想校服季】天台·吹风祈愿', 'content': '写真依旧有未解锁图', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/BPJKRGQWSMQXRTWX.jpg', 'width': 1850, 'height': 12181, 'lemon_num': 0, 'rec_package_id': ''}, '16': {'obj_id': '19062324', 'title': '雷姆猫咪睡衣！', 'content': '雷姆:野泽妖妖子摄影:刘叔后期:狐狸第一次拍雷姆啊！雷姆真可爱莫名的把猫咪拍出了熊的感觉想拍可爱风的拍着拍着变成御姐了(TωT)没有掌握好表情下次注意！！！', 'like_num': 2328, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OPHXOOTADGPVQKXD.jpg', 'width': 1913, 'height': 2870, 'lemon_num': 0, 'rec_package_id': ''}, '17': {'obj_id': '19062987', 'title': '今日搬砖', 'content': None, 'like_num': 2010, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/BWDXWIXERKLDOWSA.jpg', 'width': 2598, 'height': 1953, 'lemon_num': 0, 'rec_package_id': ''}, '18': {'obj_id': '19062271', 'title': '【cos场照】琪亚娜冬之公主', 'content': '琪亚娜：琉砂摄影：紫阳梦乡首日，感谢大佬返图！怕配饰弄丢了， 所以一些配饰没戴完，求勿喷！！', 'like_num': 2749, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/X5SJUzGEOuwvPcDe.jpg', 'width': 1000, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, '19': {'obj_id': '19064370', 'title': '发个lolita拍摄的自拍❤第一次做这样的发型', 'content': '裙子来自: 安朵的密匙                   『夜莺的情事』一款日常和茶会都适合的裙子呢❤', 'like_num': 2899, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/Wbt74HIcWZed8aAZ.jpg', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}, 'list': [{'obj_id': '19069162', 'title': '【COS】我的妹妹不可能这么可爱 打歌服ver.', 'content': None, 'like_num': 1775, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/w6qHR69X0OawwqKg.jpg', 'width': 760, 'height': 1142, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190628045', 'title': '【拍摄速报】伊斯塔凛泳装', 'content': None, 'like_num': 1151, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/FTzZ8fX2u8VUouml.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19067540', 'title': None, 'content': '小乔原画师——小柔，cos小乔皮肤——天鹅之梦，真的快要美到窒息了啊！小柔实在是太萌了，不仅将小乔的乖巧可爱表现了出来，妆容里又透露出危险和黑暗的气息，妆容也是万分的精致，简直是120%的相似啊！', 'like_num': 1774, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_f9b558df-4467-4047-9a9f-123a17c9d380.jpg', 'width': 640, 'height': 960, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 1200, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190617385', 'title': '三个不同的啾咪~', 'content': '我疯了，你们别害怕，我不吃人', 'like_num': 869, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/SITUbJFCCGZxNvPl.gif', 'width': 360, 'height': 360, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190616053', 'title': '【阴阳师】花鸟卷 IDO场照返图', 'content': '【转侵删】出镜/后期：走路摇摄影：求止血', 'like_num': 2692, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yd5vqqr4uxP3ggfq.jpg', 'width': 650, 'height': 836, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190646618', 'title': '【cos预告】君与彼女与彼女之恋', 'content': '要来哔哩哔哩吗', 'like_num': 2055, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/z3aKWk1TUyGIZvwA.jpg', 'width': 1212, 'height': 1827, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190620575', 'title': '（集邮）之前活动和美少女们的集邮！', 'content': '看在这么多美少女的份上给糖呀~', 'like_num': 1018, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ugxLGfNUSEVIRx7h.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190618401', 'title': '刺客伍六七', 'content': '刺客伍六七伍六七:梦白摄影:小安后期:清酱', 'like_num': 1448, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T6vts2H5NGq63Pas.jpg', 'width': 2400, 'height': 1600, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190626551', 'title': '【cos正片】宇智波一家', 'content': '"爸爸和妈妈的心是连在一起的吗""嗯"宇智波佐助:@大贱_沉迷薛洋无法自拔i  春野樱:@君山桃花_孙翔好核桃_olo  佐良娜:原po摄影:@摄影菌菌菌庄爸爸  后期:@zeo不梦游  +@莲子_小法  +原po排版:@Me是君爱  团片存档，非独家', 'like_num': 726, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/VF5vNTtruSGBQwxB.jpg', 'width': 3360, 'height': 2240, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190611036', 'title': '关于洛丽塔', 'content': '沙雕的我，一般般的出现', 'like_num': 2406, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ZyAXYPymewwpOWR6.jpg', 'width': 1032, 'height': 1715, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190625954', 'title': '【COS正片】西木野真姬旗手未觉醒ver.', 'content': None, 'like_num': 1871, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/70BTnSzawvCvzdh4.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190623915', 'title': '好看吗，胤儿小哥哥', 'content': None, 'like_num': 1235, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/Jw8uLDvVbRtmK8l2.jpg', 'width': 733, 'height': 1299, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578935742004224', 'title': None, 'content': '【Hikarin/Rein Cos】我英黑帮老大', 'like_num': 648, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/dcbaf17698.jpg', 'width': 1500, 'height': 952, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062940', 'title': '【妄想校服季】天台·吹风祈愿', 'content': '写真依旧有未解锁图', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/BPJKRGQWSMQXRTWX.jpg', 'width': 1850, 'height': 12181, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062324', 'title': '雷姆猫咪睡衣！', 'content': '雷姆:野泽妖妖子摄影:刘叔后期:狐狸第一次拍雷姆啊！雷姆真可爱莫名的把猫咪拍出了熊的感觉想拍可爱风的拍着拍着变成御姐了(TωT)没有掌握好表情下次注意！！！', 'like_num': 2328, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OPHXOOTADGPVQKXD.jpg', 'width': 1913, 'height': 2870, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062987', 'title': '今日搬砖', 'content': None, 'like_num': 2010, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/BWDXWIXERKLDOWSA.jpg', 'width': 2598, 'height': 1953, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062271', 'title': '【cos场照】琪亚娜冬之公主', 'content': '琪亚娜：琉砂摄影：紫阳梦乡首日，感谢大佬返图！怕配饰弄丢了， 所以一些配饰没戴完，求勿喷！！', 'like_num': 2749, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/X5SJUzGEOuwvPcDe.jpg', 'width': 1000, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064370', 'title': '发个lolita拍摄的自拍❤第一次做这样的发型', 'content': '裙子来自: 安朵的密匙                   『夜莺的情事』一款日常和茶会都适合的裙子呢❤', 'like_num': 2899, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/Wbt74HIcWZed8aAZ.jpg', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 0}}</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="7">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>首页banner</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
+    <row customHeight="1" ht="40" r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>首页插画tab</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>首页</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>/api/banner/get_banner_list</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_zone_content_list</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>{'type':'4'}</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 4, 'title_image': 'http://demo.lemondream.cn/live/1dfc2cb5621ee264ba1e18279dd850fb.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonFacialMatch/index.html?timestamp=1586745491#/main', 'jump_type': 0, 'rule_title': '', 'rule_detail': '', 'banner_id': 9}, {'type': 4, 'title_image': 'http://demo.lemondream.cn/expression/dd8b6315471c5089f9baaa77a1cb3cb2.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 4}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/cos_banner_01.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 3}]}}</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'3','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'5','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1909174157', 'title': ' 【壁纸】2018-09-29', 'content': None, 'like_num': 2128, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n76eo2xj31hc0t310g.jpg', 'width': 1024, 'height': 558, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '1': {'obj_id': '1909174158', 'title': ' 【动漫】10.07号精选【73P】', 'content': None, 'like_num': 2337, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/005ZUAk5gy1fw3jqg1n48j30m80dw3zq.jpg', 'width': 800, 'height': 500, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '2': {'obj_id': '1909174159', 'title': ' 【壁纸】2018-09-27', 'content': None, 'like_num': 1758, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n8te5clj31hc0qotel.jpg', 'width': 1024, 'height': 512, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '3': {'obj_id': '1909174161', 'title': ' 【绅士热点】每日福利系列 (2018-10-07)', 'content': None, 'like_num': 2371, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n3tz0hqj30jw0s4q59.jpg', 'width': 716, 'height': 1012, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '4': {'obj_id': '1909174162', 'title': ' 【壁纸】2018-09-30', 'content': None, 'like_num': 1957, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ee3d9514fadd37fefda59d24a23aa400-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '5': {'obj_id': '1909174152', 'title': ' 【绅士热点】每日福利系列 (2018-09-28)', 'content': None, 'like_num': 519, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n87e145j30ow0wctbm.jpg', 'width': 896, 'height': 1164, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '6': {'obj_id': '1909174115', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 764, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2oa6huo1j30jg0rigoh.jpg', 'width': 700, 'height': 990, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '7': {'obj_id': '1909174116', 'title': ' 【绅士福利】福利第166期 (MEGA&amp;百度云)', 'content': None, 'like_num': 1934, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nyerqvbj311p1hc7a1.jpg', 'width': 1024, 'height': 1449, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '8': {'obj_id': '1909174117', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2672, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2o69l2xgj30rs13an3u.jpg', 'width': 1000, 'height': 1414, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '9': {'obj_id': '1909174118', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2172, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nw694o6j30m80wtjvj.jpg', 'width': 800, 'height': 1181, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '10': {'obj_id': '1909174119', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2054, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nolfruzj31hc11p45v.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '11': {'obj_id': '1909174122', 'title': ' 【绅士福利】福利第176期', 'content': None, 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/50fc25b3577bea4536699d5f00ce25c5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '12': {'obj_id': '1909174127', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2146, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nfz7sflj30p60z00ws.jpg', 'width': 906, 'height': 1260, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '13': {'obj_id': '1909174128', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 1388, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nlzvrb3j30m80v3ju5.jpg', 'width': 800, 'height': 1119, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '14': {'obj_id': '1909174140', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nf4x6d6j30jo0rsgog.jpg', 'width': 708, 'height': 1000, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '15': {'obj_id': '1909174131', 'title': ' 【壁纸】2018-09-11', 'content': None, 'like_num': 897, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nigkw55j315o0n6421.jpg', 'width': 1024, 'height': 569, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '16': {'obj_id': '1909174132', 'title': ' 【壁纸】2018-09-10', 'content': None, 'like_num': 2006, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/9cce4b8b6d99c858563eb93a19a31ede-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '17': {'obj_id': '1909174133', 'title': ' 【壁纸】2018-09-23', 'content': None, 'like_num': 2434, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7ded841a52405286910181065f9412bd-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '18': {'obj_id': '1909174134', 'title': ' 【壁纸】2018-09-06', 'content': None, 'like_num': 1950, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nluqzauj31430scgti.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '19': {'obj_id': '1909174135', 'title': ' 【壁纸】2018-09-15', 'content': None, 'like_num': 2065, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/37e3a6c11620f4622d002cab65b35239-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, 'list': [{'obj_id': '1909174157', 'title': ' 【壁纸】2018-09-29', 'content': None, 'like_num': 2128, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n76eo2xj31hc0t310g.jpg', 'width': 1024, 'height': 558, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174158', 'title': ' 【动漫】10.07号精选【73P】', 'content': None, 'like_num': 2337, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/005ZUAk5gy1fw3jqg1n48j30m80dw3zq.jpg', 'width': 800, 'height': 500, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174159', 'title': ' 【壁纸】2018-09-27', 'content': None, 'like_num': 1758, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n8te5clj31hc0qotel.jpg', 'width': 1024, 'height': 512, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174161', 'title': ' 【绅士热点】每日福利系列 (2018-10-07)', 'content': None, 'like_num': 2371, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n3tz0hqj30jw0s4q59.jpg', 'width': 716, 'height': 1012, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174162', 'title': ' 【壁纸】2018-09-30', 'content': None, 'like_num': 1957, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ee3d9514fadd37fefda59d24a23aa400-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174152', 'title': ' 【绅士热点】每日福利系列 (2018-09-28)', 'content': None, 'like_num': 519, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n87e145j30ow0wctbm.jpg', 'width': 896, 'height': 1164, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174115', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 764, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2oa6huo1j30jg0rigoh.jpg', 'width': 700, 'height': 990, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174116', 'title': ' 【绅士福利】福利第166期 (MEGA&amp;百度云)', 'content': None, 'like_num': 1934, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nyerqvbj311p1hc7a1.jpg', 'width': 1024, 'height': 1449, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174117', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2672, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2o69l2xgj30rs13an3u.jpg', 'width': 1000, 'height': 1414, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174118', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2172, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nw694o6j30m80wtjvj.jpg', 'width': 800, 'height': 1181, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174119', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2054, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nolfruzj31hc11p45v.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174122', 'title': ' 【绅士福利】福利第176期', 'content': None, 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/50fc25b3577bea4536699d5f00ce25c5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174127', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2146, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nfz7sflj30p60z00ws.jpg', 'width': 906, 'height': 1260, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174128', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 1388, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nlzvrb3j30m80v3ju5.jpg', 'width': 800, 'height': 1119, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174140', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nf4x6d6j30jo0rsgog.jpg', 'width': 708, 'height': 1000, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174131', 'title': ' 【壁纸】2018-09-11', 'content': None, 'like_num': 897, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nigkw55j315o0n6421.jpg', 'width': 1024, 'height': 569, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174132', 'title': ' 【壁纸】2018-09-10', 'content': None, 'like_num': 2006, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/9cce4b8b6d99c858563eb93a19a31ede-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174133', 'title': ' 【壁纸】2018-09-23', 'content': None, 'like_num': 2434, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7ded841a52405286910181065f9412bd-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174134', 'title': ' 【壁纸】2018-09-06', 'content': None, 'like_num': 1950, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nluqzauj31430scgti.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174135', 'title': ' 【壁纸】2018-09-15', 'content': None, 'like_num': 2065, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/37e3a6c11620f4622d002cab65b35239-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0}}</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="8">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-    </row>
     <row customHeight="1" ht="40" r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>首页动漫tab</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_zone_content_list</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'4','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'6','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1579784298004927', 'title': None, 'content': '贡献一下（没有什么特别意思，只是按照我的图库顺着来', 'like_num': 941, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/382c3d33c3.jpg', 'width': 900, 'height': 1236, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '1': {'obj_id': '1579784334004930', 'title': None, 'content': '第1个是国际服，第2个是日服  \n下哪一个呀？\n哪位大佬告诉我一下。', 'like_num': 508, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ece149884f.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '2': {'obj_id': '1579784336004931', 'title': None, 'content': '好看不可以做桌面壁纸', 'like_num': 1142, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/28fc11df6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDQzNjA1NDM4OTE1NjI5MCMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '3': {'obj_id': '1579784421004932', 'title': None, 'content': '一天一发，发完即止', 'like_num': 2352, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e93f9634b7.jpg', 'width': 1754, 'height': 1240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '4': {'obj_id': '1579784454004933', 'title': None, 'content': '为什么玩不了', 'like_num': 743, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6bdd1ab1d7.jpg', 'width': 1920, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '5': {'obj_id': '1579784488004934', 'title': None, 'content': '高清刀剑壁纸图哦', 'like_num': 2287, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/2e77d3c934.jpg', 'width': 2048, 'height': 1447, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '6': {'obj_id': '1579784579004936', 'title': None, 'content': '亚丝娜小时候好可爱?', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/17c3fee583.jpg', 'width': 640, 'height': 360, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '7': {'obj_id': '1579784596004938', 'title': None, 'content': '已经发了第三遍了，但是还不够', 'like_num': 1963, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e5b03defc5.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDUyNDUyMTMzMDA4OTY4NyMyMDUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '8': {'obj_id': '1579784635004939', 'title': None, 'content': '(｀⌒´メ(｀⌒´メ)超凶', 'like_num': 2752, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/12b0011fa8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDU5NTg1NTEzNzczOTAyOSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '9': {'obj_id': '1579781614004866', 'title': None, 'content': '4月刀剑神域GGO外传PV合集(1080P)(已更新完毕)', 'like_num': 1456, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5250b9a70a.jpg', 'width': 550, 'height': 344, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NjM4NDI1MzU5MDc1NyMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '10': {'obj_id': '1579784716004943', 'title': None, 'content': '一入潜水深似海', 'like_num': 887, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/61dc12c61f.jpg', 'width': 1200, 'height': 851, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '11': {'obj_id': '1579784781004944', 'title': None, 'content': '就问帅不帅', 'like_num': 2748, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3d39db1f22.jpg', 'width': 960, 'height': 831, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '12': {'obj_id': '1579784787004945', 'title': None, 'content': '【刀剑神域】#结城明日奈#亚总\n这个亚子的啊丝娜可爱ớ ₃ờ炸了，是我的。', 'like_num': 1294, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7a36fc3491.jpg', 'width': 1080, 'height': 608, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '13': {'obj_id': '1579784804004948', 'title': None, 'content': '亚骚娜你在干撒子?看来这张结衣绝对不可以看到！', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/30ca7e36ea.jpg', 'width': 658, 'height': 673, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '14': {'obj_id': '1579784833004950', 'title': None, 'content': '应该可以当壁纸吧?', 'like_num': 1005, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ccc91d68cb.jpg', 'width': 1000, 'height': 625, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '15': {'obj_id': '1579784852004951', 'title': None, 'content': '附赠桐人壁纸头像（最后一张镇贴）', 'like_num': 1445, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/58227002f1.jpg', 'width': 897, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '16': {'obj_id': '1579785024004953', 'title': None, 'content': 'emmmm，我觉得OK', 'like_num': 1279, 'has_like': 0, 'tags': '', 'author_id': 80, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4d0a13cc96.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDk1MzgxMjcwODUwOTA5MyMzNjMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '17': {'obj_id': '1579785030004955', 'title': None, 'content': '你们有这个的另一半桐子吗？想弄情头', 'like_num': 2789, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/d640de2f13.jpg', 'width': 540, 'height': 540, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '18': {'obj_id': '1579785093004957', 'title': None, 'content': '这行吗', 'like_num': 598, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8ccda5b236.jpg', 'width': 1360, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDg3NzE2NDM1Njc2MjU1MSM0NDMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '19': {'obj_id': '1579785163004961', 'title': None, 'content': '新人前来冒泡', 'like_num': 2459, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a256c77fd5.jpg', 'width': 905, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, 'list': [{'obj_id': '1579784298004927', 'title': None, 'content': '贡献一下（没有什么特别意思，只是按照我的图库顺着来', 'like_num': 941, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/382c3d33c3.jpg', 'width': 900, 'height': 1236, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784334004930', 'title': None, 'content': '第1个是国际服，第2个是日服  \n下哪一个呀？\n哪位大佬告诉我一下。', 'like_num': 508, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ece149884f.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784336004931', 'title': None, 'content': '好看不可以做桌面壁纸', 'like_num': 1142, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/28fc11df6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDQzNjA1NDM4OTE1NjI5MCMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784421004932', 'title': None, 'content': '一天一发，发完即止', 'like_num': 2352, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e93f9634b7.jpg', 'width': 1754, 'height': 1240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784454004933', 'title': None, 'content': '为什么玩不了', 'like_num': 743, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6bdd1ab1d7.jpg', 'width': 1920, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784488004934', 'title': None, 'content': '高清刀剑壁纸图哦', 'like_num': 2287, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/2e77d3c934.jpg', 'width': 2048, 'height': 1447, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784579004936', 'title': None, 'content': '亚丝娜小时候好可爱?', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/17c3fee583.jpg', 'width': 640, 'height': 360, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784596004938', 'title': None, 'content': '已经发了第三遍了，但是还不够', 'like_num': 1963, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e5b03defc5.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDUyNDUyMTMzMDA4OTY4NyMyMDUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784635004939', 'title': None, 'content': '(｀⌒´メ(｀⌒´メ)超凶', 'like_num': 2752, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/12b0011fa8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDU5NTg1NTEzNzczOTAyOSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781614004866', 'title': None, 'content': '4月刀剑神域GGO外传PV合集(1080P)(已更新完毕)', 'like_num': 1456, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5250b9a70a.jpg', 'width': 550, 'height': 344, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NjM4NDI1MzU5MDc1NyMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784716004943', 'title': None, 'content': '一入潜水深似海', 'like_num': 887, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/61dc12c61f.jpg', 'width': 1200, 'height': 851, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784781004944', 'title': None, 'content': '就问帅不帅', 'like_num': 2748, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3d39db1f22.jpg', 'width': 960, 'height': 831, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784787004945', 'title': None, 'content': '【刀剑神域】#结城明日奈#亚总\n这个亚子的啊丝娜可爱ớ ₃ờ炸了，是我的。', 'like_num': 1294, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7a36fc3491.jpg', 'width': 1080, 'height': 608, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784804004948', 'title': None, 'content': '亚骚娜你在干撒子?看来这张结衣绝对不可以看到！', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/30ca7e36ea.jpg', 'width': 658, 'height': 673, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784833004950', 'title': None, 'content': '应该可以当壁纸吧?', 'like_num': 1005, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ccc91d68cb.jpg', 'width': 1000, 'height': 625, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784852004951', 'title': None, 'content': '附赠桐人壁纸头像（最后一张镇贴）', 'like_num': 1445, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/58227002f1.jpg', 'width': 897, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785024004953', 'title': None, 'content': 'emmmm，我觉得OK', 'like_num': 1279, 'has_like': 0, 'tags': '', 'author_id': 80, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4d0a13cc96.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDk1MzgxMjcwODUwOTA5MyMzNjMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785030004955', 'title': None, 'content': '你们有这个的另一半桐子吗？想弄情头', 'like_num': 2789, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/d640de2f13.jpg', 'width': 540, 'height': 540, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785093004957', 'title': None, 'content': '这行吗', 'like_num': 598, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8ccda5b236.jpg', 'width': 1360, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDg3NzE2NDM1Njc2MjU1MSM0NDMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785163004961', 'title': None, 'content': '新人前来冒泡', 'like_num': 2459, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a256c77fd5.jpg', 'width': 905, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0}}</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>首页段子tab</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_zone_content_list</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'5','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>{'zone_id':'4','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 560, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, '1': {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, '2': {'obj_id': '190643863', 'title': '【jk正片】樱花落下的速度是每秒五厘米', 'content': '樱花片拖到现在都也就我了hhh', 'like_num': 2877, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/te9G9TOJ7g2esunG.jpg', 'width': 1326, 'height': 1988, 'lemon_num': 0, 'rec_package_id': ''}, '3': {'obj_id': '19064968', 'title': '【jk日常】新衬衫咋样？', 'content': '灯笼袖水手领哦！', 'like_num': 1437, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/lrRzDPnHqDiwAAry.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, '4': {'obj_id': '19069548', 'title': '应该好看吧！', 'content': None, 'like_num': 2391, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/hhyVkg7XPpmz4tcC.jpg', 'width': 1199, 'height': 1471, 'lemon_num': 0, 'rec_package_id': ''}, '5': {'obj_id': '190625191', 'title': '扫街日常～纪念第一次夜景', 'content': '出境：我摄影：江城拾梦者求互粉～求投喂～', 'like_num': 1292, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/GKGFHXNLYLFIIONO.jpg', 'width': 2598, 'height': 3897, 'lemon_num': 0, 'rec_package_id': ''}, '6': {'obj_id': '190613936', 'title': '一波腿子！', 'content': '最近没拍图！周六拍内景！先发一波腿子！', 'like_num': 1080, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/KEGSKCXGQDSLTREH.jpg', 'width': 3494, 'height': 6210, 'lemon_num': 0, 'rec_package_id': ''}, '7': {'obj_id': '190618039', 'title': '刀锋腐团儿', 'content': None, 'like_num': 1555, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1ODQxNzc1NzYzNjEyMDI5OCMzNzkjaW1hZ2U=', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}, '8': {'obj_id': '190617979', 'title': '姐妹花 圣诞cos 第二弹', 'content': None, 'like_num': 2182, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1NTU0MDI5NTIyOTY3Nzc1MSM1OSNpbWFnZQ==', 'width': 1600, 'height': 2400, 'lemon_num': 0, 'rec_package_id': ''}, '9': {'obj_id': '19066648', 'title': '今天也是日常，看我做的蛋糕！！', 'content': '我画画是真的烂哈哈哈明明小时候很会画画的呢QAQ现在画的真的就略略略。。。', 'like_num': 1094, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/diK1A1tAuDhzRrvP.jpg', 'width': 1016, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, '10': {'obj_id': '190626884', 'title': '路人女主加藤惠睡衣♡1100粉就发这套正片!', 'content': '喜欢的小伙伴点个糖关注呀谢谢啦♡非常非常爱你们!希望变得可爱x', 'like_num': 1473, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yOkTHjVcPSRfhP5t.jpg', 'width': 1500, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, '11': {'obj_id': '19063527', 'title': '变☆态☆注☆意', 'content': None, 'like_num': 2107, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/VlXQlRPG50a37CKx.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': ''}, '12': {'obj_id': '19069422', 'title': '茨木童子·鬼众之王', 'content': 'Fate/Grand Order\u3000茨木童子「吾の名は茨木童子。大江山の鬼の首魁よ」model：クルミ(@k_purarine) photo：けーたろ(@ketaro_ovn)#FGO #fateGO https://t.co/dtiC8cZgPh', 'like_num': 1474, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/SVn0ZyOi9bslrfoR.jpg', 'width': 2048, 'height': 1405, 'lemon_num': 0, 'rec_package_id': ''}, '13': {'obj_id': '190643799', 'title': '式雪鸟cos正片', 'content': '喜欢可关注！！后面还会发其他cos的感谢！！！人丑勿喷。出境：暗墨血摄影/后期：小浩，酱饼', 'like_num': 2025, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NDY5NzkwNTg5NjE1Mjc2NCMxNDMjaW1hZ2U=', 'width': 1280, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, '14': {'obj_id': '190627052', 'title': '【COS正片】王者荣耀 安琪拉cos', 'content': '安琪拉心灵骇客❤️\r“节奏摇摆的时候，一天会变成365个季节”\r\r出境：原po\rphx：@Crimson枫叶 \r后期：@阮妹-薯片片-\r排版：@尐夭_Luvian \r\r好喜欢安琪拉这个皮肤！太酷炫了！！一定要出次正片才行谢谢薯片片的酷炫后期\r\r转侵删~', 'like_num': 1127, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/90SgQkuVtgLaYWPt.jpg', 'width': 878, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, '15': {'obj_id': '1578930301004949', 'title': None, 'content': '【日常】c服开箱', 'like_num': 2014, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ded641d47a.jpg', 'width': 3072, 'height': 4096, 'lemon_num': 0, 'rec_package_id': ''}, '16': {'obj_id': '190648705', 'title': '心血来潮', 'content': None, 'like_num': 2717, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/S01kGZ7VbFvI7GFF.jpg', 'width': 870, 'height': 2196, 'lemon_num': 0, 'rec_package_id': ''}, '17': {'obj_id': '190624119', 'title': '日常', 'content': '三连拍♡一起来玩歪头头吧～', 'like_num': 2932, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/T3cftfhi2YwlSvwC.jpg', 'width': 693, 'height': 644, 'lemon_num': 0, 'rec_package_id': ''}, '18': {'obj_id': '190640682', 'title': '【COS】狂赌之渊', 'content': '梦子X会长你爱这对cp吗', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/v235XUyJRWpJKDwi.jpg', 'width': 812, 'height': 1080, 'lemon_num': 0, 'rec_package_id': ''}, '19': {'obj_id': '190648791', 'title': '手作展示贴ORZ', 'content': None, 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T4nGIxh2fUdg6gk0.jpg', 'width': 800, 'height': 1066, 'lemon_num': 0, 'rec_package_id': ''}, 'list': [{'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 560, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190643863', 'title': '【jk正片】樱花落下的速度是每秒五厘米', 'content': '樱花片拖到现在都也就我了hhh', 'like_num': 2877, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/te9G9TOJ7g2esunG.jpg', 'width': 1326, 'height': 1988, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064968', 'title': '【jk日常】新衬衫咋样？', 'content': '灯笼袖水手领哦！', 'like_num': 1437, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/lrRzDPnHqDiwAAry.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19069548', 'title': '应该好看吧！', 'content': None, 'like_num': 2391, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/hhyVkg7XPpmz4tcC.jpg', 'width': 1199, 'height': 1471, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190625191', 'title': '扫街日常～纪念第一次夜景', 'content': '出境：我摄影：江城拾梦者求互粉～求投喂～', 'like_num': 1292, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/GKGFHXNLYLFIIONO.jpg', 'width': 2598, 'height': 3897, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190613936', 'title': '一波腿子！', 'content': '最近没拍图！周六拍内景！先发一波腿子！', 'like_num': 1080, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/KEGSKCXGQDSLTREH.jpg', 'width': 3494, 'height': 6210, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190618039', 'title': '刀锋腐团儿', 'content': None, 'like_num': 1555, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1ODQxNzc1NzYzNjEyMDI5OCMzNzkjaW1hZ2U=', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190617979', 'title': '姐妹花 圣诞cos 第二弹', 'content': None, 'like_num': 2182, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1NTU0MDI5NTIyOTY3Nzc1MSM1OSNpbWFnZQ==', 'width': 1600, 'height': 2400, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19066648', 'title': '今天也是日常，看我做的蛋糕！！', 'content': '我画画是真的烂哈哈哈明明小时候很会画画的呢QAQ现在画的真的就略略略。。。', 'like_num': 1094, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/diK1A1tAuDhzRrvP.jpg', 'width': 1016, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190626884', 'title': '路人女主加藤惠睡衣♡1100粉就发这套正片!', 'content': '喜欢的小伙伴点个糖关注呀谢谢啦♡非常非常爱你们!希望变得可爱x', 'like_num': 1473, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yOkTHjVcPSRfhP5t.jpg', 'width': 1500, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19063527', 'title': '变☆态☆注☆意', 'content': None, 'like_num': 2107, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/VlXQlRPG50a37CKx.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19069422', 'title': '茨木童子·鬼众之王', 'content': 'Fate/Grand Order\u3000茨木童子「吾の名は茨木童子。大江山の鬼の首魁よ」model：クルミ(@k_purarine) photo：けーたろ(@ketaro_ovn)#FGO #fateGO https://t.co/dtiC8cZgPh', 'like_num': 1474, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/SVn0ZyOi9bslrfoR.jpg', 'width': 2048, 'height': 1405, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190643799', 'title': '式雪鸟cos正片', 'content': '喜欢可关注！！后面还会发其他cos的感谢！！！人丑勿喷。出境：暗墨血摄影/后期：小浩，酱饼', 'like_num': 2025, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NDY5NzkwNTg5NjE1Mjc2NCMxNDMjaW1hZ2U=', 'width': 1280, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190627052', 'title': '【COS正片】王者荣耀 安琪拉cos', 'content': '安琪拉心灵骇客❤️\r“节奏摇摆的时候，一天会变成365个季节”\r\r出境：原po\rphx：@Crimson枫叶 \r后期：@阮妹-薯片片-\r排版：@尐夭_Luvian \r\r好喜欢安琪拉这个皮肤！太酷炫了！！一定要出次正片才行谢谢薯片片的酷炫后期\r\r转侵删~', 'like_num': 1127, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/90SgQkuVtgLaYWPt.jpg', 'width': 878, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578930301004949', 'title': None, 'content': '【日常】c服开箱', 'like_num': 2014, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ded641d47a.jpg', 'width': 3072, 'height': 4096, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190648705', 'title': '心血来潮', 'content': None, 'like_num': 2717, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/S01kGZ7VbFvI7GFF.jpg', 'width': 870, 'height': 2196, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190624119', 'title': '日常', 'content': '三连拍♡一起来玩歪头头吧～', 'like_num': 2932, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/T3cftfhi2YwlSvwC.jpg', 'width': 693, 'height': 644, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190640682', 'title': '【COS】狂赌之渊', 'content': '梦子X会长你爱这对cp吗', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/v235XUyJRWpJKDwi.jpg', 'width': 812, 'height': 1080, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190648791', 'title': '手作展示贴ORZ', 'content': None, 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T4nGIxh2fUdg6gk0.jpg', 'width': 800, 'height': 1066, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 0}}</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2132,7 +2388,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
@@ -2154,360 +2410,376 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>第三方登陆</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>注册登录</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/user/third_login</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'avatar':'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015','birthday':'2000-01-01','city':'','device':1,'nickname':'嗯啦','openid':'7D16713132BEF9883D7F0D2B7731B737','province':'','sex':1,'type':2}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{"uid":1060,"is_bind":1}</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': {'is_bind': 1, 'access_token': '9oxe3i55e99mdlx28r7civbe6', 'refresh_token': 'z89kwwmm18zwjrhsxl0c70tro', 'expires_in': 3600, 'uid': 1060}}</t>
         </is>
       </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>手机号登录-发短信</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>注册登录</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/app/sendsms</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{
  'device': '867672030793812',
- 'mobile': '12345678998'
+ 'mobile': '12345678999'
 }</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '短信发送成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>手机号登录-输入验证码</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>注册登录</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/user/token</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{
- 'smscode': '8998',
+ 'smscode': '8999',
  'device': 1,
- 'mobile': '12345678998',
+ 'mobile': '12345678999',
  'grant_type': 'smscode'
 }</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>{"uid":87}</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"uid":88}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'access_token': 'x7mrp9mklg8xajnskh72qnlif', 'refresh_token': 'qiggrjxr99fly2lquc3za3mkm', 'expires_in': 3600, 'uid': 88}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>注册登录</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/user/profile</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{'access_token':token}</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>{"id","nickname"}</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 1060, 'showid': 'ag1060', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'sex': 1, 'nickname': '嗯啦', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'third_type': 2, 'is_anchor': 1, 'is_anchor_ban': 0}}</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 88, 'showid': 'ii88', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/88.gif', 'sex': 3, 'nickname': '我是你的大笨居', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'third_type': 0, 'is_anchor': 0, 'is_anchor_ban': 0}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>sync</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>注册登录</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/api/user/sync</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{"access_token":token,"device_brand":"OPPO","location":"default","device_model":"OPPO A57","device_token":"867672030793812","device_type":1,"dreampix_device_id":"V1_d0f338928d64b38a038a772d4424891ad3e177ddb94986772c2de4256121d019"}</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
         </is>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -2558,846 +2830,846 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>主页详情</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/user_home_page/get_user_home_page_info</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'user_id':uid,'access_token':token}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token,uid</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{"id","showid","avatar"}</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 1060, 'showid': 'ag1060', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'sex': 1, 'nickname': '嗯啦', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 6, 'receive_lemon_num': 1, 'release_content_num': 51, 'tag_list': [{'title': '推荐标签888'}], 'anchor_info': {'live_id': '2020041', 'is_online': 0}, 'is_follow': 0, 'follow_num': 14, 'fans_num': 12}}</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 88, 'showid': 'ii88', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/88.gif', 'sex': 3, 'nickname': '我是你的大笨居', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 9, 'receive_lemon_num': 2, 'release_content_num': 207, 'tag_list': None, 'anchor_info': None, 'is_follow': 0, 'follow_num': 12, 'fans_num': 5}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>已发布的作品列表</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/user_home_page/get_user_work_list</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{'user_id':uid,'page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token,uid</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '200452', 'title': '1586763627091', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200450', 'title': '1586763549862', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200448', 'title': '1586763476540', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200447', 'title': '1586762707510', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}, {'obj_id': '200441', 'title': '1586759346913', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200440', 'title': '1586759294560', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200439', 'title': '1586758802291', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200438', 'title': '1586758755005', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200437', 'title': '1586758716838', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200436', 'title': '1586758677703', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200435', 'title': '1586758564752', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200434', 'title': '1586758519173', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200433', 'title': '1586758438929', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200432', 'title': '1586758366702', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200431', 'title': '1586758276189', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200430', 'title': '1586749809391', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200429', 'title': '1586749786337', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200428', 'title': '1586749750704', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200427', 'title': '1586749683038', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200425', 'title': '1586749049339', 'content': '2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}]}</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004155', 'title': '1587361337866', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004153', 'title': '1587361223805', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004151', 'title': '1587351770423', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200468', 'title': '台上一分钟，台下十年功', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/6534dc7a48983769eb34cded70c8bebd.png', 'width': 192, 'height': 192, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/dub_game/147-1586830270680.mp4'}, {'obj_id': '200445', 'title': '3434', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/video/5781f01a33824882b3443979c0717374.mp4'}, {'obj_id': '2003226', 'title': '6666', 'content': '55', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/2231675575454251a9dc408c6af01de7.jpg', 'width': 686, 'height': 858}, {'obj_id': '2003225', 'title': '9494', 'content': '9467', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/49dfab80516c4f1887fd1109b713fd36.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '190956', 'title': 'you配音', 'content': '是', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/6e17306a1739444493e7ffed49299651.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/video/e983921f398a402b83fde75856306731.mp4'}, {'obj_id': '190954', 'title': '不理解', 'content': '不知道', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/ea4eef44d6d8467a92b59b611acaca3b.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/video/cd31e3eef24d40a9a989c8370ef4a31d.mp4'}, {'obj_id': '190647203', 'title': '【cos試妝】靈夢★紅白巫女', 'content': '找時間要來雪恥紅白的一設了…！想起箱子深處那套紅魔鄉紅白，雖然很古老還簡單，但作為入坑作還是捨棄不了 _(┐「ε:)_ 喜歡的話求糖求關注！投喂的話請丟進那邊那個賽錢箱裡 ˋ( ° ▽、° ) ！', 'like_num': 2374, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/ZgLFhBij5sgaTR1R.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190911687', 'title': 'Beyond: Two Souls游戏壁纸', 'content': None, 'like_num': 855, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/13-1612051536360-L.jpg', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190921537', 'title': ' 【动漫】玉藻前 第二十一弹', 'content': None, 'like_num': 2875, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/b78bf34a2720fb1a2925cc73c9d7a26a-420x600.jpg', 'width': 420, 'height': 600, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191115437', 'title': None, 'content': '有一种生活叫朋友圈里的生活', 'like_num': 980, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/08fb1bc9f1.jpg', 'width': 1024, 'height': 576, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1797710.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190917253', 'title': ' 【Pixiv Spotlight】全球的插画师 激发想象力的世界观！精选12位中国插画师', 'content': None, 'like_num': 1904, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/e93c80c73a2844c24ce612a152a8d889-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190628763', 'title': '【弹♂娘弹♂妹换装play】', 'content': '祝弹娘弹妹生日快乐~由于很早就定了衣服没拍 结果换了人设 所以出的是复古版 想出人物cos人物的脑洞 最后我太大只了 再也不会出软妹了 告辞~', 'like_num': 2687, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/rKOWnGZvF8uTvjr3.jpg', 'width': 1376, 'height': 2064, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190630017', 'title': '哈哈，不成功来一次', 'content': '来一次不成功的试妆+假发虽然……不好看', 'like_num': 659, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/FRa8ANQvlle0r6Lt.jpg', 'width': 720, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190920597', 'title': ' 【动漫】东方 第一弹', 'content': None, 'like_num': 2212, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/6f5c82ac016e3dca7a421f2c9d33f652-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190642893', 'title': '第一次发，但不是第一次女装。。。', 'content': None, 'like_num': 948, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/NV693ztZXflNXF2A.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191047483', 'title': None, 'content': '忘了进攻手势？', 'like_num': 2889, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/464cee2012.jpg', 'width': 864, 'height': 454, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2462460.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190641123', 'title': '【叽】叽叽叽叽叽叽叽叽', 'content': '天气差的时候拍的还把叽耳忘在酒店了哭唧唧我修图又要p上去', 'like_num': 2395, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/kfnEsJXzhptaqpmX.jpg', 'width': 1620, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}]}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>砸柠檬列表</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/user_home_page/get_user_give_lemon_list</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{'user_id':uid,'page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token,uid</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': '4', 'obj_id': '77851917', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '11', 'obj_id': '1908172', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '11', 'obj_id': '190937', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '14', 'obj_id': '190914', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '9', 'obj_id': '190652757', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '7', 'obj_id': '1907104335', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}]}}</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191115535', 'title': None, 'content': '这是在说郭老师当年经历吗', 'like_num': 1940, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/529e1e5167.jpg', 'width': 360, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/19723628794_15632093460.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191121662', 'title': None, 'content': '那个是卸妆水吗😂😂', 'like_num': 2391, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c342c36faa.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2016030.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1582701235004515', 'title': None, 'content': '【剧照第20期】〔五年前的三三〕', 'like_num': 641, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3289036552.jpg', 'width': 1506, 'height': 720, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1583037066001276', 'title': '田园风 o(≧v≦)o~~', 'content': None, 'like_num': 2013, 'has_like': 0, 'tags': ',泰剧,toey', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1138cd753a.jpg', 'width': 1080, 'height': 1350, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1582513855001118', 'title': '将恋爱进行到底❤️', 'content': '陷在里面无法自拔，好想赶快大结局 [1f60d] [1f60d] [1f60d]', 'like_num': 658, 'has_like': 0, 'tags': ',安利我的爱豆,日剧', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/90806ac3a4.jpg', 'width': 840, 'height': 1493, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1582771355004099', 'title': None, 'content': '找师傅，找朋友', 'like_num': 2116, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e09d66bb17.jpg', 'width': 1080, 'height': 2280, 'lemon_num': 1, 'rec_package_id': ''}, {'type': '7', 'obj_id': '1905161698', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '9', 'obj_id': '190651944', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '9', 'obj_id': '190650895', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}]}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>banner</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/banner/get_banner_list</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{'type':3,'access_token':token}</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
         </is>
       </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>意见反馈</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/api/app/feedback</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{'content':'反馈内容','star':5,'access_token':token}</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
         </is>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>用户资源</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>/api/user_res/get_user_res_info</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>{'access_token':token}</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_res_info': {'copper': '29734', 'silver': '9900', 'gold': '91.39'}, 'lemon_res_desc': '&lt;p&gt;青柠，是柠檬精平台的通用货币，目前青柠的唯一来源是通过参与平台内的活动、任务而获得。青柠目前可用于购买直播间特定礼物等消耗，或者按照平台的比例兑换成人民币提现。&lt;/p&gt;&lt;p&gt;金条，是柠檬精充值平台的中间货币，目前金条的唯一来源是通过充值获得。充值即视为消费，不予退款。当您在柠檬精平台直播间进行礼物打赏时，可直接用于支付。金条，不能用于兑换人民币提现。&lt;/p&gt;&lt;p&gt;彩钻，是用户通过直播表演，获得礼物后，所产生的货币。彩钻可按照平台的比例兑换成人民币提现。&lt;/p&gt;', 'withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1586763959#/czDrawCash'}, 'copper_withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1586763959#/qnDrawCash'}}}</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_res_info': {'copper': '25612', 'silver': '0', 'gold': '0'}, 'lemon_res_desc': '&lt;p&gt;青柠，是柠檬精平台的通用货币，目前青柠的唯一来源是通过参与平台内的活动、任务而获得。青柠目前可用于购买直播间特定礼物等消耗，或者按照平台的比例兑换成人民币提现。&lt;/p&gt;&lt;p&gt;金条，是柠檬精充值平台的中间货币，目前金条的唯一来源是通过充值获得。充值即视为消费，不予退款。当您在柠檬精平台直播间进行礼物打赏时，可直接用于支付。金条，不能用于兑换人民币提现。&lt;/p&gt;', 'withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362128#/czDrawCash'}, 'copper_withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362128#/qnDrawCash'}}}</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>充值资源商品列表</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>/api/user_res/get_charge_scales</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>{'page':'1','pagesize':'21','access_token':token}</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>{"rmb_num","item_id","silver_num"}</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'rmb_num': 0.01, 'item_id': '1', 'silver_num': 1, 'icon_text': ''}, {'rmb_num': 0.06, 'item_id': '2', 'silver_num': 6, 'icon_text': ''}, {'rmb_num': 0.15, 'item_id': '5', 'silver_num': 15, 'icon_text': ''}, {'rmb_num': 0.36, 'item_id': '6', 'silver_num': 36, 'icon_text': ''}, {'rmb_num': 0.88, 'item_id': '7', 'silver_num': 88, 'icon_text': ''}, {'rmb_num': 2.18, 'item_id': '8', 'silver_num': 218, 'icon_text': ''}, {'rmb_num': 5, 'item_id': '11', 'silver_num': 500, 'icon_text': ''}]}}</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'rmb_num': 1, 'item_id': '10', 'silver_num': 100, 'icon_text': '首充有礼'}, {'rmb_num': 0.01, 'item_id': '1', 'silver_num': 1, 'icon_text': ''}, {'rmb_num': 0.06, 'item_id': '2', 'silver_num': 6, 'icon_text': ''}, {'rmb_num': 0.15, 'item_id': '5', 'silver_num': 15, 'icon_text': ''}, {'rmb_num': 0.36, 'item_id': '6', 'silver_num': 36, 'icon_text': ''}, {'rmb_num': 0.88, 'item_id': '7', 'silver_num': 88, 'icon_text': ''}, {'rmb_num': 2.18, 'item_id': '8', 'silver_num': 218, 'icon_text': ''}, {'rmb_num': 5, 'item_id': '11', 'silver_num': 500, 'icon_text': ''}]}}</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>用户青柠收支记录</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>/api/user_res/get_user_res_record_list</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>{'type':'1','page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20200383', 'log_pay_type': 1, 'log_type': '1_1_9', 'log_time': 1585044065, 'res_type': 1, 'res_val': 1000, 'rmb_num': '', 'log_type_name': '活动获奖'}, {'log_id': '20200367', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028684, 'res_type': 1, 'res_val': 5, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200365', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028677, 'res_type': 1, 'res_val': 35, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200366', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028677, 'res_type': 1, 'res_val': 18, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200363', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028647, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200364', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1585028647, 'res_type': 1, 'res_val': 18, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001325', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579080442, 'res_type': 1, 'res_val': 971, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001297', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071476, 'res_type': 1, 'res_val': 20, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001296', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071286, 'res_type': 1, 'res_val': 15, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001295', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071178, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001294', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579071151, 'res_type': 1, 'res_val': 5, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001137', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478227, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001133', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478226, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001131', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478226, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001132', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478226, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001112', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001111', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001110', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001126', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202001116', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1578478225, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}]}}</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20200313', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583826224, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020038', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399931, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020037', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399862, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020036', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399675, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020035', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399601, 'res_type': 1, 'res_val': 30, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020034', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399600, 'res_type': 1, 'res_val': 54, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200116379', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116357', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1181, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116358', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 955, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116359', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1176, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116361', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1184, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116364', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1105, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116365', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 902, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116369', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1215, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116370', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1131, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116373', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 974, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116375', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116377', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116355', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579486481, 'res_type': 1, 'res_val': 1199, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}]}}</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>用户金条收支记录</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>/api/user_res/get_user_res_record_list</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>{'type':'2','page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="inlineStr">
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20191217', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774853, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 半屏特效C', '支出对象：  用户ID84', '创建时间：  2019-12-31 14:47:33', '订单编号：  201912_67']}}, {'log_id': '20191216', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774803, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 半屏特效C', '支出对象：  用户ID85', '创建时间：  2019-12-31 14:46:43', '订单编号：  201912_65']}}, {'log_id': '20191215', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774744, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 半屏特效C', '支出对象：  用户ID85', '创建时间：  2019-12-31 14:45:44', '订单编号：  201912_63']}}, {'log_id': '20191214', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774697, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/eea45d7d87b36a3e60f4a99a106737c6.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 2', '支出对象：  用户ID85', '创建时间：  2019-12-31 14:44:57', '订单编号：  201912_61']}}, {'log_id': '20191213', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1577774423, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/eea45d7d87b36a3e60f4a99a106737c6.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼 - 2', '支出对象：  用户ID84', '创建时间：  2019-12-31 14:40:23', '订单编号：  201912_60']}}, {'log_id': '201911160', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183951, 'res_type': 2, 'res_val': 2, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/eea45d7d87b36a3e60f4a99a106737c6.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:32:31', '订单编号：  201911_157']}}, {'log_id': '201911159', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1573183938, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-08 11:32:18', '订单编号：  177-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '201911158', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183917, 'res_type': 2, 'res_val': 40, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:31:57', '订单编号：  201911_156']}}, {'log_id': '201911157', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1573183916, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-08 11:31:56', '订单编号：  176-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '201911156', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183885, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:31:25', '订单编号：  201911_155']}}, {'log_id': '201911155', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1573183749, 'res_type': 2, 'res_val': 330, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift14.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID1010', '创建时间：  2019-11-08 11:29:09', '订单编号：  201911_154']}}, {'log_id': '201911154', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1573183321, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-08 11:22:01', '订单编号：  174-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '20191179', 'log_pay_type': 1, 'log_type': '1_1', 'log_time': 1572920521, 'res_type': 2, 'res_val': 100, 'rmb_num': '¥ 0.01', 'log_type_name': '金条充值', 'log_detail': {'log_title': '金条充值详情', 'log_desc': '充值成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['创建时间：  2019-11-05 10:22:01', '订单编号：  145-1-1060-silver_1', '充值来源：  微信']}}, {'log_id': '20191171', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861254, 'res_type': 2, 'res_val': 6, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/111e78092c006d61708b0d8ed2885ec1.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:54:14', '订单编号：  201911_66']}}, {'log_id': '20191169', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861250, 'res_type': 2, 'res_val': 8, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/73f380e5bae93f5de9582215c840d259.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:54:10', '订单编号：  201911_64']}}, {'log_id': '20191163', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861081, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:51:21', '订单编号：  201911_53']}}, {'log_id': '20191158', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572861035, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:50:35', '订单编号：  201911_48']}}, {'log_id': '20191157', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572860961, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:49:21', '订单编号：  201911_47']}}, {'log_id': '20191156', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572860956, 'res_type': 2, 'res_val': 20, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live_gift/live_gift/gift11.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:49:16', '订单编号：  201911_46']}}, {'log_id': '20191153', 'log_pay_type': 2, 'log_type': '2_1', 'log_time': 1572860631, 'res_type': 2, 'res_val': 6, 'rmb_num': '', 'log_icon_url': 'http://psb1lisd3.bkt.clouddn.com/live/111e78092c006d61708b0d8ed2885ec1.png', 'log_type_name': '送礼物', 'log_detail': {'log_title': '金条支出详情', 'log_desc': '扣费成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'detail_list': ['支出项目：  直播送礼', '支出对象：  用户ID82', '创建时间：  2019-11-04 17:43:51', '订单编号：  201911_43']}}]}}</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>用户彩钻收支记录</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>个人空间</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>/api/user_res/get_user_res_record_list</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>{'type':'3','page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '2020011', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1577935560, 'res_type': 3, 'res_val': 0.65, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191145', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573032026, 'res_type': 3, 'res_val': 0.13, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191144', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573031997, 'res_type': 3, 'res_val': 0.13, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191120', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572867487, 'res_type': 3, 'res_val': 21.45, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191119', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572867436, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191118', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572867350, 'res_type': 3, 'res_val': 21.45, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191117', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572863291, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019119', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572603677, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019118', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572603002, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019117', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572602974, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '2019116', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572602489, 'res_type': 3, 'res_val': 1.3, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191029', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503705, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191028', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503695, 'res_type': 3, 'res_val': 0.13, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191027', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503563, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191026', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503462, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191025', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503311, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191024', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572503168, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191023', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572502930, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191022', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572502891, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '20191021', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1572502779, 'res_type': 3, 'res_val': 2.15, 'rmb_num': '', 'log_type_name': '收礼物'}]}}</t>
-        </is>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="14">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="18">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
-      <c r="I21" s="5" t="n"/>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
-      <c r="I22" s="5" t="n"/>
-      <c r="J22" s="5" t="n"/>
-      <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
-      <c r="M22" s="5" t="n"/>
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3428,753 +3700,753 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="9"/>
-    <col customWidth="1" max="2" min="2" style="3" width="19"/>
-    <col customWidth="1" max="3" min="3" style="3" width="9"/>
-    <col customWidth="1" max="4" min="4" style="3" width="19"/>
-    <col customWidth="1" max="5" min="5" style="3" width="9"/>
-    <col customWidth="1" max="8" min="6" style="3" width="19"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" style="3" width="9"/>
-    <col customWidth="1" max="11" min="10" style="3" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" style="3" width="9"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" style="3" width="19"/>
-    <col customWidth="1" max="16384" min="15" style="3" width="9.142857142857141"/>
+    <col customWidth="1" max="14" min="14" style="2" width="19"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9.142857142857141"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>配音tab</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/voice_template/get_tab_list</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'tab_id': 5, 'title': '校园'}, {'tab_id': 8, 'title': '牛批轰轰'}, {'tab_id': 7, 'title': '不开心'}, {'tab_id': 6, 'title': '骚里骚气'}, {'tab_id': 3, 'title': '漫画'}, {'tab_id': 4, 'title': '漫剧'}]}}</t>
         </is>
       </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>配音模板</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/voice_template/get_voice_template_list</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{'page':'1','pagesize':'20','access_token':token}</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="4" s="3">
-      <c r="A4" s="5" t="n">
+    <row customFormat="1" customHeight="1" ht="40" r="4" s="2">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>背景音乐列表</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/background_music/get_background_music_list</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{"page":"1","pagesize":"20","access_token":token}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>{"music_id","title","music_url"}</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'music_id': 2, 'title': '音乐配音', 'music_url': 'http://psb1lisd3.bkt.clouddn.com/music/710bd5f66efe02260a267456c476cfe2.mp3'}, {'music_id': 5, 'title': '哈哈哈', 'music_url': 'http://psb1lisd3.bkt.clouddn.com/music/fc80bf3569ce810bb78a6c3c3437206b.mp3'}, {'music_id': 12, 'title': '达拉崩吧', 'music_url': 'http://psb1lisd3.bkt.clouddn.com/music/17db5d309e0cbca6ac21d922f8a06393.mp3'}, {'music_id': 7, 'title': '07', 'music_url': 'http://psb1lisd3.bkt.clouddn.com/music/a92111b1853734637c716afea6eaf5b4.mp3'}, {'music_id': 8, 'title': '08', 'music_url': 'http://psb1lisd3.bkt.clouddn.com/music/380227c612a128273d849a0068fec760.mp3'}, {'music_id': 10, 'title': 'hhhh', 'music_url': 'http://psb1lisd3.bkt.clouddn.com/music/2e34c77b92a6ce62f9bcae4c5d58d9ff.mp3'}, {'music_id': 11, 'title': '10', 'music_url': 'http://psb1lisd3.bkt.clouddn.com/music/f88ec4f5cf678f6fcf63b14284469030.mp3'}]}}</t>
         </is>
       </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="5" s="3">
-      <c r="A5" s="5" t="n">
+    <row customFormat="1" customHeight="1" ht="40" r="5" s="2">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>发布原创图片</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/release_content/add_content_info</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{"create_type":1,"desc":"图片2020","img_list":"[{\"u\":\"user\/88\/image\/edb1285c7a7e48d19de11f45b4fb6819.jpg\",\"w\":1080,\"h\":1920}]","is_open":0,"material_json":"user\/88\/data\/0092f2c4eaa0486c8219cadaf1819d28.json","material_type":"","title":timestamp,"title_image":"{\"u\":\"user\/88\/image\/f808471729d44cef9e9087ac114367a3.jpg\",\"w\":1080,\"h\":1920}","type":11,"access_token":token}</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>obj_id</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token,timestamp</t>
         </is>
       </c>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '200455', 'title': '1586763762199', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004157', 'title': '1587361922562', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>发布原创视频</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/api/release_content/add_content_info</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{"create_type":2,"desc":"视频2020","is_open":0,"material_type":"","title":timestamp,"title_image":"{\"u\":\"user\/88\/image\/4783d76072714796a9c710289fb5428f.jpg\",\"w\":720,\"h\":960}","type":12,"video_list":"{\"u\":\"user\\\/88\\\/image\\\/4783d76072714796a9c710289fb5428f.jpg\",\"v\":\"user\\\/88\\\/video\\\/5781f01a33824882b3443979c0717374.mp4\",\"w\":720,\"h\":960,\"l\":12100}","access_token":token}</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>obj_id</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token,timestamp</t>
         </is>
       </c>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '200456', 'title': '1586763762999', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004158', 'title': '1587361923387', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="7" s="3">
-      <c r="A7" s="5" t="n">
+    <row customFormat="1" customHeight="1" ht="40" r="7" s="2">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>用户发布内容详情</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>/api/release_content/get_content_info</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>{"release_id":release_id,"access_token":token}</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>access_token,release_id</t>
         </is>
       </c>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'type': 12, 'title': '1586763762999', 'desc': '视频2020', 'material_json': '', 'is_open': 0, 'source_obj_type': 0, 'source_obj_id': '', 'like_num': 0, 'lemon_num': 0, 'has_like': 0, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'video_list_obj': {'url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/image\\/4783d76072714796a9c710289fb5428f.jpg', 'max_height': 960, 'max_width': 720, 'length': 12100, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}, 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}, 'user_id': 1060, 'tags': '', 'has_share': 0, 'has_give_lemon': 0, 'allow_share_img': 0, 'allow_save_img': 0, 'is_allow_download': 0, 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1586763967#/video/MjAwNDU2?mode=DEMO&amp;product_type=2'}}}</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'type': 12, 'title': '1587361923387', 'desc': '视频2020', 'material_json': '', 'is_open': 0, 'source_obj_type': 0, 'source_obj_id': '', 'like_num': 0, 'lemon_num': 0, 'has_like': 0, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'video_list_obj': {'url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/image\\/4783d76072714796a9c710289fb5428f.jpg', 'max_height': 960, 'max_width': 720, 'length': 12100, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}, 'user_info': {'user_id': 88, 'nickname': '我是你的大笨居', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/88.gif', 'showid': 'ii88'}, 'user_id': 88, 'tags': '', 'has_share': 0, 'has_give_lemon': 0, 'allow_share_img': 0, 'allow_save_img': 0, 'is_allow_download': 0, 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362137#/video/MjAwNDE1OA==?mode=DEMO&amp;product_type=2'}}}</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="8" s="3">
-      <c r="A8" s="5" t="n">
+    <row customFormat="1" customHeight="1" ht="40" r="8" s="2">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>评论用户发布的内容</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>/api/release_content/add_release_content_comment</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>{"message":"我酸了","content_time":"7009","access_token":token,"release_id":release_id}</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>access_token,release_id</t>
         </is>
       </c>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '20047', 'format_comment_id': '20047'}}</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '2004103', 'format_comment_id': '2004103'}}</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="9" s="3">
-      <c r="A9" s="5" t="n">
+    <row customFormat="1" customHeight="1" ht="40" r="9" s="2">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>用户发布的作品评论列表</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>/api/release_content/get_release_content_new_comment_list</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>{"pagesize":"20","page":"1","release_id":release_id,"access_token":token}</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>access_token,release_id</t>
         </is>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>{"comment_id"}</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '20047', 'user_id': 1060, 'message': '我酸了', 'content_time': 7009, 'comments': None}], 'count': 1}}</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '2004103', 'user_id': 88, 'message': '我酸了', 'content_time': 7009, 'comments': None}], 'count': 1}}</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="10" s="3">
-      <c r="A10" s="5" t="n">
+    <row customFormat="1" customHeight="1" ht="40" r="10" s="2">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>删除用户发布的内容</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>内容创作</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>/api/release_content/del_release_content</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>{"release_id":release_id,"access_token":token}</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="inlineStr">
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>access_token,release_id</t>
         </is>
       </c>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': True}</t>
         </is>
       </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="11" s="3">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="12" s="3">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="13" s="3">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="14" s="3">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="15" s="3">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="16" s="3">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="17" s="3">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="18" s="3">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="19" s="3">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
+    <row customFormat="1" customHeight="1" ht="40" r="11" s="2">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="12" s="2">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="13" s="2">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="14" s="2">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="15" s="2">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="16" s="2">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="17" s="2">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="18" s="2">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="19" s="2">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4197,260 +4469,382 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="19"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="9"/>
-    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
+    <col customWidth="1" max="14" min="14" style="2" width="19"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="40" r="1" s="3">
-      <c r="A1" s="5" t="inlineStr">
+    <row customHeight="1" ht="40" r="1">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40" r="2" s="3">
-      <c r="A2" s="5" t="n">
+    <row customHeight="1" ht="40" r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>配音列表</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道列表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>cos赛道</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_voice_emoji_match/get_voice_emoji_work_list</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_trace_activity/get_trace_list&amp;page=1&amp;pagesize=20</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>{'page':'1','pagesize':'20'}</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004145', 'title': '表情配音，太逗了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1368, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1368/dub_game/288-1587024181198.mp4', 'user_info': {'user_id': 1368, 'nickname': '567', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=pXY7QvZsg1IVIFrKRXDJDA&amp;s=100&amp;t=1556244452', 'showid': 'ig1368'}}, {'obj_id': '2004141', 'title': '有趣的表情，灵魂的配音', 'content': 'Wow，这也太玩好了吧，太上头了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=1120315825,1205387636&amp;fm=26&amp;gp=0.jpg', 'width': 255, 'height': 255, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/109-1586951064236.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004140', 'title': '手速快，抢到了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1586256681157&amp;di=a4891c0b910f55e113016c3e40c4ad78&amp;imgtype=0&amp;src=', 'width': 600, 'height': 391, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/108-1586946365929.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004139', 'title': '有趣的表情，灵魂的配音', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1043/dub_game/264-1586943347189.mp4', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': '2004136', 'title': '抢一图，秀一音', 'content': '你可以像猪一样的生活，但你永远都不能像猪那样快乐！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/261-1586939732539.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004134', 'title': '因趣丝听的配音', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/259-1586938953426.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}, {'obj_id': '2004132', 'title': '台上一分钟，台下十年功', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/259-1586938954379.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004131', 'title': '这是个有趣的配音局', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f16d894d66f5e9479d6d6af78f2d19b1.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/259-1586938953538.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004129', 'title': '不得不说，真的好玩', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/257-1586938811507.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004128', 'title': '好玩，好玩，还是好玩', 'content': '逗乐只是瞬间，配音才是永恒。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/256-1586938578222.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004127', 'title': '表情配音，太逗了', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/256-1586938574015.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004126', 'title': '世间竟有如此好玩的事情', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/253-1586938367852.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004125', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/253-1586938359203.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004123', 'title': '手速快，抢到了', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5232deb00d8dda035d3c6050d7bb76a4.jpg', 'width': 144, 'height': 152, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/251-1586936464922.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004122', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1004, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/248f0c211eb16e85fe059e0a428ff498.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1004/dub_game/249-1586935099011.mp4', 'user_info': {'user_id': 1004, 'nickname': '你好', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1004/avatar/1572523833553.jpg', 'showid': 'ea1004'}}, {'obj_id': '2004121', 'title': '表情配音，太逗了', 'content': '我说话有点雷，玩起来有点疯。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/466de73a789b117522612888380ad4eb.png', 'width': 998, 'height': 968, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/248-1586935034982.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004118', 'title': '世间竟有如此好玩的事情', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c6aedcd53a551bb59a95936c050dee84.jpg', 'width': 150, 'height': 148, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/246-1586934754099.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004117', 'title': '世间竟有如此好玩的事情', 'content': '只想优美转身，不料华丽配音。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/236-1586933290160.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}]}</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'trace_id': 27, 'title': '清明百鬼行', 'desc': '最强鬼族cos属于谁', 'icon': 'http://demo.lemondream.cn/expression/8be85f9bdb56e65c06aa84a9bef83920.png'}, {'trace_id': 26, 'title': '我66', 'desc': '雷之呼吸', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/icon_gt_01.png'}, {'trace_id': 23, 'title': '我5', 'desc': '雷之呼吸', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/icon_gt_01.png'}, {'trace_id': 22, 'title': '我4', 'desc': '雷之呼吸', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/icon_gt_01.png'}, {'trace_id': 10, 'title': 'JK美少女(测试)', 'desc': '青葱的校园记忆(测试)', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/cos_title_image_jk_01.png'}, {'trace_id': 9, 'title': '我妻善逸', 'desc': '雷之呼吸', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/icon_gt_01.png'}]}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>开始匹配</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道信息</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>cos赛道</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_voice_emoji_match/start_match</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_trace_activity/get_trace_activity_info&amp;trace_id=4</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'trace_id': 4, 'title_image': 'http://qnc-lemon.chumanapp.com/user/603/image/16fa2525d3f74778a0ae2413a6af68bf.jpg', 'icon': 'http://qnp.lemondream.cn/emoji/b4e5983e31e98f99a5764939313d9769.png', 'role': '赛道规则', 'left_vote_num': 20, 'title': '赛道444', 'desc': '赛道标题测试', 'trace_desc': 'cos作品选择一个主题赛道有机会赢千万大奖哦', 'notice_info': None, 'status': 3}}}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>取消配音</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道排名列表</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>cos赛道</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_voice_emoji_match/quit_match</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_trace_activity/get_trace_work_rank_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道配音列表</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_trace_activity/get_trace_work_voice_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362149#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362149#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道最新列表</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_trace_activity/get_trace_work_new_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4473,382 +4867,262 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="9"/>
-    <col customWidth="1" max="2" min="2" style="3" width="19"/>
-    <col customWidth="1" max="3" min="3" style="3" width="9"/>
-    <col customWidth="1" max="4" min="4" style="3" width="19"/>
-    <col customWidth="1" max="5" min="5" style="3" width="9"/>
-    <col customWidth="1" max="8" min="6" style="3" width="19"/>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="19"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="8" min="6" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" style="3" width="9"/>
-    <col customWidth="1" max="11" min="10" style="3" width="19"/>
+    <col customWidth="1" max="9" min="9" width="9"/>
+    <col customWidth="1" max="11" min="10" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" style="3" width="9"/>
+    <col customWidth="1" max="13" min="12" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" style="3" width="19"/>
-    <col customWidth="1" max="16384" min="15" style="3" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="40" r="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+    <row customFormat="1" customHeight="1" ht="40" r="2" s="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>cos赛道列表</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>配音列表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>cos赛道</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_trace_activity/get_trace_list&amp;page=1&amp;pagesize=20</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_voice_emoji_match/get_voice_emoji_work_list</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'page':'1','pagesize':'20'}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'trace_id': 27, 'title': '清明百鬼行', 'desc': '最强鬼族cos属于谁', 'icon': 'http://demo.lemondream.cn/expression/8be85f9bdb56e65c06aa84a9bef83920.png'}, {'trace_id': 26, 'title': '我66', 'desc': '雷之呼吸', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/icon_gt_01.png'}, {'trace_id': 23, 'title': '我5', 'desc': '雷之呼吸', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/icon_gt_01.png'}, {'trace_id': 22, 'title': '我4', 'desc': '雷之呼吸', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/icon_gt_01.png'}, {'trace_id': 10, 'title': 'JK美少女(测试)', 'desc': '青葱的校园记忆(测试)', 'icon': 'http://psb1lisd3.bkt.clouddn.com/trace_img/trace_img/image/cos_title_image_jk_01.png'}]}}</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004145', 'title': '表情配音，太逗了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1368, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1368/dub_game/288-1587024181198.mp4', 'user_info': {'user_id': 1368, 'nickname': '567', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=pXY7QvZsg1IVIFrKRXDJDA&amp;s=100&amp;t=1556244452', 'showid': 'ig1368'}}, {'obj_id': '2004141', 'title': '有趣的表情，灵魂的配音', 'content': 'Wow，这也太玩好了吧，太上头了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=1120315825,1205387636&amp;fm=26&amp;gp=0.jpg', 'width': 255, 'height': 255, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/109-1586951064236.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004140', 'title': '手速快，抢到了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1586256681157&amp;di=a4891c0b910f55e113016c3e40c4ad78&amp;imgtype=0&amp;src=', 'width': 600, 'height': 391, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/108-1586946365929.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004139', 'title': '有趣的表情，灵魂的配音', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1043/dub_game/264-1586943347189.mp4', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': '2004136', 'title': '抢一图，秀一音', 'content': '你可以像猪一样的生活，但你永远都不能像猪那样快乐！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/261-1586939732539.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004134', 'title': '因趣丝听的配音', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/259-1586938953426.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}, {'obj_id': '2004132', 'title': '台上一分钟，台下十年功', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/259-1586938954379.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004131', 'title': '这是个有趣的配音局', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f16d894d66f5e9479d6d6af78f2d19b1.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/259-1586938953538.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004129', 'title': '不得不说，真的好玩', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/257-1586938811507.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004128', 'title': '好玩，好玩，还是好玩', 'content': '逗乐只是瞬间，配音才是永恒。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/256-1586938578222.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004127', 'title': '表情配音，太逗了', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/256-1586938574015.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004126', 'title': '世间竟有如此好玩的事情', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/253-1586938367852.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004125', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/253-1586938359203.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004123', 'title': '手速快，抢到了', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5232deb00d8dda035d3c6050d7bb76a4.jpg', 'width': 144, 'height': 152, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/251-1586936464922.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004122', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1004, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/248f0c211eb16e85fe059e0a428ff498.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1004/dub_game/249-1586935099011.mp4', 'user_info': {'user_id': 1004, 'nickname': '你好', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1004/avatar/1572523833553.jpg', 'showid': 'ea1004'}}, {'obj_id': '2004121', 'title': '表情配音，太逗了', 'content': '我说话有点雷，玩起来有点疯。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/466de73a789b117522612888380ad4eb.png', 'width': 998, 'height': 968, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/248-1586935034982.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004118', 'title': '世间竟有如此好玩的事情', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c6aedcd53a551bb59a95936c050dee84.jpg', 'width': 150, 'height': 148, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/246-1586934754099.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004117', 'title': '世间竟有如此好玩的事情', 'content': '只想优美转身，不料华丽配音。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/236-1586933290160.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}]}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>cos赛道信息</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>开始匹配</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>cos赛道</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_trace_activity/get_trace_activity_info&amp;trace_id=4</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_voice_emoji_match/start_match</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'trace_id': 4, 'title_image': 'http://qnc-lemon.chumanapp.com/user/603/image/16fa2525d3f74778a0ae2413a6af68bf.jpg', 'icon': 'http://qnp.lemondream.cn/emoji/b4e5983e31e98f99a5764939313d9769.png', 'role': '赛道规则', 'left_vote_num': 20, 'title': '赛道444', 'desc': '赛道标题测试', 'trace_desc': 'cos作品选择一个主题赛道有机会赢千万大奖哦', 'notice_info': None, 'status': 3}}}</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>cos赛道排名列表</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>取消配音</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>cos赛道</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_trace_activity/get_trace_work_rank_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_voice_emoji_match/quit_match</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>{"msg":"请求成功"}</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305685#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305685#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305685#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305685#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305685#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>cos赛道配音列表</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>cos赛道</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_trace_activity/get_trace_work_voice_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305688#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305688#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>cos赛道最新列表</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>cos赛道</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>/api/web_trace_activity/get_trace_work_new_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305690#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305690#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305690#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305690#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587305690#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4896,316 +5170,316 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>第三方登陆</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/user/third_login</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'avatar':'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100','birthday':'2000-01-01','city':'','device':1,'nickname':'ssk','openid':'FD717EC03696FFB9E78AADEC85E6565D','province':'','sex':2,'type':2}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{"uid":1042,"is_bind":1}</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M2" s="5" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>我的邀请详情</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/share/my_invite_reg_info</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>{"user_id":1042}</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M3" s="5" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>战绩记录列表</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/share/get_invite_reg_record_list</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M4" s="5" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>填写邀请码</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/share/submit_invite_reg_code</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{'invite_code':'EEOI6J'}</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M5" s="5" t="n"/>
+      <c r="M5" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>获取邀请码用户的信息</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>邀请好友注册</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/api/share/get_invite_reg_uinfo</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{'share_token':'MTA0Mg=='}</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M6" s="5" t="n"/>
+      <c r="M6" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5253,267 +5527,267 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>请求类型</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>需要保存的返回字段</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>数据依赖字段</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>是否运行</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>漫画详情页</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/api/comic/get_comic_single_info</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token']}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token,comic_id</t>
         </is>
       </c>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M2" s="5" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>漫画评论</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/api/comic/get_comic_single_new_comment_list</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>access_token,comic_id</t>
         </is>
       </c>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M3" s="5" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>快速评论词</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>/api/comment/get_comment_default_word_list</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{'access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M4" s="5" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>相关推荐</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>漫画</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>/api/recommend/get_relate_rec_content_list</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{'type':'4','obj_id':comic_id['comic_id'],'app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>access_token,comic_id</t>
         </is>
       </c>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M5" s="5" t="n"/>
+      <c r="M5" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="12540" windowWidth="28125"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet name="app通用" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="内容创作" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="h5cos赛道" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="h5配音活动" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="邀请好友注册" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="h5邀请好友注册" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="漫画" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="漫剧" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
@@ -45,7 +45,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +53,7 @@
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,6 +82,13 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -98,69 +105,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -181,6 +126,29 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -189,8 +157,40 @@
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,7 +208,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,25 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,66 +262,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,13 +274,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +310,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,60 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,7 +417,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,8 +440,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +505,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="23" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165">
@@ -517,133 +517,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="15" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="14" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="21" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="21" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,18 +970,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="9"/>
     <col customWidth="1" max="2" min="2" style="2" width="19"/>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>{"msg":"请求成功1"}</t>
+          <t>{"msg":"请求成功"}</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '4b594b590b4a'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '4d5f4e590a425805'}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362100#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://qnp.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362456#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 8, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/expression/05a5628086a9c935eaae132c1c899911.png', 'emoji_list': [{'emoji': 550, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/01.svga'}, {'emoji': 551, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/02.svga'}, {'emoji': 552, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/03.svga'}, {'emoji': 553, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/04.svga'}, {'emoji': 554, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/05.svga'}, {'emoji': 555, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/06.svga'}, {'emoji': 556, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/07.svga'}, {'emoji': 557, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/08.svga'}, {'emoji': 558, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/09.svga'}, {'emoji': 559, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/10.svga'}, {'emoji': 560, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/11.svga'}, {'emoji': 561, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 50, 'mtime': 1582877567, 'is_big': 0, 'is_dynamic': 1}, {'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ffc99adeae1bbcf3e5d132c3707cc3c6.jpeg', 'emoji_list': [{'emoji': 529, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/266570269943bc54d2504af4934b698b.png', 'status': 1, 'sort': 6, 'mtime': 1566285946, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d68c62bdaa032b55eb340847e6adae92.png', 'status': 1, 'sort': 5, 'mtime': 1566285896, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0b4945fddf836e5e8b3cf62a03944ad.png', 'status': 1, 'sort': 4, 'mtime': 1566285830, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/569ce9c8a1597ad1b1bc96da5cdd9f00.png', 'status': 1, 'sort': 3, 'mtime': 1566285817, 'emoji_url': ''}, {'emoji': 525, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3dce3d7e58e38f821230fd0d02520ad9.png', 'status': 1, 'sort': 2, 'mtime': 1566285535, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d79aaa21775a51b6ca8a8cedbc5900b.png', 'status': 1, 'sort': 1, 'mtime': 1566367219, 'emoji_url': ''}], 'status': 0, 'sort': 11, 'mtime': 1566367219, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 5, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8d214494b577a02ba64e650318eae42f.png', 'emoji_list': [{'emoji': 538, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3fa0dfa27d8fd638d8da48b20bd6efca.png', 'status': 1, 'sort': 10, 'mtime': 1566367231, 'emoji_url': ''}, {'emoji': 539, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e71263a63516acac9b0df8e71b51c89.png', 'status': 1, 'sort': 10, 'mtime': 1566353239, 'emoji_url': ''}, {'emoji': 540, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/9800e643e1a1cd071e4e55aac8563673.png', 'status': 1, 'sort': 10, 'mtime': 1566353247, 'emoji_url': ''}, {'emoji': 541, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/458da521e30a6da1e583a826604dda2a.png', 'status': 1, 'sort': 10, 'mtime': 1566358782, 'emoji_url': ''}, {'emoji': 542, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e362c4b3e6438f480afa3e6b4e70ed8e.png', 'status': 1, 'sort': 10, 'mtime': 1566353351, 'emoji_url': ''}, {'emoji': 543, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b51db99c04163cad156b4100e8369b1e.png', 'status': 1, 'sort': 10, 'mtime': 1566353268, 'emoji_url': ''}, {'emoji': 544, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/94b5f4e0c3ffa14962cbec85db085ccf.png', 'status': 1, 'sort': 10, 'mtime': 1566353275, 'emoji_url': ''}, {'emoji': 545, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c13013e590e4c72ed20192be10064cf5.png', 'status': 1, 'sort': 10, 'mtime': 1566358997, 'emoji_url': ''}, {'emoji': 546, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ecc2852366cab53feec85d88ce54348b.png', 'status': 0, 'sort': 10, 'mtime': 1566442870, 'emoji_url': ''}], 'status': 1, 'sort': 10, 'mtime': 1566562782, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1587362101}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 2, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/b4e5983e31e98f99a5764939313d9769.png', 'emoji_list': [{'emoji': 517, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/84f4972da61d1d7dbb0553f117696329.png', 'status': 1, 'sort': 200, 'mtime': 1566874748, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/a0a01255ae7b4826b88f91408da5ded8.png', 'status': 1, 'sort': 199, 'mtime': 1566874762, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/6801aacdb9920be940b4aa40a37261fb.png', 'status': 1, 'sort': 198, 'mtime': 1566874780, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/88372144d0fa03895d05ea0ea6361582.png', 'status': 1, 'sort': 197, 'mtime': 1566874790, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/56a560257a6f45c44b9868642503b923.png', 'status': 1, 'sort': 196, 'mtime': 1566874806, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/38172502a3fa382512dfb6d644a4ce37.png', 'status': 1, 'sort': 195, 'mtime': 1566874818, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/23f88aac88593fe9a972500fcb19e11e.png', 'status': 1, 'sort': 194, 'mtime': 1566874828, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/1a7b16b75d4221c76149e092ace9149d.png', 'status': 1, 'sort': 193, 'mtime': 1566874839, 'emoji_url': ''}], 'status': 1, 'sort': 201, 'mtime': 1574650146, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/b71d77e7f29496e86a2f090c100bef3f.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/ce21501ff517663c008ac9e1a8475b50.png', 'status': 1, 'sort': 100, 'mtime': 1562748019, 'emoji_url': ''}, {'emoji': 501, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/865833691801697d7d34b7d570a59380.png', 'status': 1, 'sort': 99, 'mtime': 1562744622, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/456401342f9734979059b730ee15af8a.png', 'status': 1, 'sort': 98, 'mtime': 1562744629, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/0c2e65e4ae22f6f61594a70be3df345f.png', 'status': 1, 'sort': 97, 'mtime': 1562744639, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/cde4e695f1b586d2936988f445d10c7a.png', 'status': 1, 'sort': 96, 'mtime': 1562744648, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/98d1514feb3674eb0554c736657cb693.png', 'status': 1, 'sort': 95, 'mtime': 1562744673, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/223b89993c32a2f79914ccdae1dd3d29.png', 'status': 1, 'sort': 94, 'mtime': 1562744687, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/7a739484e3275ed10ba2a5e4e3bdbc11.png', 'status': 1, 'sort': 93, 'mtime': 1562744697, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/a042af308216a1c32ca1b2bfc43798c9.png', 'status': 1, 'sort': 92, 'mtime': 1562744705, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/7f0a4302f58d1b133730837574362143.png', 'status': 1, 'sort': 91, 'mtime': 1562744715, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/1a40555442e102abe55bf1d94ae10d7f.png', 'status': 1, 'sort': 90, 'mtime': 1562744734, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/1abe63a74c66ca4d3b1e8b02aa43f85e.png', 'status': 1, 'sort': 89, 'mtime': 1562744759, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/4d96ce4ed550507abeeba511ffbec5b6.png', 'status': 1, 'sort': 88, 'mtime': 1562744767, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/184e1aa1e50c8efdd674cf813a2cca08.png', 'status': 1, 'sort': 87, 'mtime': 1562744775, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/efecaa722237afeb2757d17d5d681b96.png', 'status': 1, 'sort': 86, 'mtime': 1562744783, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/5a3912e2624759625ee66a4da2ec1bce.png', 'status': 1, 'sort': 85, 'mtime': 1562744793, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/19402a3696ab4bc72bf2d0c6bbb6fb1f.png', 'status': 1, 'sort': 84, 'mtime': 1562744801, 'emoji_url': ''}], 'status': 1, 'sort': 200, 'mtime': 1574650158, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/cbe13c81227c075224e089305ddb2412.png', 'emoji_list': [{'emoji': 525, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/c06c9d92f2f2c64f001daf83db3cac45.png', 'status': 1, 'sort': 200, 'mtime': 1566874900, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/cec194ee38dc919af4285815019875e8.png', 'status': 1, 'sort': 199, 'mtime': 1566874908, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/174b77649c6efe34f91d032df95b100a.png', 'status': 1, 'sort': 198, 'mtime': 1566874919, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/d910fffed77f0d762f8f53e822323a3a.png', 'status': 1, 'sort': 197, 'mtime': 1566874930, 'emoji_url': ''}, {'emoji': 529, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/4093870f66744f0b7522502f38aaf493.png', 'status': 1, 'sort': 196, 'mtime': 1566874960, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/2d2a00c592977d4b8b69043dab09f253.png', 'status': 1, 'sort': 195, 'mtime': 1566874971, 'emoji_url': ''}, {'emoji': 531, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/519d8d32b3566a6db79193f138a050e4.png', 'status': 1, 'sort': 194, 'mtime': 1566874981, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/6bb910aa8df0c6f6ea039372933c9182.png', 'status': 1, 'sort': 193, 'mtime': 1566874993, 'emoji_url': ''}], 'status': 1, 'sort': 199, 'mtime': 1574650153, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://qnp-lemon.chumanapp.com/expression/a585acc0174c0a712fe2c2b817383484.png', 'emoji_list': [{'emoji': 533, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/01.svga'}, {'emoji': 534, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/02.svga'}, {'emoji': 535, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/03.svga'}, {'emoji': 536, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/04.svga'}, {'emoji': 537, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/05.svga'}, {'emoji': 538, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/06.svga'}, {'emoji': 539, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/07.svga'}, {'emoji': 540, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/08.svga'}, {'emoji': 541, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/09.svga'}, {'emoji': 542, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/10.svga'}, {'emoji': 543, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/11.svga'}, {'emoji': 544, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 10, 'mtime': 1583460051, 'is_big': 0, 'is_dynamic': 1}], 'server_time': 1587362457}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -1303,7 +1303,29 @@
         </is>
       </c>
     </row>
+    <row customHeight="1" ht="40" r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>http://www.lemondream.cn/</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://www.lemondream.cn/" ref="D6" tooltip="http://www.lemondream.cn/" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
   <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
@@ -1586,7 +1608,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -1720,7 +1742,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191121616', 'title': None, 'content': '麦哲伦秒杀黑胡子团——强势五杀，你好毒！', 'like_num': 636, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/321cc2c028.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2265040.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190645480', 'title': '我的妹妹是黄漫老师', 'content': '(๑•ㅂ•)✧  (๑•ㅂ•)✧  (๑•ㅂ•)✧', 'like_num': 2609, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/3xYtoJjiw2eFC6Cs.jpg', 'width': 1619, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191122022', 'title': None, 'content': '少侠好身手', 'like_num': 1854, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6a14db01c9.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2444300.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '190648135', 'title': '萤火虫漫展返图 酒吞 fgo', 'content': '我又来搬图啦～喜欢不？', 'like_num': 1171, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/RTKBRIAUQTQASTAH.jpg', 'width': 720, 'height': 1078, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191063230', 'title': None, 'content': '吃什么对前列腺有好处？听专家说完后，赶紧在家里储备些', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_video/cover/333bb4b94bdb4c75906f9b5982b603c5.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/e4e1b5f724924b388f6d9970903d8c82.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190918293', 'title': ' 【zerochan日榜】2018.01.04zerochan日榜美图', 'content': None, 'like_num': 1049, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/e410946e1ee501f05456759841d6370c-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1586155722004372', 'title': None, 'content': '百妖谱', 'like_num': 861, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/43834ddc10.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4NjE1MDUyMTk1MjI0MDEzNCM5MTUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191062680', 'title': None, 'content': '在线调戏超管', 'like_num': 2901, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/875e4b4e73.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2467910.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1586583899004262', 'title': None, 'content': '海贼王系列头像', 'like_num': 1191, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1f94886721.jpg', 'width': 598, 'height': 599, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191121223', 'title': None, 'content': '老爷子醒酒的绝技', 'like_num': 1448, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/808ebd2056.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2083530.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190918695', 'title': ' 【萌图兔日榜】2018.04.30萌图兔日榜美图', 'content': None, 'like_num': 996, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/4ef6b5c1cc2a05ae8fe4a9c73b567c8a-418x600.jpg', 'width': 418, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190644993', 'title': '【cos预告】梅林&amp;阿尔托莉雅', 'content': '崔斯坦卿曾经这样说过：“亚瑟王，不懂人心。”阿尔托莉雅：原po梅林：飞飞妆面：未舞（梅林） 凌子（呆毛）摄影&amp;后期：布丁后勤：JH 叽兔 海豹写在最后：这套片子是7月初拍的，当时天气热死，反季节斗士无所畏惧！先发一个预告（小剧场，英灵满破图，表情包），目测9-10月成片，微博@风初今年也要欧 希望大家可以关注一下，阿里嘎多！', 'like_num': 2612, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/j1JcwCjrgXSoyzu8.jpg', 'width': 1000, 'height': 2000, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190918668', 'title': ' 【yande日榜】2018.03.16yande日榜美图', 'content': None, 'like_num': 2044, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d5f4e53ce8ee90c7649cd664f715557e-407x600.jpg', 'width': 407, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191062783', 'title': None, 'content': '得了脂肪肝怎么办？采取这两种方式调解，身体马上恢复健康！', 'like_num': 1366, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_video/cover/49aa4241ef7447d2936d21f8108e0ead.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2ab63924d94444f6842fafacd443f4db.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190918391', 'title': ' 【动漫】pixivision2018.02.10焦急与可爱♡可爱的身高差特辑', 'content': None, 'like_num': 1586, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/0e00b9aafc286fb543e4648f4b0618c7-597x600.jpg', 'width': 597, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190916988', 'title': ' 【图站精选】safebooru 4.5', 'content': None, 'like_num': 627, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d16559c6ab71660822d5f0c335b672bb-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190918638', 'title': ' 【日榜】2018年4月21日 Pixiv日榜美图', 'content': None, 'like_num': 2192, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/224ac6b003f45518502b7ce1dbc3a352-519x600.jpg', 'width': 519, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191091222', 'title': None, 'content': '皮友们，帮我看看这个哈士奇纯不纯？', 'like_num': 510, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/aaa3b01b37.jpg', 'width': 576, 'height': 730, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2475660.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1579775689004742', 'title': None, 'content': '刀劍神域 劇場版-序列爭戰｜你不可不知的六大看點｜小次郎', 'like_num': 775, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/dd6938a560.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDE5MzQ3NDU3OTI2OTM0OCM3NzQjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190920310', 'title': ' 【动漫】制服少女', 'content': None, 'like_num': 580, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d6910806523261479e29329e11059678-479x600.jpg', 'width': 479, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': '15', 'obj_id': '202004361', 'title': '你是人间四月天', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/8194/image/live_cover_1587358395384.jpg', 'width': 720, 'height': 994, 'like_num': 1040, 'has_like': 0, 'tags': '古风,情感', 'author_id': 8194, 'lemon_num': 0, 'user_info': {'user_id': 8194, 'nickname': '白若歌', 'avatar': 'http://qnc-lemon.chumanapp.com/user/8194/avatar/1578375640368.jpg', 'showid': 'ej8194'}}, {'obj_id': '1579282157004226', 'title': None, 'content': 'emmmm🤔🤔', 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/82a1289b63.jpg', 'width': 720, 'height': 1290, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU3NzE5MjUzNDAwMTIxNzc1NCM3MjQjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579283019004257', 'title': None, 'content': '此景如此,此情不渝。', 'like_num': 726, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/d7fb2bfe62.jpg', 'width': 750, 'height': 1334, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '10', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004061941#/index?trace_id=4', 'jump_type': 1, 'title': 'JK美少女活动在召唤你！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/ae16f65e3849a5efff5cfd0b96a59b82.png_720x720q90g', 'width': 720, 'height': 676, 'is_block_content': 1, 'block_content_id': 10}, {'obj_id': '1579529143004633', 'title': None, 'content': '剑心', 'like_num': 1645, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/d4e1d4c7a5.jpg', 'width': 1078, 'height': 675, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579680757004834', 'title': None, 'content': '啊啊啊要死了啊啊啊太帅了', 'like_num': 1183, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/71d158e0d6.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU3MTk3OTI1MDYyODU0MzM5MSM5NjgjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'type': '15', 'obj_id': '202004362', 'title': '化妆', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/100655/image/live_cover_1587362176505.jpg', 'width': 720, 'height': 994, 'like_num': 10, 'has_like': 0, 'tags': '聊天', 'author_id': 100655, 'lemon_num': 0, 'user_info': {'user_id': 100655, 'nickname': '祝瑶瑶🍓', 'avatar': 'http://qnc-lemon.chumanapp.com/user/100655/avatar/1587239444883.jpg', 'showid': 'ff100655'}}, {'obj_id': '1579109951004425', 'title': None, 'content': '依旧喜欢你❤️❤️（字丑勿喷）（在越写越偏的道路上一去不复返）', 'like_num': 2227, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/dda0d98529.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579123138004458', 'title': None, 'content': '官方的最为致命...', 'like_num': 2869, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ac0f14f5ba.jpg', 'width': 813, 'height': 813, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '11', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004092040#/index?trace_id=5', 'jump_type': 1, 'title': '清明百鬼行cos大比拼！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/21cf96293b7d0648f1cb8b7cd410b8af.png', 'width': 1080, 'height': 1014, 'is_block_content': 1, 'block_content_id': 11}, {'obj_id': '1579120493004232', 'title': None, 'content': '双杰现代装超帅！！！！', 'like_num': 1211, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/afe82ac9dd.jpg', 'width': 639, 'height': 640, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190626866', 'title': '两个万圣节化妆教程～一起去捣蛋（小丑女cos+丧尸妆）', 'content': '这里灰灰，微博:你好我叫灰灰', 'like_num': 537, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/girls/images/z5zwPiTePhkTxDLC.jpg', 'width': 720, 'height': 953, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579698397004706', 'title': None, 'content': '路飞路飞', 'like_num': 1835, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ab5143efc1.jpg', 'width': 640, 'height': 640, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190973700', 'title': None, 'content': '如果战国没拦住卡普结果会怎样？', 'like_num': 2141, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/7d4e283e3b57489cb3df4a22e438dd75.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/b2e6d755c404458893db5cc85c4dcfd0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579036691004094', 'title': None, 'content': '无标题的一天...', 'like_num': 2515, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/dd19c98104.jpg', 'width': 3106, 'height': 4096, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579074295004568', 'title': None, 'content': '忘机绿了', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/483c5f7c0f.jpg', 'width': 720, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190612442', 'title': '【日常】万圣节快乐～', 'content': '喜欢请送糖喔～', 'like_num': 2287, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/girls/images/DIBTXVKLIYFNBAZY.jpg', 'width': 2109, 'height': 2807, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579097917004152', 'title': None, 'content': '哈哈哈陈总良心', 'like_num': 527, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a5780fb1a0.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MzYyNTA4NTI3ODY5MDQ0MCM2ODYjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579626389004260', 'title': None, 'content': '我换啥', 'like_num': 2061, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/6dd9df042e.jpg', 'width': 1440, 'height': 720, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579080336004914', 'title': None, 'content': '聂导~\n最后一张，我觉得好帅', 'like_num': 2838, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a45ca0cd4d.jpg', 'width': 640, 'height': 413, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1585318091004411', 'title': None, 'content': '#全职高手  苏沐橙小时候真可爱呀 (-^〇^-)', 'like_num': 852, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cf3ad29b35.jpg', 'width': 576, 'height': 1012, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4NTIzODA2ODAwOTMyNTc1MSM4NzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190912827', 'title': None, 'content': '非洲拳王挑战中国武术大师！搞笑视频超话', 'like_num': 2540, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/92607b1449cc45748f8bcfe10ee86ebd.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/16cbad7e6c8a4e89a49f3ac1b45857dc.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579080634004934', 'title': None, 'content': '骚气，喜欢最后一张', 'like_num': 1563, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/4b49145a8f.jpg', 'width': 720, 'height': 720, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910132353', 'title': '暗殺教室 渚與業的對決上篇', 'content': '暗杀教室', 'like_num': 2666, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/db23dae628.jpg', 'width': 246, 'height': 138, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/ozENSmNKH0w.mp4', 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -1773,7 +1795,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20191', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 3, 'title': 'Cosplay', 'scence_info': {'scence_id': '2001003004', 'act_id': '20158', 'maidian_name': 'disp_030', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_cos', 'event_id': '001'}}, {'zone_id': 5, 'title': '插画', 'scence_info': {'scence_id': '2001003005', 'act_id': '20193', 'maidian_name': 'disp_031', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_chahua', 'event_id': '001'}}], 'act_id': 20134, 'serviceId': '18'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20090', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 8, 'title': '小视频', 'scence_info': {'scence_id': '2001003008', 'act_id': '0', 'maidian_name': 'disp_034', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_xiaoshipin', 'event_id': '001'}}], 'act_id': 20087, 'serviceId': '20'}}</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -1826,7 +1848,7 @@
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 0, 'style_type': 2}, 'read_style_abtest': {'act_id': 20088, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 20083, 'style_type': 2}, 'read_style_abtest': {'act_id': 20055, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -1883,7 +1905,7 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191096222', 'title': None, 'content': '最喜欢的四驱之王    –    兰德酷路泽', 'like_num': 2425, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b57dfe843c.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2425460.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1586499289004267', 'title': None, 'content': '想换霸气侧漏的初音😜', 'like_num': 2819, 'has_like': 0, 'tags': '', 'author_id': 16, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1636675114.jpg', 'width': 1242, 'height': 2688, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1586230837004212', 'title': None, 'content': '朱迪试妆嘿嘿😁', 'like_num': 2463, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/fc1c307a0f.jpg', 'width': 1200, 'height': 1600, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '190646721', 'title': '【cos正片】是年轻的，不成熟的王', 'content': '有小bug，谅解', 'like_num': 2331, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/jrWIDqEbukQv070b.jpg', 'width': 912, 'height': 1368, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190916349', 'title': ' 【日榜】 福利满满 2017.3.17', 'content': None, 'like_num': 511, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz36ci1infj31yt1ecwhl.jpg', 'width': 1024, 'height': 728, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191076257', 'title': None, 'content': '这是制服诱惑吗？', 'like_num': 873, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/36c5848ccc.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2362140.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190917922', 'title': ' 【图站精选】safebooruⅡ 10.3', 'content': None, 'like_num': 967, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/79846e037589369a3768673eb1e5224d-800x564.jpg', 'width': 800, 'height': 564, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190916888', 'title': ' 【Pixiv Spotlight】四季交替。一幅图画尽春夏秋冬的插画特辑', 'content': None, 'like_num': 1051, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/e93320cdfa61635617a082daa607568c-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1582468497004393', 'title': None, 'content': '曾经有份真挚的资格码放在我面前，我没有珍惜。现在才来，后悔莫及。\n但是我们星期一就要到星期天下午的课，我还能怎么办？', 'like_num': 707, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6a8dbd89ca.jpg', 'width': 1080, 'height': 2340, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583987550004244', 'title': None, 'content': '哥布林杀手女神官', 'like_num': 2497, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cc3902dffa.jpg', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191121759', 'title': None, 'content': '神评就是标题，交给你们了~嗷~', 'like_num': 1658, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e487ce056d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2443310.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190628252', 'title': '王昭君 cos 不美你打我', 'content': '心已经融化\r◇◇◇寒冰，永不腐朽◇◇◇\r王昭君cn:rioko凉凉子\rPhx：@不开心不开心的胖 \rEdit：@_Sumiko_澄子 \rStaff：@有棱老方 \r抄送：@峡谷同人局', 'like_num': 1894, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/L8V0ihZuSTq4BJf6.jpg', 'width': 720, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190648169', 'title': 'Fate strange fake 恩奇都cos', 'content': '将我唤醒的，不是母亲指尖的轻抚，也不是父亲叱咤的喝声。\u3000\u3000我之所以抬起沉重的眼帘醒来，是因为我察觉到了那呼唤。出镜：原po摄影：arir后期妆面：自理感叹下，头皮屑特效真的很好用！！ｸﾞｯ!(๑•ㅂ•)✧或者下次我可以考虑下用2哈做我的master！ｸﾞｯ!(๑•ㅂ•)✧喜欢的可以给我个糖果吗？我永远爱恩奇都！', 'like_num': 2086, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/XX8H6Kr5trnhO6qF.jpg', 'width': 1600, 'height': 1037, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '1581654271004279', 'title': None, 'content': '有天天和宁次的真爱粉吗？快来报道', 'like_num': 1265, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/052733a701.jpg', 'width': 745, 'height': 745, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583471784004375', 'title': None, 'content': '初音 嘻嘻', 'like_num': 1719, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/fb1e0ea8a0.jpg', 'width': 500, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191095007', 'title': None, 'content': '一个有毒的视频', 'like_num': 1712, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c2f14a7ea3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2473870.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191115499', 'title': None, 'content': '周星驰《九品芝麻官》太有梗,这8个梗今天还是很经典', 'like_num': 2261, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/75a88cac12.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1059880.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111499', 'title': None, 'content': '遇到这样的，你想干啥！', 'like_num': 2248, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f1522994fb.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617460.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191057821', 'title': None, 'content': '甩头发最酷的人之一！', 'like_num': 944, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b8492105a5.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2288170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190627584', 'title': '【JK制服】《去看海啊》及教程', 'content': '《去看海啊》教程，核心内容是如何利用蒙版提亮人物肤色以及如何打造清新的海边JK写真色调←真正的BT.转自微博.cr:星卷卷-', 'like_num': 1545, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/VDQa5lpNSyfqFuhQ.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cosplay'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': '15', 'obj_id': '202004361', 'title': '你是人间四月天', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/8194/image/live_cover_1587358395384.jpg', 'width': 720, 'height': 994, 'like_num': 1040, 'has_like': 0, 'tags': '古风,情感', 'author_id': 8194, 'lemon_num': 0, 'user_info': {'user_id': 8194, 'nickname': '白若歌', 'avatar': 'http://qnc-lemon.chumanapp.com/user/8194/avatar/1578375640368.jpg', 'showid': 'ej8194'}}, {'obj_id': '1579116212004918', 'title': None, 'content': '我太爱羡羡了，我感觉我上辈子就是个避尘！\n\n一波壁纸正在来袭', 'like_num': 1876, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/8a2f2c4cbb.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578943771004636', 'title': None, 'content': '【cos】一二三', 'like_num': 1838, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/59066646d0.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '10', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004061941#/index?trace_id=4', 'jump_type': 1, 'title': 'JK美少女活动在召唤你！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/ae16f65e3849a5efff5cfd0b96a59b82.png_720x720q90g', 'width': 720, 'height': 676, 'is_block_content': 1, 'block_content_id': 10}, {'obj_id': '1911641', 'title': None, 'content': '神仙打架', 'like_num': 904, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/039a807762.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2556090.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910115131', 'title': None, 'content': '改编版《画》之 都比不上九月的班主任', 'like_num': 1932, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1722e5d787.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2489940.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'type': '15', 'obj_id': '202004362', 'title': '化妆', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/100655/image/live_cover_1587362176505.jpg', 'width': 720, 'height': 994, 'like_num': 10, 'has_like': 0, 'tags': '聊天', 'author_id': 100655, 'lemon_num': 0, 'user_info': {'user_id': 100655, 'nickname': '祝瑶瑶🍓', 'avatar': 'http://qnc-lemon.chumanapp.com/user/100655/avatar/1587239444883.jpg', 'showid': 'ff100655'}}, {'obj_id': '1909172864', 'title': None, 'content': '女生喜欢什么样子的男生呢，小姐姐的回答有点搞笑啊！😂', 'like_num': 2082, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/d0e6f71abc.jpg', 'width': 640, 'height': 942, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2252730.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191059949', 'title': '[pixiv]tarbo＠お仕事募集中(3467868)', 'content': None, 'like_num': 2366, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0072FdYkly1fzomunyxrej30u01627wi.jpg', 'width': 1024, 'height': 1435, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '11', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004092040#/index?trace_id=5', 'jump_type': 1, 'title': '清明百鬼行cos大比拼！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/21cf96293b7d0648f1cb8b7cd410b8af.png', 'width': 1080, 'height': 1014, 'is_block_content': 1, 'block_content_id': 11}, {'obj_id': '1579221880004768', 'title': None, 'content': '大家好，我是你们的新星主，请多多关照鸭！(๑❛ᴗ❛๑)', 'like_num': 717, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cc90b666e8.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2NzIyODc0MTk4Nzg2NDY4OSMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579058344004435', 'title': None, 'content': '江澄......爱了爱了', 'like_num': 872, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/87189a5b40.jpg', 'width': 500, 'height': 708, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578433061004477', 'title': None, 'content': '有一句话来证明你看过我的英雄学院', 'like_num': 2063, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/e5f6474abc.jpg', 'width': 640, 'height': 1138, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579491943004998', 'title': None, 'content': '还要吗?', 'like_num': 1398, 'has_like': 0, 'tags': '', 'author_id': 93, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/3bcfc9471f.jpg', 'width': 720, 'height': 1230, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579118339004067', 'title': None, 'content': '羡羡，帅气', 'like_num': 2002, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7dc011bba6.jpg', 'width': 690, 'height': 920, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579923923004370', 'title': None, 'content': '晚安-.-', 'like_num': 1233, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/567dd8e30a.jpg', 'width': 992, 'height': 910, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579108131004299', 'title': None, 'content': '随便是攻（上）', 'like_num': 813, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/873e3a33c7.jpg', 'width': 700, 'height': 1362, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579112839004657', 'title': None, 'content': '抹额哈哈', 'like_num': 1691, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/8c58f738cd.jpg', 'width': 1080, 'height': 1527, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579082194004018', 'title': None, 'content': '(ฅ&gt;ω&lt;*ฅ)', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/6e167088ca.jpg', 'width': 511, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191039704', 'title': None, 'content': '所谓万花丛中过，片叶不沾身！', 'like_num': 901, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1fe8ac5b9c.jpg', 'width': 720, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2381540.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579058232004427', 'title': None, 'content': '我爱着个情头!', 'like_num': 973, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/4091d59eae.jpg', 'width': 984, 'height': 984, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191040493', 'title': '[pixiv]ke-ta(3104565)', 'content': None, 'like_num': 1819, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0072FdYkly1fxrlekv6q6j31640u0njt.jpg', 'width': 1024, 'height': 729, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096865', 'title': '舰队Collection 舰娘滨风 动漫手机壁纸', 'content': None, 'like_num': 1328, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_comics_wallpaper/image/13-1611211554350-L.png', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190619690', 'title': '【cos】出了一下山城！', 'content': '殿下殿下～今天要做什么呀！', 'like_num': 2451, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/MOPISCBFHFIPZJZT.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -1940,7 +1962,7 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191121315', 'title': None, 'content': '面试成功，明天你俩可以来上班。', 'like_num': 2853, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/029b99f9bd.jpg', 'width': 540, 'height': 952, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2229830.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190917733', 'title': ' 【动漫】8月20日日榜及杂图', 'content': None, 'like_num': 2075, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/947877faa88909e02dd7670b941b5226-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1583129812004476', 'title': None, 'content': '跟我一起转圈圈', 'like_num': 1711, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ddbf709a40.jpg', 'width': 589, 'height': 525, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190648464', 'title': '中山漫展day P2', 'content': '不要停，P2', 'like_num': 1309, 'has_like': 0, 'tags': '', 'author_id': 93, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/EHXESDRWZTWCEMEG.jpg', 'width': 2109, 'height': 2812, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190911718', 'title': '假面骑士穿越战争单骑狂虐怪物军团', 'content': None, 'like_num': 2769, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/7-161206153203310.jpg', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191044270', 'title': None, 'content': '法拉利', 'like_num': 1621, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f00d1ce88c.jpg', 'width': 480, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2463860.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191082565', 'title': None, 'content': '看着有用😅️', 'like_num': 2557, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f975daff99.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2469350.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1581847196004496', 'title': None, 'content': '我并没有被讨厌（义勇）', 'like_num': 2345, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/39f81b37c0.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4MTgyNjc4MDI3MDgxODAzNyM0MDgjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191052339', 'title': None, 'content': '来了来了，哎哟我去～我去', 'like_num': 2731, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7bd048e14e.jpg', 'width': 960, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2339260.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1581228854004562', 'title': None, 'content': '古风美人cg怎么可以这么美丽', 'like_num': 1310, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0a261cf07c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4MTIxNTA4MzE4MzI3ODg1MCM2MDYjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190919934', 'title': ' 【动漫】lovelive 第四弹', 'content': None, 'like_num': 1143, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d9587b6304c0ce09adeebad9d2ac444b-531x600.jpg', 'width': 531, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191115860', 'title': None, 'content': '是时候跑你们知道我的真面目了', 'like_num': 2719, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8940788cf7.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1239980.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1584084589004452', 'title': None, 'content': '#声之形  声音是有形的，也是沉重的', 'like_num': 1859, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8673a2dd70.jpg', 'width': 1088, 'height': 1920, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4NDAxNzU3NzI5MjY1MjIyNiMyMDgjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190644379', 'title': '二周年的舞会与三周年的小公主', 'content': '玛修的三周年礼装！太可爱了！巴太太也很可爱！三轮的布姐太吉儿潮了！我永远喜欢fate', 'like_num': 891, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/TbTNwWR7nJjoJdcS.jpg', 'width': 1620, 'height': 2160, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190917932', 'title': ' 【画师】-4894', 'content': None, 'like_num': 1985, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/f1c774f5f619edff8b90b5ad65f641ab-800x572.jpg', 'width': 800, 'height': 572, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190917846', 'title': ' 【画师】-3287661', 'content': None, 'like_num': 1961, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/9bf31c7ff062936a96d3c8bd1f8f2ff3-2-450x600.jpg', 'width': 450, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190644916', 'title': '偶像大师灰姑娘女孩', 'content': '四季漫-夏的场照', 'like_num': 678, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/JKDdYdsYFwLsNpu4.jpg', 'width': 2600, 'height': 1735, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '191121338', 'title': None, 'content': '球真的大', 'like_num': 1842, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5164578e87.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2312460.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579089276004495', 'title': None, 'content': '小天使的蜜桃味', 'like_num': 2649, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/5a6b0b6e4d.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578414520004142', 'title': None, 'content': '说什么呢…', 'like_num': 10, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/1e36f68f04.jpg', 'width': 720, 'height': 720, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '19102951', 'title': '笃见唯子', 'content': None, 'like_num': 1278, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/007iocwWly1fyplr7q8ruj312v1e0kda.jpg', 'width': 1024, 'height': 1318, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579334984004586', 'title': None, 'content': '水啊啊啊', 'like_num': 2955, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/54eafed994.jpg', 'width': 1080, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190652812', 'title': '【cos正片】果鸟', 'content': '不知为什么帖子被删了重发一次咳这儿是入圈一年多的小透明也是我和基友的第一套正片多多关照~南小鸟：樱乃高板穗乃果：落笙【原po】，微博luosheng落笙有兴趣可以看一看阿里嘎多~', 'like_num': 1092, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/prbym4JGRhXfQJqN.jpg', 'width': 1500, 'height': 2248, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190961468', 'title': None, 'content': '哪有什么岁月静好，只有我们负重前行！！', 'like_num': 2341, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/e0771ed49aa046beb5b2e63f01fb8540.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/3c91c962f30f488da6cf7bd6dc1f741e.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579305463004357', 'title': None, 'content': '我卡殿怎么能这么帅', 'like_num': 1552, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/f69168b3a9.jpg', 'width': 650, 'height': 1035, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578393959004983', 'title': None, 'content': '吖，回归正题！', 'like_num': 2260, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/23b7b97acd.jpg', 'width': 622, 'height': 800, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191112691', 'title': '白猫计划', 'content': None, 'like_num': 2178, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/007iocwWly1fyr65h675gj31a41834qq.jpg', 'width': 1024, 'height': 979, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579100270004319', 'title': None, 'content': "魔道视频٩( 'ω' )و ", 'like_num': 1576, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/041417d109.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MzgwMDEwODg2NzI1ODczNyM1NjcjbXA0-5.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191040289', 'title': '[pixiv]从那时起，我的整个世界只有你。', 'content': None, 'like_num': 2458, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0072FdYkly1fxizj8jn0sj30lc0nzjtx.jpg', 'width': 768, 'height': 863, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579097194004088', 'title': None, 'content': '不要叫醒我，我飘了～', 'like_num': 2051, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/0ed959dad5.jpg', 'width': 576, 'height': 1152, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MzUyMzk1MjI1ODM4Mzg2MCM0MjcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191055496', 'title': '画师叶山(176200)', 'content': None, 'like_num': 1800, 'has_like': 0, 'tags': '', 'author_id': 51, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/dab40bb1fa1cd35957c7b5b5a9d9908b.jpg', 'width': 724, 'height': 1023, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579214289004457', 'title': None, 'content': '进群有很多咱们魔道的资源哦，快来吧', 'like_num': 1557, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/5a3b29167b.jpg', 'width': 580, 'height': 765, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579074339004571', 'title': None, 'content': '忘羡秀恩爱', 'like_num': 2617, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/2e2e5c30a7.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU1OTk5NjI4MzAyMzY1ODMzNiMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579119089004132', 'title': None, 'content': '今日份舔狗……', 'like_num': 2528, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/adcdd07971.jpg', 'width': 4160, 'height': 3120, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19065821', 'title': '【COS预告】叛逆的鲁鲁修  C.C.', 'content': '刚刚不小心误删了qwq', 'like_num': 624, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/uaPl0twiKTQOZR8X.jpg', 'width': 1089, 'height': 1633, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579318094004853', 'title': None, 'content': '魔道啊！！', 'like_num': 1146, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/bdd78c01a6.jpg', 'width': 690, 'height': 1206, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579526529004445', 'title': None, 'content': '来一波超好看的图片呀', 'like_num': 1033, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/613a55189f.jpg', 'width': 953, 'height': 1430, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '12', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004092020#/index?trace_id=3', 'jump_type': 1, 'title': '我妻善逸cos哪家强？', 'title_image': 'http://qnp-lemon.chumanapp.com/live/ad924170958648e26f83b988a31bc36d.jpg_720x720q90g', 'width': 405, 'height': 720, 'is_block_content': 1, 'block_content_id': 12}, {'obj_id': '2001384', 'title': '新春大福利！邀好友瓜分1亿现金红包', 'content': '如何领青柠？快来看看吧', 'like_num': 314, 'has_like': 0, 'tags': '', 'author_id': 603, 'type': 11, 'title_image': 'http://qnp-lemon.chumanapp.com/live/629c7104d5bb494830f1c1ae0ea0b4ac.png', 'width': 1080, 'height': 1920, 'is_block_content': 1, 'block_content_id': 6}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
@@ -1997,7 +2019,7 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1584680018004259', 'title': None, 'content': '别问，问就是穿三了（狗头）', 'like_num': 2641, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/24a1289dfe.jpg', 'width': 1088, 'height': 1088, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU4NDYwMzUxMTIwOTk2NzcxNyM0NzUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191115645', 'title': None, 'content': '这不是我斑爷，谁把我斑爷换成娘炮的？', 'like_num': 1395, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/dc28581823.jpg', 'width': 1920, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2413080.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190910995', 'title': '佐贺偶像是传奇 本子 福利 二次元萌图', 'content': None, 'like_num': 2889, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/42-1Q12G50226433.jpg', 'width': 337, 'height': 200, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191056915', 'title': None, 'content': '真丑鸭！', 'like_num': 2905, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2fe17e2dab.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2441230.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1582785324004486', 'title': None, 'content': '小妹妹我们回家', 'like_num': 1519, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/c5d3111152.jpg', 'width': 1920, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191081903', 'title': None, 'content': '神秘女子心狠手辣，专在雨天行凶，居然只为了一张假身份证', 'like_num': 2792, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/84c82e3f7b.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2474090.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191051777', 'title': None, 'content': '好秀！', 'like_num': 927, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/31b33fc7d5.jpg', 'width': 816, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2433670.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190916801', 'title': ' 【zerochan日榜】2017.01.21zerochan日榜美图', 'content': None, 'like_num': 1880, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/1e26f12d76248d9e0f3b700a8f6734fc-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190921207', 'title': ' 【动漫】我的妹妹不可能这么可爱 第四弹', 'content': None, 'like_num': 1472, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/52378576c64891bb111d9f346d23c435-800x500.jpg', 'width': 800, 'height': 500, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '191118284', 'title': None, 'content': '六小龄童看见会哭不？猴子演出自己的屁都吓坏了。蒙圈了。哈哈', 'like_num': 2323, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b393a0b05b.jpg', 'width': 268, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/11847921950_1557068068504.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '1579789718004199', 'title': None, 'content': '随便买几张都比找的好啊', 'like_num': 2534, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cf05b247e0.jpg', 'width': 3264, 'height': 2448, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '190917815', 'title': ' 【动漫】9月4日 日榜及杂图', 'content': None, 'like_num': 866, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/06afb5492bf94ef2f8f7878d56121b42.jpg', 'width': 450, 'height': 450, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190915902', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2099, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz30cbuudzj30rs0zht9s.jpg', 'width': 1000, 'height': 1277, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190640859', 'title': '山兔 稚兔童心正片 cos正片', 'content': '出境 原po cn诺卡摄影 然叔后期 原po萌新第一次出片！求扩列求糖果！企鹅2630229610', 'like_num': 1389, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/3rrrldvTIXogs60G.jpg', 'width': 1440, 'height': 2160, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190917267', 'title': ' 【Pixiv Spotlight】迷人的双唇♡美丽的口红特辑', 'content': None, 'like_num': 2496, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ac53fbcba0390bdddac3c3d899918927-688x600.jpg', 'width': 688, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190643216', 'title': '#原创脑洞试妆#春夏/秋冬', 'content': '没什么文案，就这样！感谢收看❤️', 'like_num': 2428, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OXEHZUICDQZYHFND.jpg', 'width': 3494, 'height': 2620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '1583727908004329', 'title': None, 'content': '各位在疫情期间都在做些什么呐？我一直在看番呢～', 'like_num': 2829, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/9decb01b8a.jpg', 'width': 400, 'height': 710, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '191121890', 'title': None, 'content': '偶像剧都是骗人的，谁说倒立就不会流泪的！', 'like_num': 748, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d894c8ef5f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1586440.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '190917742', 'title': ' 【日榜】2017.08.19 Pixiv日榜美图', 'content': None, 'like_num': 1220, 'has_like': 0, 'tags': '', 'author_id': 51, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/1b7dc0eb339ae2cfc55d1e8df4e793e1-423x600.jpg', 'width': 423, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '19111127', 'title': None, 'content': '炸毛了', 'like_num': 18, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/95e32ea1b0.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2560340.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579098511004192', 'title': None, 'content': '保温杯里泡枸杞，哈哈', 'like_num': 647, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/6bce7cbdde.jpg', 'width': 1080, 'height': 3415, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190644411', 'title': '香香cos', 'content': '去年展子的时候出的香香www', 'like_num': 2309, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/KtqH7mljfyRoXPrW.jpg', 'width': 800, 'height': 1068, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191023495', 'title': '动漫壁纸精选', 'content': None, 'like_num': 2294, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/005ZUAk5ly1fqkfxpaqevj326r18ahdw.jpg', 'width': 1024, 'height': 576, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579089316004500', 'title': None, 'content': '哎哟，宠妻狂魔', 'like_num': 2352, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/161bf7f20b.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MjU4NTEyNDc5NDc3MjM3MiM3NzYjbXA0.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579064829004910', 'title': None, 'content': '秀家规', 'like_num': 860, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/d336043e24.jpg', 'width': 2176, 'height': 4608, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579122731004426', 'title': None, 'content': '他们简直太美了（水经验）', 'like_num': 1788, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/24d1bb8064.jpg', 'width': 720, 'height': 976, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578764063004229', 'title': None, 'content': '最有钱的组织，晓😎😎', 'like_num': 1283, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/27462e1bea.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2OTEyNDUxMDA0MTQ0MzY5MyM2NjYjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579353908004388', 'title': None, 'content': '乱发一波图', 'like_num': 639, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/dde2363bb8.jpg', 'width': 2500, 'height': 2500, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190621636', 'title': '◆影◇', 'content': 'meta雪兔', 'like_num': 625, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/girls/images/KgAgH8Fruwl8k0jq.jpg', 'width': 1326, 'height': 1988, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579080394004920', 'title': None, 'content': '作为新来的，说这话，不会被打吧', 'like_num': 1436, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0fef0bae4b.jpg', 'width': 1009, 'height': 545, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579093727004817', 'title': None, 'content': '魔道    祖师      献舍回     ……', 'like_num': 2546, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/2bfe561eb7.jpg', 'width': 828, 'height': 1063, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190910013', 'title': '黑色蕾丝也可爱呀 每日福利10.9期', 'content': None, 'like_num': 2179, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_comics_wallpaper/image/13-161011155T00-L.jpg', 'width': 320, 'height': 220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19102811', 'title': 'SINK', 'content': None, 'like_num': 1403, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/007iocwWgy1fylu9t184vj30iv0o0akk.jpg', 'width': 679, 'height': 864, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1909163356', 'title': None, 'content': '十年前的我们', 'like_num': 2895, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/da9d94f00f84483e92f576d4e25e51c6.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/4197d7fb628f4a429a70e203105a0991.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579034676004944', 'title': None, 'content': '自剪辑，勿盗', 'like_num': 665, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f7171fe280.jpg', 'width': 720, 'height': 720, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2NDk4NDQ5NTIxNTIwODAyNyMzMDkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578916106004304', 'title': None, 'content': '角色名：南小鸟CN：叶紫', 'like_num': 1187, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0b67c6b276.jpg', 'width': 1440, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579115360004851', 'title': None, 'content': '有木有被吓到？', 'like_num': 2243, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/5b883e3382.jpg', 'width': 900, 'height': 5294, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19115293', 'title': None, 'content': '我小伙伴给我安排了一个瘦脸神器！我感觉坚持用兴许真能瘦！', 'like_num': 969, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/82d31a8fb9.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2590410.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19066482', 'title': None, 'content': '  远坂凛@外星嫣子红A@一方菌某种意义上是一套首发正片了哦～希望大家多多支持', 'like_num': 572, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/mhd/images/BodyPart_35deddd1-7ce1-4e27-abc5-3d507c48d083.jpg', 'width': 1080, 'height': 1618, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
@@ -2050,7 +2072,7 @@
       <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fb167782a36e58400ed7dbbb8a58eea3.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonFacialMatch/index.html?timestamp=1586745491#/main', 'jump_type': 0, 'rule_title': '', 'rule_detail': '', 'banner_id': 9}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7800a945cc68c30293e1225384890ebb.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 4}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/523e37acdab601b7fdddfa5897f549a2.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 3}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/48edc92bed67258b6b55dfc96e6d9491.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '测试啦', 'rule_detail': '', 'banner_id': 16}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'banner_id': 3, 'title_image': 'http://qnp-lemon.chumanapp.com/trace_img/trace_img/image/cos_banner_01.png', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=1587362469#/index?trace_id=4', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'sp_type': 4}, {'banner_id': 4, 'title_image': 'http://demo.lemondream.cn/expression/dd8b6315471c5089f9baaa77a1cb3cb2.png', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=1587362469#/index?trace_id=5', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'sp_type': 4}]}}</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
@@ -2107,7 +2129,7 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, '1': {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, '2': {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, '3': {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, '4': {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, '5': {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, '6': {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, '7': {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, '8': {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, '9': {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, '10': {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, '11': {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, '12': {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}, 'list': [{'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '2003528', 'title': '如果能把你的寒假作业变薄，要吗？', 'content': '如果能把你的寒假作业变薄，要吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4'}, '1': {'obj_id': '2003527', 'title': '这些尴尬的时刻，你有没有经历过？', 'content': '这些尴尬的时刻，你有没有经历过？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4'}, '2': {'obj_id': '2003526', 'title': '这几条寒假和谐共处原则，请谨记！', 'content': '这几条寒假和谐共处原则，请谨记！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4'}, '3': {'obj_id': '2003525', 'title': '12星座在学校是什么身份？你的准吗？', 'content': '12星座在学校是什么身份？你的准吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4'}, '4': {'obj_id': '2003524', 'title': '来看看你和你的偶像今天在干嘛？', 'content': '来看看你和你的偶像今天在干嘛？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4'}, '5': {'obj_id': '2003523', 'title': '新年壁纸 · 新年好运气从新屏保开始', 'content': '新年壁纸 · 新年好运气从新屏保开始', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4'}, '6': {'obj_id': '2003522', 'title': '南北差异', 'content': '南北差异', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4'}, '7': {'obj_id': '2003521', 'title': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'content': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4'}, '8': {'obj_id': '2003520', 'title': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'content': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4'}, '9': {'obj_id': '2003519', 'title': '你的数学作业做完了吗？', 'content': '你的数学作业做完了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4'}, '10': {'obj_id': '2003518', 'title': '“冰淇淋可以要草莓味的吗？”', 'content': '“冰淇淋可以要草莓味的吗？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4'}, '11': {'obj_id': '2003517', 'title': '“你们！说话能不能小点声啊？”', 'content': '“你们！说话能不能小点声啊？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4'}, '12': {'obj_id': '2003516', 'title': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'content': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4'}, '13': {'obj_id': '2003515', 'title': '人的一生总有这么个朋友在身边。', 'content': '人的一生总有这么个朋友在身边。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4'}, '14': {'obj_id': '2003514', 'title': '希望这是看到寒假作业已经写完的你们呀！', 'content': '希望这是看到寒假作业已经写完的你们呀！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4'}, '15': {'obj_id': '2003513', 'title': '吃货也太可爱了吧', 'content': '吃货也太可爱了吧', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4'}, '16': {'obj_id': '2003512', 'title': '哼，哥哥是臭居居，不学了！', 'content': '哼，哥哥是臭居居，不学了！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4'}, '17': {'obj_id': '2003511', 'title': '可是我也好喜欢你呀！”', 'content': '可是我也好喜欢你呀！”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4'}, '18': {'obj_id': '2003510', 'title': '你们几年级了？', 'content': '你们几年级了？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4'}, '19': {'obj_id': '2003509', 'title': '测试你的古代复姓名字，我叫子书星若，你呢？', 'content': '测试你的古代复姓名字，我叫子书星若，你呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4'}, 'list': [{'obj_id': '2003528', 'title': '如果能把你的寒假作业变薄，要吗？', 'content': '如果能把你的寒假作业变薄，要吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4'}, {'obj_id': '2003527', 'title': '这些尴尬的时刻，你有没有经历过？', 'content': '这些尴尬的时刻，你有没有经历过？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4'}, {'obj_id': '2003526', 'title': '这几条寒假和谐共处原则，请谨记！', 'content': '这几条寒假和谐共处原则，请谨记！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4'}, {'obj_id': '2003525', 'title': '12星座在学校是什么身份？你的准吗？', 'content': '12星座在学校是什么身份？你的准吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4'}, {'obj_id': '2003524', 'title': '来看看你和你的偶像今天在干嘛？', 'content': '来看看你和你的偶像今天在干嘛？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4'}, {'obj_id': '2003523', 'title': '新年壁纸 · 新年好运气从新屏保开始', 'content': '新年壁纸 · 新年好运气从新屏保开始', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4'}, {'obj_id': '2003522', 'title': '南北差异', 'content': '南北差异', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4'}, {'obj_id': '2003521', 'title': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'content': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4'}, {'obj_id': '2003520', 'title': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'content': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4'}, {'obj_id': '2003519', 'title': '你的数学作业做完了吗？', 'content': '你的数学作业做完了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4'}, {'obj_id': '2003518', 'title': '“冰淇淋可以要草莓味的吗？”', 'content': '“冰淇淋可以要草莓味的吗？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4'}, {'obj_id': '2003517', 'title': '“你们！说话能不能小点声啊？”', 'content': '“你们！说话能不能小点声啊？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4'}, {'obj_id': '2003516', 'title': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'content': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4'}, {'obj_id': '2003515', 'title': '人的一生总有这么个朋友在身边。', 'content': '人的一生总有这么个朋友在身边。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4'}, {'obj_id': '2003514', 'title': '希望这是看到寒假作业已经写完的你们呀！', 'content': '希望这是看到寒假作业已经写完的你们呀！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4'}, {'obj_id': '2003513', 'title': '吃货也太可爱了吧', 'content': '吃货也太可爱了吧', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4'}, {'obj_id': '2003512', 'title': '哼，哥哥是臭居居，不学了！', 'content': '哼，哥哥是臭居居，不学了！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4'}, {'obj_id': '2003511', 'title': '可是我也好喜欢你呀！”', 'content': '可是我也好喜欢你呀！”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4'}, {'obj_id': '2003510', 'title': '你们几年级了？', 'content': '你们几年级了？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4'}, {'obj_id': '2003509', 'title': '测试你的古代复姓名字，我叫子书星若，你呢？', 'content': '测试你的古代复姓名字，我叫子书星若，你呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
@@ -2164,7 +2186,7 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '19069162', 'title': '【COS】我的妹妹不可能这么可爱 打歌服ver.', 'content': None, 'like_num': 1775, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/w6qHR69X0OawwqKg.jpg', 'width': 760, 'height': 1142, 'lemon_num': 0, 'rec_package_id': ''}, '1': {'obj_id': '190628045', 'title': '【拍摄速报】伊斯塔凛泳装', 'content': None, 'like_num': 1151, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/FTzZ8fX2u8VUouml.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, '2': {'obj_id': '19067540', 'title': None, 'content': '小乔原画师——小柔，cos小乔皮肤——天鹅之梦，真的快要美到窒息了啊！小柔实在是太萌了，不仅将小乔的乖巧可爱表现了出来，妆容里又透露出危险和黑暗的气息，妆容也是万分的精致，简直是120%的相似啊！', 'like_num': 1774, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_f9b558df-4467-4047-9a9f-123a17c9d380.jpg', 'width': 640, 'height': 960, 'lemon_num': 0, 'rec_package_id': ''}, '3': {'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 1200, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, '4': {'obj_id': '190617385', 'title': '三个不同的啾咪~', 'content': '我疯了，你们别害怕，我不吃人', 'like_num': 869, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/SITUbJFCCGZxNvPl.gif', 'width': 360, 'height': 360, 'lemon_num': 0, 'rec_package_id': ''}, '5': {'obj_id': '190616053', 'title': '【阴阳师】花鸟卷 IDO场照返图', 'content': '【转侵删】出镜/后期：走路摇摄影：求止血', 'like_num': 2692, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yd5vqqr4uxP3ggfq.jpg', 'width': 650, 'height': 836, 'lemon_num': 0, 'rec_package_id': ''}, '6': {'obj_id': '190646618', 'title': '【cos预告】君与彼女与彼女之恋', 'content': '要来哔哩哔哩吗', 'like_num': 2055, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/z3aKWk1TUyGIZvwA.jpg', 'width': 1212, 'height': 1827, 'lemon_num': 0, 'rec_package_id': ''}, '7': {'obj_id': '190620575', 'title': '（集邮）之前活动和美少女们的集邮！', 'content': '看在这么多美少女的份上给糖呀~', 'like_num': 1018, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ugxLGfNUSEVIRx7h.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, '8': {'obj_id': '190618401', 'title': '刺客伍六七', 'content': '刺客伍六七伍六七:梦白摄影:小安后期:清酱', 'like_num': 1448, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T6vts2H5NGq63Pas.jpg', 'width': 2400, 'height': 1600, 'lemon_num': 0, 'rec_package_id': ''}, '9': {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, '10': {'obj_id': '190626551', 'title': '【cos正片】宇智波一家', 'content': '"爸爸和妈妈的心是连在一起的吗""嗯"宇智波佐助:@大贱_沉迷薛洋无法自拔i  春野樱:@君山桃花_孙翔好核桃_olo  佐良娜:原po摄影:@摄影菌菌菌庄爸爸  后期:@zeo不梦游  +@莲子_小法  +原po排版:@Me是君爱  团片存档，非独家', 'like_num': 726, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/VF5vNTtruSGBQwxB.jpg', 'width': 3360, 'height': 2240, 'lemon_num': 0, 'rec_package_id': ''}, '11': {'obj_id': '190611036', 'title': '关于洛丽塔', 'content': '沙雕的我，一般般的出现', 'like_num': 2406, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ZyAXYPymewwpOWR6.jpg', 'width': 1032, 'height': 1715, 'lemon_num': 0, 'rec_package_id': ''}, '12': {'obj_id': '190625954', 'title': '【COS正片】西木野真姬旗手未觉醒ver.', 'content': None, 'like_num': 1871, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/70BTnSzawvCvzdh4.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': ''}, '13': {'obj_id': '190623915', 'title': '好看吗，胤儿小哥哥', 'content': None, 'like_num': 1235, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/Jw8uLDvVbRtmK8l2.jpg', 'width': 733, 'height': 1299, 'lemon_num': 0, 'rec_package_id': ''}, '14': {'obj_id': '1578935742004224', 'title': None, 'content': '【Hikarin/Rein Cos】我英黑帮老大', 'like_num': 648, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/dcbaf17698.jpg', 'width': 1500, 'height': 952, 'lemon_num': 0, 'rec_package_id': ''}, '15': {'obj_id': '19062940', 'title': '【妄想校服季】天台·吹风祈愿', 'content': '写真依旧有未解锁图', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/BPJKRGQWSMQXRTWX.jpg', 'width': 1850, 'height': 12181, 'lemon_num': 0, 'rec_package_id': ''}, '16': {'obj_id': '19062324', 'title': '雷姆猫咪睡衣！', 'content': '雷姆:野泽妖妖子摄影:刘叔后期:狐狸第一次拍雷姆啊！雷姆真可爱莫名的把猫咪拍出了熊的感觉想拍可爱风的拍着拍着变成御姐了(TωT)没有掌握好表情下次注意！！！', 'like_num': 2328, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OPHXOOTADGPVQKXD.jpg', 'width': 1913, 'height': 2870, 'lemon_num': 0, 'rec_package_id': ''}, '17': {'obj_id': '19062987', 'title': '今日搬砖', 'content': None, 'like_num': 2010, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/BWDXWIXERKLDOWSA.jpg', 'width': 2598, 'height': 1953, 'lemon_num': 0, 'rec_package_id': ''}, '18': {'obj_id': '19062271', 'title': '【cos场照】琪亚娜冬之公主', 'content': '琪亚娜：琉砂摄影：紫阳梦乡首日，感谢大佬返图！怕配饰弄丢了， 所以一些配饰没戴完，求勿喷！！', 'like_num': 2749, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/X5SJUzGEOuwvPcDe.jpg', 'width': 1000, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, '19': {'obj_id': '19064370', 'title': '发个lolita拍摄的自拍❤第一次做这样的发型', 'content': '裙子来自: 安朵的密匙                   『夜莺的情事』一款日常和茶会都适合的裙子呢❤', 'like_num': 2899, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/Wbt74HIcWZed8aAZ.jpg', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}, 'list': [{'obj_id': '19069162', 'title': '【COS】我的妹妹不可能这么可爱 打歌服ver.', 'content': None, 'like_num': 1775, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/w6qHR69X0OawwqKg.jpg', 'width': 760, 'height': 1142, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190628045', 'title': '【拍摄速报】伊斯塔凛泳装', 'content': None, 'like_num': 1151, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/FTzZ8fX2u8VUouml.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19067540', 'title': None, 'content': '小乔原画师——小柔，cos小乔皮肤——天鹅之梦，真的快要美到窒息了啊！小柔实在是太萌了，不仅将小乔的乖巧可爱表现了出来，妆容里又透露出危险和黑暗的气息，妆容也是万分的精致，简直是120%的相似啊！', 'like_num': 1774, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_f9b558df-4467-4047-9a9f-123a17c9d380.jpg', 'width': 640, 'height': 960, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 1200, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190617385', 'title': '三个不同的啾咪~', 'content': '我疯了，你们别害怕，我不吃人', 'like_num': 869, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/SITUbJFCCGZxNvPl.gif', 'width': 360, 'height': 360, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190616053', 'title': '【阴阳师】花鸟卷 IDO场照返图', 'content': '【转侵删】出镜/后期：走路摇摄影：求止血', 'like_num': 2692, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yd5vqqr4uxP3ggfq.jpg', 'width': 650, 'height': 836, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190646618', 'title': '【cos预告】君与彼女与彼女之恋', 'content': '要来哔哩哔哩吗', 'like_num': 2055, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/z3aKWk1TUyGIZvwA.jpg', 'width': 1212, 'height': 1827, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190620575', 'title': '（集邮）之前活动和美少女们的集邮！', 'content': '看在这么多美少女的份上给糖呀~', 'like_num': 1018, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ugxLGfNUSEVIRx7h.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190618401', 'title': '刺客伍六七', 'content': '刺客伍六七伍六七:梦白摄影:小安后期:清酱', 'like_num': 1448, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T6vts2H5NGq63Pas.jpg', 'width': 2400, 'height': 1600, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190626551', 'title': '【cos正片】宇智波一家', 'content': '"爸爸和妈妈的心是连在一起的吗""嗯"宇智波佐助:@大贱_沉迷薛洋无法自拔i  春野樱:@君山桃花_孙翔好核桃_olo  佐良娜:原po摄影:@摄影菌菌菌庄爸爸  后期:@zeo不梦游  +@莲子_小法  +原po排版:@Me是君爱  团片存档，非独家', 'like_num': 726, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/VF5vNTtruSGBQwxB.jpg', 'width': 3360, 'height': 2240, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190611036', 'title': '关于洛丽塔', 'content': '沙雕的我，一般般的出现', 'like_num': 2406, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/ZyAXYPymewwpOWR6.jpg', 'width': 1032, 'height': 1715, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190625954', 'title': '【COS正片】西木野真姬旗手未觉醒ver.', 'content': None, 'like_num': 1871, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/70BTnSzawvCvzdh4.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190623915', 'title': '好看吗，胤儿小哥哥', 'content': None, 'like_num': 1235, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/Jw8uLDvVbRtmK8l2.jpg', 'width': 733, 'height': 1299, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578935742004224', 'title': None, 'content': '【Hikarin/Rein Cos】我英黑帮老大', 'like_num': 648, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/dcbaf17698.jpg', 'width': 1500, 'height': 952, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062940', 'title': '【妄想校服季】天台·吹风祈愿', 'content': '写真依旧有未解锁图', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/BPJKRGQWSMQXRTWX.jpg', 'width': 1850, 'height': 12181, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062324', 'title': '雷姆猫咪睡衣！', 'content': '雷姆:野泽妖妖子摄影:刘叔后期:狐狸第一次拍雷姆啊！雷姆真可爱莫名的把猫咪拍出了熊的感觉想拍可爱风的拍着拍着变成御姐了(TωT)没有掌握好表情下次注意！！！', 'like_num': 2328, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OPHXOOTADGPVQKXD.jpg', 'width': 1913, 'height': 2870, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062987', 'title': '今日搬砖', 'content': None, 'like_num': 2010, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/BWDXWIXERKLDOWSA.jpg', 'width': 2598, 'height': 1953, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19062271', 'title': '【cos场照】琪亚娜冬之公主', 'content': '琪亚娜：琉砂摄影：紫阳梦乡首日，感谢大佬返图！怕配饰弄丢了， 所以一些配饰没戴完，求勿喷！！', 'like_num': 2749, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/X5SJUzGEOuwvPcDe.jpg', 'width': 1000, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064370', 'title': '发个lolita拍摄的自拍❤第一次做这样的发型', 'content': '裙子来自: 安朵的密匙                   『夜莺的情事』一款日常和茶会都适合的裙子呢❤', 'like_num': 2899, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/Wbt74HIcWZed8aAZ.jpg', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190628420', 'title': '#COS黑贞#', 'content': '“喜欢的事？呵呵……没有比在信徒们的眼前否定神明更有意思的娱乐了。”贞德：@COSER赤瞳瞳phx：@岚岚贞德 黑贞德:@COSER赤瞳摄影：@岚岚 _| 化妆：COSER赤瞳| 后期：@岚岚 _| 协力:@小一@三三碎碎念:有很多新扩列的小伙伴问我黑贞的正片~现在再发一次w感谢观看哦~', 'like_num': 2787, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/HqcTnR44GasVhhQm.jpg', 'width': 1098, 'height': 2445, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '1': {'obj_id': '190628424', 'title': '【cos正片王者荣耀】', 'content': '#王者cos##cos正片#小乔孙尚香花魁# 【喜捞扩】红镜妆奁，香扇罗伞，顾曲唱和，端是朱帐春宵。——“呀、姐姐，你瞧那群臭男人，好逗趣儿呢！”——“英雄、英雄……安知英者，偏独得是个‘雄’呢？”便弱肌柔骨，芙蓉开面——你道，我就不会*么？孙尚香：@原po小乔：@小奶猫妆面：@原po摄影：@·~·（没有摄影小哥的qq 假装艾特成功他）社团：@{uin:2809985861,nick:迷斯伍德密室世界,who:1} 这套片子拖了蛮久…终于给他发出来了哈哈哈哈哈哈喜欢的小伙伴们可以帮忙扩一哈 红叶爱您们吖', 'like_num': 910, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rJo4G9dcI6hzFghX.jpg', 'width': 1080, 'height': 1618, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '2': {'obj_id': '190628427', 'title': '【第一弹新国风】王者荣耀cos正片 李白原皮', 'content': '(´,,•ω•,,｀)♡是你心中的李白哥哥吗', 'like_num': 1107, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/Zra2XgXopFgayqBS.jpg', 'width': 1125, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '3': {'obj_id': '190628428', 'title': '【弹娘换装play】万物皆草木，唯你是青山。', 'content': '弹妹的生日快到啦，特意给弹娘换上了白色的汉服，别有另一种温柔的感觉呢～不知道弹妹会喜欢这个温柔的姐姐吗？\r (๑•ㅂ•)✧祝弹妹生日快乐，第一弹越来越好，mua！', 'like_num': 1256, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/DITPFTPXATRUCOGW.jpg', 'width': 2598, 'height': 1733, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '4': {'obj_id': '190628429', 'title': '【汉服正片】齐胸襦裙真美呀~', 'content': '出镜：尤三 \r摄影：@前田師匠sakida \r后勤@楼下后勤的断腿音 \r地点：无锡 惠山古镇\r【一曲新词酒一杯 去年天气旧亭台 夕阳西下几时回 无可奈何花落去 似曾相识燕归来 小园香径独徘徊】', 'like_num': 2351, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ZDWyaB5HgDLuq8tx.jpg', 'width': 1152, 'height': 2048, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '5': {'obj_id': '190628406', 'title': '【魔卡少女樱】冰雪天使', 'content': '拍完了拍完了，是一只有知世的小樱真好！！！！能完成自己的脑洞真好！！！失踪人口终于回归真好！！！！', 'like_num': 2851, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/wqHJi7VIzAI8bdww.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '6': {'obj_id': '190628335', 'title': '【cos试妆】阴阳师-白狼', 'content': 'www超级喜欢初意这套皮肤TvT少女白狼的感觉！但是这套不是很适合我所以放弃了只拍了套试妆TvT', 'like_num': 2546, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QTGXIHPMICTYXJCT.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '7': {'obj_id': '190628336', 'title': '阴阳师手游夜叉血月青空试妆', 'content': '夜叉。唯安Vann', 'like_num': 2971, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ENkfkcJWm1OCrtp7.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '8': {'obj_id': '190628339', 'title': '漫展返图  尼尔机械纪元', 'content': '老年人来苟一波返图底层coser不容易', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/WBRENUAYCRFDRJYE.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 2, 'rec_package_id': 'cosplay'}, '9': {'obj_id': '190628340', 'title': '您的快递马上就到了哦', 'content': '《魔女宅急便》 琪琪 这其实是个速报，还要去别的取景地继续拍，不过因为有黑猫出镜的只有这一部分了所以先放出来。', 'like_num': 2136, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QSS6KVg13iNVo0dH.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '10': {'obj_id': '190628341', 'title': '漫展星尘幽牡丹返图', 'content': '超级喜欢星尘星尘的这套cos看到的第一眼就中草了，真的超级好看的说～这次漫展如愿以偿的出了星尘的这套幽牡丹简直开心死了～最后放上一张表情包(๑´ㅂ`๑)', 'like_num': 1646, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rp6ZfxAk7KnqjnB9.jpg', 'width': 480, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '11': {'obj_id': '190628342', 'title': '【cos】阿福', 'content': '人活着就是为了阿福！', 'like_num': 1281, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/EYBLLJNBDRQLCEZR.jpg', 'width': 2976, 'height': 3968, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '12': {'obj_id': '190628346', 'title': '宝石之国 钻石', 'content': '今天份展子的钻石，好久也没出来冒泡了', 'like_num': 1531, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/K2EP9PKPzljNrb1m.jpg', 'width': 1215, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '13': {'obj_id': '190628347', 'title': '【cos预告】阴阳师萤草', 'content': '虽然是老片但还是只有预告哈哈哈哈哈妆 扶枝摄 逐风协力 觉觉后期 君笉', 'like_num': 1031, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/UopcLJe1o5mnbcRX.jpg', 'width': 2880, 'height': 1920, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '14': {'obj_id': '190628385', 'title': '【cos正片】『我和集是并肩而立的存在』', 'content': '金鱼祈!\r找了废弃工厂拍的真的很可怕噫呜呜噫但是效果好像还不错】\r\r准备超级认真的一套!\r喜欢小伙伴点个糖呀\r渴望获得关注投喂糖果', 'like_num': 2774, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/AtRk7nOX0WnXZ2bm.jpg', 'width': 1080, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '15': {'obj_id': '190628360', 'title': '【试妆】宝石之国&amp;紫水晶', 'content': '粗略试了一下。', 'like_num': 1902, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/KQIYMAOYTFXRVOHK.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '16': {'obj_id': '190628364', 'title': '【速报】梨花开，春带雨。梨园春秋～', 'content': '【速报】梨园春秋来袭！出镜：BunnyJ兔子姬摄影：东海后期：桃魇拍摄地：东海juju的摄影棚', 'like_num': 651, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/B6zADVEVughbyesX.jpg', 'width': 1080, 'height': 1616, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '17': {'obj_id': '190628365', 'title': '青岛DC17漫展', 'content': '14号上午有个阿福穿着阿斯托尔福的粉色校服戴着黑虎阿福的假发 \r不行了 我一想就忍不住笑 哈哈哈哈 假胡子都掉了\r可惜没拍到照片\r还有啊 求一张抱白猫的钻石小姐姐\r真的好美', 'like_num': 2583, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QJcvES1i1U6KCN8W.jpg', 'width': 1512, 'height': 2016, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, 'list': [{'obj_id': '190628420', 'title': '#COS黑贞#', 'content': '“喜欢的事？呵呵……没有比在信徒们的眼前否定神明更有意思的娱乐了。”贞德：@COSER赤瞳瞳phx：@岚岚贞德 黑贞德:@COSER赤瞳摄影：@岚岚 _| 化妆：COSER赤瞳| 后期：@岚岚 _| 协力:@小一@三三碎碎念:有很多新扩列的小伙伴问我黑贞的正片~现在再发一次w感谢观看哦~', 'like_num': 2787, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/HqcTnR44GasVhhQm.jpg', 'width': 1098, 'height': 2445, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628424', 'title': '【cos正片王者荣耀】', 'content': '#王者cos##cos正片#小乔孙尚香花魁# 【喜捞扩】红镜妆奁，香扇罗伞，顾曲唱和，端是朱帐春宵。——“呀、姐姐，你瞧那群臭男人，好逗趣儿呢！”——“英雄、英雄……安知英者，偏独得是个‘雄’呢？”便弱肌柔骨，芙蓉开面——你道，我就不会*么？孙尚香：@原po小乔：@小奶猫妆面：@原po摄影：@·~·（没有摄影小哥的qq 假装艾特成功他）社团：@{uin:2809985861,nick:迷斯伍德密室世界,who:1} 这套片子拖了蛮久…终于给他发出来了哈哈哈哈哈哈喜欢的小伙伴们可以帮忙扩一哈 红叶爱您们吖', 'like_num': 910, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rJo4G9dcI6hzFghX.jpg', 'width': 1080, 'height': 1618, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628427', 'title': '【第一弹新国风】王者荣耀cos正片 李白原皮', 'content': '(´,,•ω•,,｀)♡是你心中的李白哥哥吗', 'like_num': 1107, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/Zra2XgXopFgayqBS.jpg', 'width': 1125, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628428', 'title': '【弹娘换装play】万物皆草木，唯你是青山。', 'content': '弹妹的生日快到啦，特意给弹娘换上了白色的汉服，别有另一种温柔的感觉呢～不知道弹妹会喜欢这个温柔的姐姐吗？\r (๑•ㅂ•)✧祝弹妹生日快乐，第一弹越来越好，mua！', 'like_num': 1256, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/DITPFTPXATRUCOGW.jpg', 'width': 2598, 'height': 1733, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628429', 'title': '【汉服正片】齐胸襦裙真美呀~', 'content': '出镜：尤三 \r摄影：@前田師匠sakida \r后勤@楼下后勤的断腿音 \r地点：无锡 惠山古镇\r【一曲新词酒一杯 去年天气旧亭台 夕阳西下几时回 无可奈何花落去 似曾相识燕归来 小园香径独徘徊】', 'like_num': 2351, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ZDWyaB5HgDLuq8tx.jpg', 'width': 1152, 'height': 2048, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628406', 'title': '【魔卡少女樱】冰雪天使', 'content': '拍完了拍完了，是一只有知世的小樱真好！！！！能完成自己的脑洞真好！！！失踪人口终于回归真好！！！！', 'like_num': 2851, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/wqHJi7VIzAI8bdww.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628335', 'title': '【cos试妆】阴阳师-白狼', 'content': 'www超级喜欢初意这套皮肤TvT少女白狼的感觉！但是这套不是很适合我所以放弃了只拍了套试妆TvT', 'like_num': 2546, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QTGXIHPMICTYXJCT.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628336', 'title': '阴阳师手游夜叉血月青空试妆', 'content': '夜叉。唯安Vann', 'like_num': 2971, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ENkfkcJWm1OCrtp7.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628339', 'title': '漫展返图  尼尔机械纪元', 'content': '老年人来苟一波返图底层coser不容易', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/WBRENUAYCRFDRJYE.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 2, 'rec_package_id': 'cosplay'}, {'obj_id': '190628340', 'title': '您的快递马上就到了哦', 'content': '《魔女宅急便》 琪琪 这其实是个速报，还要去别的取景地继续拍，不过因为有黑猫出镜的只有这一部分了所以先放出来。', 'like_num': 2136, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QSS6KVg13iNVo0dH.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628341', 'title': '漫展星尘幽牡丹返图', 'content': '超级喜欢星尘星尘的这套cos看到的第一眼就中草了，真的超级好看的说～这次漫展如愿以偿的出了星尘的这套幽牡丹简直开心死了～最后放上一张表情包(๑´ㅂ`๑)', 'like_num': 1646, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rp6ZfxAk7KnqjnB9.jpg', 'width': 480, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628342', 'title': '【cos】阿福', 'content': '人活着就是为了阿福！', 'like_num': 1281, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/EYBLLJNBDRQLCEZR.jpg', 'width': 2976, 'height': 3968, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628346', 'title': '宝石之国 钻石', 'content': '今天份展子的钻石，好久也没出来冒泡了', 'like_num': 1531, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/K2EP9PKPzljNrb1m.jpg', 'width': 1215, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628347', 'title': '【cos预告】阴阳师萤草', 'content': '虽然是老片但还是只有预告哈哈哈哈哈妆 扶枝摄 逐风协力 觉觉后期 君笉', 'like_num': 1031, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/UopcLJe1o5mnbcRX.jpg', 'width': 2880, 'height': 1920, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628385', 'title': '【cos正片】『我和集是并肩而立的存在』', 'content': '金鱼祈!\r找了废弃工厂拍的真的很可怕噫呜呜噫但是效果好像还不错】\r\r准备超级认真的一套!\r喜欢小伙伴点个糖呀\r渴望获得关注投喂糖果', 'like_num': 2774, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/AtRk7nOX0WnXZ2bm.jpg', 'width': 1080, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628360', 'title': '【试妆】宝石之国&amp;紫水晶', 'content': '粗略试了一下。', 'like_num': 1902, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/KQIYMAOYTFXRVOHK.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628364', 'title': '【速报】梨花开，春带雨。梨园春秋～', 'content': '【速报】梨园春秋来袭！出镜：BunnyJ兔子姬摄影：东海后期：桃魇拍摄地：东海juju的摄影棚', 'like_num': 651, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/B6zADVEVughbyesX.jpg', 'width': 1080, 'height': 1616, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628365', 'title': '青岛DC17漫展', 'content': '14号上午有个阿福穿着阿斯托尔福的粉色校服戴着黑虎阿福的假发 \r不行了 我一想就忍不住笑 哈哈哈哈 假胡子都掉了\r可惜没拍到照片\r还有啊 求一张抱白猫的钻石小姐姐\r真的好美', 'like_num': 2583, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QJcvES1i1U6KCN8W.jpg', 'width': 1512, 'height': 2016, 'lemon_num': 1, 'rec_package_id': 'cosplay'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
@@ -2221,7 +2243,7 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1909174157', 'title': ' 【壁纸】2018-09-29', 'content': None, 'like_num': 2128, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n76eo2xj31hc0t310g.jpg', 'width': 1024, 'height': 558, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '1': {'obj_id': '1909174158', 'title': ' 【动漫】10.07号精选【73P】', 'content': None, 'like_num': 2337, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/005ZUAk5gy1fw3jqg1n48j30m80dw3zq.jpg', 'width': 800, 'height': 500, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '2': {'obj_id': '1909174159', 'title': ' 【壁纸】2018-09-27', 'content': None, 'like_num': 1758, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n8te5clj31hc0qotel.jpg', 'width': 1024, 'height': 512, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '3': {'obj_id': '1909174161', 'title': ' 【绅士热点】每日福利系列 (2018-10-07)', 'content': None, 'like_num': 2371, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n3tz0hqj30jw0s4q59.jpg', 'width': 716, 'height': 1012, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '4': {'obj_id': '1909174162', 'title': ' 【壁纸】2018-09-30', 'content': None, 'like_num': 1957, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ee3d9514fadd37fefda59d24a23aa400-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '5': {'obj_id': '1909174152', 'title': ' 【绅士热点】每日福利系列 (2018-09-28)', 'content': None, 'like_num': 519, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n87e145j30ow0wctbm.jpg', 'width': 896, 'height': 1164, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '6': {'obj_id': '1909174115', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 764, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2oa6huo1j30jg0rigoh.jpg', 'width': 700, 'height': 990, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '7': {'obj_id': '1909174116', 'title': ' 【绅士福利】福利第166期 (MEGA&amp;百度云)', 'content': None, 'like_num': 1934, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nyerqvbj311p1hc7a1.jpg', 'width': 1024, 'height': 1449, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '8': {'obj_id': '1909174117', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2672, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2o69l2xgj30rs13an3u.jpg', 'width': 1000, 'height': 1414, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '9': {'obj_id': '1909174118', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2172, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nw694o6j30m80wtjvj.jpg', 'width': 800, 'height': 1181, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '10': {'obj_id': '1909174119', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2054, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nolfruzj31hc11p45v.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '11': {'obj_id': '1909174122', 'title': ' 【绅士福利】福利第176期', 'content': None, 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/50fc25b3577bea4536699d5f00ce25c5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '12': {'obj_id': '1909174127', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2146, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nfz7sflj30p60z00ws.jpg', 'width': 906, 'height': 1260, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '13': {'obj_id': '1909174128', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 1388, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nlzvrb3j30m80v3ju5.jpg', 'width': 800, 'height': 1119, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '14': {'obj_id': '1909174140', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nf4x6d6j30jo0rsgog.jpg', 'width': 708, 'height': 1000, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '15': {'obj_id': '1909174131', 'title': ' 【壁纸】2018-09-11', 'content': None, 'like_num': 897, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nigkw55j315o0n6421.jpg', 'width': 1024, 'height': 569, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '16': {'obj_id': '1909174132', 'title': ' 【壁纸】2018-09-10', 'content': None, 'like_num': 2006, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/9cce4b8b6d99c858563eb93a19a31ede-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '17': {'obj_id': '1909174133', 'title': ' 【壁纸】2018-09-23', 'content': None, 'like_num': 2434, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7ded841a52405286910181065f9412bd-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '18': {'obj_id': '1909174134', 'title': ' 【壁纸】2018-09-06', 'content': None, 'like_num': 1950, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nluqzauj31430scgti.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '19': {'obj_id': '1909174135', 'title': ' 【壁纸】2018-09-15', 'content': None, 'like_num': 2065, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/37e3a6c11620f4622d002cab65b35239-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, 'list': [{'obj_id': '1909174157', 'title': ' 【壁纸】2018-09-29', 'content': None, 'like_num': 2128, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n76eo2xj31hc0t310g.jpg', 'width': 1024, 'height': 558, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174158', 'title': ' 【动漫】10.07号精选【73P】', 'content': None, 'like_num': 2337, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/005ZUAk5gy1fw3jqg1n48j30m80dw3zq.jpg', 'width': 800, 'height': 500, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174159', 'title': ' 【壁纸】2018-09-27', 'content': None, 'like_num': 1758, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n8te5clj31hc0qotel.jpg', 'width': 1024, 'height': 512, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174161', 'title': ' 【绅士热点】每日福利系列 (2018-10-07)', 'content': None, 'like_num': 2371, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n3tz0hqj30jw0s4q59.jpg', 'width': 716, 'height': 1012, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174162', 'title': ' 【壁纸】2018-09-30', 'content': None, 'like_num': 1957, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ee3d9514fadd37fefda59d24a23aa400-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174152', 'title': ' 【绅士热点】每日福利系列 (2018-09-28)', 'content': None, 'like_num': 519, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2n87e145j30ow0wctbm.jpg', 'width': 896, 'height': 1164, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174115', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 764, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2oa6huo1j30jg0rigoh.jpg', 'width': 700, 'height': 990, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174116', 'title': ' 【绅士福利】福利第166期 (MEGA&amp;百度云)', 'content': None, 'like_num': 1934, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nyerqvbj311p1hc7a1.jpg', 'width': 1024, 'height': 1449, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174117', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2672, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2o69l2xgj30rs13an3u.jpg', 'width': 1000, 'height': 1414, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174118', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2172, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nw694o6j30m80wtjvj.jpg', 'width': 800, 'height': 1181, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174119', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2054, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nolfruzj31hc11p45v.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174122', 'title': ' 【绅士福利】福利第176期', 'content': None, 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/50fc25b3577bea4536699d5f00ce25c5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174127', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2146, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nfz7sflj30p60z00ws.jpg', 'width': 906, 'height': 1260, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174128', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 1388, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nlzvrb3j30m80v3ju5.jpg', 'width': 800, 'height': 1119, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174140', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nf4x6d6j30jo0rsgog.jpg', 'width': 708, 'height': 1000, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174131', 'title': ' 【壁纸】2018-09-11', 'content': None, 'like_num': 897, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nigkw55j315o0n6421.jpg', 'width': 1024, 'height': 569, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174132', 'title': ' 【壁纸】2018-09-10', 'content': None, 'like_num': 2006, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/9cce4b8b6d99c858563eb93a19a31ede-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174133', 'title': ' 【壁纸】2018-09-23', 'content': None, 'like_num': 2434, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7ded841a52405286910181065f9412bd-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174134', 'title': ' 【壁纸】2018-09-06', 'content': None, 'like_num': 1950, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2nluqzauj31430scgti.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174135', 'title': ' 【壁纸】2018-09-15', 'content': None, 'like_num': 2065, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/37e3a6c11620f4622d002cab65b35239-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190919618', 'title': ' 【动漫】卖萌求币 2017.8.10', 'content': None, 'like_num': 1937, 'has_like': 0, 'tags': '', 'author_id': 45, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/a91f447f68362dc23b891c49dd118ea0-800x500.jpg', 'width': 800, 'height': 500, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '1': {'obj_id': '190919619', 'title': ' 【动漫】镜音双子第一弹', 'content': None, 'like_num': 1632, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/76b7e98d02a2daac548bdc0fbc7c2ce9-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 3, 'rec_package_id': 'illustrations'}, '2': {'obj_id': '190919620', 'title': ' 【动漫】上车不打卡 2017.8.5', 'content': None, 'like_num': 531, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/5e2819d6ee546908e4461ebf93b06a15-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '3': {'obj_id': '190919622', 'title': ' 【动漫】风沫的小36', 'content': None, 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/806a8b1fff6048f67bbd80430be43111-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 2, 'rec_package_id': 'illustrations'}, '4': {'obj_id': '190919624', 'title': ' 【动漫】Fate_GrandOrder 第四弹', 'content': None, 'like_num': 633, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/75843ea543c20f2835f14d5c1b9972e5-529x600.jpg', 'width': 529, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '5': {'obj_id': '190919625', 'title': ' 【动漫】Fate_GrandOrder 第三弹', 'content': None, 'like_num': 4, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/4ac98663ca8a11dcda8ea30809ef4f47-429x600.jpg', 'width': 429, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '6': {'obj_id': '190919628', 'title': ' 【画集画册】遥仰凰华', 'content': None, 'like_num': 6, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/525959977854fde6caa29890f111f9e6-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '7': {'obj_id': '190919615', 'title': ' 【动漫】泳装系列 第四弹', 'content': None, 'like_num': 2762, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/9002c760c0e2d74984b4476363b1636b-450x600.jpg', 'width': 450, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, 'list': [{'obj_id': '190919618', 'title': ' 【动漫】卖萌求币 2017.8.10', 'content': None, 'like_num': 1937, 'has_like': 0, 'tags': '', 'author_id': 45, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/a91f447f68362dc23b891c49dd118ea0-800x500.jpg', 'width': 800, 'height': 500, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919619', 'title': ' 【动漫】镜音双子第一弹', 'content': None, 'like_num': 1632, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/76b7e98d02a2daac548bdc0fbc7c2ce9-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 3, 'rec_package_id': 'illustrations'}, {'obj_id': '190919620', 'title': ' 【动漫】上车不打卡 2017.8.5', 'content': None, 'like_num': 531, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/5e2819d6ee546908e4461ebf93b06a15-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919622', 'title': ' 【动漫】风沫的小36', 'content': None, 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/806a8b1fff6048f67bbd80430be43111-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 2, 'rec_package_id': 'illustrations'}, {'obj_id': '190919624', 'title': ' 【动漫】Fate_GrandOrder 第四弹', 'content': None, 'like_num': 633, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/75843ea543c20f2835f14d5c1b9972e5-529x600.jpg', 'width': 529, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190919625', 'title': ' 【动漫】Fate_GrandOrder 第三弹', 'content': None, 'like_num': 4, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/4ac98663ca8a11dcda8ea30809ef4f47-429x600.jpg', 'width': 429, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919628', 'title': ' 【画集画册】遥仰凰华', 'content': None, 'like_num': 6, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/525959977854fde6caa29890f111f9e6-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919615', 'title': ' 【动漫】泳装系列 第四弹', 'content': None, 'like_num': 2762, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/9002c760c0e2d74984b4476363b1636b-450x600.jpg', 'width': 450, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -2278,7 +2300,7 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1579784298004927', 'title': None, 'content': '贡献一下（没有什么特别意思，只是按照我的图库顺着来', 'like_num': 941, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/382c3d33c3.jpg', 'width': 900, 'height': 1236, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '1': {'obj_id': '1579784334004930', 'title': None, 'content': '第1个是国际服，第2个是日服  \n下哪一个呀？\n哪位大佬告诉我一下。', 'like_num': 508, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ece149884f.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '2': {'obj_id': '1579784336004931', 'title': None, 'content': '好看不可以做桌面壁纸', 'like_num': 1142, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/28fc11df6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDQzNjA1NDM4OTE1NjI5MCMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '3': {'obj_id': '1579784421004932', 'title': None, 'content': '一天一发，发完即止', 'like_num': 2352, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e93f9634b7.jpg', 'width': 1754, 'height': 1240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '4': {'obj_id': '1579784454004933', 'title': None, 'content': '为什么玩不了', 'like_num': 743, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6bdd1ab1d7.jpg', 'width': 1920, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '5': {'obj_id': '1579784488004934', 'title': None, 'content': '高清刀剑壁纸图哦', 'like_num': 2287, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/2e77d3c934.jpg', 'width': 2048, 'height': 1447, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '6': {'obj_id': '1579784579004936', 'title': None, 'content': '亚丝娜小时候好可爱?', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/17c3fee583.jpg', 'width': 640, 'height': 360, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '7': {'obj_id': '1579784596004938', 'title': None, 'content': '已经发了第三遍了，但是还不够', 'like_num': 1963, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e5b03defc5.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDUyNDUyMTMzMDA4OTY4NyMyMDUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '8': {'obj_id': '1579784635004939', 'title': None, 'content': '(｀⌒´メ(｀⌒´メ)超凶', 'like_num': 2752, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/12b0011fa8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDU5NTg1NTEzNzczOTAyOSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '9': {'obj_id': '1579781614004866', 'title': None, 'content': '4月刀剑神域GGO外传PV合集(1080P)(已更新完毕)', 'like_num': 1456, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5250b9a70a.jpg', 'width': 550, 'height': 344, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NjM4NDI1MzU5MDc1NyMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '10': {'obj_id': '1579784716004943', 'title': None, 'content': '一入潜水深似海', 'like_num': 887, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/61dc12c61f.jpg', 'width': 1200, 'height': 851, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '11': {'obj_id': '1579784781004944', 'title': None, 'content': '就问帅不帅', 'like_num': 2748, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3d39db1f22.jpg', 'width': 960, 'height': 831, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '12': {'obj_id': '1579784787004945', 'title': None, 'content': '【刀剑神域】#结城明日奈#亚总\n这个亚子的啊丝娜可爱ớ ₃ờ炸了，是我的。', 'like_num': 1294, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7a36fc3491.jpg', 'width': 1080, 'height': 608, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '13': {'obj_id': '1579784804004948', 'title': None, 'content': '亚骚娜你在干撒子?看来这张结衣绝对不可以看到！', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/30ca7e36ea.jpg', 'width': 658, 'height': 673, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '14': {'obj_id': '1579784833004950', 'title': None, 'content': '应该可以当壁纸吧?', 'like_num': 1005, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ccc91d68cb.jpg', 'width': 1000, 'height': 625, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '15': {'obj_id': '1579784852004951', 'title': None, 'content': '附赠桐人壁纸头像（最后一张镇贴）', 'like_num': 1445, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/58227002f1.jpg', 'width': 897, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '16': {'obj_id': '1579785024004953', 'title': None, 'content': 'emmmm，我觉得OK', 'like_num': 1279, 'has_like': 0, 'tags': '', 'author_id': 80, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4d0a13cc96.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDk1MzgxMjcwODUwOTA5MyMzNjMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '17': {'obj_id': '1579785030004955', 'title': None, 'content': '你们有这个的另一半桐子吗？想弄情头', 'like_num': 2789, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/d640de2f13.jpg', 'width': 540, 'height': 540, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '18': {'obj_id': '1579785093004957', 'title': None, 'content': '这行吗', 'like_num': 598, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8ccda5b236.jpg', 'width': 1360, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDg3NzE2NDM1Njc2MjU1MSM0NDMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '19': {'obj_id': '1579785163004961', 'title': None, 'content': '新人前来冒泡', 'like_num': 2459, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a256c77fd5.jpg', 'width': 905, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, 'list': [{'obj_id': '1579784298004927', 'title': None, 'content': '贡献一下（没有什么特别意思，只是按照我的图库顺着来', 'like_num': 941, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/382c3d33c3.jpg', 'width': 900, 'height': 1236, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784334004930', 'title': None, 'content': '第1个是国际服，第2个是日服  \n下哪一个呀？\n哪位大佬告诉我一下。', 'like_num': 508, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ece149884f.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784336004931', 'title': None, 'content': '好看不可以做桌面壁纸', 'like_num': 1142, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/28fc11df6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDQzNjA1NDM4OTE1NjI5MCMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784421004932', 'title': None, 'content': '一天一发，发完即止', 'like_num': 2352, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e93f9634b7.jpg', 'width': 1754, 'height': 1240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784454004933', 'title': None, 'content': '为什么玩不了', 'like_num': 743, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6bdd1ab1d7.jpg', 'width': 1920, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784488004934', 'title': None, 'content': '高清刀剑壁纸图哦', 'like_num': 2287, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/2e77d3c934.jpg', 'width': 2048, 'height': 1447, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784579004936', 'title': None, 'content': '亚丝娜小时候好可爱?', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/17c3fee583.jpg', 'width': 640, 'height': 360, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784596004938', 'title': None, 'content': '已经发了第三遍了，但是还不够', 'like_num': 1963, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e5b03defc5.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDUyNDUyMTMzMDA4OTY4NyMyMDUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784635004939', 'title': None, 'content': '(｀⌒´メ(｀⌒´メ)超凶', 'like_num': 2752, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/12b0011fa8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDU5NTg1NTEzNzczOTAyOSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781614004866', 'title': None, 'content': '4月刀剑神域GGO外传PV合集(1080P)(已更新完毕)', 'like_num': 1456, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5250b9a70a.jpg', 'width': 550, 'height': 344, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NjM4NDI1MzU5MDc1NyMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784716004943', 'title': None, 'content': '一入潜水深似海', 'like_num': 887, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/61dc12c61f.jpg', 'width': 1200, 'height': 851, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784781004944', 'title': None, 'content': '就问帅不帅', 'like_num': 2748, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3d39db1f22.jpg', 'width': 960, 'height': 831, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784787004945', 'title': None, 'content': '【刀剑神域】#结城明日奈#亚总\n这个亚子的啊丝娜可爱ớ ₃ờ炸了，是我的。', 'like_num': 1294, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7a36fc3491.jpg', 'width': 1080, 'height': 608, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784804004948', 'title': None, 'content': '亚骚娜你在干撒子?看来这张结衣绝对不可以看到！', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/30ca7e36ea.jpg', 'width': 658, 'height': 673, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784833004950', 'title': None, 'content': '应该可以当壁纸吧?', 'like_num': 1005, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ccc91d68cb.jpg', 'width': 1000, 'height': 625, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784852004951', 'title': None, 'content': '附赠桐人壁纸头像（最后一张镇贴）', 'like_num': 1445, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/58227002f1.jpg', 'width': 897, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785024004953', 'title': None, 'content': 'emmmm，我觉得OK', 'like_num': 1279, 'has_like': 0, 'tags': '', 'author_id': 80, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4d0a13cc96.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDk1MzgxMjcwODUwOTA5MyMzNjMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785030004955', 'title': None, 'content': '你们有这个的另一半桐子吗？想弄情头', 'like_num': 2789, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/d640de2f13.jpg', 'width': 540, 'height': 540, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785093004957', 'title': None, 'content': '这行吗', 'like_num': 598, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8ccda5b236.jpg', 'width': 1360, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDg3NzE2NDM1Njc2MjU1MSM0NDMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579785163004961', 'title': None, 'content': '新人前来冒泡', 'like_num': 2459, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a256c77fd5.jpg', 'width': 905, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1583899198004266', 'title': None, 'content': '大仙说的对', 'like_num': 521, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/2e0285c90e.jpg', 'width': 2340, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '1': {'obj_id': '1583902763004382', 'title': None, 'content': '又是爱你的一个月。', 'like_num': 626, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a61f7dccce.jpg', 'width': 748, 'height': 1121, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '2': {'obj_id': '1583902582004371', 'title': None, 'content': '这是神马操作', 'like_num': 2029, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/12d110b88b.jpg', 'width': 240, 'height': 240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '3': {'obj_id': '1583899282004268', 'title': None, 'content': '摸头死全家', 'like_num': 1756, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/896fb6302b.jpg', 'width': 2280, 'height': 1080, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '4': {'obj_id': '1583903807004410', 'title': None, 'content': '是谁（;≥皿≤）', 'like_num': 1364, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ccb047ea42.jpg', 'width': 880, 'height': 504, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '5': {'obj_id': '1583903857004412', 'title': None, 'content': '卡哇伊&gt;o&lt;', 'like_num': 2110, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/c56d06aae4.jpg', 'width': 2160, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '6': {'obj_id': '1583903865004413', 'title': None, 'content': '三三结婚吧', 'like_num': 2989, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/23fba8ac5c.jpg', 'width': 720, 'height': 1440, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '7': {'obj_id': '1583899204004267', 'title': None, 'content': '有吗有吗', 'like_num': 2737, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/06fbb52532.jpg', 'width': 1465, 'height': 720, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '8': {'obj_id': '1583900733004318', 'title': None, 'content': '这不就，水起来了吗', 'like_num': 1720, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/cc25f46d13.jpg', 'width': 1830, 'height': 2000, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, '9': {'obj_id': '1583903932004416', 'title': None, 'content': '噜啦啦噜啦啦噜啦噜啦嘿', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a38e21926e.jpg', 'width': 1125, 'height': 1432, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '10': {'obj_id': '1583899285004269', 'title': None, 'content': '这是飞雷神2段', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1846962d12.jpg', 'width': 1440, 'height': 1080, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1NjAwNzM5NzcyMDk3MCM5MDkjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '11': {'obj_id': '1583899298004270', 'title': None, 'content': '看卡卡西这一脉。上到三代火影是师祖级，三代的弟子是自来也，自来也下面是水门，这个隔着许多代才到卡卡西，而本应该他跟鸣人平辈，水门的孩子他应该喊弟弟，但自来也却收了鸣人当徒弟，水门和自来也平辈了，自来也就要喊鸣人一声师叔了，而鸣人的小弟，大弟子木叶丸，三代的孙子，跟水门平辈吧，要从鸣人这里论，卡殿和他是平辈，但到了三代这一系，他也要叫师叔！', 'like_num': 901, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/35981ebfea.jpg', 'width': 372, 'height': 315, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '12': {'obj_id': '1583900816004320', 'title': None, 'content': '初音 新图搬运第七十五期', 'like_num': 1665, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0820df70ac.jpg', 'width': 1920, 'height': 1299, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '13': {'obj_id': '1583901521004347', 'title': None, 'content': '长发的鸢一折纸💕', 'like_num': 2914, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cbf133be6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1OTI3NjgxNzIwOTkwMSMzMzMjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '14': {'obj_id': '1583901744004359', 'title': None, 'content': '文起四海以喻九州', 'like_num': 2159, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a9f3d097d2.jpg', 'width': 600, 'height': 871, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, '15': {'obj_id': '1583899309004271', 'title': None, 'content': '两个彩蛋', 'like_num': 2121, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/74c3f5b165.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '16': {'obj_id': '1583899312004272', 'title': None, 'content': '红袍兜', 'like_num': 2495, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/68f56480c8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg3MTM1NzU0MjQyMjkxNSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '17': {'obj_id': '1583902671004375', 'title': None, 'content': '今~日~美~图（第十八期）', 'like_num': 2878, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7e473b2fe3.jpg', 'width': 782, 'height': 439, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '18': {'obj_id': '1583901172004334', 'title': None, 'content': '暖暖的春天，让梦恒久比天长', 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/1dafd3a5d8.jpg', 'width': 2000, 'height': 2533, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '19': {'obj_id': '1583899389004273', 'title': None, 'content': ' 谁有鸣人的', 'like_num': 2417, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7c4dc863cc.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, 'list': [{'obj_id': '1583899198004266', 'title': None, 'content': '大仙说的对', 'like_num': 521, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/2e0285c90e.jpg', 'width': 2340, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583902763004382', 'title': None, 'content': '又是爱你的一个月。', 'like_num': 626, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a61f7dccce.jpg', 'width': 748, 'height': 1121, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583902582004371', 'title': None, 'content': '这是神马操作', 'like_num': 2029, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/12d110b88b.jpg', 'width': 240, 'height': 240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899282004268', 'title': None, 'content': '摸头死全家', 'like_num': 1756, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/896fb6302b.jpg', 'width': 2280, 'height': 1080, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903807004410', 'title': None, 'content': '是谁（;≥皿≤）', 'like_num': 1364, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ccb047ea42.jpg', 'width': 880, 'height': 504, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903857004412', 'title': None, 'content': '卡哇伊&gt;o&lt;', 'like_num': 2110, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/c56d06aae4.jpg', 'width': 2160, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903865004413', 'title': None, 'content': '三三结婚吧', 'like_num': 2989, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/23fba8ac5c.jpg', 'width': 720, 'height': 1440, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899204004267', 'title': None, 'content': '有吗有吗', 'like_num': 2737, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/06fbb52532.jpg', 'width': 1465, 'height': 720, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583900733004318', 'title': None, 'content': '这不就，水起来了吗', 'like_num': 1720, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/cc25f46d13.jpg', 'width': 1830, 'height': 2000, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903932004416', 'title': None, 'content': '噜啦啦噜啦啦噜啦噜啦嘿', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a38e21926e.jpg', 'width': 1125, 'height': 1432, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899285004269', 'title': None, 'content': '这是飞雷神2段', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1846962d12.jpg', 'width': 1440, 'height': 1080, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1NjAwNzM5NzcyMDk3MCM5MDkjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899298004270', 'title': None, 'content': '看卡卡西这一脉。上到三代火影是师祖级，三代的弟子是自来也，自来也下面是水门，这个隔着许多代才到卡卡西，而本应该他跟鸣人平辈，水门的孩子他应该喊弟弟，但自来也却收了鸣人当徒弟，水门和自来也平辈了，自来也就要喊鸣人一声师叔了，而鸣人的小弟，大弟子木叶丸，三代的孙子，跟水门平辈吧，要从鸣人这里论，卡殿和他是平辈，但到了三代这一系，他也要叫师叔！', 'like_num': 901, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/35981ebfea.jpg', 'width': 372, 'height': 315, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583900816004320', 'title': None, 'content': '初音 新图搬运第七十五期', 'like_num': 1665, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0820df70ac.jpg', 'width': 1920, 'height': 1299, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583901521004347', 'title': None, 'content': '长发的鸢一折纸💕', 'like_num': 2914, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cbf133be6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1OTI3NjgxNzIwOTkwMSMzMzMjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583901744004359', 'title': None, 'content': '文起四海以喻九州', 'like_num': 2159, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a9f3d097d2.jpg', 'width': 600, 'height': 871, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899309004271', 'title': None, 'content': '两个彩蛋', 'like_num': 2121, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/74c3f5b165.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899312004272', 'title': None, 'content': '红袍兜', 'like_num': 2495, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/68f56480c8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg3MTM1NzU0MjQyMjkxNSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583902671004375', 'title': None, 'content': '今~日~美~图（第十八期）', 'like_num': 2878, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7e473b2fe3.jpg', 'width': 782, 'height': 439, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583901172004334', 'title': None, 'content': '暖暖的春天，让梦恒久比天长', 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/1dafd3a5d8.jpg', 'width': 2000, 'height': 2533, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899389004273', 'title': None, 'content': ' 谁有鸣人的', 'like_num': 2417, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7c4dc863cc.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -2335,7 +2357,7 @@
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 560, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, '1': {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, '2': {'obj_id': '190643863', 'title': '【jk正片】樱花落下的速度是每秒五厘米', 'content': '樱花片拖到现在都也就我了hhh', 'like_num': 2877, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/te9G9TOJ7g2esunG.jpg', 'width': 1326, 'height': 1988, 'lemon_num': 0, 'rec_package_id': ''}, '3': {'obj_id': '19064968', 'title': '【jk日常】新衬衫咋样？', 'content': '灯笼袖水手领哦！', 'like_num': 1437, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/lrRzDPnHqDiwAAry.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, '4': {'obj_id': '19069548', 'title': '应该好看吧！', 'content': None, 'like_num': 2391, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/hhyVkg7XPpmz4tcC.jpg', 'width': 1199, 'height': 1471, 'lemon_num': 0, 'rec_package_id': ''}, '5': {'obj_id': '190625191', 'title': '扫街日常～纪念第一次夜景', 'content': '出境：我摄影：江城拾梦者求互粉～求投喂～', 'like_num': 1292, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/GKGFHXNLYLFIIONO.jpg', 'width': 2598, 'height': 3897, 'lemon_num': 0, 'rec_package_id': ''}, '6': {'obj_id': '190613936', 'title': '一波腿子！', 'content': '最近没拍图！周六拍内景！先发一波腿子！', 'like_num': 1080, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/KEGSKCXGQDSLTREH.jpg', 'width': 3494, 'height': 6210, 'lemon_num': 0, 'rec_package_id': ''}, '7': {'obj_id': '190618039', 'title': '刀锋腐团儿', 'content': None, 'like_num': 1555, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1ODQxNzc1NzYzNjEyMDI5OCMzNzkjaW1hZ2U=', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}, '8': {'obj_id': '190617979', 'title': '姐妹花 圣诞cos 第二弹', 'content': None, 'like_num': 2182, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1NTU0MDI5NTIyOTY3Nzc1MSM1OSNpbWFnZQ==', 'width': 1600, 'height': 2400, 'lemon_num': 0, 'rec_package_id': ''}, '9': {'obj_id': '19066648', 'title': '今天也是日常，看我做的蛋糕！！', 'content': '我画画是真的烂哈哈哈明明小时候很会画画的呢QAQ现在画的真的就略略略。。。', 'like_num': 1094, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/diK1A1tAuDhzRrvP.jpg', 'width': 1016, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, '10': {'obj_id': '190626884', 'title': '路人女主加藤惠睡衣♡1100粉就发这套正片!', 'content': '喜欢的小伙伴点个糖关注呀谢谢啦♡非常非常爱你们!希望变得可爱x', 'like_num': 1473, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yOkTHjVcPSRfhP5t.jpg', 'width': 1500, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, '11': {'obj_id': '19063527', 'title': '变☆态☆注☆意', 'content': None, 'like_num': 2107, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/VlXQlRPG50a37CKx.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': ''}, '12': {'obj_id': '19069422', 'title': '茨木童子·鬼众之王', 'content': 'Fate/Grand Order\u3000茨木童子「吾の名は茨木童子。大江山の鬼の首魁よ」model：クルミ(@k_purarine) photo：けーたろ(@ketaro_ovn)#FGO #fateGO https://t.co/dtiC8cZgPh', 'like_num': 1474, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/SVn0ZyOi9bslrfoR.jpg', 'width': 2048, 'height': 1405, 'lemon_num': 0, 'rec_package_id': ''}, '13': {'obj_id': '190643799', 'title': '式雪鸟cos正片', 'content': '喜欢可关注！！后面还会发其他cos的感谢！！！人丑勿喷。出境：暗墨血摄影/后期：小浩，酱饼', 'like_num': 2025, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NDY5NzkwNTg5NjE1Mjc2NCMxNDMjaW1hZ2U=', 'width': 1280, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, '14': {'obj_id': '190627052', 'title': '【COS正片】王者荣耀 安琪拉cos', 'content': '安琪拉心灵骇客❤️\r“节奏摇摆的时候，一天会变成365个季节”\r\r出境：原po\rphx：@Crimson枫叶 \r后期：@阮妹-薯片片-\r排版：@尐夭_Luvian \r\r好喜欢安琪拉这个皮肤！太酷炫了！！一定要出次正片才行谢谢薯片片的酷炫后期\r\r转侵删~', 'like_num': 1127, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/90SgQkuVtgLaYWPt.jpg', 'width': 878, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, '15': {'obj_id': '1578930301004949', 'title': None, 'content': '【日常】c服开箱', 'like_num': 2014, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ded641d47a.jpg', 'width': 3072, 'height': 4096, 'lemon_num': 0, 'rec_package_id': ''}, '16': {'obj_id': '190648705', 'title': '心血来潮', 'content': None, 'like_num': 2717, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/S01kGZ7VbFvI7GFF.jpg', 'width': 870, 'height': 2196, 'lemon_num': 0, 'rec_package_id': ''}, '17': {'obj_id': '190624119', 'title': '日常', 'content': '三连拍♡一起来玩歪头头吧～', 'like_num': 2932, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/T3cftfhi2YwlSvwC.jpg', 'width': 693, 'height': 644, 'lemon_num': 0, 'rec_package_id': ''}, '18': {'obj_id': '190640682', 'title': '【COS】狂赌之渊', 'content': '梦子X会长你爱这对cp吗', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/v235XUyJRWpJKDwi.jpg', 'width': 812, 'height': 1080, 'lemon_num': 0, 'rec_package_id': ''}, '19': {'obj_id': '190648791', 'title': '手作展示贴ORZ', 'content': None, 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T4nGIxh2fUdg6gk0.jpg', 'width': 800, 'height': 1066, 'lemon_num': 0, 'rec_package_id': ''}, 'list': [{'obj_id': '190611473', 'title': '02白色战斗服', 'content': '是darling！', 'like_num': 560, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QCQFLFIWOTPEIVLY.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064542', 'title': '【Lolita】是甜甜的娜！', 'content': '早上好呀', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/UJPYLLDTELOGWVOC.jpg', 'width': 3494, 'height': 3494, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190643863', 'title': '【jk正片】樱花落下的速度是每秒五厘米', 'content': '樱花片拖到现在都也就我了hhh', 'like_num': 2877, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/te9G9TOJ7g2esunG.jpg', 'width': 1326, 'height': 1988, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19064968', 'title': '【jk日常】新衬衫咋样？', 'content': '灯笼袖水手领哦！', 'like_num': 1437, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/lrRzDPnHqDiwAAry.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19069548', 'title': '应该好看吧！', 'content': None, 'like_num': 2391, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/hhyVkg7XPpmz4tcC.jpg', 'width': 1199, 'height': 1471, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190625191', 'title': '扫街日常～纪念第一次夜景', 'content': '出境：我摄影：江城拾梦者求互粉～求投喂～', 'like_num': 1292, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/GKGFHXNLYLFIIONO.jpg', 'width': 2598, 'height': 3897, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190613936', 'title': '一波腿子！', 'content': '最近没拍图！周六拍内景！先发一波腿子！', 'like_num': 1080, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/KEGSKCXGQDSLTREH.jpg', 'width': 3494, 'height': 6210, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190618039', 'title': '刀锋腐团儿', 'content': None, 'like_num': 1555, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1ODQxNzc1NzYzNjEyMDI5OCMzNzkjaW1hZ2U=', 'width': 1920, 'height': 2560, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190617979', 'title': '姐妹花 圣诞cos 第二弹', 'content': None, 'like_num': 2182, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1NTU0MDI5NTIyOTY3Nzc1MSM1OSNpbWFnZQ==', 'width': 1600, 'height': 2400, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19066648', 'title': '今天也是日常，看我做的蛋糕！！', 'content': '我画画是真的烂哈哈哈明明小时候很会画画的呢QAQ现在画的真的就略略略。。。', 'like_num': 1094, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/diK1A1tAuDhzRrvP.jpg', 'width': 1016, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190626884', 'title': '路人女主加藤惠睡衣♡1100粉就发这套正片!', 'content': '喜欢的小伙伴点个糖关注呀谢谢啦♡非常非常爱你们!希望变得可爱x', 'like_num': 1473, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yOkTHjVcPSRfhP5t.jpg', 'width': 1500, 'height': 1500, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19063527', 'title': '变☆态☆注☆意', 'content': None, 'like_num': 2107, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/VlXQlRPG50a37CKx.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19069422', 'title': '茨木童子·鬼众之王', 'content': 'Fate/Grand Order\u3000茨木童子「吾の名は茨木童子。大江山の鬼の首魁よ」model：クルミ(@k_purarine) photo：けーたろ(@ketaro_ovn)#FGO #fateGO https://t.co/dtiC8cZgPh', 'like_num': 1474, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/SVn0ZyOi9bslrfoR.jpg', 'width': 2048, 'height': 1405, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190643799', 'title': '式雪鸟cos正片', 'content': '喜欢可关注！！后面还会发其他cos的感谢！！！人丑勿喷。出境：暗墨血摄影/后期：小浩，酱饼', 'like_num': 2025, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NDY5NzkwNTg5NjE1Mjc2NCMxNDMjaW1hZ2U=', 'width': 1280, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190627052', 'title': '【COS正片】王者荣耀 安琪拉cos', 'content': '安琪拉心灵骇客❤️\r“节奏摇摆的时候，一天会变成365个季节”\r\r出境：原po\rphx：@Crimson枫叶 \r后期：@阮妹-薯片片-\r排版：@尐夭_Luvian \r\r好喜欢安琪拉这个皮肤！太酷炫了！！一定要出次正片才行谢谢薯片片的酷炫后期\r\r转侵删~', 'like_num': 1127, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/90SgQkuVtgLaYWPt.jpg', 'width': 878, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578930301004949', 'title': None, 'content': '【日常】c服开箱', 'like_num': 2014, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ded641d47a.jpg', 'width': 3072, 'height': 4096, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190648705', 'title': '心血来潮', 'content': None, 'like_num': 2717, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/S01kGZ7VbFvI7GFF.jpg', 'width': 870, 'height': 2196, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190624119', 'title': '日常', 'content': '三连拍♡一起来玩歪头头吧～', 'like_num': 2932, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/T3cftfhi2YwlSvwC.jpg', 'width': 693, 'height': 644, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190640682', 'title': '【COS】狂赌之渊', 'content': '梦子X会长你爱这对cp吗', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/v235XUyJRWpJKDwi.jpg', 'width': 812, 'height': 1080, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190648791', 'title': '手作展示贴ORZ', 'content': None, 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/T4nGIxh2fUdg6gk0.jpg', 'width': 800, 'height': 1066, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '191058983', 'title': None, 'content': '好好活着不好吗……', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3346a081ed.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2424310.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '1': {'obj_id': '191115575', 'title': None, 'content': '谢耳朵一开嗓，我就懵逼了。  \u200b\u200b\u200b', 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8377a3b232.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/719270.mp4', 'lemon_num': 3, 'rec_package_id': ''}, '2': {'obj_id': '191093499', 'title': None, 'content': '就是这个女人👩', 'like_num': 1428, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/961fc3e960.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474920.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '3': {'obj_id': '191051895', 'title': None, 'content': '求bgm', 'like_num': 2358, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6a8edaf4b7.jpg', 'width': 500, 'height': 838, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2439900.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '4': {'obj_id': '191062657', 'title': None, 'content': '它是天然“血栓通”，降低血粘稠度，预防中风脑梗', 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/cb5a25e82e31455ca5a1f1fd5204b4d6.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2db344f8053f465bb53c9c07f1eed5fe.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '5': {'obj_id': '191063071', 'title': None, 'content': '卖了两千大洋不知道亏不亏！', 'like_num': 2161, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/090126504b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '6': {'obj_id': '191121672', 'title': None, 'content': '来，接下来，我给大家打个哑谜', 'like_num': 716, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/52a3830bfd.jpg', 'width': 1024, 'height': 576, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/11298820407_1551624504000.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '7': {'obj_id': '191091561', 'title': None, 'content': '手机是p的', 'like_num': 8, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/345b53f7e5.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2185980.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '8': {'obj_id': '191112115', 'title': None, 'content': '天天秀恩爱啊啊啊啊啊', 'like_num': 2382, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f580cb23c1.jpg', 'width': 720, 'height': 720, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2618620.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '9': {'obj_id': '191121288', 'title': None, 'content': '兄弟帮兄弟，闺蜜坑闺蜜', 'like_num': 2283, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/72254ac6df.jpg', 'width': 360, 'height': 640, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2003620.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '10': {'obj_id': '191111643', 'title': None, 'content': '第二遍，能火吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f7ee8163d3.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2616380.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '11': {'obj_id': '191115747', 'title': None, 'content': '音乐天才', 'like_num': 1379, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6714aa262d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/248170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '12': {'obj_id': '191087747', 'title': None, 'content': '天下一个妈系列😝日常', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8248bfd9c3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466480.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '13': {'obj_id': '191118310', 'title': None, 'content': '你等会', 'like_num': 5, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f26f260004.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2499940.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '14': {'obj_id': '191121438', 'title': None, 'content': '哈哈，你被逗笑了吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fd7f565c9d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/179500.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '15': {'obj_id': '191093331', 'title': None, 'content': '还给加根肠，良心商家', 'like_num': 1550, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3167b6bff1.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2476650.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '16': {'obj_id': '191121244', 'title': None, 'content': '秋天', 'like_num': 1154, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fb7eaa1cc6.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/23085552302_1567690685531.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '17': {'obj_id': '191050740', 'title': None, 'content': '向每一位缉毒英雄致敬，一切平安', 'like_num': 2013, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/b8f7ca73f2.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2412140.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '18': {'obj_id': '191066235', 'title': None, 'content': '蹦极可以买半票了', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a64b7882d3.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2143170.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '19': {'obj_id': '191071448', 'title': None, 'content': '没错，你们想的和我一样', 'like_num': 1393, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f283caaa85.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474680.mp4', 'lemon_num': 2, 'rec_package_id': ''}, 'list': [{'obj_id': '191058983', 'title': None, 'content': '好好活着不好吗……', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3346a081ed.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2424310.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191115575', 'title': None, 'content': '谢耳朵一开嗓，我就懵逼了。  \u200b\u200b\u200b', 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8377a3b232.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/719270.mp4', 'lemon_num': 3, 'rec_package_id': ''}, {'obj_id': '191093499', 'title': None, 'content': '就是这个女人👩', 'like_num': 1428, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/961fc3e960.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474920.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191051895', 'title': None, 'content': '求bgm', 'like_num': 2358, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6a8edaf4b7.jpg', 'width': 500, 'height': 838, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2439900.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191062657', 'title': None, 'content': '它是天然“血栓通”，降低血粘稠度，预防中风脑梗', 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/cb5a25e82e31455ca5a1f1fd5204b4d6.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2db344f8053f465bb53c9c07f1eed5fe.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191063071', 'title': None, 'content': '卖了两千大洋不知道亏不亏！', 'like_num': 2161, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/090126504b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121672', 'title': None, 'content': '来，接下来，我给大家打个哑谜', 'like_num': 716, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/52a3830bfd.jpg', 'width': 1024, 'height': 576, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/11298820407_1551624504000.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191091561', 'title': None, 'content': '手机是p的', 'like_num': 8, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/345b53f7e5.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2185980.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191112115', 'title': None, 'content': '天天秀恩爱啊啊啊啊啊', 'like_num': 2382, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f580cb23c1.jpg', 'width': 720, 'height': 720, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2618620.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191121288', 'title': None, 'content': '兄弟帮兄弟，闺蜜坑闺蜜', 'like_num': 2283, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/72254ac6df.jpg', 'width': 360, 'height': 640, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2003620.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191111643', 'title': None, 'content': '第二遍，能火吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f7ee8163d3.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2616380.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191115747', 'title': None, 'content': '音乐天才', 'like_num': 1379, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6714aa262d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/248170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191087747', 'title': None, 'content': '天下一个妈系列😝日常', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8248bfd9c3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466480.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191118310', 'title': None, 'content': '你等会', 'like_num': 5, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f26f260004.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2499940.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191121438', 'title': None, 'content': '哈哈，你被逗笑了吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fd7f565c9d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/179500.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191093331', 'title': None, 'content': '还给加根肠，良心商家', 'like_num': 1550, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3167b6bff1.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2476650.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191121244', 'title': None, 'content': '秋天', 'like_num': 1154, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fb7eaa1cc6.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/23085552302_1567690685531.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191050740', 'title': None, 'content': '向每一位缉毒英雄致敬，一切平安', 'like_num': 2013, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/b8f7ca73f2.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2412140.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191066235', 'title': None, 'content': '蹦极可以买半票了', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a64b7882d3.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2143170.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191071448', 'title': None, 'content': '没错，你们想的和我一样', 'like_num': 1393, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f283caaa85.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474680.mp4', 'lemon_num': 2, 'rec_package_id': ''}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
@@ -2388,7 +2410,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
@@ -2516,11 +2538,7 @@
         </is>
       </c>
       <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>{"uid":1060,"is_bind":1}</t>
-        </is>
-      </c>
+      <c r="J2" s="3" t="n"/>
       <c r="K2" s="3" t="inlineStr">
         <is>
           <t>{'code': 0, 'msg': '请求成功', 'data': {'is_bind': 1, 'access_token': '9oxe3i55e99mdlx28r7civbe6', 'refresh_token': 'z89kwwmm18zwjrhsxl0c70tro', 'expires_in': 3600, 'uid': 1060}}</t>
@@ -2569,8 +2587,8 @@
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{
- 'device': '867672030793812',
- 'mobile': '12345678999'
+ 'device': '8676720307938121',
+ 'mobile': '12345678994'
 }</t>
         </is>
       </c>
@@ -2625,9 +2643,9 @@
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{
- 'smscode': '8999',
+ 'smscode': '8994',
  'device': 1,
- 'mobile': '12345678999',
+ 'mobile': '12345678994',
  'grant_type': 'smscode'
 }</t>
         </is>
@@ -2638,14 +2656,10 @@
         </is>
       </c>
       <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>{"uid":88}</t>
-        </is>
-      </c>
+      <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'access_token': 'x7mrp9mklg8xajnskh72qnlif', 'refresh_token': 'qiggrjxr99fly2lquc3za3mkm', 'expires_in': 3600, 'uid': 88}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'access_token': 'okfqfwed45durz6t0r7l26cl1', 'refresh_token': 'yawrofk1iykh8rvgotx3y988h', 'expires_in': 3600, 'uid': 83}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -2710,7 +2724,7 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 88, 'showid': 'ii88', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/88.gif', 'sex': 3, 'nickname': '我是你的大笨居', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'third_type': 0, 'is_anchor': 0, 'is_anchor_ban': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 83, 'showid': 'di83', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/83/avatar/1577261562689.jpg', 'sex': 3, 'nickname': '首席甜言蜜语轰炸官', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'third_type': 0, 'is_anchor': 1, 'is_anchor_ban': 0}}</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -2809,7 +2823,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -2943,7 +2957,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 88, 'showid': 'ii88', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/88.gif', 'sex': 3, 'nickname': '我是你的大笨居', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 9, 'receive_lemon_num': 2, 'release_content_num': 207, 'tag_list': None, 'anchor_info': None, 'is_follow': 0, 'follow_num': 12, 'fans_num': 5}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 88, 'showid': 'ii88', 'avatar': 'http://qnc-lemon.chumanapp.com/user/avatar/0820/88.gif', 'sex': 3, 'nickname': '我是你的大笨居', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 0, 'receive_lemon_num': 232, 'release_content_num': 202, 'tag_list': None, 'anchor_info': None, 'is_follow': 0, 'follow_num': 3, 'fans_num': 23}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -3004,7 +3018,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004155', 'title': '1587361337866', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004153', 'title': '1587361223805', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004151', 'title': '1587351770423', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '200468', 'title': '台上一分钟，台下十年功', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/6534dc7a48983769eb34cded70c8bebd.png', 'width': 192, 'height': 192, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/dub_game/147-1586830270680.mp4'}, {'obj_id': '200445', 'title': '3434', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/video/5781f01a33824882b3443979c0717374.mp4'}, {'obj_id': '2003226', 'title': '6666', 'content': '55', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/2231675575454251a9dc408c6af01de7.jpg', 'width': 686, 'height': 858}, {'obj_id': '2003225', 'title': '9494', 'content': '9467', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/49dfab80516c4f1887fd1109b713fd36.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '190956', 'title': 'you配音', 'content': '是', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/6e17306a1739444493e7ffed49299651.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/video/e983921f398a402b83fde75856306731.mp4'}, {'obj_id': '190954', 'title': '不理解', 'content': '不知道', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/ea4eef44d6d8467a92b59b611acaca3b.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/88/video/cd31e3eef24d40a9a989c8370ef4a31d.mp4'}, {'obj_id': '190647203', 'title': '【cos試妝】靈夢★紅白巫女', 'content': '找時間要來雪恥紅白的一設了…！想起箱子深處那套紅魔鄉紅白，雖然很古老還簡單，但作為入坑作還是捨棄不了 _(┐「ε:)_ 喜歡的話求糖求關注！投喂的話請丟進那邊那個賽錢箱裡 ˋ( ° ▽、° ) ！', 'like_num': 2374, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/ZgLFhBij5sgaTR1R.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190911687', 'title': 'Beyond: Two Souls游戏壁纸', 'content': None, 'like_num': 855, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/13-1612051536360-L.jpg', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190921537', 'title': ' 【动漫】玉藻前 第二十一弹', 'content': None, 'like_num': 2875, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/b78bf34a2720fb1a2925cc73c9d7a26a-420x600.jpg', 'width': 420, 'height': 600, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191115437', 'title': None, 'content': '有一种生活叫朋友圈里的生活', 'like_num': 980, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/08fb1bc9f1.jpg', 'width': 1024, 'height': 576, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1797710.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190917253', 'title': ' 【Pixiv Spotlight】全球的插画师 激发想象力的世界观！精选12位中国插画师', 'content': None, 'like_num': 1904, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/e93c80c73a2844c24ce612a152a8d889-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190628763', 'title': '【弹♂娘弹♂妹换装play】', 'content': '祝弹娘弹妹生日快乐~由于很早就定了衣服没拍 结果换了人设 所以出的是复古版 想出人物cos人物的脑洞 最后我太大只了 再也不会出软妹了 告辞~', 'like_num': 2687, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/rKOWnGZvF8uTvjr3.jpg', 'width': 1376, 'height': 2064, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190630017', 'title': '哈哈，不成功来一次', 'content': '来一次不成功的试妆+假发虽然……不好看', 'like_num': 659, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/FRa8ANQvlle0r6Lt.jpg', 'width': 720, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190920597', 'title': ' 【动漫】东方 第一弹', 'content': None, 'like_num': 2212, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/6f5c82ac016e3dca7a421f2c9d33f652-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190642893', 'title': '第一次发，但不是第一次女装。。。', 'content': None, 'like_num': 948, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/NV693ztZXflNXF2A.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191047483', 'title': None, 'content': '忘了进攻手势？', 'like_num': 2889, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/464cee2012.jpg', 'width': 864, 'height': 454, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2462460.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190641123', 'title': '【叽】叽叽叽叽叽叽叽叽', 'content': '天气差的时候拍的还把叽耳忘在酒店了哭唧唧我修图又要p上去', 'like_num': 2395, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/kfnEsJXzhptaqpmX.jpg', 'width': 1620, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}]}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': [{'type': '11', 'obj_id': '2004542', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '2003874', 'title': '小姐姐配音', 'content': '好', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://qnc-lemon.chumanapp.com/user/88/image/0757a84ebf444802a30d5e16bae110c2.jpg', 'width': 552, 'height': 872, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/88/video/57673284ca9048deb5c2b477a7c6fa6a.mp4'}, {'obj_id': '2003868', 'title': '999', 'content': '666', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://qnc-lemon.chumanapp.com/user/88/image/9b5ad9362f774644889365582ebd7d35.jpg', 'width': 540, 'height': 1140}, {'obj_id': '2003839', 'title': '柠檬KK', 'content': '😌', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://qnc-lemon.chumanapp.com/user/88/image/9f030e24add945c2b38106af3d171b09.jpg', 'width': 1024, 'height': 1449}, {'obj_id': '190921663', 'title': ' 【动漫】偶像大师 第十一发', 'content': None, 'like_num': 6, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/90af9c6cbce46cdc313275978fa3adb1-369x600.jpg', 'width': 369, 'height': 600, 'lemon_num': 1, 'rec_package_id': ''}, {'type': '4', 'obj_id': '119311083', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '190919003', 'title': ' 公主殿下生日快乐! [初音周庆祝献礼][整理][pixiv]初音ミク生誕祭[180831] [1361P][2.1G]', 'content': None, 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0fcebb7e3fccd330ee7430ea827b6092-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 3, 'rec_package_id': ''}, {'obj_id': '190918513', 'title': ' 【zerochan日榜】2018.03.12zerochan日榜美图', 'content': None, 'like_num': 1818, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/95def6bf62b202c88cadd5bab9622d94-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191121917', 'title': None, 'content': '白敬亭注孤生，女生节送你离开千里之外……白敬亭', 'like_num': 2436, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a5abffa1e2.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/788800.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1584682693004353', 'title': None, 'content': '她们需要抱抱', 'like_num': 2449, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/fb92d5a8ee.jpg', 'width': 1383, 'height': 930, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '4', 'obj_id': '112167923', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '190918383', 'title': ' 【画师】-226174', 'content': None, 'like_num': 2788, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/2a87984f9453339cfae3336b2230d1f3-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '190911687', 'title': 'Beyond: Two Souls游戏壁纸', 'content': None, 'like_num': 10, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_comics_wallpaper/image/13-1612051536360-L.jpg', 'width': 310, 'height': 220, 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191071977', 'title': None, 'content': '祝老妈0131生日快乐', 'like_num': 934, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/e5f4ab9328.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2436320.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '190648013', 'title': '#cos正片##蕾姆祭奠#', 'content': '久违的发套老图摄影：青呱', 'like_num': 9, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/MRQRLXHAVHFNOSQT.jpg', 'width': 2109, 'height': 1408, 'lemon_num': 4, 'rec_package_id': ''}, {'type': '2', 'obj_id': '34_166953', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '190919387', 'title': ' 【日榜】2019 年5月4日 Pixiv日榜美图 #P250', 'content': None, 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/8ed2dc633b587471cc04e2bf6ed578e8-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 6, 'rec_package_id': ''}, {'type': '4', 'obj_id': '141782347', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '191121593', 'title': None, 'content': '运输船永久下线了！', 'like_num': 704, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/7b85ca1818.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/22737027938_1567128370026.mp4', 'lemon_num': 0, 'rec_package_id': ''}]}</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -3065,7 +3079,7 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191115535', 'title': None, 'content': '这是在说郭老师当年经历吗', 'like_num': 1940, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/529e1e5167.jpg', 'width': 360, 'height': 640, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/19723628794_15632093460.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191121662', 'title': None, 'content': '那个是卸妆水吗😂😂', 'like_num': 2391, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c342c36faa.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2016030.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1582701235004515', 'title': None, 'content': '【剧照第20期】〔五年前的三三〕', 'like_num': 641, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3289036552.jpg', 'width': 1506, 'height': 720, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1583037066001276', 'title': '田园风 o(≧v≦)o~~', 'content': None, 'like_num': 2013, 'has_like': 0, 'tags': ',泰剧,toey', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1138cd753a.jpg', 'width': 1080, 'height': 1350, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1582513855001118', 'title': '将恋爱进行到底❤️', 'content': '陷在里面无法自拔，好想赶快大结局 [1f60d] [1f60d] [1f60d]', 'like_num': 658, 'has_like': 0, 'tags': ',安利我的爱豆,日剧', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/90806ac3a4.jpg', 'width': 840, 'height': 1493, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1582771355004099', 'title': None, 'content': '找师傅，找朋友', 'like_num': 2116, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e09d66bb17.jpg', 'width': 1080, 'height': 2280, 'lemon_num': 1, 'rec_package_id': ''}, {'type': '7', 'obj_id': '1905161698', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '9', 'obj_id': '190651944', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'type': '9', 'obj_id': '190650895', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -3248,7 +3262,7 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_res_info': {'copper': '25612', 'silver': '0', 'gold': '0'}, 'lemon_res_desc': '&lt;p&gt;青柠，是柠檬精平台的通用货币，目前青柠的唯一来源是通过参与平台内的活动、任务而获得。青柠目前可用于购买直播间特定礼物等消耗，或者按照平台的比例兑换成人民币提现。&lt;/p&gt;&lt;p&gt;金条，是柠檬精充值平台的中间货币，目前金条的唯一来源是通过充值获得。充值即视为消费，不予退款。当您在柠檬精平台直播间进行礼物打赏时，可直接用于支付。金条，不能用于兑换人民币提现。&lt;/p&gt;', 'withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362128#/czDrawCash'}, 'copper_withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362128#/qnDrawCash'}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_res_info': {'copper': '189377', 'silver': '0', 'gold': '0'}, 'lemon_res_desc': '&lt;p&gt;青柠，是柠檬精平台的通用货币，目前青柠的唯一来源是通过参与平台内的活动、任务而获得。青柠目前可用于购买直播间特定礼物等消耗，或者按照平台的比例兑换成人民币提现。&lt;/p&gt;&lt;p&gt;金条，是柠檬精充值平台的中间货币，目前金条的唯一来源是通过充值获得。充值即视为消费，不予退款。当您在柠檬精平台直播间进行礼物打赏时，可直接用于支付。金条，不能用于兑换人民币提现。&lt;/p&gt;', 'withdrawal_switch': {'status': 1, 'jump_url': 'http://qnp.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362484#/czDrawCash'}, 'copper_withdrawal_switch': {'status': 1, 'jump_url': 'http://qnp.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362484#/qnDrawCash'}}}</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
@@ -3309,7 +3323,7 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'rmb_num': 1, 'item_id': '10', 'silver_num': 100, 'icon_text': '首充有礼'}, {'rmb_num': 0.01, 'item_id': '1', 'silver_num': 1, 'icon_text': ''}, {'rmb_num': 0.06, 'item_id': '2', 'silver_num': 6, 'icon_text': ''}, {'rmb_num': 0.15, 'item_id': '5', 'silver_num': 15, 'icon_text': ''}, {'rmb_num': 0.36, 'item_id': '6', 'silver_num': 36, 'icon_text': ''}, {'rmb_num': 0.88, 'item_id': '7', 'silver_num': 88, 'icon_text': ''}, {'rmb_num': 2.18, 'item_id': '8', 'silver_num': 218, 'icon_text': ''}, {'rmb_num': 5, 'item_id': '11', 'silver_num': 500, 'icon_text': ''}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'rmb_num': 1, 'item_id': '4', 'silver_num': 100, 'icon_text': '首充有礼'}, {'rmb_num': 6, 'item_id': '3', 'silver_num': 600, 'icon_text': ''}, {'rmb_num': 15, 'item_id': '2', 'silver_num': 1500, 'icon_text': ''}, {'rmb_num': 36, 'item_id': '1', 'silver_num': 3600, 'icon_text': ''}, {'rmb_num': 88, 'item_id': '5', 'silver_num': 8800, 'icon_text': ''}, {'rmb_num': 218, 'item_id': '6', 'silver_num': 21800, 'icon_text': ''}, {'rmb_num': 500, 'item_id': '7', 'silver_num': 50000, 'icon_text': ''}]}}</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
@@ -3370,7 +3384,7 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20200313', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583826224, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020038', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399931, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020037', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399862, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020036', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399675, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020035', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399601, 'res_type': 1, 'res_val': 30, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020034', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1583399600, 'res_type': 1, 'res_val': 54, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200116379', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116357', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1181, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116358', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 955, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116359', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1176, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116361', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1184, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116364', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1105, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116365', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 902, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116369', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1215, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116370', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1131, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116373', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 974, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116375', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116377', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579487497, 'res_type': 1, 'res_val': 1, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200116355', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1579486481, 'res_type': 1, 'res_val': 1199, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20200372621', 'log_pay_type': 1, 'log_type': '1_1_9', 'log_time': 1585298609, 'res_type': 1, 'res_val': 188000, 'rmb_num': '', 'log_type_name': '活动获奖'}, {'log_id': '20200361762', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1584694473, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200361755', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1584693815, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131392', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1582618685, 'res_type': 1, 'res_val': 620, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202002131391', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618649, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131390', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618600, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131389', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618559, 'res_type': 1, 'res_val': 36, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131388', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618558, 'res_type': 1, 'res_val': 30, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131385', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618450, 'res_type': 1, 'res_val': 20, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131386', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618450, 'res_type': 1, 'res_val': 18, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131384', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618418, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020011238', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579402432, 'res_type': 1, 'res_val': 15, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001183', 'log_pay_type': 1, 'log_type': '1_1_6', 'log_time': 1578910816, 'res_type': 1, 'res_val': 588, 'rmb_num': '', 'log_type_name': '新人福利赠送'}]}}</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
@@ -3492,7 +3506,7 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '202002209', 'log_pay_type': 2, 'log_type': '3_2_1', 'log_time': 1582619195, 'res_type': 3, 'res_val': 10, 'rmb_num': '¥10.00', 'log_type_name': '彩钻提现', 'log_detail': {'log_title': '彩钻提现详情', 'log_desc': '提现成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'withdraw_start_time': '2020-02-25 16:26:34', 'withdraw_end_time': '预计2020/03/06前', 'detail_list': ['到账金额：  ¥10.00', '提现账号：  支付宝（188****6982）', '创建时间：  2020-02-25 16:26:34', '到账时间：  2020-02-26 11:15:45', '柠檬精订单编号：  202002252', '支付宝订单编号：  测试订单']}, 'withdrawal_status': 1, 'withdrawal_status_name': '提现成功'}, {'log_id': '202002208', 'log_pay_type': 1, 'log_type': '3_1_5', 'log_time': 1582618825, 'res_type': 3, 'res_val': 10, 'rmb_num': '', 'log_type_name': '官方打款'}, {'log_id': '201911167', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573530673, 'res_type': 3, 'res_val': 0.57, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '201911166', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573527215, 'res_type': 3, 'res_val': 325, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '201911165', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573527195, 'res_type': 3, 'res_val': 0.57, 'rmb_num': '', 'log_type_name': '收礼物'}]}}</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -3695,7 +3709,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -3832,7 +3846,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
@@ -3889,7 +3903,7 @@
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -3950,7 +3964,7 @@
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -4006,7 +4020,7 @@
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004157', 'title': '1587361922562', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004200', 'title': '1587378857231', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -4067,12 +4081,12 @@
       <c r="J6" s="3" t="n"/>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004158', 'title': '1587361923387', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004199', 'title': '1587378717957', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -4122,21 +4136,13 @@
         </is>
       </c>
       <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'type': 12, 'title': '1587361923387', 'desc': '视频2020', 'material_json': '', 'is_open': 0, 'source_obj_type': 0, 'source_obj_id': '', 'like_num': 0, 'lemon_num': 0, 'has_like': 0, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'video_list_obj': {'url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/image\\/4783d76072714796a9c710289fb5428f.jpg', 'max_height': 960, 'max_width': 720, 'length': 12100, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}, 'user_info': {'user_id': 88, 'nickname': '我是你的大笨居', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/88.gif', 'showid': 'ii88'}, 'user_id': 88, 'tags': '', 'has_share': 0, 'has_give_lemon': 0, 'allow_share_img': 0, 'allow_save_img': 0, 'is_allow_download': 0, 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362137#/video/MjAwNDE1OA==?mode=DEMO&amp;product_type=2'}}}</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="n"/>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="8" s="2">
       <c r="A8" s="3" t="n">
@@ -4179,21 +4185,13 @@
         </is>
       </c>
       <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '2004103', 'format_comment_id': '2004103'}}</t>
-        </is>
-      </c>
+      <c r="K8" s="3" t="n"/>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="9" s="2">
       <c r="A9" s="3" t="n">
@@ -4240,21 +4238,13 @@
           <t>{"comment_id"}</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '2004103', 'user_id': 88, 'message': '我酸了', 'content_time': 7009, 'comments': None}], 'count': 1}}</t>
-        </is>
-      </c>
+      <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="10" s="2">
       <c r="A10" s="3" t="n">
@@ -4297,21 +4287,13 @@
         </is>
       </c>
       <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': True}</t>
-        </is>
-      </c>
+      <c r="K10" s="3" t="n"/>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="11" s="2">
       <c r="A11" s="3" t="n"/>
@@ -4469,13 +4451,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="6"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="9"/>
     <col customWidth="1" max="2" min="2" style="2" width="19"/>
@@ -4609,7 +4591,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
@@ -4666,7 +4648,7 @@
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -4705,7 +4687,11 @@
         </is>
       </c>
       <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>obj_id</t>
+        </is>
+      </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
@@ -4718,12 +4704,12 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362148#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -4775,12 +4761,12 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362149#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362149#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379693#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379693#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
@@ -4832,15 +4818,76 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587362150#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>参赛作品详情</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>cos赛道</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>/api/trace_activity/get_trace_activity_work_info</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization,'X-Token': XToken,'biData':biData}</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>{"access_token":token,"obj_id":trace_release_id}</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>access_token,trace_release_id</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'trace_id': 4, 'obj_id': 2003228, 'title': '赛道444', 'status': 3, 'vote_num': 0, 'rank_id': 1, 'work_status': 1, 'left_vote_num': 20, 'target_user_id': 1003}}}</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -4867,27 +4914,28 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="19"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="9"/>
-    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
+    <col customWidth="1" max="16384" min="14" style="2" width="9.142857142857141"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="40" r="1" s="2">
@@ -4968,7 +5016,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>cos赛道</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -4999,17 +5047,17 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>{"msg":"请求成功"}</t>
+          <t>{"obj_id","title","content"}</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004145', 'title': '表情配音，太逗了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1368, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1368/dub_game/288-1587024181198.mp4', 'user_info': {'user_id': 1368, 'nickname': '567', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=pXY7QvZsg1IVIFrKRXDJDA&amp;s=100&amp;t=1556244452', 'showid': 'ig1368'}}, {'obj_id': '2004141', 'title': '有趣的表情，灵魂的配音', 'content': 'Wow，这也太玩好了吧，太上头了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=1120315825,1205387636&amp;fm=26&amp;gp=0.jpg', 'width': 255, 'height': 255, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/109-1586951064236.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004140', 'title': '手速快，抢到了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1586256681157&amp;di=a4891c0b910f55e113016c3e40c4ad78&amp;imgtype=0&amp;src=', 'width': 600, 'height': 391, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/108-1586946365929.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004139', 'title': '有趣的表情，灵魂的配音', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1043/dub_game/264-1586943347189.mp4', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': '2004136', 'title': '抢一图，秀一音', 'content': '你可以像猪一样的生活，但你永远都不能像猪那样快乐！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/261-1586939732539.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004134', 'title': '因趣丝听的配音', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/259-1586938953426.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}, {'obj_id': '2004132', 'title': '台上一分钟，台下十年功', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/259-1586938954379.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004131', 'title': '这是个有趣的配音局', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f16d894d66f5e9479d6d6af78f2d19b1.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/259-1586938953538.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004129', 'title': '不得不说，真的好玩', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/257-1586938811507.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004128', 'title': '好玩，好玩，还是好玩', 'content': '逗乐只是瞬间，配音才是永恒。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/256-1586938578222.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004127', 'title': '表情配音，太逗了', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/256-1586938574015.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004126', 'title': '世间竟有如此好玩的事情', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/253-1586938367852.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004125', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/253-1586938359203.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004123', 'title': '手速快，抢到了', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5232deb00d8dda035d3c6050d7bb76a4.jpg', 'width': 144, 'height': 152, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/251-1586936464922.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004122', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1004, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/248f0c211eb16e85fe059e0a428ff498.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1004/dub_game/249-1586935099011.mp4', 'user_info': {'user_id': 1004, 'nickname': '你好', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1004/avatar/1572523833553.jpg', 'showid': 'ea1004'}}, {'obj_id': '2004121', 'title': '表情配音，太逗了', 'content': '我说话有点雷，玩起来有点疯。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/466de73a789b117522612888380ad4eb.png', 'width': 998, 'height': 968, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/248-1586935034982.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004118', 'title': '世间竟有如此好玩的事情', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c6aedcd53a551bb59a95936c050dee84.jpg', 'width': 150, 'height': 148, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/246-1586934754099.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004117', 'title': '世间竟有如此好玩的事情', 'content': '只想优美转身，不料华丽配音。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/236-1586933290160.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}]}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004707', 'title': '配的不是表情，是有趣的灵魂', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1004, 'type': 12, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/68e908148ec10ccac190debb507e8efd.jpg', 'width': 690, 'height': 690, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/1004/dub_game/44-1587352933322.mp4', 'user_info': {'user_id': 1004, 'nickname': '猪扒包', 'avatar': 'http://qnc-lemon.chumanapp.com/user/1004/avatar/1585122762783.jpg', 'showid': 'ea1004'}}, {'obj_id': '2004706', 'title': '好玩，好玩，还是好玩', 'content': '不要迷恋鸽，鸽只是个传说。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1023, 'type': 12, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/32bc3532749eff6f370b02764de1b2b1.jpg', 'width': 600, 'height': 600, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/1023/dub_game/44-1587352933427.mp4', 'user_info': {'user_id': 1023, 'nickname': '欢迎我老公', 'avatar': 'http://qnc-lemon.chumanapp.com/user/1023/avatar/1566874430299.jpg', 'showid': 'dc1023'}}, {'obj_id': '2004704', 'title': '好玩，好玩，还是好玩', 'content': '我自横刀向天笑，笑完我就去睡觉。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': 12, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/8825467fb17704067acabe19e75b9ddb.gif', 'width': 300, 'height': 300, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/87/dub_game/43-1587350839616.mp4', 'user_info': {'user_id': 87, 'nickname': '柠檬精官', 'avatar': 'http://qnc-lemon.chumanapp.com/user/avatar/0820/87.jpg', 'showid': 'hi87'}}]}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
@@ -5029,7 +5077,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>cos赛道</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -5066,7 +5114,7 @@
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -5086,7 +5134,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>cos赛道</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -5123,6 +5171,63 @@
         </is>
       </c>
       <c r="M4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>配音结束页</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>配音</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/web_voice_emoji_match/get_finish_page_info&amp;room_id=46</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"room_id"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'room_id': 46, 'rank_id': 2, 'answer_num': 1, 'like_num': 18, 'user_info': {'user_id': 2739, 'nickname': 'chooo', 'avatar': 'http://qnc-lemon.chumanapp.com/user/2739/avatar/1574834814909.jpg', 'showid': 'jd2739'}}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5145,28 +5250,29 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="19"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="9"/>
-    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" width="19"/>
+    <col customWidth="1" max="14" min="14" style="2" width="19"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="9.142857142857141"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="40" r="1">
@@ -5242,43 +5348,39 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>第三方登陆</t>
+          <t>赚青柠任务中心</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>登录</t>
+          <t>赚青柠</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>/api/user/third_login</t>
+          <t>/api/share/get_user_task_list</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{'avatar':'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100','birthday':'2000-01-01','city':'','device':1,'nickname':'ssk','openid':'FD717EC03696FFB9E78AADEC85E6565D','province':'','sex':2,'type':2}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+          <t>{'Content-Type': 'application/json','accessToken':token}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>{"uid":1042,"is_bind":1}</t>
+          <t>{"task_type"}</t>
         </is>
       </c>
       <c r="K2" s="3" t="n"/>
@@ -5300,7 +5402,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>邀请好友注册</t>
+          <t>赚青柠</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -5310,12 +5412,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
+          <t>{'Content-Type': 'application/json','accessToken':token}</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -5325,18 +5427,22 @@
           <t>access_token</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>{"user_id":1042}</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_info': {'user_id': 2739, 'nickname': 'chooo', 'avatar': 'http://qnc-lemon.chumanapp.com/user/2739/avatar/1574834814909.jpg', 'showid': 'jd2739', 'avatar_type': 0}, 'invite_reg_info': {'invite_code': 'X7H39Q', 'reward_info': {'copper': 871, 'invite_num': 1}, 'popup_window': None, 'share_token': 'MjczOQ=='}, 'has_invite': 1, 'be_invite_info': {'user_info': {'user_id': 1010, 'nickname': '哈⑤', 'avatar': 'http://qnc-lemon.chumanapp.com/user/1010/avatar/1582094797040.jpg', 'showid': 'ab1010'}, 'reward_info': {'copper': 5}}}}</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M3" s="3" t="n"/>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="4">
       <c r="A4" s="3" t="n">
@@ -5349,7 +5455,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>邀请好友注册</t>
+          <t>赚青柠</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -5364,7 +5470,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
+          <t>{'Content-Type': 'application/json','accessToken':token}</t>
         </is>
       </c>
       <c r="G4" s="3" t="n"/>
@@ -5375,13 +5481,21 @@
         </is>
       </c>
       <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'user_info': {'user_id': 86, 'nickname': '首席哭唧唧官', 'avatar': 'http://qnc-lemon.chumanapp.com/user/avatar/0820/86.jpg', 'showid': 'gi86'}, 'res_type': 1, 'res_value': '871'}]}}</t>
+        </is>
+      </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M4" s="3" t="n"/>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="5">
       <c r="A5" s="3" t="n">
@@ -5394,7 +5508,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>邀请好友注册</t>
+          <t>赚青柠</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -5409,7 +5523,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
+          <t>{'Content-Type': 'application/json','accessToken':token}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -5423,7 +5537,11 @@
           <t>access_token</t>
         </is>
       </c>
-      <c r="J5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
       <c r="K5" s="3" t="n"/>
       <c r="L5" s="3" t="inlineStr">
         <is>
@@ -5438,48 +5556,296 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>获取邀请码用户的信息</t>
+          <t>青柠信息</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>邀请好友注册</t>
+          <t>赚青柠</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>/api/share/get_invite_reg_uinfo</t>
+          <t>/api/share/get_copper_center_info</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>get</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json','accessToken':token['access_token']}</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>{'share_token':'MTA0Mg=='}</t>
-        </is>
-      </c>
+          <t>{'Content-Type': 'application/json','accessToken':token}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="3" t="n"/>
       <c r="I6" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>{"copper_rmb_rate":1000}</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': '577772', 'rmb': '577.772', 'copper_rmb_rate': 1000}}</t>
+        </is>
+      </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M6" s="3" t="n"/>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>做任务-发弹幕</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>赚青柠</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/add_external_content_comment</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization,'accessToken':token}</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>{"message":"哈哈哈哈哈哈","access_token":token,"content_id":content_id}</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>access_token,content_id</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '20043'}}</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>领弹幕任务奖励</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>赚青柠</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>/api/share/gain_user_task_reward</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization,'accessToken':token}</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{"task_type":3}</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>{"copper"}</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 18}}</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>做任务-阅读帖子</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>赚青柠</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_task/finish_read_task</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization,'accessToken':token}</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_type":"9","obj_id":content_id,"read_progress":"100","read_duration":"14","access_token":token}</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>access_token,content_id</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="10" s="2">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>领弹阅读帖子奖励</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>赚青柠</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>/api/share/gain_user_task_reward</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization,'accessToken':token}</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{"task_type":2}</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>{"copper"}</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 0}}</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="12540" windowWidth="28125"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="745" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
-    <sheet name="app通用" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="首页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="注册登录" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="个人空间页" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="内容创作" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="h5cos赛道" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="h5配音活动" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="h5邀请好友注册" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="漫画" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="漫剧" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="app通用0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="首页1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="注册登录2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="个人空间页3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="内容创作4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="播放页5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="cos赛道6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="赚青柠7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="配音活动8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="漫画" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="漫剧" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -45,7 +46,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +54,7 @@
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,13 +83,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -105,7 +99,69 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -126,29 +182,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -157,40 +190,8 @@
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,31 +209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +221,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,6 +257,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -274,19 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,37 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,13 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,25 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +400,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,7 +472,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,62 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +506,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="13" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="23" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165">
@@ -517,133 +518,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="26" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="21" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="32" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
@@ -978,7 +979,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L3" sqref="L3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
@@ -1118,7 +1119,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '4d5f4e590a425805'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '4b594250054a'}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -1128,7 +1129,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1176,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://qnp.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362456#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587465103#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -1232,7 +1233,7 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 2, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/b4e5983e31e98f99a5764939313d9769.png', 'emoji_list': [{'emoji': 517, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/84f4972da61d1d7dbb0553f117696329.png', 'status': 1, 'sort': 200, 'mtime': 1566874748, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/a0a01255ae7b4826b88f91408da5ded8.png', 'status': 1, 'sort': 199, 'mtime': 1566874762, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/6801aacdb9920be940b4aa40a37261fb.png', 'status': 1, 'sort': 198, 'mtime': 1566874780, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/88372144d0fa03895d05ea0ea6361582.png', 'status': 1, 'sort': 197, 'mtime': 1566874790, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/56a560257a6f45c44b9868642503b923.png', 'status': 1, 'sort': 196, 'mtime': 1566874806, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/38172502a3fa382512dfb6d644a4ce37.png', 'status': 1, 'sort': 195, 'mtime': 1566874818, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/23f88aac88593fe9a972500fcb19e11e.png', 'status': 1, 'sort': 194, 'mtime': 1566874828, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/1a7b16b75d4221c76149e092ace9149d.png', 'status': 1, 'sort': 193, 'mtime': 1566874839, 'emoji_url': ''}], 'status': 1, 'sort': 201, 'mtime': 1574650146, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/b71d77e7f29496e86a2f090c100bef3f.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/ce21501ff517663c008ac9e1a8475b50.png', 'status': 1, 'sort': 100, 'mtime': 1562748019, 'emoji_url': ''}, {'emoji': 501, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/865833691801697d7d34b7d570a59380.png', 'status': 1, 'sort': 99, 'mtime': 1562744622, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/456401342f9734979059b730ee15af8a.png', 'status': 1, 'sort': 98, 'mtime': 1562744629, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/0c2e65e4ae22f6f61594a70be3df345f.png', 'status': 1, 'sort': 97, 'mtime': 1562744639, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/cde4e695f1b586d2936988f445d10c7a.png', 'status': 1, 'sort': 96, 'mtime': 1562744648, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/98d1514feb3674eb0554c736657cb693.png', 'status': 1, 'sort': 95, 'mtime': 1562744673, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/223b89993c32a2f79914ccdae1dd3d29.png', 'status': 1, 'sort': 94, 'mtime': 1562744687, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/7a739484e3275ed10ba2a5e4e3bdbc11.png', 'status': 1, 'sort': 93, 'mtime': 1562744697, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/a042af308216a1c32ca1b2bfc43798c9.png', 'status': 1, 'sort': 92, 'mtime': 1562744705, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/7f0a4302f58d1b133730837574362143.png', 'status': 1, 'sort': 91, 'mtime': 1562744715, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/1a40555442e102abe55bf1d94ae10d7f.png', 'status': 1, 'sort': 90, 'mtime': 1562744734, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/1abe63a74c66ca4d3b1e8b02aa43f85e.png', 'status': 1, 'sort': 89, 'mtime': 1562744759, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/4d96ce4ed550507abeeba511ffbec5b6.png', 'status': 1, 'sort': 88, 'mtime': 1562744767, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/184e1aa1e50c8efdd674cf813a2cca08.png', 'status': 1, 'sort': 87, 'mtime': 1562744775, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/efecaa722237afeb2757d17d5d681b96.png', 'status': 1, 'sort': 86, 'mtime': 1562744783, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/5a3912e2624759625ee66a4da2ec1bce.png', 'status': 1, 'sort': 85, 'mtime': 1562744793, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/19402a3696ab4bc72bf2d0c6bbb6fb1f.png', 'status': 1, 'sort': 84, 'mtime': 1562744801, 'emoji_url': ''}], 'status': 1, 'sort': 200, 'mtime': 1574650158, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/cbe13c81227c075224e089305ddb2412.png', 'emoji_list': [{'emoji': 525, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/c06c9d92f2f2c64f001daf83db3cac45.png', 'status': 1, 'sort': 200, 'mtime': 1566874900, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/cec194ee38dc919af4285815019875e8.png', 'status': 1, 'sort': 199, 'mtime': 1566874908, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/174b77649c6efe34f91d032df95b100a.png', 'status': 1, 'sort': 198, 'mtime': 1566874919, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/d910fffed77f0d762f8f53e822323a3a.png', 'status': 1, 'sort': 197, 'mtime': 1566874930, 'emoji_url': ''}, {'emoji': 529, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/4093870f66744f0b7522502f38aaf493.png', 'status': 1, 'sort': 196, 'mtime': 1566874960, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/2d2a00c592977d4b8b69043dab09f253.png', 'status': 1, 'sort': 195, 'mtime': 1566874971, 'emoji_url': ''}, {'emoji': 531, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/519d8d32b3566a6db79193f138a050e4.png', 'status': 1, 'sort': 194, 'mtime': 1566874981, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/6bb910aa8df0c6f6ea039372933c9182.png', 'status': 1, 'sort': 193, 'mtime': 1566874993, 'emoji_url': ''}], 'status': 1, 'sort': 199, 'mtime': 1574650153, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://qnp-lemon.chumanapp.com/expression/a585acc0174c0a712fe2c2b817383484.png', 'emoji_list': [{'emoji': 533, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/01.svga'}, {'emoji': 534, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/02.svga'}, {'emoji': 535, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/03.svga'}, {'emoji': 536, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/04.svga'}, {'emoji': 537, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/05.svga'}, {'emoji': 538, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/06.svga'}, {'emoji': 539, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/07.svga'}, {'emoji': 540, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/08.svga'}, {'emoji': 541, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/09.svga'}, {'emoji': 542, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/10.svga'}, {'emoji': 543, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/11.svga'}, {'emoji': 544, 'title_image': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://qnp-lemon.chumanapp.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 10, 'mtime': 1583460051, 'is_big': 0, 'is_dynamic': 1}], 'server_time': 1587362457}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 8, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/expression/05a5628086a9c935eaae132c1c899911.png', 'emoji_list': [{'emoji': 550, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/01.svga'}, {'emoji': 551, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/02.svga'}, {'emoji': 552, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/03.svga'}, {'emoji': 553, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/04.svga'}, {'emoji': 554, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/05.svga'}, {'emoji': 555, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/06.svga'}, {'emoji': 556, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/07.svga'}, {'emoji': 557, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/08.svga'}, {'emoji': 558, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/09.svga'}, {'emoji': 559, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/10.svga'}, {'emoji': 560, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/11.svga'}, {'emoji': 561, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 50, 'mtime': 1582877567, 'is_big': 0, 'is_dynamic': 1}, {'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ffc99adeae1bbcf3e5d132c3707cc3c6.jpeg', 'emoji_list': [{'emoji': 529, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/266570269943bc54d2504af4934b698b.png', 'status': 1, 'sort': 6, 'mtime': 1566285946, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d68c62bdaa032b55eb340847e6adae92.png', 'status': 1, 'sort': 5, 'mtime': 1566285896, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0b4945fddf836e5e8b3cf62a03944ad.png', 'status': 1, 'sort': 4, 'mtime': 1566285830, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/569ce9c8a1597ad1b1bc96da5cdd9f00.png', 'status': 1, 'sort': 3, 'mtime': 1566285817, 'emoji_url': ''}, {'emoji': 525, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3dce3d7e58e38f821230fd0d02520ad9.png', 'status': 1, 'sort': 2, 'mtime': 1566285535, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d79aaa21775a51b6ca8a8cedbc5900b.png', 'status': 1, 'sort': 1, 'mtime': 1566367219, 'emoji_url': ''}], 'status': 0, 'sort': 11, 'mtime': 1566367219, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 5, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8d214494b577a02ba64e650318eae42f.png', 'emoji_list': [{'emoji': 538, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3fa0dfa27d8fd638d8da48b20bd6efca.png', 'status': 1, 'sort': 10, 'mtime': 1566367231, 'emoji_url': ''}, {'emoji': 539, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e71263a63516acac9b0df8e71b51c89.png', 'status': 1, 'sort': 10, 'mtime': 1566353239, 'emoji_url': ''}, {'emoji': 540, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/9800e643e1a1cd071e4e55aac8563673.png', 'status': 1, 'sort': 10, 'mtime': 1566353247, 'emoji_url': ''}, {'emoji': 541, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/458da521e30a6da1e583a826604dda2a.png', 'status': 1, 'sort': 10, 'mtime': 1566358782, 'emoji_url': ''}, {'emoji': 542, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e362c4b3e6438f480afa3e6b4e70ed8e.png', 'status': 1, 'sort': 10, 'mtime': 1566353351, 'emoji_url': ''}, {'emoji': 543, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b51db99c04163cad156b4100e8369b1e.png', 'status': 1, 'sort': 10, 'mtime': 1566353268, 'emoji_url': ''}, {'emoji': 544, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/94b5f4e0c3ffa14962cbec85db085ccf.png', 'status': 1, 'sort': 10, 'mtime': 1566353275, 'emoji_url': ''}, {'emoji': 545, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c13013e590e4c72ed20192be10064cf5.png', 'status': 1, 'sort': 10, 'mtime': 1566358997, 'emoji_url': ''}, {'emoji': 546, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ecc2852366cab53feec85d88ce54348b.png', 'status': 0, 'sort': 10, 'mtime': 1566442870, 'emoji_url': ''}], 'status': 1, 'sort': 10, 'mtime': 1566562782, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1587465104}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -1307,11 +1308,7 @@
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>http://www.lemondream.cn/</t>
-        </is>
-      </c>
+      <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
       <c r="G6" s="3" t="n"/>
@@ -1323,9 +1320,6 @@
       <c r="M6" s="3" t="n"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="http://www.lemondream.cn/" ref="D6" tooltip="http://www.lemondream.cn/" r:id="rId1"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
   <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
@@ -1346,10 +1340,318 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="19"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="7" min="7" width="19"/>
+    <col customWidth="1" max="8" min="8" width="19"/>
+    <col customWidth="1" max="9" min="9" width="9"/>
+    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="11" min="11" width="19"/>
+    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="13" width="9"/>
+    <col customWidth="1" max="14" min="14" width="19"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="40" r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>请求类型</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>请求头</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>请求参数</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>需要保存的返回字段</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>数据依赖字段</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>是否运行</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>漫画详情页</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>漫画</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/comic/get_comic_single_info</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token']}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>access_token,comic_id</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>漫画评论</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>漫画</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/comic/get_comic_single_new_comment_list</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token'],'page':1,'pagesize':20}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>access_token,comic_id</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>快速评论词</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>漫画</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/comment/get_comment_default_word_list</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{'access_token':token['access_token'],'page':1,'pagesize':20}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>相关推荐</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>漫画</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_relate_rec_content_list</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{'type':'4','obj_id':comic_id['comic_id'],'app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>access_token,comic_id</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -1742,7 +2044,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': '15', 'obj_id': '202004361', 'title': '你是人间四月天', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/8194/image/live_cover_1587358395384.jpg', 'width': 720, 'height': 994, 'like_num': 1040, 'has_like': 0, 'tags': '古风,情感', 'author_id': 8194, 'lemon_num': 0, 'user_info': {'user_id': 8194, 'nickname': '白若歌', 'avatar': 'http://qnc-lemon.chumanapp.com/user/8194/avatar/1578375640368.jpg', 'showid': 'ej8194'}}, {'obj_id': '1579282157004226', 'title': None, 'content': 'emmmm🤔🤔', 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/82a1289b63.jpg', 'width': 720, 'height': 1290, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU3NzE5MjUzNDAwMTIxNzc1NCM3MjQjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579283019004257', 'title': None, 'content': '此景如此,此情不渝。', 'like_num': 726, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/d7fb2bfe62.jpg', 'width': 750, 'height': 1334, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '10', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004061941#/index?trace_id=4', 'jump_type': 1, 'title': 'JK美少女活动在召唤你！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/ae16f65e3849a5efff5cfd0b96a59b82.png_720x720q90g', 'width': 720, 'height': 676, 'is_block_content': 1, 'block_content_id': 10}, {'obj_id': '1579529143004633', 'title': None, 'content': '剑心', 'like_num': 1645, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/d4e1d4c7a5.jpg', 'width': 1078, 'height': 675, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579680757004834', 'title': None, 'content': '啊啊啊要死了啊啊啊太帅了', 'like_num': 1183, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/71d158e0d6.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU3MTk3OTI1MDYyODU0MzM5MSM5NjgjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'type': '15', 'obj_id': '202004362', 'title': '化妆', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/100655/image/live_cover_1587362176505.jpg', 'width': 720, 'height': 994, 'like_num': 10, 'has_like': 0, 'tags': '聊天', 'author_id': 100655, 'lemon_num': 0, 'user_info': {'user_id': 100655, 'nickname': '祝瑶瑶🍓', 'avatar': 'http://qnc-lemon.chumanapp.com/user/100655/avatar/1587239444883.jpg', 'showid': 'ff100655'}}, {'obj_id': '1579109951004425', 'title': None, 'content': '依旧喜欢你❤️❤️（字丑勿喷）（在越写越偏的道路上一去不复返）', 'like_num': 2227, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/dda0d98529.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579123138004458', 'title': None, 'content': '官方的最为致命...', 'like_num': 2869, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ac0f14f5ba.jpg', 'width': 813, 'height': 813, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '11', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004092040#/index?trace_id=5', 'jump_type': 1, 'title': '清明百鬼行cos大比拼！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/21cf96293b7d0648f1cb8b7cd410b8af.png', 'width': 1080, 'height': 1014, 'is_block_content': 1, 'block_content_id': 11}, {'obj_id': '1579120493004232', 'title': None, 'content': '双杰现代装超帅！！！！', 'like_num': 1211, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/afe82ac9dd.jpg', 'width': 639, 'height': 640, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190626866', 'title': '两个万圣节化妆教程～一起去捣蛋（小丑女cos+丧尸妆）', 'content': '这里灰灰，微博:你好我叫灰灰', 'like_num': 537, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/girls/images/z5zwPiTePhkTxDLC.jpg', 'width': 720, 'height': 953, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579698397004706', 'title': None, 'content': '路飞路飞', 'like_num': 1835, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ab5143efc1.jpg', 'width': 640, 'height': 640, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190973700', 'title': None, 'content': '如果战国没拦住卡普结果会怎样？', 'like_num': 2141, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/7d4e283e3b57489cb3df4a22e438dd75.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/b2e6d755c404458893db5cc85c4dcfd0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579036691004094', 'title': None, 'content': '无标题的一天...', 'like_num': 2515, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/dd19c98104.jpg', 'width': 3106, 'height': 4096, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579074295004568', 'title': None, 'content': '忘机绿了', 'like_num': 2499, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/483c5f7c0f.jpg', 'width': 720, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190612442', 'title': '【日常】万圣节快乐～', 'content': '喜欢请送糖喔～', 'like_num': 2287, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/girls/images/DIBTXVKLIYFNBAZY.jpg', 'width': 2109, 'height': 2807, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579097917004152', 'title': None, 'content': '哈哈哈陈总良心', 'like_num': 527, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a5780fb1a0.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MzYyNTA4NTI3ODY5MDQ0MCM2ODYjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579626389004260', 'title': None, 'content': '我换啥', 'like_num': 2061, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/6dd9df042e.jpg', 'width': 1440, 'height': 720, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579080336004914', 'title': None, 'content': '聂导~\n最后一张，我觉得好帅', 'like_num': 2838, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a45ca0cd4d.jpg', 'width': 640, 'height': 413, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1585318091004411', 'title': None, 'content': '#全职高手  苏沐橙小时候真可爱呀 (-^〇^-)', 'like_num': 852, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cf3ad29b35.jpg', 'width': 576, 'height': 1012, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4NTIzODA2ODAwOTMyNTc1MSM4NzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190912827', 'title': None, 'content': '非洲拳王挑战中国武术大师！搞笑视频超话', 'like_num': 2540, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/92607b1449cc45748f8bcfe10ee86ebd.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/16cbad7e6c8a4e89a49f3ac1b45857dc.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579080634004934', 'title': None, 'content': '骚气，喜欢最后一张', 'like_num': 1563, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/4b49145a8f.jpg', 'width': 720, 'height': 720, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910132353', 'title': '暗殺教室 渚與業的對決上篇', 'content': '暗杀教室', 'like_num': 2666, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/db23dae628.jpg', 'width': 246, 'height': 138, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/ozENSmNKH0w.mp4', 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1910622', 'title': 'へらぶな', 'content': None, 'like_num': 2577, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWgy1fym29iz637j30nm0u8n7b.jpg', 'width': 850, 'height': 1088, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097093', 'title': '【画师】韩国画师ソゴム / 裕珍的插画作品', 'content': '韩国画师ソゴム / 裕珍的插画作品 昵称：ソゴム / 裕珍 UID：17648188 https://www.pixiv.net/member.php?id=17648188 喜欢这位画师的作品就去P …', 'like_num': 2107, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/006yt1Omgy1g0edxjeaq4j30u00l8ay6.jpg', 'width': 1080, 'height': 764, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19103071', 'title': '馬卡龍特輯 – 請享用吧♡', 'content': None, 'like_num': 1256, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007WJpLrly1g6me53h0ykj30bo0k375i.jpg', 'width': 420, 'height': 723, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '19065028', 'title': '【cos】穹妹体操服', 'content': '我永远喜欢春日野穹！', 'like_num': 953, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/GDPIVYCFBQEEIKWH.jpg', 'width': 3494, 'height': 2330, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579060231004559', 'title': None, 'content': '为什么相册的图都没了??????', 'like_num': 2965, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/9671eb1b25.jpg', 'width': 843, 'height': 1498, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190618836', 'title': '玛修cos', 'content': None, 'like_num': 2322, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1NTY4NzAxMjg4NjQ4MzAzMiM1MjAjaW1hZ2U=', 'width': 1536, 'height': 2048, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578964535004774', 'title': None, 'content': '【cos正片】洛基潮服', 'like_num': 1309, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1ff7901ea9.jpg', 'width': 1250, 'height': 10000, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190650682', 'title': '满满的狂三傲娇饭', 'content': '小姐姐傲娇了时崎狂三cn:筱奕', 'like_num': 2787, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QHO8SpUAEKQNV5ZQ.jpg', 'width': 650, 'height': 975, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578400657004356', 'title': None, 'content': '这个绿谷好帅♡', 'like_num': 2252, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/20b001e72a.jpg', 'width': 1079, 'height': 851, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19067176', 'title': '来猜猜姐姐我手上的红包里是什么吧~', 'content': '来猜猜姐姐我手上的红包里是什么吧~ido30漫展返图 第五弹出镜/米九摄影/鬼泣', 'like_num': 1854, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/o2fXkd3wd4O2JGBA.jpg', 'width': 1048, 'height': 1398, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097414', 'title': '美图推荐——虎牙特辑', 'content': '之前看到有评论留言说想要看虎牙特辑，今天小编就满足你下你们~有虎牙的妹子感觉很调皮很可爱也很性感有没有！', 'like_num': 1453, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_57514791a7387.jpg', 'width': 360, 'height': 225, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19098614', 'title': '【画师选】画师ryota的作品 \u200b\u200b\u200b\u200b \u200b\u200b\u200b\u200b', 'content': '画师ryota的作品 \u200b\u200b\u200b\u200b http://www.pixiv.net/member.php?id=990017 碰到喜欢的画师可以直接搜画师名关注。 \u200b\u200b\u200b\u200b 百度acg·17发现画师 &amp;nb …', 'like_num': 758, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/a7cabc30gy1fkit3vqukoj20jg0zmk50.jpg', 'width': 700, 'height': 1282, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101828', 'title': '（ID：187240）', 'content': None, 'like_num': 1733, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft6atgz9jmj30m80ikna4.jpg', 'width': 800, 'height': 668, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'like_num': 800, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'width': 2109, 'height': 2996, 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '190642311', 'title': '老攻白飞飞', 'content': '今天是七夕强势表白老攻还有啊八周年快乐❤❤❤❤', 'like_num': 2822, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OAjRaGY1f27cfolI.jpg', 'width': 720, 'height': 1552, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579048299004883', 'title': None, 'content': '大概想天天了', 'like_num': 2176, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/093c65089b.jpg', 'width': 650, 'height': 620, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096815', 'title': '基情的花式滑冰 冰上的尤里 手机壁纸', 'content': None, 'like_num': 1551, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/21-16110612155E16.jpg', 'width': 471, 'height': 375, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910132747', 'title': '【JOJO系列】所有主角的欧拉欧拉合集', 'content': 'JOJO的奇妙冒险', 'like_num': 2995, 'has_like': 0, 'tags': '', 'author_id': 96, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6fe72f09f4.jpg', 'width': 246, 'height': 138, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/vDkQqDf8Lmo.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101292', 'title': '買些什麼好呢？市場特輯', 'content': None, 'like_num': 2698, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g2302bgyu9j30lc0eqaca.jpg', 'width': 768, 'height': 530, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101637', 'title': '全世界期待已久的新作！《復仇者聯盟：終局之戰》插畫特輯', 'content': None, 'like_num': 2500, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g2wa99mzq6j30lc0u7tay.jpg', 'width': 768, 'height': 1087, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20157, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -1795,7 +2097,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20090', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 8, 'title': '小视频', 'scence_info': {'scence_id': '2001003008', 'act_id': '0', 'maidian_name': 'disp_034', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_xiaoshipin', 'event_id': '001'}}], 'act_id': 20087, 'serviceId': '20'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20157', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 3, 'title': 'Cosplay', 'scence_info': {'scence_id': '2001003004', 'act_id': '20192', 'maidian_name': 'disp_030', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_cos', 'event_id': '001'}}, {'zone_id': 4, 'title': '段子', 'scence_info': {'scence_id': '2001003007', 'act_id': '20195', 'maidian_name': 'disp_033', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_duanzi', 'event_id': '001'}}, {'zone_id': 5, 'title': '插画', 'scence_info': {'scence_id': '2001003005', 'act_id': '20193', 'maidian_name': 'disp_031', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_chahua', 'event_id': '001'}}, {'zone_id': 6, 'title': '动漫', 'scence_info': {'scence_id': '2001003006', 'act_id': '20194', 'maidian_name': 'disp_032', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_dongman', 'event_id': '001'}}], 'act_id': 20135, 'serviceId': '19'}}</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -1848,7 +2150,7 @@
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 20083, 'style_type': 2}, 'read_style_abtest': {'act_id': 20055, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 0, 'style_type': 2}, 'read_style_abtest': {'act_id': 20086, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -1905,7 +2207,7 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': '15', 'obj_id': '202004361', 'title': '你是人间四月天', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/8194/image/live_cover_1587358395384.jpg', 'width': 720, 'height': 994, 'like_num': 1040, 'has_like': 0, 'tags': '古风,情感', 'author_id': 8194, 'lemon_num': 0, 'user_info': {'user_id': 8194, 'nickname': '白若歌', 'avatar': 'http://qnc-lemon.chumanapp.com/user/8194/avatar/1578375640368.jpg', 'showid': 'ej8194'}}, {'obj_id': '1579116212004918', 'title': None, 'content': '我太爱羡羡了，我感觉我上辈子就是个避尘！\n\n一波壁纸正在来袭', 'like_num': 1876, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/8a2f2c4cbb.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578943771004636', 'title': None, 'content': '【cos】一二三', 'like_num': 1838, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/59066646d0.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '10', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004061941#/index?trace_id=4', 'jump_type': 1, 'title': 'JK美少女活动在召唤你！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/ae16f65e3849a5efff5cfd0b96a59b82.png_720x720q90g', 'width': 720, 'height': 676, 'is_block_content': 1, 'block_content_id': 10}, {'obj_id': '1911641', 'title': None, 'content': '神仙打架', 'like_num': 904, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/039a807762.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2556090.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910115131', 'title': None, 'content': '改编版《画》之 都比不上九月的班主任', 'like_num': 1932, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1722e5d787.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2489940.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'type': '15', 'obj_id': '202004362', 'title': '化妆', 'content': '', 'title_image': 'http://qnc-lemon.chumanapp.com/user/100655/image/live_cover_1587362176505.jpg', 'width': 720, 'height': 994, 'like_num': 10, 'has_like': 0, 'tags': '聊天', 'author_id': 100655, 'lemon_num': 0, 'user_info': {'user_id': 100655, 'nickname': '祝瑶瑶🍓', 'avatar': 'http://qnc-lemon.chumanapp.com/user/100655/avatar/1587239444883.jpg', 'showid': 'ff100655'}}, {'obj_id': '1909172864', 'title': None, 'content': '女生喜欢什么样子的男生呢，小姐姐的回答有点搞笑啊！😂', 'like_num': 2082, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/d0e6f71abc.jpg', 'width': 640, 'height': 942, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2252730.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191059949', 'title': '[pixiv]tarbo＠お仕事募集中(3467868)', 'content': None, 'like_num': 2366, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0072FdYkly1fzomunyxrej30u01627wi.jpg', 'width': 1024, 'height': 1435, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '11', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004092040#/index?trace_id=5', 'jump_type': 1, 'title': '清明百鬼行cos大比拼！', 'title_image': 'http://qnp-lemon.chumanapp.com/live/21cf96293b7d0648f1cb8b7cd410b8af.png', 'width': 1080, 'height': 1014, 'is_block_content': 1, 'block_content_id': 11}, {'obj_id': '1579221880004768', 'title': None, 'content': '大家好，我是你们的新星主，请多多关照鸭！(๑❛ᴗ❛๑)', 'like_num': 717, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cc90b666e8.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2NzIyODc0MTk4Nzg2NDY4OSMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579058344004435', 'title': None, 'content': '江澄......爱了爱了', 'like_num': 872, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/87189a5b40.jpg', 'width': 500, 'height': 708, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578433061004477', 'title': None, 'content': '有一句话来证明你看过我的英雄学院', 'like_num': 2063, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/e5f6474abc.jpg', 'width': 640, 'height': 1138, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579491943004998', 'title': None, 'content': '还要吗?', 'like_num': 1398, 'has_like': 0, 'tags': '', 'author_id': 93, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/3bcfc9471f.jpg', 'width': 720, 'height': 1230, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579118339004067', 'title': None, 'content': '羡羡，帅气', 'like_num': 2002, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7dc011bba6.jpg', 'width': 690, 'height': 920, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579923923004370', 'title': None, 'content': '晚安-.-', 'like_num': 1233, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/567dd8e30a.jpg', 'width': 992, 'height': 910, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579108131004299', 'title': None, 'content': '随便是攻（上）', 'like_num': 813, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/873e3a33c7.jpg', 'width': 700, 'height': 1362, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579112839004657', 'title': None, 'content': '抹额哈哈', 'like_num': 1691, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/8c58f738cd.jpg', 'width': 1080, 'height': 1527, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579082194004018', 'title': None, 'content': '(ฅ&gt;ω&lt;*ฅ)', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/6e167088ca.jpg', 'width': 511, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191039704', 'title': None, 'content': '所谓万花丛中过，片叶不沾身！', 'like_num': 901, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1fe8ac5b9c.jpg', 'width': 720, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2381540.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579058232004427', 'title': None, 'content': '我爱着个情头!', 'like_num': 973, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/4091d59eae.jpg', 'width': 984, 'height': 984, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191040493', 'title': '[pixiv]ke-ta(3104565)', 'content': None, 'like_num': 1819, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0072FdYkly1fxrlekv6q6j31640u0njt.jpg', 'width': 1024, 'height': 729, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096865', 'title': '舰队Collection 舰娘滨风 动漫手机壁纸', 'content': None, 'like_num': 1328, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_comics_wallpaper/image/13-1611211554350-L.png', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190619690', 'title': '【cos】出了一下山城！', 'content': '殿下殿下～今天要做什么呀！', 'like_num': 2451, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/MOPISCBFHFIPZJZT.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '19097420', 'title': '【画师】日本画师菊月的插画作品', 'content': '日本画师菊月的插画作品 昵称：菊月 UID：429883 https://www.pixiv.net/member.php?id=429883 碰到喜欢的画师就去关注吧ヾ(･ω･`｡) _id=6 …', 'like_num': 2970, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/8a1c233bly1fymosd1siej20rs13akjl.jpg', 'width': 1000, 'height': 1414, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101283', 'title': '（ID：9688612）', 'content': None, 'like_num': 2995, 'has_like': 0, 'tags': '', 'author_id': 16, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft6uoqkh03j31ww1cktg4.jpg', 'width': 1024, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190613336', 'title': '【第一弹新国风】屠苏', 'content': '祝各位宝宝中秋节快乐', 'like_num': 1098, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/WKZNFTNEUUAXWKQM.jpg', 'width': 2109, 'height': 3163, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '5', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1585814665#/index', 'jump_type': 1, 'title': '资源位-h5链接', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/live/673d78ad2f63960c4d2d3f2b83b1569f.jpeg', 'width': 719, 'height': 1000, 'is_block_content': 1, 'block_content_id': 5}, {'obj_id': '1579058275004432', 'title': None, 'content': '近一点，再近一点', 'like_num': 1636, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/39ab8678a5.jpg', 'width': 650, 'height': 1024, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1907234', 'title': '减肥成功穿上自己喜欢的小裙子', 'content': '做一个兽兽的女孩纸真的很好呢肉肉的女孩加油了哈做一个全新的自己', 'like_num': 894, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/IhAObirZcSr76R43.jpg', 'width': 1422, 'height': 1422, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579091526004643', 'title': None, 'content': '？歪了！', 'like_num': 2127, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ff5148df53.jpg', 'width': 720, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190623863', 'title': '漫展场照', 'content': '出镜:骷髅喵摄影:ape', 'like_num': 1055, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/uR1RTHgXeVQNkvKD.jpg', 'width': 904, 'height': 1463, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191029012', 'title': 'MegamiMagazine#2222018-11', 'content': None, 'like_num': 2580, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/96772027ebdcb0f86a8d4769c680ed02.jpg', 'width': 4089, 'height': 5925, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910181', 'title': '战舰少女-戦艦少女', 'content': None, 'like_num': 1906, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftkyb7kcy5j30lo0umk82.jpg', 'width': 780, 'height': 1102, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579066067004999', 'title': None, 'content': '看看，现在都几点了', 'like_num': 2226, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ec1525f937.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190624958', 'title': 'DC漫展场照', 'content': 'DAY2裙子:格里芬的低喃摄影:炮弹', 'like_num': 1657, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/smz32uqjpsF76tVu.jpg', 'width': 3360, 'height': 2240, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096467', 'title': '【画师】日本画师ほし的插画作品', 'content': '日本画师ほし的插画作品 昵称：ほし UID：1198913 https://www.pixiv.net/member.php?id=1198913 喜欢这位画师的作品就去关注他吧ԅ(¯﹃¯ԅ) _ …', 'like_num': 1826, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/Hb3fd730ecd674380ae212b47f2a4a6dcA.jpg', 'width': 852, 'height': 1200, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579113978004753', 'title': None, 'content': '花开满楼迟未归，待君归时花已败', 'like_num': 2358, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/8332f2d9b2.jpg', 'width': 629, 'height': 629, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101207', 'title': '（ID：365805）', 'content': None, 'like_num': 1962, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft5xbuwj6pj30og12wkc6.jpg', 'width': 880, 'height': 1400, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19105462', 'title': '条纹内裤-縞パン', 'content': None, 'like_num': 1338, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftdapzmymsj319y0wjx6p.jpg', 'width': 1024, 'height': 725, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579351953004248', 'title': None, 'content': '追凌！', 'like_num': 1330, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/848388d611.jpg', 'width': 535, 'height': 608, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579070170004315', 'title': None, 'content': '怒刷存在感！(ง·̀_·́)ง', 'like_num': 2266, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6e8c3a5349.jpg', 'width': 274, 'height': 324, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579091683004652', 'title': None, 'content': '精选美图(5)(੭ु ›ω‹ )੭ु⁾⁾♡', 'like_num': 870, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7438d02354.jpg', 'width': 990, 'height': 1488, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579685749004078', 'title': None, 'content': '拿图记的?哦！', 'like_num': 2563, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/677c0c969d.jpg', 'width': 662, 'height': 944, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190630268', 'title': '一黛一露姐妹了解一下吗w', 'content': '#COS正片# #水团#  #黑泽露比# #黑泽黛雅#  我们都开学啦！这个学期露比也要和姐姐好好学习SCHOOL IDOL ！CN表            ♡出镜♡            黑泽露比:@夜咲_妹纸（原po）            黑泽黛雅:@泫沧             摄影:@夕立            妆娘:@白汪汪            后期&amp;排版:@月半', 'like_num': 1672, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/omZCilLtqdyrJC1J.jpg', 'width': 1600, 'height': 2399, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20157, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -1962,7 +2264,7 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579089276004495', 'title': None, 'content': '小天使的蜜桃味', 'like_num': 2649, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/5a6b0b6e4d.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578414520004142', 'title': None, 'content': '说什么呢…', 'like_num': 10, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/1e36f68f04.jpg', 'width': 720, 'height': 720, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '19102951', 'title': '笃见唯子', 'content': None, 'like_num': 1278, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/007iocwWly1fyplr7q8ruj312v1e0kda.jpg', 'width': 1024, 'height': 1318, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579334984004586', 'title': None, 'content': '水啊啊啊', 'like_num': 2955, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/54eafed994.jpg', 'width': 1080, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190652812', 'title': '【cos正片】果鸟', 'content': '不知为什么帖子被删了重发一次咳这儿是入圈一年多的小透明也是我和基友的第一套正片多多关照~南小鸟：樱乃高板穗乃果：落笙【原po】，微博luosheng落笙有兴趣可以看一看阿里嘎多~', 'like_num': 1092, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/prbym4JGRhXfQJqN.jpg', 'width': 1500, 'height': 2248, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190961468', 'title': None, 'content': '哪有什么岁月静好，只有我们负重前行！！', 'like_num': 2341, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/e0771ed49aa046beb5b2e63f01fb8540.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/3c91c962f30f488da6cf7bd6dc1f741e.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579305463004357', 'title': None, 'content': '我卡殿怎么能这么帅', 'like_num': 1552, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/f69168b3a9.jpg', 'width': 650, 'height': 1035, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578393959004983', 'title': None, 'content': '吖，回归正题！', 'like_num': 2260, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/23b7b97acd.jpg', 'width': 622, 'height': 800, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191112691', 'title': '白猫计划', 'content': None, 'like_num': 2178, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/007iocwWly1fyr65h675gj31a41834qq.jpg', 'width': 1024, 'height': 979, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579100270004319', 'title': None, 'content': "魔道视频٩( 'ω' )و ", 'like_num': 1576, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/041417d109.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MzgwMDEwODg2NzI1ODczNyM1NjcjbXA0-5.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191040289', 'title': '[pixiv]从那时起，我的整个世界只有你。', 'content': None, 'like_num': 2458, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0072FdYkly1fxizj8jn0sj30lc0nzjtx.jpg', 'width': 768, 'height': 863, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579097194004088', 'title': None, 'content': '不要叫醒我，我飘了～', 'like_num': 2051, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/0ed959dad5.jpg', 'width': 576, 'height': 1152, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MzUyMzk1MjI1ODM4Mzg2MCM0MjcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191055496', 'title': '画师叶山(176200)', 'content': None, 'like_num': 1800, 'has_like': 0, 'tags': '', 'author_id': 51, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/dab40bb1fa1cd35957c7b5b5a9d9908b.jpg', 'width': 724, 'height': 1023, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579214289004457', 'title': None, 'content': '进群有很多咱们魔道的资源哦，快来吧', 'like_num': 1557, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/5a3b29167b.jpg', 'width': 580, 'height': 765, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579074339004571', 'title': None, 'content': '忘羡秀恩爱', 'like_num': 2617, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/2e2e5c30a7.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU1OTk5NjI4MzAyMzY1ODMzNiMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579119089004132', 'title': None, 'content': '今日份舔狗……', 'like_num': 2528, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/adcdd07971.jpg', 'width': 4160, 'height': 3120, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19065821', 'title': '【COS预告】叛逆的鲁鲁修  C.C.', 'content': '刚刚不小心误删了qwq', 'like_num': 624, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/uaPl0twiKTQOZR8X.jpg', 'width': 1089, 'height': 1633, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579318094004853', 'title': None, 'content': '魔道啊！！', 'like_num': 1146, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/bdd78c01a6.jpg', 'width': 690, 'height': 1206, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579526529004445', 'title': None, 'content': '来一波超好看的图片呀', 'like_num': 1033, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/613a55189f.jpg', 'width': 953, 'height': 1430, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '16', 'obj_id': '12', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=202004092020#/index?trace_id=3', 'jump_type': 1, 'title': '我妻善逸cos哪家强？', 'title_image': 'http://qnp-lemon.chumanapp.com/live/ad924170958648e26f83b988a31bc36d.jpg_720x720q90g', 'width': 405, 'height': 720, 'is_block_content': 1, 'block_content_id': 12}, {'obj_id': '2001384', 'title': '新春大福利！邀好友瓜分1亿现金红包', 'content': '如何领青柠？快来看看吧', 'like_num': 314, 'has_like': 0, 'tags': '', 'author_id': 603, 'type': 11, 'title_image': 'http://qnp-lemon.chumanapp.com/live/629c7104d5bb494830f1c1ae0ea0b4ac.png', 'width': 1080, 'height': 1920, 'is_block_content': 1, 'block_content_id': 6}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579096562004039', 'title': None, 'content': '这防晒霜一定要成箱成箱的买啊?', 'like_num': 1731, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3895eaa169.jpg', 'width': 1242, 'height': 1324, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19105833', 'title': '松浦果南', 'content': None, 'like_num': 2264, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1fter0ksipij30gp0nm4bt.jpg', 'width': 601, 'height': 850, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097032', 'title': '简陋的和服 浴衣少女手机壁纸', 'content': None, 'like_num': 1833, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/22-1F21G60Q1357.jpg', 'width': 310, 'height': 220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097615', 'title': '超帅女体路霸！《守望先锋》路霸的cosplay欣赏', 'content': '《守望先锋》最近也是大火的游戏，其中路霸本来是一个又胖又大一只，前段时间守望先锋性转突然火了起来，这位路霸的女体又火辣又帅，今天带来这套路霸的cosplay是coser锡铁，非常全能的一位coser，然而在拍摄当天出了点小状况，比如用光了绷带以及...', 'like_num': 1849, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_581046fd97109.jpg', 'width': 720, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096761', 'title': '【画师】日本画师おこめ もちこ的插画作品', 'content': '日本画师おこめ もちこ的插画作品 昵称：おこめ もちこ UID:17410750 https://www.pixiv.net/member.php?id=17410750 喜欢这位画师的作品就去关 …', 'like_num': 1227, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/HTB1Kz7FaebviK0jSZFNq6yApXXao.jpg', 'width': 500, 'height': 559, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910132701', 'title': 'RWBY Themes - Solitas', 'content': 'RWBY', 'like_num': 2390, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/002e1d6b69.jpg', 'width': 168, 'height': 94, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/LzvdCt3xuFA.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579651483004590', 'title': None, 'content': '. . .', 'like_num': 2137, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3d620af17d.jpg', 'width': 584, 'height': 493, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578643488004855', 'title': None, 'content': '@来块小面包', 'like_num': 1273, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/1c8ee42fa2.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MTg2NTE3NzgzNDM4NTc3MSM5MzkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190627215', 'title': '新人报道w', 'content': 'Jk娘一只！居然找不到制服专区QAQ求勾搭', 'like_num': 2048, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/DUZUVEQFUFUZNXLU.jpg', 'width': 2248, 'height': 2248, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578960066004499', 'title': None, 'content': '雨染', 'like_num': 837, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/61206e224f.jpg', 'width': 1080, 'height': 1656, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579118404004073', 'title': None, 'content': '忘机耍帅', 'like_num': 2473, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/87def2b013.jpg', 'width': 689, 'height': 918, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190620773', 'title': '在猫咖存活四天的鸟', 'content': '我今天又去猫咖了，回来的时候大雨啊', 'like_num': 1490, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/3jeLOklbvKpPJdGn.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579068269004175', 'title': None, 'content': '有人吗？好无聊诶', 'like_num': 784, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/f276afcfa9.jpg', 'width': 700, 'height': 699, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101838', 'title': '惣流·明日香·兰格雷', 'content': None, 'like_num': 683, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fypf4e6kuuj30rs06ijxl.jpg', 'width': 1000, 'height': 234, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910132845', 'title': '巴哈姆特之怒 - Mysteria Friends/ 瑪娜利亞魔法學院 第2話 預告「龍姬的苦痛」【F宅/1080P+】', 'content': '巴哈姆特之怒', 'like_num': 2543, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/20fb5a6cff.jpg', 'width': 168, 'height': 94, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/Kn8R8aARR3o.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579090296004559', 'title': None, 'content': '魔道同人', 'like_num': 1119, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/50b410a49f.jpg', 'width': 690, 'height': 820, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190616518', 'title': '新人求关注w', 'content': '#lovelive唱诗班星空凛#\xa0 #cos正片#聞く！天使は歌を歌う子供の日は君と過ごしたcn:奶思摄影:周末后勤:君竹 浮生后期妆面自理上半身过冬天下半身过夏天真刺激xxx蹦哒蹦哒发现小翅膀不见了（才没有）微博@草莓味的奶思顺眼劳扩，爱您，啾咪！', 'like_num': 1016, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/sZ3Har1yUbmspnjU.jpg', 'width': 861, 'height': 10000, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190621676', 'title': '九公主正片', 'content': '九公主/妆面/脸修:佐沫摄影:虎田亚纪子调色:秋', 'like_num': 1041, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/3g9jLbtWjB25IEm2.jpg', 'width': 1441, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190626864', 'title': '【jk制服】好像很乖的样子哦ᶘ ᵒᴥᵒᶅ', 'content': '(๑• . •๑)背心裙是信爱女子高中', 'like_num': 1693, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/PDSVGUOTVEIASCQD.jpg', 'width': 720, 'height': 1280, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097618', 'title': '美图推荐——回首美人特辑', 'content': '回首美人（見返り美人）这个词来源于江户时期的画家 菱川 师宣的一副绢本“肉笔浮世绘”『见返り美人図』，绘画描绘了一个正在行走的盛装艺伎突然回首一瞥的美丽瞬间。', 'like_num': 2733, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_580f1c112da32.jpg', 'width': 720, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20157, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
@@ -2019,7 +2321,7 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '19111127', 'title': None, 'content': '炸毛了', 'like_num': 18, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/95e32ea1b0.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2560340.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579098511004192', 'title': None, 'content': '保温杯里泡枸杞，哈哈', 'like_num': 647, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/6bce7cbdde.jpg', 'width': 1080, 'height': 3415, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190644411', 'title': '香香cos', 'content': '去年展子的时候出的香香www', 'like_num': 2309, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/KtqH7mljfyRoXPrW.jpg', 'width': 800, 'height': 1068, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191023495', 'title': '动漫壁纸精选', 'content': None, 'like_num': 2294, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/005ZUAk5ly1fqkfxpaqevj326r18ahdw.jpg', 'width': 1024, 'height': 576, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579089316004500', 'title': None, 'content': '哎哟，宠妻狂魔', 'like_num': 2352, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/161bf7f20b.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2MjU4NTEyNDc5NDc3MjM3MiM3NzYjbXA0.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579064829004910', 'title': None, 'content': '秀家规', 'like_num': 860, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/d336043e24.jpg', 'width': 2176, 'height': 4608, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579122731004426', 'title': None, 'content': '他们简直太美了（水经验）', 'like_num': 1788, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/24d1bb8064.jpg', 'width': 720, 'height': 976, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578764063004229', 'title': None, 'content': '最有钱的组织，晓😎😎', 'like_num': 1283, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/27462e1bea.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2OTEyNDUxMDA0MTQ0MzY5MyM2NjYjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579353908004388', 'title': None, 'content': '乱发一波图', 'like_num': 639, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/dde2363bb8.jpg', 'width': 2500, 'height': 2500, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190621636', 'title': '◆影◇', 'content': 'meta雪兔', 'like_num': 625, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/girls/images/KgAgH8Fruwl8k0jq.jpg', 'width': 1326, 'height': 1988, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1579080394004920', 'title': None, 'content': '作为新来的，说这话，不会被打吧', 'like_num': 1436, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0fef0bae4b.jpg', 'width': 1009, 'height': 545, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579093727004817', 'title': None, 'content': '魔道    祖师      献舍回     ……', 'like_num': 2546, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/2bfe561eb7.jpg', 'width': 828, 'height': 1063, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190910013', 'title': '黑色蕾丝也可爱呀 每日福利10.9期', 'content': None, 'like_num': 2179, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_comics_wallpaper/image/13-161011155T00-L.jpg', 'width': 320, 'height': 220, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19102811', 'title': 'SINK', 'content': None, 'like_num': 1403, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/007iocwWgy1fylu9t184vj30iv0o0akk.jpg', 'width': 679, 'height': 864, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1909163356', 'title': None, 'content': '十年前的我们', 'like_num': 2895, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/da9d94f00f84483e92f576d4e25e51c6.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/4197d7fb628f4a429a70e203105a0991.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579034676004944', 'title': None, 'content': '自剪辑，勿盗', 'like_num': 665, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f7171fe280.jpg', 'width': 720, 'height': 720, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU2NDk4NDQ5NTIxNTIwODAyNyMzMDkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578916106004304', 'title': None, 'content': '角色名：南小鸟CN：叶紫', 'like_num': 1187, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0b67c6b276.jpg', 'width': 1440, 'height': 2160, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579115360004851', 'title': None, 'content': '有木有被吓到？', 'like_num': 2243, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/5b883e3382.jpg', 'width': 900, 'height': 5294, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19115293', 'title': None, 'content': '我小伙伴给我安排了一个瘦脸神器！我感觉坚持用兴许真能瘦！', 'like_num': 969, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/82d31a8fb9.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2590410.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19066482', 'title': None, 'content': '  远坂凛@外星嫣子红A@一方菌某种意义上是一套首发正片了哦～希望大家多多支持', 'like_num': 572, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/mhd/images/BodyPart_35deddd1-7ce1-4e27-abc5-3d507c48d083.jpg', 'width': 1080, 'height': 1618, 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20090, 'tag_show_info': {'show_tag_type': 2}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579469290004180', 'title': None, 'content': '校园三巨头', 'like_num': 1268, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a6cfb1984d.jpg', 'width': 1080, 'height': 654, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19067288', 'title': None, 'content': ' 桃花妖cn：小肥脸蜜糖糖owo', 'like_num': 1130, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_f822d9eb-8fb7-49b7-8e30-a381008fb4dc.jpg', 'width': 5472, 'height': 3648, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19104055', 'title': '塩野まき（ID：103009）', 'content': None, 'like_num': 1590, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft5z0m0plxj30et0kqdmi.jpg', 'width': 533, 'height': 746, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190610598', 'title': '怪盗基德cos正片', 'content': '“作为一个魔术师，最重要的是有一张扑克脸，不管遇到好牌或坏牌，遇到什么事，都要沉着冷静，不让观众猜透心思。”     出镜：公子托phx：等待协力：宇儿其余自理。   咕咕咕正片完成。希望大家能喜欢♡', 'like_num': 625, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/lrUbVHnpQ1BLfsXH.jpg', 'width': 1080, 'height': 2151, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1584082938004384', 'title': None, 'content': '水得停不下来', 'like_num': 2038, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/525a2f15de.jpg', 'width': 800, 'height': 1132, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19099452', 'title': '黑丝兔女郎！《FGO》黑贞的COSPLAY欣赏', 'content': '这套COS作品呈现了黑贞的兔女郎造型，性感的装束与小恶魔系的表情都是可爱又撩人，而COSER的颜值身材也是十足加分点，不知道你有没有拜倒在这双长腿之下呢？一起来欣赏吧！', 'like_num': 1758, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_5b0fa96f515d9.jpg', 'width': 720, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190614840', 'title': '王昭君冰雪之华', 'content': '#cos正片##顺眼劳k##王者荣耀王昭君冰雪之华#“凛冬已至”“故乡的梅花开了吗？”王昭君:安初摄影:为爱妆娘:君翊染后期:粽子排版:星璃后勤:雪酱，玉，鬼影，思维，三少赶在生日的最后几个点终于把本命昭君的片子发出来了，非常感谢摄影和后勤们大冬天陪我去冰面上拍片子x，体谅我的任性。最后，反季节拍片有风险，去冰上拍片子需谨慎。', 'like_num': 2833, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/dVzXer8u33URC0Qk.jpg', 'width': 800, 'height': 8000, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19098314', 'title': '前排围观男神！《全职高手》叶修和周泽楷的COSPLAY欣赏', 'content': '《全职高手》是蝴蝶蓝写的小说。该小说讲述了网游顶尖高手叶修，遭到俱乐部的驱逐，最后在荣耀新开的第十区重新投入了游戏，重返巅峰之路的故事，现在动画已出。而这套COS作品是小编非常喜欢的两位COSER一起合作的， 那么一起来欣赏吧！', 'like_num': 1508, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_5912a8a90dc7d.jpg', 'width': 720, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190616337', 'title': '独角兽新春试妆～', 'content': '啊…我是…皇家海军…独角兽…指挥官…能叫你哥哥…吗？', 'like_num': 2770, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/JKIOSSBDKQBOXUIN.jpg', 'width': 2109, 'height': 2812, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096921', 'title': '舰娘也要过圣诞！《舰队收藏》圣诞图', 'content': '一年一度的圣诞节即将到来，各个人气游戏都开始推出圣诞节的特别活动，爆红军舰拟人页游《舰队收藏》自然也不例外。官方最新公布了一组舰娘的圣诞节的限定装扮，舰娘们全都穿上了红色的外套，带着圣诞节标志性的小尖帽或者鹿角，看上去好喜庆呀。', 'like_num': 1711, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_5668d99a920ff.jpg', 'width': 360, 'height': 225, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191035692', 'title': '画师うさ城まに的作品（twi:mayumani2）', 'content': None, 'like_num': 2823, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/773b7de0697fb92311b2293a062d5c01.jpg', 'width': 611, 'height': 577, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19099946', 'title': '美图推荐——被炉特辑', 'content': '被炉使人怠惰_(:з」∠)_', 'like_num': 558, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_5c356e0fd67b1.jpg', 'width': 720, 'height': 450, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579205327004861', 'title': None, 'content': '这回闭眼睁眼都有了', 'like_num': 1676, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/9e14842a51.jpg', 'width': 688, 'height': 431, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910134091', 'title': '【上班族的便当】-开胃爽口的鸡丝凉面，简单拌一拌完事！', 'content': '便当', 'like_num': 678, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/a956bf783f.jpg', 'width': 168, 'height': 94, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/9Kxz_trpnQA.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190625925', 'title': '试下新衣服！', 'content': '南小鸟 女警 cos服(配件好容易坏啊嘤嘤嘤)', 'like_num': 2707, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/HV74Po1jcvlTrPxE.jpg', 'width': 1224, 'height': 1632, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910133801', 'title': '暗殺教室 殺老師聯想教室', 'content': '暗杀教室', 'like_num': 2511, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6ccd3e9da3.jpg', 'width': 246, 'height': 138, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/6c8thUo95tw.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579493213004037', 'title': None, 'content': '《狐妖小红娘》中五句“虐心”台词', 'like_num': 2767, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/f5e033a357.jpg', 'width': 500, 'height': 312, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910134723', 'title': 'This Will Be The Day (feat. Casey Lee Williams) by Jeff Williams with Lyrics', 'content': 'RWBY', 'like_num': 782, 'has_like': 0, 'tags': '', 'author_id': 52, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/532c83a374.jpg', 'width': 246, 'height': 138, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/Wwohhs3LvRQ.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190624888', 'title': '【软妹日常】', 'content': '众生皆苦我愿成为你生命中的一颗糖', 'like_num': 1484, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/hbNfiXDgssj9BSws.jpg', 'width': 1000, 'height': 1000, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579035888004038', 'title': None, 'content': '没有道友改不了的歌?????', 'like_num': 1749, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e29f848a6d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NDcwMzI2MzIwODMxOTgyNCM2NjgjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': ''}], 'act_id': 20157, 'tag_show_info': {'show_tag_type': 2}}}</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
@@ -2072,7 +2374,7 @@
       <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'banner_id': 3, 'title_image': 'http://qnp-lemon.chumanapp.com/trace_img/trace_img/image/cos_banner_01.png', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=1587362469#/index?trace_id=4', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'sp_type': 4}, {'banner_id': 4, 'title_image': 'http://demo.lemondream.cn/expression/dd8b6315471c5089f9baaa77a1cb3cb2.png', 'jump_url': 'http://qnp.lemondream.cn/m/lemonCosRace/index.html?timestamp=1587362469#/index?trace_id=5', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'sp_type': 4}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fb167782a36e58400ed7dbbb8a58eea3.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonFacialMatch/index.html?timestamp=1586745491#/main', 'jump_type': 0, 'rule_title': '', 'rule_detail': '', 'banner_id': 9}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7800a945cc68c30293e1225384890ebb.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 4}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/523e37acdab601b7fdddfa5897f549a2.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '', 'rule_detail': '', 'banner_id': 3}, {'type': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/48edc92bed67258b6b55dfc96e6d9491.png', 'jump_url': 'http://m-demo.lemondream.cn/m/lemonCosRace/index.html?timestamp=1586513344#/index', 'jump_type': 1, 'rule_title': '测试啦', 'rule_detail': '', 'banner_id': 16}]}}</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
@@ -2129,7 +2431,7 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '2003528', 'title': '如果能把你的寒假作业变薄，要吗？', 'content': '如果能把你的寒假作业变薄，要吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4'}, '1': {'obj_id': '2003527', 'title': '这些尴尬的时刻，你有没有经历过？', 'content': '这些尴尬的时刻，你有没有经历过？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4'}, '2': {'obj_id': '2003526', 'title': '这几条寒假和谐共处原则，请谨记！', 'content': '这几条寒假和谐共处原则，请谨记！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4'}, '3': {'obj_id': '2003525', 'title': '12星座在学校是什么身份？你的准吗？', 'content': '12星座在学校是什么身份？你的准吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4'}, '4': {'obj_id': '2003524', 'title': '来看看你和你的偶像今天在干嘛？', 'content': '来看看你和你的偶像今天在干嘛？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4'}, '5': {'obj_id': '2003523', 'title': '新年壁纸 · 新年好运气从新屏保开始', 'content': '新年壁纸 · 新年好运气从新屏保开始', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4'}, '6': {'obj_id': '2003522', 'title': '南北差异', 'content': '南北差异', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4'}, '7': {'obj_id': '2003521', 'title': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'content': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4'}, '8': {'obj_id': '2003520', 'title': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'content': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4'}, '9': {'obj_id': '2003519', 'title': '你的数学作业做完了吗？', 'content': '你的数学作业做完了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4'}, '10': {'obj_id': '2003518', 'title': '“冰淇淋可以要草莓味的吗？”', 'content': '“冰淇淋可以要草莓味的吗？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4'}, '11': {'obj_id': '2003517', 'title': '“你们！说话能不能小点声啊？”', 'content': '“你们！说话能不能小点声啊？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4'}, '12': {'obj_id': '2003516', 'title': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'content': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4'}, '13': {'obj_id': '2003515', 'title': '人的一生总有这么个朋友在身边。', 'content': '人的一生总有这么个朋友在身边。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4'}, '14': {'obj_id': '2003514', 'title': '希望这是看到寒假作业已经写完的你们呀！', 'content': '希望这是看到寒假作业已经写完的你们呀！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4'}, '15': {'obj_id': '2003513', 'title': '吃货也太可爱了吧', 'content': '吃货也太可爱了吧', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4'}, '16': {'obj_id': '2003512', 'title': '哼，哥哥是臭居居，不学了！', 'content': '哼，哥哥是臭居居，不学了！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4'}, '17': {'obj_id': '2003511', 'title': '可是我也好喜欢你呀！”', 'content': '可是我也好喜欢你呀！”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4'}, '18': {'obj_id': '2003510', 'title': '你们几年级了？', 'content': '你们几年级了？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4'}, '19': {'obj_id': '2003509', 'title': '测试你的古代复姓名字，我叫子书星若，你呢？', 'content': '测试你的古代复姓名字，我叫子书星若，你呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4'}, 'list': [{'obj_id': '2003528', 'title': '如果能把你的寒假作业变薄，要吗？', 'content': '如果能把你的寒假作业变薄，要吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034936-42485976.mp4'}, {'obj_id': '2003527', 'title': '这些尴尬的时刻，你有没有经历过？', 'content': '这些尴尬的时刻，你有没有经历过？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034929-75426016.mp4'}, {'obj_id': '2003526', 'title': '这几条寒假和谐共处原则，请谨记！', 'content': '这几条寒假和谐共处原则，请谨记！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20190430040421-60735659.mp4'}, {'obj_id': '2003525', 'title': '12星座在学校是什么身份？你的准吗？', 'content': '12星座在学校是什么身份？你的准吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034915-83733439.mp4'}, {'obj_id': '2003524', 'title': '来看看你和你的偶像今天在干嘛？', 'content': '来看看你和你的偶像今天在干嘛？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194930034905-69680483.mp4'}, {'obj_id': '2003523', 'title': '新年壁纸 · 新年好运气从新屏保开始', 'content': '新年壁纸 · 新年好运气从新屏保开始', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034856-7532032.mp4'}, {'obj_id': '2003522', 'title': '南北差异', 'content': '南北差异', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034847-54764497.mp4'}, {'obj_id': '2003521', 'title': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'content': '超有趣小测试！吃蛋糕你会从哪里开始？测出最真实的你！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194830034827-71259608.mp4'}, {'obj_id': '2003520', 'title': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'content': '大年初二，来猜谜吧～花式脑筋急转弯，看你能猜对多少个？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033627-85160705.mp4'}, {'obj_id': '2003519', 'title': '你的数学作业做完了吗？', 'content': '你的数学作业做完了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033618-82558268.mp4'}, {'obj_id': '2003518', 'title': '“冰淇淋可以要草莓味的吗？”', 'content': '“冰淇淋可以要草莓味的吗？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033609-20409818.mp4'}, {'obj_id': '2003517', 'title': '“你们！说话能不能小点声啊？”', 'content': '“你们！说话能不能小点声啊？”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193630033600-62408405.mp4'}, {'obj_id': '2003516', 'title': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'content': '输“我在”，一直点第一个字，看看谁的最搞笑！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033552-41696704.mp4'}, {'obj_id': '2003515', 'title': '人的一生总有这么个朋友在身边。', 'content': '人的一生总有这么个朋友在身边。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20194430034450-35040977.mp4'}, {'obj_id': '2003514', 'title': '希望这是看到寒假作业已经写完的你们呀！', 'content': '希望这是看到寒假作业已经写完的你们呀！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193530033538-89048903.mp4'}, {'obj_id': '2003513', 'title': '吃货也太可爱了吧', 'content': '吃货也太可爱了吧', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20193430033452-75810600.mp4'}, {'obj_id': '2003512', 'title': '哼，哥哥是臭居居，不学了！', 'content': '哼，哥哥是臭居居，不学了！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031246-42155652.mp4'}, {'obj_id': '2003511', 'title': '可是我也好喜欢你呀！”', 'content': '可是我也好喜欢你呀！”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031235-93969429.mp4'}, {'obj_id': '2003510', 'title': '你们几年级了？', 'content': '你们几年级了？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031229-50905178.mp4'}, {'obj_id': '2003509', 'title': '测试你的古代复姓名字，我叫子书星若，你呢？', 'content': '测试你的古代复姓名字，我叫子书星若，你呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://qnuv-lemon.chumanapp.com/lemon/video/small_video/douyin/20191230031200-46688588.mp4'}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, '1': {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, '2': {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, '3': {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, '4': {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, '5': {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, '6': {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, '7': {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, '8': {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, '9': {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, '10': {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, '11': {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, '12': {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}, 'list': [{'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
@@ -2186,7 +2488,7 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190628420', 'title': '#COS黑贞#', 'content': '“喜欢的事？呵呵……没有比在信徒们的眼前否定神明更有意思的娱乐了。”贞德：@COSER赤瞳瞳phx：@岚岚贞德 黑贞德:@COSER赤瞳摄影：@岚岚 _| 化妆：COSER赤瞳| 后期：@岚岚 _| 协力:@小一@三三碎碎念:有很多新扩列的小伙伴问我黑贞的正片~现在再发一次w感谢观看哦~', 'like_num': 2787, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/HqcTnR44GasVhhQm.jpg', 'width': 1098, 'height': 2445, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '1': {'obj_id': '190628424', 'title': '【cos正片王者荣耀】', 'content': '#王者cos##cos正片#小乔孙尚香花魁# 【喜捞扩】红镜妆奁，香扇罗伞，顾曲唱和，端是朱帐春宵。——“呀、姐姐，你瞧那群臭男人，好逗趣儿呢！”——“英雄、英雄……安知英者，偏独得是个‘雄’呢？”便弱肌柔骨，芙蓉开面——你道，我就不会*么？孙尚香：@原po小乔：@小奶猫妆面：@原po摄影：@·~·（没有摄影小哥的qq 假装艾特成功他）社团：@{uin:2809985861,nick:迷斯伍德密室世界,who:1} 这套片子拖了蛮久…终于给他发出来了哈哈哈哈哈哈喜欢的小伙伴们可以帮忙扩一哈 红叶爱您们吖', 'like_num': 910, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rJo4G9dcI6hzFghX.jpg', 'width': 1080, 'height': 1618, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '2': {'obj_id': '190628427', 'title': '【第一弹新国风】王者荣耀cos正片 李白原皮', 'content': '(´,,•ω•,,｀)♡是你心中的李白哥哥吗', 'like_num': 1107, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/Zra2XgXopFgayqBS.jpg', 'width': 1125, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '3': {'obj_id': '190628428', 'title': '【弹娘换装play】万物皆草木，唯你是青山。', 'content': '弹妹的生日快到啦，特意给弹娘换上了白色的汉服，别有另一种温柔的感觉呢～不知道弹妹会喜欢这个温柔的姐姐吗？\r (๑•ㅂ•)✧祝弹妹生日快乐，第一弹越来越好，mua！', 'like_num': 1256, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/DITPFTPXATRUCOGW.jpg', 'width': 2598, 'height': 1733, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '4': {'obj_id': '190628429', 'title': '【汉服正片】齐胸襦裙真美呀~', 'content': '出镜：尤三 \r摄影：@前田師匠sakida \r后勤@楼下后勤的断腿音 \r地点：无锡 惠山古镇\r【一曲新词酒一杯 去年天气旧亭台 夕阳西下几时回 无可奈何花落去 似曾相识燕归来 小园香径独徘徊】', 'like_num': 2351, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ZDWyaB5HgDLuq8tx.jpg', 'width': 1152, 'height': 2048, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '5': {'obj_id': '190628406', 'title': '【魔卡少女樱】冰雪天使', 'content': '拍完了拍完了，是一只有知世的小樱真好！！！！能完成自己的脑洞真好！！！失踪人口终于回归真好！！！！', 'like_num': 2851, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/wqHJi7VIzAI8bdww.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '6': {'obj_id': '190628335', 'title': '【cos试妆】阴阳师-白狼', 'content': 'www超级喜欢初意这套皮肤TvT少女白狼的感觉！但是这套不是很适合我所以放弃了只拍了套试妆TvT', 'like_num': 2546, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QTGXIHPMICTYXJCT.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '7': {'obj_id': '190628336', 'title': '阴阳师手游夜叉血月青空试妆', 'content': '夜叉。唯安Vann', 'like_num': 2971, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ENkfkcJWm1OCrtp7.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '8': {'obj_id': '190628339', 'title': '漫展返图  尼尔机械纪元', 'content': '老年人来苟一波返图底层coser不容易', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/WBRENUAYCRFDRJYE.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 2, 'rec_package_id': 'cosplay'}, '9': {'obj_id': '190628340', 'title': '您的快递马上就到了哦', 'content': '《魔女宅急便》 琪琪 这其实是个速报，还要去别的取景地继续拍，不过因为有黑猫出镜的只有这一部分了所以先放出来。', 'like_num': 2136, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QSS6KVg13iNVo0dH.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '10': {'obj_id': '190628341', 'title': '漫展星尘幽牡丹返图', 'content': '超级喜欢星尘星尘的这套cos看到的第一眼就中草了，真的超级好看的说～这次漫展如愿以偿的出了星尘的这套幽牡丹简直开心死了～最后放上一张表情包(๑´ㅂ`๑)', 'like_num': 1646, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rp6ZfxAk7KnqjnB9.jpg', 'width': 480, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '11': {'obj_id': '190628342', 'title': '【cos】阿福', 'content': '人活着就是为了阿福！', 'like_num': 1281, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/EYBLLJNBDRQLCEZR.jpg', 'width': 2976, 'height': 3968, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '12': {'obj_id': '190628346', 'title': '宝石之国 钻石', 'content': '今天份展子的钻石，好久也没出来冒泡了', 'like_num': 1531, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/K2EP9PKPzljNrb1m.jpg', 'width': 1215, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '13': {'obj_id': '190628347', 'title': '【cos预告】阴阳师萤草', 'content': '虽然是老片但还是只有预告哈哈哈哈哈妆 扶枝摄 逐风协力 觉觉后期 君笉', 'like_num': 1031, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/UopcLJe1o5mnbcRX.jpg', 'width': 2880, 'height': 1920, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '14': {'obj_id': '190628385', 'title': '【cos正片】『我和集是并肩而立的存在』', 'content': '金鱼祈!\r找了废弃工厂拍的真的很可怕噫呜呜噫但是效果好像还不错】\r\r准备超级认真的一套!\r喜欢小伙伴点个糖呀\r渴望获得关注投喂糖果', 'like_num': 2774, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/AtRk7nOX0WnXZ2bm.jpg', 'width': 1080, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '15': {'obj_id': '190628360', 'title': '【试妆】宝石之国&amp;紫水晶', 'content': '粗略试了一下。', 'like_num': 1902, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/KQIYMAOYTFXRVOHK.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '16': {'obj_id': '190628364', 'title': '【速报】梨花开，春带雨。梨园春秋～', 'content': '【速报】梨园春秋来袭！出镜：BunnyJ兔子姬摄影：东海后期：桃魇拍摄地：东海juju的摄影棚', 'like_num': 651, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/B6zADVEVughbyesX.jpg', 'width': 1080, 'height': 1616, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '17': {'obj_id': '190628365', 'title': '青岛DC17漫展', 'content': '14号上午有个阿福穿着阿斯托尔福的粉色校服戴着黑虎阿福的假发 \r不行了 我一想就忍不住笑 哈哈哈哈 假胡子都掉了\r可惜没拍到照片\r还有啊 求一张抱白猫的钻石小姐姐\r真的好美', 'like_num': 2583, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QJcvES1i1U6KCN8W.jpg', 'width': 1512, 'height': 2016, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, 'list': [{'obj_id': '190628420', 'title': '#COS黑贞#', 'content': '“喜欢的事？呵呵……没有比在信徒们的眼前否定神明更有意思的娱乐了。”贞德：@COSER赤瞳瞳phx：@岚岚贞德 黑贞德:@COSER赤瞳摄影：@岚岚 _| 化妆：COSER赤瞳| 后期：@岚岚 _| 协力:@小一@三三碎碎念:有很多新扩列的小伙伴问我黑贞的正片~现在再发一次w感谢观看哦~', 'like_num': 2787, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/HqcTnR44GasVhhQm.jpg', 'width': 1098, 'height': 2445, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628424', 'title': '【cos正片王者荣耀】', 'content': '#王者cos##cos正片#小乔孙尚香花魁# 【喜捞扩】红镜妆奁，香扇罗伞，顾曲唱和，端是朱帐春宵。——“呀、姐姐，你瞧那群臭男人，好逗趣儿呢！”——“英雄、英雄……安知英者，偏独得是个‘雄’呢？”便弱肌柔骨，芙蓉开面——你道，我就不会*么？孙尚香：@原po小乔：@小奶猫妆面：@原po摄影：@·~·（没有摄影小哥的qq 假装艾特成功他）社团：@{uin:2809985861,nick:迷斯伍德密室世界,who:1} 这套片子拖了蛮久…终于给他发出来了哈哈哈哈哈哈喜欢的小伙伴们可以帮忙扩一哈 红叶爱您们吖', 'like_num': 910, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rJo4G9dcI6hzFghX.jpg', 'width': 1080, 'height': 1618, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628427', 'title': '【第一弹新国风】王者荣耀cos正片 李白原皮', 'content': '(´,,•ω•,,｀)♡是你心中的李白哥哥吗', 'like_num': 1107, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/Zra2XgXopFgayqBS.jpg', 'width': 1125, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628428', 'title': '【弹娘换装play】万物皆草木，唯你是青山。', 'content': '弹妹的生日快到啦，特意给弹娘换上了白色的汉服，别有另一种温柔的感觉呢～不知道弹妹会喜欢这个温柔的姐姐吗？\r (๑•ㅂ•)✧祝弹妹生日快乐，第一弹越来越好，mua！', 'like_num': 1256, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/DITPFTPXATRUCOGW.jpg', 'width': 2598, 'height': 1733, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628429', 'title': '【汉服正片】齐胸襦裙真美呀~', 'content': '出镜：尤三 \r摄影：@前田師匠sakida \r后勤@楼下后勤的断腿音 \r地点：无锡 惠山古镇\r【一曲新词酒一杯 去年天气旧亭台 夕阳西下几时回 无可奈何花落去 似曾相识燕归来 小园香径独徘徊】', 'like_num': 2351, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ZDWyaB5HgDLuq8tx.jpg', 'width': 1152, 'height': 2048, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628406', 'title': '【魔卡少女樱】冰雪天使', 'content': '拍完了拍完了，是一只有知世的小樱真好！！！！能完成自己的脑洞真好！！！失踪人口终于回归真好！！！！', 'like_num': 2851, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/wqHJi7VIzAI8bdww.jpg', 'width': 1080, 'height': 1440, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628335', 'title': '【cos试妆】阴阳师-白狼', 'content': 'www超级喜欢初意这套皮肤TvT少女白狼的感觉！但是这套不是很适合我所以放弃了只拍了套试妆TvT', 'like_num': 2546, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QTGXIHPMICTYXJCT.jpg', 'width': 960, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628336', 'title': '阴阳师手游夜叉血月青空试妆', 'content': '夜叉。唯安Vann', 'like_num': 2971, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/ENkfkcJWm1OCrtp7.jpg', 'width': 760, 'height': 1013, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628339', 'title': '漫展返图  尼尔机械纪元', 'content': '老年人来苟一波返图底层coser不容易', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/WBRENUAYCRFDRJYE.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 2, 'rec_package_id': 'cosplay'}, {'obj_id': '190628340', 'title': '您的快递马上就到了哦', 'content': '《魔女宅急便》 琪琪 这其实是个速报，还要去别的取景地继续拍，不过因为有黑猫出镜的只有这一部分了所以先放出来。', 'like_num': 2136, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QSS6KVg13iNVo0dH.jpg', 'width': 760, 'height': 1140, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628341', 'title': '漫展星尘幽牡丹返图', 'content': '超级喜欢星尘星尘的这套cos看到的第一眼就中草了，真的超级好看的说～这次漫展如愿以偿的出了星尘的这套幽牡丹简直开心死了～最后放上一张表情包(๑´ㅂ`๑)', 'like_num': 1646, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/rp6ZfxAk7KnqjnB9.jpg', 'width': 480, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628342', 'title': '【cos】阿福', 'content': '人活着就是为了阿福！', 'like_num': 1281, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/EYBLLJNBDRQLCEZR.jpg', 'width': 2976, 'height': 3968, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628346', 'title': '宝石之国 钻石', 'content': '今天份展子的钻石，好久也没出来冒泡了', 'like_num': 1531, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/K2EP9PKPzljNrb1m.jpg', 'width': 1215, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628347', 'title': '【cos预告】阴阳师萤草', 'content': '虽然是老片但还是只有预告哈哈哈哈哈妆 扶枝摄 逐风协力 觉觉后期 君笉', 'like_num': 1031, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/UopcLJe1o5mnbcRX.jpg', 'width': 2880, 'height': 1920, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190628385', 'title': '【cos正片】『我和集是并肩而立的存在』', 'content': '金鱼祈!\r找了废弃工厂拍的真的很可怕噫呜呜噫但是效果好像还不错】\r\r准备超级认真的一套!\r喜欢小伙伴点个糖呀\r渴望获得关注投喂糖果', 'like_num': 2774, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/AtRk7nOX0WnXZ2bm.jpg', 'width': 1080, 'height': 1620, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628360', 'title': '【试妆】宝石之国&amp;紫水晶', 'content': '粗略试了一下。', 'like_num': 1902, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/KQIYMAOYTFXRVOHK.jpg', 'width': 2109, 'height': 3749, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628364', 'title': '【速报】梨花开，春带雨。梨园春秋～', 'content': '【速报】梨园春秋来袭！出镜：BunnyJ兔子姬摄影：东海后期：桃魇拍摄地：东海juju的摄影棚', 'like_num': 651, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/B6zADVEVughbyesX.jpg', 'width': 1080, 'height': 1616, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628365', 'title': '青岛DC17漫展', 'content': '14号上午有个阿福穿着阿斯托尔福的粉色校服戴着黑虎阿福的假发 \r不行了 我一想就忍不住笑 哈哈哈哈 假胡子都掉了\r可惜没拍到照片\r还有啊 求一张抱白猫的钻石小姐姐\r真的好美', 'like_num': 2583, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/QJcvES1i1U6KCN8W.jpg', 'width': 1512, 'height': 2016, 'lemon_num': 1, 'rec_package_id': 'cosplay'}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190642253', 'title': '【cos正片】萤草', 'content': '摄影 网管', 'like_num': 2799, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjkwODkzMzc2MzQ4ODU1NiM3NTcjaW1hZ2U=', 'width': 980, 'height': 653, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '1': {'obj_id': '190642256', 'title': None, 'content': '角色名:绚懒绘里&amp;东条希希绚懒绘里cn:花影_东条希希cn:逗号摄影:小黑', 'like_num': 1359, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_65e00b30-e068-4ac2-ad28-430c4c1c7e39.png', 'width': 720, 'height': 1230, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '2': {'obj_id': '190642259', 'title': 'EVA 明日香 cos', 'content': 'EVA明日香Asuka：@半半子_   PHX：@H酱紫 打光师傅：@Neko不知', 'like_num': 903, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/YQfYrV76Yc4zsWXv.jpg', 'width': 1667, 'height': 2500, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '3': {'obj_id': '190642304', 'title': '【cos试妆】《天官赐福》青灯夜游-戚容', 'content': '尔等皆笑我，谁人不癫狂。小镜王殿下。', 'like_num': 1419, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjA3Nzg2OTE4MjAxMDQzMiM4MjQjaW1hZ2U=', 'width': 980, 'height': 1742, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, '4': {'obj_id': '190642270', 'title': '蔷薇少女雏莓大正cos正片', 'content': '七夕节发片！蔷薇少女雏莓大正cos正片“呐，雏莓最喜欢”cn:苏雨妆面:自理摄影:炸鸡后勤:大妍后期:自理', 'like_num': 1449, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/f3IRGk4n3exIYivC.jpg', 'width': 3000, 'height': 1514, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '5': {'obj_id': '190642273', 'title': '【cos场照】DRB观音坂独步万圣节ver.', 'content': 'cp23DAY2场照摄影感谢:芥末 十二', 'like_num': 2518, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjUwOTM1MzQ3MTg3MjEyNyMyMzAjaW1hZ2U=', 'width': 980, 'height': 653, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '6': {'obj_id': '190642279', 'title': None, 'content': '欢迎勾搭噢(＞。☆)INORY角色名:蝶祈cn:冷玥PHX疯子_FzStefan', 'like_num': 1466, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_df2cf2bc-2a44-4068-ae02-dd98d6f1f632.png', 'width': 720, 'height': 1230, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '7': {'obj_id': '190642283', 'title': '漫展的coser', 'content': '最后两个很辣眼', 'like_num': 2724, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/6gEqsn6o2t2poujx.jpg', 'width': 1560, 'height': 2080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '8': {'obj_id': '190642285', 'title': None, 'content': '阿尔托利亚·潘德拉贡  cn：鳗鱼霏儿摄影：布林', 'like_num': 2055, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_d924183f-218c-4f6e-b500-f302e521e7a0.jpg', 'width': 650, 'height': 975, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '9': {'obj_id': '190642290', 'title': None, 'content': '黑百合  cn：季玖大帅比_死神  cn：大大白菜摄影：风音Frariski', 'like_num': 2799, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_bb39c5ed-f158-4e42-b0c8-b78dd8d9262e.jpg', 'width': 650, 'height': 434, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '10': {'obj_id': '190642269', 'title': '【cos试妆】全职高手-苏沐橙张佳乐', 'content': '【兴欣苏沐橙】兴欣之火，可以燎原。【军装张佳乐】要双花怎么够？要百花才好！', 'like_num': 1581, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjQxNzg3ODA5MzMxMTM2NiM0NzAjaW1hZ2U=', 'width': 980, 'height': 1742, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '11': {'obj_id': '190640964', 'title': '晓梅的试妆', 'content': '两年前和几个月前的。emmmm……(´･ω･`)', 'like_num': 1834, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/A9NFGNQP99w0iLTA.jpg', 'width': 361, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '12': {'obj_id': '190640966', 'title': '【搬运】【已授权】金丝雀洛天依正片', 'content': '出镜：林瑾/卿安', 'like_num': 2521, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjQ3NTU3MDE0MTgwMzc2MSM2NTAjaW1hZ2U=', 'width': 980, 'height': 653, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '13': {'obj_id': '190640967', 'title': '亚瑟旧剑灵衣cos图片', 'content': '出镜：@洛水茗拍摄：emmm非正规人员用手机拍的@蛇娘妆娘：@蛇娘后勤：@木慕都是手机拍的。。。正规单反拍的还在摄影那。。。预计一个星期就出来了。。。今天先放几张做预宣。。。在这个萌妹子遍地的第一弹有没有我的生存空间。。。emmm', 'like_num': 1819, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/e3LDq9DWUHInCUsh.jpg', 'width': 810, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, 'list': [{'obj_id': '190642253', 'title': '【cos正片】萤草', 'content': '摄影 网管', 'like_num': 2799, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjkwODkzMzc2MzQ4ODU1NiM3NTcjaW1hZ2U=', 'width': 980, 'height': 653, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642256', 'title': None, 'content': '角色名:绚懒绘里&amp;东条希希绚懒绘里cn:花影_东条希希cn:逗号摄影:小黑', 'like_num': 1359, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_65e00b30-e068-4ac2-ad28-430c4c1c7e39.png', 'width': 720, 'height': 1230, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642259', 'title': 'EVA 明日香 cos', 'content': 'EVA明日香Asuka：@半半子_   PHX：@H酱紫 打光师傅：@Neko不知', 'like_num': 903, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/YQfYrV76Yc4zsWXv.jpg', 'width': 1667, 'height': 2500, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642304', 'title': '【cos试妆】《天官赐福》青灯夜游-戚容', 'content': '尔等皆笑我，谁人不癫狂。小镜王殿下。', 'like_num': 1419, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjA3Nzg2OTE4MjAxMDQzMiM4MjQjaW1hZ2U=', 'width': 980, 'height': 1742, 'lemon_num': 1, 'rec_package_id': 'cosplay'}, {'obj_id': '190642270', 'title': '蔷薇少女雏莓大正cos正片', 'content': '七夕节发片！蔷薇少女雏莓大正cos正片“呐，雏莓最喜欢”cn:苏雨妆面:自理摄影:炸鸡后勤:大妍后期:自理', 'like_num': 1449, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/f3IRGk4n3exIYivC.jpg', 'width': 3000, 'height': 1514, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642273', 'title': '【cos场照】DRB观音坂独步万圣节ver.', 'content': 'cp23DAY2场照摄影感谢:芥末 十二', 'like_num': 2518, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjUwOTM1MzQ3MTg3MjEyNyMyMzAjaW1hZ2U=', 'width': 980, 'height': 653, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642279', 'title': None, 'content': '欢迎勾搭噢(＞。☆)INORY角色名:蝶祈cn:冷玥PHX疯子_FzStefan', 'like_num': 1466, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_df2cf2bc-2a44-4068-ae02-dd98d6f1f632.png', 'width': 720, 'height': 1230, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642283', 'title': '漫展的coser', 'content': '最后两个很辣眼', 'like_num': 2724, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/6gEqsn6o2t2poujx.jpg', 'width': 1560, 'height': 2080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642285', 'title': None, 'content': '阿尔托利亚·潘德拉贡  cn：鳗鱼霏儿摄影：布林', 'like_num': 2055, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_d924183f-218c-4f6e-b500-f302e521e7a0.jpg', 'width': 650, 'height': 975, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642290', 'title': None, 'content': '黑百合  cn：季玖大帅比_死神  cn：大大白菜摄影：风音Frariski', 'like_num': 2799, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_bb39c5ed-f158-4e42-b0c8-b78dd8d9262e.jpg', 'width': 650, 'height': 434, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190642269', 'title': '【cos试妆】全职高手-苏沐橙张佳乐', 'content': '【兴欣苏沐橙】兴欣之火，可以燎原。【军装张佳乐】要双花怎么够？要百花才好！', 'like_num': 1581, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU0NjQxNzg3ODA5MzMxMTM2NiM0NzAjaW1hZ2U=', 'width': 980, 'height': 1742, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640964', 'title': '晓梅的试妆', 'content': '两年前和几个月前的。emmmm……(´･ω･`)', 'like_num': 1834, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/A9NFGNQP99w0iLTA.jpg', 'width': 361, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640966', 'title': '【搬运】【已授权】金丝雀洛天依正片', 'content': '出镜：林瑾/卿安', 'like_num': 2521, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjQ3NTU3MDE0MTgwMzc2MSM2NTAjaW1hZ2U=', 'width': 980, 'height': 653, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640967', 'title': '亚瑟旧剑灵衣cos图片', 'content': '出镜：@洛水茗拍摄：emmm非正规人员用手机拍的@蛇娘妆娘：@蛇娘后勤：@木慕都是手机拍的。。。正规单反拍的还在摄影那。。。预计一个星期就出来了。。。今天先放几张做预宣。。。在这个萌妹子遍地的第一弹有没有我的生存空间。。。emmm', 'like_num': 1819, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/e3LDq9DWUHInCUsh.jpg', 'width': 810, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
@@ -2243,7 +2545,7 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190919618', 'title': ' 【动漫】卖萌求币 2017.8.10', 'content': None, 'like_num': 1937, 'has_like': 0, 'tags': '', 'author_id': 45, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/a91f447f68362dc23b891c49dd118ea0-800x500.jpg', 'width': 800, 'height': 500, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '1': {'obj_id': '190919619', 'title': ' 【动漫】镜音双子第一弹', 'content': None, 'like_num': 1632, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/76b7e98d02a2daac548bdc0fbc7c2ce9-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 3, 'rec_package_id': 'illustrations'}, '2': {'obj_id': '190919620', 'title': ' 【动漫】上车不打卡 2017.8.5', 'content': None, 'like_num': 531, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/5e2819d6ee546908e4461ebf93b06a15-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '3': {'obj_id': '190919622', 'title': ' 【动漫】风沫的小36', 'content': None, 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/806a8b1fff6048f67bbd80430be43111-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 2, 'rec_package_id': 'illustrations'}, '4': {'obj_id': '190919624', 'title': ' 【动漫】Fate_GrandOrder 第四弹', 'content': None, 'like_num': 633, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/75843ea543c20f2835f14d5c1b9972e5-529x600.jpg', 'width': 529, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '5': {'obj_id': '190919625', 'title': ' 【动漫】Fate_GrandOrder 第三弹', 'content': None, 'like_num': 4, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/4ac98663ca8a11dcda8ea30809ef4f47-429x600.jpg', 'width': 429, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '6': {'obj_id': '190919628', 'title': ' 【画集画册】遥仰凰华', 'content': None, 'like_num': 6, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/525959977854fde6caa29890f111f9e6-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, '7': {'obj_id': '190919615', 'title': ' 【动漫】泳装系列 第四弹', 'content': None, 'like_num': 2762, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/9002c760c0e2d74984b4476363b1636b-450x600.jpg', 'width': 450, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, 'list': [{'obj_id': '190919618', 'title': ' 【动漫】卖萌求币 2017.8.10', 'content': None, 'like_num': 1937, 'has_like': 0, 'tags': '', 'author_id': 45, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/a91f447f68362dc23b891c49dd118ea0-800x500.jpg', 'width': 800, 'height': 500, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919619', 'title': ' 【动漫】镜音双子第一弹', 'content': None, 'like_num': 1632, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/76b7e98d02a2daac548bdc0fbc7c2ce9-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 3, 'rec_package_id': 'illustrations'}, {'obj_id': '190919620', 'title': ' 【动漫】上车不打卡 2017.8.5', 'content': None, 'like_num': 531, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/5e2819d6ee546908e4461ebf93b06a15-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919622', 'title': ' 【动漫】风沫的小36', 'content': None, 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/806a8b1fff6048f67bbd80430be43111-800x450.jpg', 'width': 800, 'height': 450, 'lemon_num': 2, 'rec_package_id': 'illustrations'}, {'obj_id': '190919624', 'title': ' 【动漫】Fate_GrandOrder 第四弹', 'content': None, 'like_num': 633, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/75843ea543c20f2835f14d5c1b9972e5-529x600.jpg', 'width': 529, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '190919625', 'title': ' 【动漫】Fate_GrandOrder 第三弹', 'content': None, 'like_num': 4, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/4ac98663ca8a11dcda8ea30809ef4f47-429x600.jpg', 'width': 429, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919628', 'title': ' 【画集画册】遥仰凰华', 'content': None, 'like_num': 6, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/525959977854fde6caa29890f111f9e6-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': 'illustrations'}, {'obj_id': '190919615', 'title': ' 【动漫】泳装系列 第四弹', 'content': None, 'like_num': 2762, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/9002c760c0e2d74984b4476363b1636b-450x600.jpg', 'width': 450, 'height': 600, 'lemon_num': 1, 'rec_package_id': 'illustrations'}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1909174306', 'title': ' 【壁纸】2019-2-24', 'content': None, 'like_num': 2289, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0hv739gfqj31hc0u0wjp.jpg', 'width': 1024, 'height': 576, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '1': {'obj_id': '1909174114', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2380, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2ocv42wxj30jg0sidhu.jpg', 'width': 700, 'height': 1026, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '2': {'obj_id': '1909174312', 'title': ' 【绅士热点】每日福利系列 (2019-02-26)', 'content': None, 'like_num': 618, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/cc7c208623be9262d52abc57f7845d60-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '3': {'obj_id': '1909174314', 'title': ' 【绅士福利】福利第294期', 'content': None, 'like_num': 1350, 'has_like': 0, 'tags': '', 'author_id': 45, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0jsk9vzlxj311r1hc7cb.jpg', 'width': 1024, 'height': 1447, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '4': {'obj_id': '1909174316', 'title': ' 【壁纸】2019-2-26', 'content': None, 'like_num': 2330, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d7427e34c654faefcb9c5751a2e8edd5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '5': {'obj_id': '1909174318', 'title': ' 【绅士热点】每日福利系列 (2019-02-28)', 'content': None, 'like_num': 2613, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/71085c9146f68e34a63367ee50efa6d5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '6': {'obj_id': '1909174320', 'title': ' 【绅士热点】每日福利系列 (2019-03-01)', 'content': None, 'like_num': 2013, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0monpv1puj30n611gjum.jpg', 'width': 834, 'height': 1348, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '7': {'obj_id': '1909174324', 'title': ' 【绅士热点】每日福利系列 (2019-03-03)', 'content': None, 'like_num': 2930, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/6eed142c78fc6adc9a41d3ccccb52b4a-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '8': {'obj_id': '1909174326', 'title': ' 【壁纸】2019-3-3', 'content': None, 'like_num': 1782, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/df4d2d7c31865ea0011a8ef78b6c354e-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '9': {'obj_id': '1909174328', 'title': ' 【绅士福利】福利第304期', 'content': None, 'like_num': 1110, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0ptdaxxffj30uy15oaek.jpg', 'width': 1024, 'height': 1379, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '10': {'obj_id': '1909174309', 'title': ' 【壁纸】2019-2-21', 'content': None, 'like_num': 2497, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/a7888d96132f65121131641e886036df-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '11': {'obj_id': '1909174252', 'title': ' 【绅士热点】每日福利系列 (2019-01-26)', 'content': None, 'like_num': 721, 'has_like': 0, 'tags': '', 'author_id': 51, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/fdbf579ee93f5f7532cab6355c1848bc-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '12': {'obj_id': '1909174254', 'title': ' 【壁纸】2019-1-31', 'content': None, 'like_num': 1352, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/24bb82c5bdd485fbc70b17309456362d-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '13': {'obj_id': '1909174255', 'title': ' 【绅士热点】每日福利系列 (2019-01-27)', 'content': None, 'like_num': 2833, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/045e299aa1b5d1c79f1d9b851cc5806f-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '14': {'obj_id': '1909174256', 'title': ' 【壁纸】2019-1-26', 'content': None, 'like_num': 2878, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fzl4lecym9j31hb101qcw.jpg', 'width': 1024, 'height': 692, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '15': {'obj_id': '1909174260', 'title': ' 【绅士热点】每日福利系列 (2019-01-28)', 'content': None, 'like_num': 2192, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/f4dcf734ecead0f2d12315eaccef7898-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '16': {'obj_id': '1909174263', 'title': ' 【绅士热点】每日福利系列 (2019-01-30)', 'content': None, 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/36562bc100d9b3baaaf76a91fe3908fa-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '17': {'obj_id': '1909174264', 'title': ' 【壁纸】2019-1-30', 'content': None, 'like_num': 1207, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/4c31b8f3c90ef7b4625112d6f83b1e60-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '18': {'obj_id': '1909174265', 'title': ' 【壁纸】2019-2-4', 'content': None, 'like_num': 1783, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7044dd834ccb829aa23238abadf029c5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '19': {'obj_id': '1909174285', 'title': ' 【绅士热点】每日福利系列 (2019-02-11)', 'content': None, 'like_num': 827, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/720fb5fd37e608699a19e4536a9597d4-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, 'list': [{'obj_id': '1909174306', 'title': ' 【壁纸】2019-2-24', 'content': None, 'like_num': 2289, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0hv739gfqj31hc0u0wjp.jpg', 'width': 1024, 'height': 576, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174114', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2380, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2ocv42wxj30jg0sidhu.jpg', 'width': 700, 'height': 1026, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174312', 'title': ' 【绅士热点】每日福利系列 (2019-02-26)', 'content': None, 'like_num': 618, 'has_like': 0, 'tags': '', 'author_id': 43, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/cc7c208623be9262d52abc57f7845d60-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174314', 'title': ' 【绅士福利】福利第294期', 'content': None, 'like_num': 1350, 'has_like': 0, 'tags': '', 'author_id': 45, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0jsk9vzlxj311r1hc7cb.jpg', 'width': 1024, 'height': 1447, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174316', 'title': ' 【壁纸】2019-2-26', 'content': None, 'like_num': 2330, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/d7427e34c654faefcb9c5751a2e8edd5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174318', 'title': ' 【绅士热点】每日福利系列 (2019-02-28)', 'content': None, 'like_num': 2613, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/71085c9146f68e34a63367ee50efa6d5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174320', 'title': ' 【绅士热点】每日福利系列 (2019-03-01)', 'content': None, 'like_num': 2013, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0monpv1puj30n611gjum.jpg', 'width': 834, 'height': 1348, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174324', 'title': ' 【绅士热点】每日福利系列 (2019-03-03)', 'content': None, 'like_num': 2930, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/6eed142c78fc6adc9a41d3ccccb52b4a-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174326', 'title': ' 【壁纸】2019-3-3', 'content': None, 'like_num': 1782, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/df4d2d7c31865ea0011a8ef78b6c354e-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174328', 'title': ' 【绅士福利】福利第304期', 'content': None, 'like_num': 1110, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0ptdaxxffj30uy15oaek.jpg', 'width': 1024, 'height': 1379, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174309', 'title': ' 【壁纸】2019-2-21', 'content': None, 'like_num': 2497, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/a7888d96132f65121131641e886036df-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174252', 'title': ' 【绅士热点】每日福利系列 (2019-01-26)', 'content': None, 'like_num': 721, 'has_like': 0, 'tags': '', 'author_id': 51, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/fdbf579ee93f5f7532cab6355c1848bc-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174254', 'title': ' 【壁纸】2019-1-31', 'content': None, 'like_num': 1352, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/24bb82c5bdd485fbc70b17309456362d-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174255', 'title': ' 【绅士热点】每日福利系列 (2019-01-27)', 'content': None, 'like_num': 2833, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/045e299aa1b5d1c79f1d9b851cc5806f-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174256', 'title': ' 【壁纸】2019-1-26', 'content': None, 'like_num': 2878, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fzl4lecym9j31hb101qcw.jpg', 'width': 1024, 'height': 692, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174260', 'title': ' 【绅士热点】每日福利系列 (2019-01-28)', 'content': None, 'like_num': 2192, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/f4dcf734ecead0f2d12315eaccef7898-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174263', 'title': ' 【绅士热点】每日福利系列 (2019-01-30)', 'content': None, 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/36562bc100d9b3baaaf76a91fe3908fa-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174264', 'title': ' 【壁纸】2019-1-30', 'content': None, 'like_num': 1207, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/4c31b8f3c90ef7b4625112d6f83b1e60-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174265', 'title': ' 【壁纸】2019-2-4', 'content': None, 'like_num': 1783, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7044dd834ccb829aa23238abadf029c5-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174285', 'title': ' 【绅士热点】每日福利系列 (2019-02-11)', 'content': None, 'like_num': 827, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/720fb5fd37e608699a19e4536a9597d4-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -2300,7 +2602,7 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1583899198004266', 'title': None, 'content': '大仙说的对', 'like_num': 521, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/2e0285c90e.jpg', 'width': 2340, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '1': {'obj_id': '1583902763004382', 'title': None, 'content': '又是爱你的一个月。', 'like_num': 626, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a61f7dccce.jpg', 'width': 748, 'height': 1121, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '2': {'obj_id': '1583902582004371', 'title': None, 'content': '这是神马操作', 'like_num': 2029, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/12d110b88b.jpg', 'width': 240, 'height': 240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '3': {'obj_id': '1583899282004268', 'title': None, 'content': '摸头死全家', 'like_num': 1756, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/896fb6302b.jpg', 'width': 2280, 'height': 1080, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '4': {'obj_id': '1583903807004410', 'title': None, 'content': '是谁（;≥皿≤）', 'like_num': 1364, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ccb047ea42.jpg', 'width': 880, 'height': 504, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '5': {'obj_id': '1583903857004412', 'title': None, 'content': '卡哇伊&gt;o&lt;', 'like_num': 2110, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/c56d06aae4.jpg', 'width': 2160, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '6': {'obj_id': '1583903865004413', 'title': None, 'content': '三三结婚吧', 'like_num': 2989, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/23fba8ac5c.jpg', 'width': 720, 'height': 1440, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '7': {'obj_id': '1583899204004267', 'title': None, 'content': '有吗有吗', 'like_num': 2737, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/06fbb52532.jpg', 'width': 1465, 'height': 720, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '8': {'obj_id': '1583900733004318', 'title': None, 'content': '这不就，水起来了吗', 'like_num': 1720, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/cc25f46d13.jpg', 'width': 1830, 'height': 2000, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, '9': {'obj_id': '1583903932004416', 'title': None, 'content': '噜啦啦噜啦啦噜啦噜啦嘿', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a38e21926e.jpg', 'width': 1125, 'height': 1432, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '10': {'obj_id': '1583899285004269', 'title': None, 'content': '这是飞雷神2段', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1846962d12.jpg', 'width': 1440, 'height': 1080, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1NjAwNzM5NzcyMDk3MCM5MDkjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '11': {'obj_id': '1583899298004270', 'title': None, 'content': '看卡卡西这一脉。上到三代火影是师祖级，三代的弟子是自来也，自来也下面是水门，这个隔着许多代才到卡卡西，而本应该他跟鸣人平辈，水门的孩子他应该喊弟弟，但自来也却收了鸣人当徒弟，水门和自来也平辈了，自来也就要喊鸣人一声师叔了，而鸣人的小弟，大弟子木叶丸，三代的孙子，跟水门平辈吧，要从鸣人这里论，卡殿和他是平辈，但到了三代这一系，他也要叫师叔！', 'like_num': 901, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/35981ebfea.jpg', 'width': 372, 'height': 315, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '12': {'obj_id': '1583900816004320', 'title': None, 'content': '初音 新图搬运第七十五期', 'like_num': 1665, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0820df70ac.jpg', 'width': 1920, 'height': 1299, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '13': {'obj_id': '1583901521004347', 'title': None, 'content': '长发的鸢一折纸💕', 'like_num': 2914, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cbf133be6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1OTI3NjgxNzIwOTkwMSMzMzMjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '14': {'obj_id': '1583901744004359', 'title': None, 'content': '文起四海以喻九州', 'like_num': 2159, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a9f3d097d2.jpg', 'width': 600, 'height': 871, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, '15': {'obj_id': '1583899309004271', 'title': None, 'content': '两个彩蛋', 'like_num': 2121, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/74c3f5b165.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '16': {'obj_id': '1583899312004272', 'title': None, 'content': '红袍兜', 'like_num': 2495, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/68f56480c8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg3MTM1NzU0MjQyMjkxNSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '17': {'obj_id': '1583902671004375', 'title': None, 'content': '今~日~美~图（第十八期）', 'like_num': 2878, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7e473b2fe3.jpg', 'width': 782, 'height': 439, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '18': {'obj_id': '1583901172004334', 'title': None, 'content': '暖暖的春天，让梦恒久比天长', 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/1dafd3a5d8.jpg', 'width': 2000, 'height': 2533, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, '19': {'obj_id': '1583899389004273', 'title': None, 'content': ' 谁有鸣人的', 'like_num': 2417, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7c4dc863cc.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, 'list': [{'obj_id': '1583899198004266', 'title': None, 'content': '大仙说的对', 'like_num': 521, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/2e0285c90e.jpg', 'width': 2340, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583902763004382', 'title': None, 'content': '又是爱你的一个月。', 'like_num': 626, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a61f7dccce.jpg', 'width': 748, 'height': 1121, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583902582004371', 'title': None, 'content': '这是神马操作', 'like_num': 2029, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/12d110b88b.jpg', 'width': 240, 'height': 240, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899282004268', 'title': None, 'content': '摸头死全家', 'like_num': 1756, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/896fb6302b.jpg', 'width': 2280, 'height': 1080, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903807004410', 'title': None, 'content': '是谁（;≥皿≤）', 'like_num': 1364, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/ccb047ea42.jpg', 'width': 880, 'height': 504, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903857004412', 'title': None, 'content': '卡哇伊&gt;o&lt;', 'like_num': 2110, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/c56d06aae4.jpg', 'width': 2160, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903865004413', 'title': None, 'content': '三三结婚吧', 'like_num': 2989, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/23fba8ac5c.jpg', 'width': 720, 'height': 1440, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899204004267', 'title': None, 'content': '有吗有吗', 'like_num': 2737, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/06fbb52532.jpg', 'width': 1465, 'height': 720, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583900733004318', 'title': None, 'content': '这不就，水起来了吗', 'like_num': 1720, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/cc25f46d13.jpg', 'width': 1830, 'height': 2000, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, {'obj_id': '1583903932004416', 'title': None, 'content': '噜啦啦噜啦啦噜啦噜啦嘿', 'like_num': 1036, 'has_like': 0, 'tags': '', 'author_id': 39, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a38e21926e.jpg', 'width': 1125, 'height': 1432, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899285004269', 'title': None, 'content': '这是飞雷神2段', 'like_num': 2957, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/1846962d12.jpg', 'width': 1440, 'height': 1080, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1NjAwNzM5NzcyMDk3MCM5MDkjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899298004270', 'title': None, 'content': '看卡卡西这一脉。上到三代火影是师祖级，三代的弟子是自来也，自来也下面是水门，这个隔着许多代才到卡卡西，而本应该他跟鸣人平辈，水门的孩子他应该喊弟弟，但自来也却收了鸣人当徒弟，水门和自来也平辈了，自来也就要喊鸣人一声师叔了，而鸣人的小弟，大弟子木叶丸，三代的孙子，跟水门平辈吧，要从鸣人这里论，卡殿和他是平辈，但到了三代这一系，他也要叫师叔！', 'like_num': 901, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/35981ebfea.jpg', 'width': 372, 'height': 315, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583900816004320', 'title': None, 'content': '初音 新图搬运第七十五期', 'like_num': 1665, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/0820df70ac.jpg', 'width': 1920, 'height': 1299, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583901521004347', 'title': None, 'content': '长发的鸢一折纸💕', 'like_num': 2914, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/cbf133be6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg1OTI3NjgxNzIwOTkwMSMzMzMjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583901744004359', 'title': None, 'content': '文起四海以喻九州', 'like_num': 2159, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/a9f3d097d2.jpg', 'width': 600, 'height': 871, 'lemon_num': 2, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899309004271', 'title': None, 'content': '两个彩蛋', 'like_num': 2121, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/74c3f5b165.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899312004272', 'title': None, 'content': '红袍兜', 'like_num': 2495, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/68f56480c8.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/MTU4Mzg3MTM1NzU0MjQyMjkxNSM5MzcjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1583902671004375', 'title': None, 'content': '今~日~美~图（第十八期）', 'like_num': 2878, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7e473b2fe3.jpg', 'width': 782, 'height': 439, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583901172004334', 'title': None, 'content': '暖暖的春天，让梦恒久比天长', 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/1dafd3a5d8.jpg', 'width': 2000, 'height': 2533, 'lemon_num': 1, 'rec_package_id': 'cartoon'}, {'obj_id': '1583899389004273', 'title': None, 'content': ' 谁有鸣人的', 'like_num': 2417, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/7c4dc863cc.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1579781614004866', 'title': None, 'content': '4月刀剑神域GGO外传PV合集(1080P)(已更新完毕)', 'like_num': 2906, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5250b9a70a.jpg', 'width': 550, 'height': 344, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NjM4NDI1MzU5MDc1NyMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '1': {'obj_id': '1579781617004867', 'title': None, 'content': '剧场版刀剑神域 序列之争 全片最燃Boss战', 'like_num': 1871, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/cc307ad777.jpg', 'width': 1920, 'height': 1200, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2ODY1OTQzNTY4NjQ0OSM4NjEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '2': {'obj_id': '1579781685004868', 'title': None, 'content': 'Wallpaper Engine刀剑神域序列之争动态壁纸，自带BGM 1080P', 'like_num': 911, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0372a3c3b6.jpg', 'width': 1728, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NzExNDYwMDE2Mzk4NyM4OTkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '3': {'obj_id': '1579781769004871', 'title': None, 'content': '剧场版刀剑神域：序列之争 正式PV中文字幕', 'like_num': 772, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2f44bed8a6.jpg', 'width': 1180, 'height': 737, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg3MTE4MTc2MjU4OTYwOCM5NjYjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '4': {'obj_id': '1579781837004872', 'title': None, 'content': '[刀剑神域AMV]crossing field(交叉领域)', 'like_num': 2099, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0b3b916628.jpg', 'width': 658, 'height': 411, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NTk5MzcyMDExMjMwMSMyMTIjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '5': {'obj_id': '1579781860004873', 'title': None, 'content': '刀剑神域高同步听说都是金庸“玩剩下的”神雕侠侣动漫婆罗门催泪向', 'like_num': 1431, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/47ab65c100.jpg', 'width': 590, 'height': 368, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2Nzg1NTYyMDQyODIzNyM3NDQjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '6': {'obj_id': '1579781971004875', 'title': None, 'content': '刀剑神域抱歉，亚丝娜，我也死了', 'like_num': 1967, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/1dc9d67422.jpg', 'width': 420, 'height': 262, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NTcyNzg1NzgwNTk1NSM1NTAjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '7': {'obj_id': '1579781998004876', 'title': None, 'content': '刀剑神域  护妻狂魔看桐人怒斩BOSS①', 'like_num': 2316, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8797085375.jpg', 'width': 384, 'height': 240, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2ODMzMTU2ODEyODMwNCMzNjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '8': {'obj_id': '1579782102004877', 'title': None, 'content': '中字《刀剑神域 夺命凶弹》系统介绍影片：详细介绍了换装、技能系统。', 'like_num': 944, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/65c1d944f7.jpg', 'width': 1480, 'height': 925, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3NzYwNzA3MjUyODE5MCMyNzUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '9': {'obj_id': '1579781311004860', 'title': None, 'content': '剧场版刀剑神域 序列之争 澳洲英语配音官方预告片', 'like_num': 2566, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6d46c0268e.jpg', 'width': 1728, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg3MDc0Nzc4Mjg0OTE5MSM2MjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '10': {'obj_id': '1579778111004794', 'title': None, 'content': '刀劍神域―虛空幻界―800层boss', 'like_num': 2996, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/44c03afb8b.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk4Mzg5MTcyMzU4MTAwNSM1ODMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '11': {'obj_id': '1579778209004797', 'title': None, 'content': '刀剑神域游戏 爱丽丝和优吉欧 参战PVF宅', 'like_num': 1301, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d6b738e5a6.jpg', 'width': 1728, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk4OTE2Mjc4NjU0NjUyNCM5MjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '12': {'obj_id': '1579778418004800', 'title': None, 'content': '刀剑神域冰之狙击手朝田诗乃—女警', 'like_num': 2097, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8942d9f169.jpg', 'width': 504, 'height': 315, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3OTQ2MTc4NTc0MzU3NSM3MTUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '13': {'obj_id': '1579778435004801', 'title': None, 'content': '刀剑神域2018游戏确认发售', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/a39a6bb30b.jpg', 'width': 712, 'height': 445, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3ODI1NjU2MDkyNjYzMyM1MjkjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '14': {'obj_id': '1579778548004802', 'title': None, 'content': '有谁教我画画吗！', 'like_num': 878, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/eaa8b86b63.jpg', 'width': 3456, 'height': 4608, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '15': {'obj_id': '1579778635004803', 'title': None, 'content': '玩了《头号玩家》VR游戏后，我再也不相信《刀剑神域》了！', 'like_num': 992, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5ffd7da3f2.jpg', 'width': 960, 'height': 600, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3NTI5NDIxMTIxMzkzMyM1NjEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '16': {'obj_id': '1579778679004805', 'title': None, 'content': '刀剑神域·夺命凶弹必杀技合集', 'like_num': 2952, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0f856bb814.jpg', 'width': 577, 'height': 361, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk5NzM2ODk3NDY0MTQ1OSMyMjYjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '17': {'obj_id': '1579778814004807', 'title': None, 'content': '听的行不行', 'like_num': 2440, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/72d147575a.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk2MTQ5NzUyNDY1NjY5OSMyMzEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '18': {'obj_id': '1579778891004809', 'title': None, 'content': '刀剑神域·失落之歌 桐人VS皇！！！！激烈打斗！！', 'like_num': 1882, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8a83d981d3.jpg', 'width': 1287, 'height': 804, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3MDYzNDgxNDczNzMxOCM3NjcjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '19': {'obj_id': '1579778893004810', 'title': None, 'content': '《刀剑神域》第四部制作决定', 'like_num': 2456, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5034743dd8.jpg', 'width': 720, 'height': 450, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3MjY3NjEwMjk4NjYyNyM3MzIjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, 'list': [{'obj_id': '1579781614004866', 'title': None, 'content': '4月刀剑神域GGO外传PV合集(1080P)(已更新完毕)', 'like_num': 2906, 'has_like': 0, 'tags': '', 'author_id': 19, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5250b9a70a.jpg', 'width': 550, 'height': 344, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NjM4NDI1MzU5MDc1NyMyNTMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781617004867', 'title': None, 'content': '剧场版刀剑神域 序列之争 全片最燃Boss战', 'like_num': 1871, 'has_like': 0, 'tags': '', 'author_id': 68, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/cc307ad777.jpg', 'width': 1920, 'height': 1200, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2ODY1OTQzNTY4NjQ0OSM4NjEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781685004868', 'title': None, 'content': 'Wallpaper Engine刀剑神域序列之争动态壁纸，自带BGM 1080P', 'like_num': 911, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0372a3c3b6.jpg', 'width': 1728, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NzExNDYwMDE2Mzk4NyM4OTkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781769004871', 'title': None, 'content': '剧场版刀剑神域：序列之争 正式PV中文字幕', 'like_num': 772, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2f44bed8a6.jpg', 'width': 1180, 'height': 737, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg3MTE4MTc2MjU4OTYwOCM5NjYjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781837004872', 'title': None, 'content': '[刀剑神域AMV]crossing field(交叉领域)', 'like_num': 2099, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0b3b916628.jpg', 'width': 658, 'height': 411, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NTk5MzcyMDExMjMwMSMyMTIjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781860004873', 'title': None, 'content': '刀剑神域高同步听说都是金庸“玩剩下的”神雕侠侣动漫婆罗门催泪向', 'like_num': 1431, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/47ab65c100.jpg', 'width': 590, 'height': 368, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2Nzg1NTYyMDQyODIzNyM3NDQjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781971004875', 'title': None, 'content': '刀剑神域抱歉，亚丝娜，我也死了', 'like_num': 1967, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/1dc9d67422.jpg', 'width': 420, 'height': 262, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2NTcyNzg1NzgwNTk1NSM1NTAjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781998004876', 'title': None, 'content': '刀剑神域  护妻狂魔看桐人怒斩BOSS①', 'like_num': 2316, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8797085375.jpg', 'width': 384, 'height': 240, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg2ODMzMTU2ODEyODMwNCMzNjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579782102004877', 'title': None, 'content': '中字《刀剑神域 夺命凶弹》系统介绍影片：详细介绍了换装、技能系统。', 'like_num': 944, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/65c1d944f7.jpg', 'width': 1480, 'height': 925, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3NzYwNzA3MjUyODE5MCMyNzUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579781311004860', 'title': None, 'content': '剧场版刀剑神域 序列之争 澳洲英语配音官方预告片', 'like_num': 2566, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6d46c0268e.jpg', 'width': 1728, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTg3MDc0Nzc4Mjg0OTE5MSM2MjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778111004794', 'title': None, 'content': '刀劍神域―虛空幻界―800层boss', 'like_num': 2996, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/44c03afb8b.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk4Mzg5MTcyMzU4MTAwNSM1ODMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778209004797', 'title': None, 'content': '刀剑神域游戏 爱丽丝和优吉欧 参战PVF宅', 'like_num': 1301, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d6b738e5a6.jpg', 'width': 1728, 'height': 1080, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk4OTE2Mjc4NjU0NjUyNCM5MjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778418004800', 'title': None, 'content': '刀剑神域冰之狙击手朝田诗乃—女警', 'like_num': 2097, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8942d9f169.jpg', 'width': 504, 'height': 315, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3OTQ2MTc4NTc0MzU3NSM3MTUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778435004801', 'title': None, 'content': '刀剑神域2018游戏确认发售', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/a39a6bb30b.jpg', 'width': 712, 'height': 445, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3ODI1NjU2MDkyNjYzMyM1MjkjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778548004802', 'title': None, 'content': '有谁教我画画吗！', 'like_num': 878, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/eaa8b86b63.jpg', 'width': 3456, 'height': 4608, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778635004803', 'title': None, 'content': '玩了《头号玩家》VR游戏后，我再也不相信《刀剑神域》了！', 'like_num': 992, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5ffd7da3f2.jpg', 'width': 960, 'height': 600, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3NTI5NDIxMTIxMzkzMyM1NjEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778679004805', 'title': None, 'content': '刀剑神域·夺命凶弹必杀技合集', 'like_num': 2952, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0f856bb814.jpg', 'width': 577, 'height': 361, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk5NzM2ODk3NDY0MTQ1OSMyMjYjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778814004807', 'title': None, 'content': '听的行不行', 'like_num': 2440, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/72d147575a.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk2MTQ5NzUyNDY1NjY5OSMyMzEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778891004809', 'title': None, 'content': '刀剑神域·失落之歌 桐人VS皇！！！！激烈打斗！！', 'like_num': 1882, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8a83d981d3.jpg', 'width': 1287, 'height': 804, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3MDYzNDgxNDczNzMxOCM3NjcjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778893004810', 'title': None, 'content': '《刀剑神域》第四部制作决定', 'like_num': 2456, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5034743dd8.jpg', 'width': 720, 'height': 450, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3MjY3NjEwMjk4NjYyNyM3MzIjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -2357,7 +2659,7 @@
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '191058983', 'title': None, 'content': '好好活着不好吗……', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3346a081ed.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2424310.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '1': {'obj_id': '191115575', 'title': None, 'content': '谢耳朵一开嗓，我就懵逼了。  \u200b\u200b\u200b', 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8377a3b232.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/719270.mp4', 'lemon_num': 3, 'rec_package_id': ''}, '2': {'obj_id': '191093499', 'title': None, 'content': '就是这个女人👩', 'like_num': 1428, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/961fc3e960.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474920.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '3': {'obj_id': '191051895', 'title': None, 'content': '求bgm', 'like_num': 2358, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6a8edaf4b7.jpg', 'width': 500, 'height': 838, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2439900.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '4': {'obj_id': '191062657', 'title': None, 'content': '它是天然“血栓通”，降低血粘稠度，预防中风脑梗', 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/cb5a25e82e31455ca5a1f1fd5204b4d6.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2db344f8053f465bb53c9c07f1eed5fe.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '5': {'obj_id': '191063071', 'title': None, 'content': '卖了两千大洋不知道亏不亏！', 'like_num': 2161, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/090126504b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '6': {'obj_id': '191121672', 'title': None, 'content': '来，接下来，我给大家打个哑谜', 'like_num': 716, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/52a3830bfd.jpg', 'width': 1024, 'height': 576, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/11298820407_1551624504000.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '7': {'obj_id': '191091561', 'title': None, 'content': '手机是p的', 'like_num': 8, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/345b53f7e5.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2185980.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '8': {'obj_id': '191112115', 'title': None, 'content': '天天秀恩爱啊啊啊啊啊', 'like_num': 2382, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f580cb23c1.jpg', 'width': 720, 'height': 720, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2618620.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '9': {'obj_id': '191121288', 'title': None, 'content': '兄弟帮兄弟，闺蜜坑闺蜜', 'like_num': 2283, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/72254ac6df.jpg', 'width': 360, 'height': 640, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2003620.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '10': {'obj_id': '191111643', 'title': None, 'content': '第二遍，能火吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f7ee8163d3.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2616380.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '11': {'obj_id': '191115747', 'title': None, 'content': '音乐天才', 'like_num': 1379, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6714aa262d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/248170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '12': {'obj_id': '191087747', 'title': None, 'content': '天下一个妈系列😝日常', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8248bfd9c3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466480.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '13': {'obj_id': '191118310', 'title': None, 'content': '你等会', 'like_num': 5, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f26f260004.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2499940.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '14': {'obj_id': '191121438', 'title': None, 'content': '哈哈，你被逗笑了吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fd7f565c9d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/179500.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '15': {'obj_id': '191093331', 'title': None, 'content': '还给加根肠，良心商家', 'like_num': 1550, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3167b6bff1.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2476650.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '16': {'obj_id': '191121244', 'title': None, 'content': '秋天', 'like_num': 1154, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fb7eaa1cc6.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/23085552302_1567690685531.mp4', 'lemon_num': 0, 'rec_package_id': ''}, '17': {'obj_id': '191050740', 'title': None, 'content': '向每一位缉毒英雄致敬，一切平安', 'like_num': 2013, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/b8f7ca73f2.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2412140.mp4', 'lemon_num': 1, 'rec_package_id': ''}, '18': {'obj_id': '191066235', 'title': None, 'content': '蹦极可以买半票了', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a64b7882d3.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2143170.mp4', 'lemon_num': 2, 'rec_package_id': ''}, '19': {'obj_id': '191071448', 'title': None, 'content': '没错，你们想的和我一样', 'like_num': 1393, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f283caaa85.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474680.mp4', 'lemon_num': 2, 'rec_package_id': ''}, 'list': [{'obj_id': '191058983', 'title': None, 'content': '好好活着不好吗……', 'like_num': 1510, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3346a081ed.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2424310.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191115575', 'title': None, 'content': '谢耳朵一开嗓，我就懵逼了。  \u200b\u200b\u200b', 'like_num': 2868, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8377a3b232.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/719270.mp4', 'lemon_num': 3, 'rec_package_id': ''}, {'obj_id': '191093499', 'title': None, 'content': '就是这个女人👩', 'like_num': 1428, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/961fc3e960.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474920.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191051895', 'title': None, 'content': '求bgm', 'like_num': 2358, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6a8edaf4b7.jpg', 'width': 500, 'height': 838, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2439900.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191062657', 'title': None, 'content': '它是天然“血栓通”，降低血粘稠度，预防中风脑梗', 'like_num': 2438, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_video/cover/cb5a25e82e31455ca5a1f1fd5204b4d6.png', 'width': 640, 'height': 360, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2db344f8053f465bb53c9c07f1eed5fe.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191063071', 'title': None, 'content': '卖了两千大洋不知道亏不亏！', 'like_num': 2161, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/090126504b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121672', 'title': None, 'content': '来，接下来，我给大家打个哑谜', 'like_num': 716, 'has_like': 0, 'tags': '', 'author_id': 11, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/52a3830bfd.jpg', 'width': 1024, 'height': 576, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/11298820407_1551624504000.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191091561', 'title': None, 'content': '手机是p的', 'like_num': 8, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/345b53f7e5.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2185980.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191112115', 'title': None, 'content': '天天秀恩爱啊啊啊啊啊', 'like_num': 2382, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f580cb23c1.jpg', 'width': 720, 'height': 720, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2618620.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191121288', 'title': None, 'content': '兄弟帮兄弟，闺蜜坑闺蜜', 'like_num': 2283, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/72254ac6df.jpg', 'width': 360, 'height': 640, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2003620.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191111643', 'title': None, 'content': '第二遍，能火吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f7ee8163d3.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2616380.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191115747', 'title': None, 'content': '音乐天才', 'like_num': 1379, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/6714aa262d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/248170.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191087747', 'title': None, 'content': '天下一个妈系列😝日常', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 40, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/8248bfd9c3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2466480.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191118310', 'title': None, 'content': '你等会', 'like_num': 5, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f26f260004.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2499940.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191121438', 'title': None, 'content': '哈哈，你被逗笑了吗？', 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fd7f565c9d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/179500.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191093331', 'title': None, 'content': '还给加根肠，良心商家', 'like_num': 1550, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/3167b6bff1.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2476650.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191121244', 'title': None, 'content': '秋天', 'like_num': 1154, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/fb7eaa1cc6.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/23085552302_1567690685531.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191050740', 'title': None, 'content': '向每一位缉毒英雄致敬，一切平安', 'like_num': 2013, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/b8f7ca73f2.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2412140.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191066235', 'title': None, 'content': '蹦极可以买半票了', 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a64b7882d3.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2143170.mp4', 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191071448', 'title': None, 'content': '没错，你们想的和我一样', 'like_num': 1393, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/f283caaa85.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2474680.mp4', 'lemon_num': 2, 'rec_package_id': ''}], 'act_id': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '191111568', 'title': None, 'content': '厉害', 'like_num': 1980, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d80f56168a.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617130.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '1': {'obj_id': '191111567', 'title': None, 'content': '神奇小岛', 'like_num': 2884, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8d1b70f70f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '2': {'obj_id': '191111566', 'title': None, 'content': '小故事', 'like_num': 4, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/18db0fdc6e.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617140.mp4', 'lemon_num': 1, 'rec_package_id': 'jokes'}, '3': {'obj_id': '191111565', 'title': None, 'content': '……', 'like_num': 1978, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/343167d843.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617200.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '4': {'obj_id': '191111564', 'title': None, 'content': '日本监狱', 'like_num': 2875, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d7955cbd85.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617160.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '5': {'obj_id': '191111562', 'title': None, 'content': '既然敢加倍？？？👿👿👿👿👿', 'like_num': 2431, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7f8a503ab6.jpg', 'width': 960, 'height': 432, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617210.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '6': {'obj_id': '191111561', 'title': None, 'content': '……', 'like_num': 1296, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/586926ac56.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617190.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '7': {'obj_id': '191111559', 'title': None, 'content': '大哥们  今天刚打的', 'like_num': 999, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/723544a2bb.jpg', 'width': 960, 'height': 454, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617230.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '8': {'obj_id': '191111557', 'title': None, 'content': '我是真的快乐', 'like_num': 2726, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/33ef4d173c.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617250.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '9': {'obj_id': '191111556', 'title': None, 'content': '现在还有人问我大金龙怎么打，知道了吧😄 热门', 'like_num': 2991, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/38a8eaa02d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617240.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '10': {'obj_id': '191111537', 'title': None, 'content': '上次没有拍好，重来：甜甜的酒窝窝  甜甜的笑～～', 'like_num': 558, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/61c34db72d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2615920.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '11': {'obj_id': '191111552', 'title': None, 'content': '2333', 'like_num': 2755, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7378e70f8e.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617280.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '12': {'obj_id': '191111551', 'title': None, 'content': '哎呀。这次出门不能带你了。我好伤心呀😂😂😂', 'like_num': 2673, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0d09695b36.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2615900.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '13': {'obj_id': '191111549', 'title': None, 'content': '关二爷关羽温酒斩华雄请忽略水印', 'like_num': 2660, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/215d8529b5.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617300.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '14': {'obj_id': '191111548', 'title': None, 'content': '好像是这样。', 'like_num': 1681, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/febc8f2b87.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617310.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '15': {'obj_id': '191111547', 'title': None, 'content': '……', 'like_num': 2598, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/38cf59fc0b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616490.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '16': {'obj_id': '191111546', 'title': None, 'content': '2分10都难突破，求大佬指点一下', 'like_num': 1019, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2155c24710.jpg', 'width': 958, 'height': 442, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616440.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '17': {'obj_id': '191111545', 'title': None, 'content': '别逼我打天下', 'like_num': 1019, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/67d3228773.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617370.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '18': {'obj_id': '191111544', 'title': None, 'content': '233333', 'like_num': 968, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4cfc98887c.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617320.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '19': {'obj_id': '191111542', 'title': None, 'content': '谁去碰毒品我就剁了谁。', 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/38b93adecc.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617350.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, 'list': [{'obj_id': '191111568', 'title': None, 'content': '厉害', 'like_num': 1980, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d80f56168a.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617130.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111567', 'title': None, 'content': '神奇小岛', 'like_num': 2884, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8d1b70f70f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111566', 'title': None, 'content': '小故事', 'like_num': 4, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/18db0fdc6e.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617140.mp4', 'lemon_num': 1, 'rec_package_id': 'jokes'}, {'obj_id': '191111565', 'title': None, 'content': '……', 'like_num': 1978, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/343167d843.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617200.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111564', 'title': None, 'content': '日本监狱', 'like_num': 2875, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d7955cbd85.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617160.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111562', 'title': None, 'content': '既然敢加倍？？？👿👿👿👿👿', 'like_num': 2431, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7f8a503ab6.jpg', 'width': 960, 'height': 432, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617210.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111561', 'title': None, 'content': '……', 'like_num': 1296, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/586926ac56.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617190.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111559', 'title': None, 'content': '大哥们  今天刚打的', 'like_num': 999, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/723544a2bb.jpg', 'width': 960, 'height': 454, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617230.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111557', 'title': None, 'content': '我是真的快乐', 'like_num': 2726, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/33ef4d173c.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617250.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111556', 'title': None, 'content': '现在还有人问我大金龙怎么打，知道了吧😄 热门', 'like_num': 2991, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/38a8eaa02d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617240.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111537', 'title': None, 'content': '上次没有拍好，重来：甜甜的酒窝窝  甜甜的笑～～', 'like_num': 558, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/61c34db72d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2615920.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111552', 'title': None, 'content': '2333', 'like_num': 2755, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7378e70f8e.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617280.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111551', 'title': None, 'content': '哎呀。这次出门不能带你了。我好伤心呀😂😂😂', 'like_num': 2673, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0d09695b36.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2615900.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111549', 'title': None, 'content': '关二爷关羽温酒斩华雄请忽略水印', 'like_num': 2660, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/215d8529b5.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617300.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111548', 'title': None, 'content': '好像是这样。', 'like_num': 1681, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/febc8f2b87.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617310.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111547', 'title': None, 'content': '……', 'like_num': 2598, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/38cf59fc0b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616490.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111546', 'title': None, 'content': '2分10都难突破，求大佬指点一下', 'like_num': 1019, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2155c24710.jpg', 'width': 958, 'height': 442, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616440.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111545', 'title': None, 'content': '别逼我打天下', 'like_num': 1019, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/67d3228773.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617370.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111544', 'title': None, 'content': '233333', 'like_num': 968, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4cfc98887c.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617320.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111542', 'title': None, 'content': '谁去碰毒品我就剁了谁。', 'like_num': 503, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/38b93adecc.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617350.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}], 'act_id': 0}}</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
@@ -2410,7 +2712,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="5"/>
@@ -2659,7 +2961,7 @@
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'access_token': 'okfqfwed45durz6t0r7l26cl1', 'refresh_token': 'yawrofk1iykh8rvgotx3y988h', 'expires_in': 3600, 'uid': 83}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'access_token': '2u77ysowvcd1ws1a208u2q0mg', 'refresh_token': '6dnnmmwffkb6b24kq1ms5m2tl', 'expires_in': 3600, 'uid': 83}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -2820,10 +3122,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L5" sqref="L2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -2957,7 +3259,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 88, 'showid': 'ii88', 'avatar': 'http://qnc-lemon.chumanapp.com/user/avatar/0820/88.gif', 'sex': 3, 'nickname': '我是你的大笨居', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 0, 'receive_lemon_num': 232, 'release_content_num': 202, 'tag_list': None, 'anchor_info': None, 'is_follow': 0, 'follow_num': 3, 'fans_num': 23}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -2967,7 +3269,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3320,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': [{'type': '11', 'obj_id': '2004542', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '2003874', 'title': '小姐姐配音', 'content': '好', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 12, 'title_image': 'http://qnc-lemon.chumanapp.com/user/88/image/0757a84ebf444802a30d5e16bae110c2.jpg', 'width': 552, 'height': 872, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/88/video/57673284ca9048deb5c2b477a7c6fa6a.mp4'}, {'obj_id': '2003868', 'title': '999', 'content': '666', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://qnc-lemon.chumanapp.com/user/88/image/9b5ad9362f774644889365582ebd7d35.jpg', 'width': 540, 'height': 1140}, {'obj_id': '2003839', 'title': '柠檬KK', 'content': '😌', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': 11, 'title_image': 'http://qnc-lemon.chumanapp.com/user/88/image/9f030e24add945c2b38106af3d171b09.jpg', 'width': 1024, 'height': 1449}, {'obj_id': '190921663', 'title': ' 【动漫】偶像大师 第十一发', 'content': None, 'like_num': 6, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/90af9c6cbce46cdc313275978fa3adb1-369x600.jpg', 'width': 369, 'height': 600, 'lemon_num': 1, 'rec_package_id': ''}, {'type': '4', 'obj_id': '119311083', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '190919003', 'title': ' 公主殿下生日快乐! [初音周庆祝献礼][整理][pixiv]初音ミク生誕祭[180831] [1361P][2.1G]', 'content': None, 'like_num': 12, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/0fcebb7e3fccd330ee7430ea827b6092-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 3, 'rec_package_id': ''}, {'obj_id': '190918513', 'title': ' 【zerochan日榜】2018.03.12zerochan日榜美图', 'content': None, 'like_num': 1818, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/95def6bf62b202c88cadd5bab9622d94-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191121917', 'title': None, 'content': '白敬亭注孤生，女生节送你离开千里之外……白敬亭', 'like_num': 2436, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/a5abffa1e2.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/788800.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1584682693004353', 'title': None, 'content': '她们需要抱抱', 'like_num': 2449, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/cover/fb92d5a8ee.jpg', 'width': 1383, 'height': 930, 'lemon_num': 0, 'rec_package_id': ''}, {'type': '4', 'obj_id': '112167923', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '190918383', 'title': ' 【画师】-226174', 'content': None, 'like_num': 2788, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/2a87984f9453339cfae3336b2230d1f3-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '190911687', 'title': 'Beyond: Two Souls游戏壁纸', 'content': None, 'like_num': 10, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_comics_wallpaper/image/13-1612051536360-L.jpg', 'width': 310, 'height': 220, 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '191071977', 'title': None, 'content': '祝老妈0131生日快乐', 'like_num': 934, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/e5f4ab9328.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/2436320.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '190648013', 'title': '#cos正片##蕾姆祭奠#', 'content': '久违的发套老图摄影：青呱', 'like_num': 9, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/cos/images/MRQRLXHAVHFNOSQT.jpg', 'width': 2109, 'height': 1408, 'lemon_num': 4, 'rec_package_id': ''}, {'type': '2', 'obj_id': '34_166953', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '190919387', 'title': ' 【日榜】2019 年5月4日 Pixiv日榜美图 #P250', 'content': None, 'like_num': 11, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns-lemon.chumanapp.com/lemon_image/image/8ed2dc633b587471cc04e2bf6ed578e8-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 6, 'rec_package_id': ''}, {'type': '4', 'obj_id': '141782347', 'title_image': 'http://qnp-lemon.chumanapp.com/user_center/user_center_default_failure_pic001.png', 'title': '', 'content': '', 'width': '369', 'height': '498', 'is_delete': 1}, {'obj_id': '191121593', 'title': None, 'content': '运输船永久下线了！', 'like_num': 704, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '10', 'title_image': 'http://qnv-lemon.chumanapp.com/lemon_image/cover/7b85ca1818.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv-lemon.chumanapp.com/lemon_video/video/22737027938_1567128370026.mp4', 'lemon_num': 0, 'rec_package_id': ''}]}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -3028,7 +3330,7 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3381,7 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -3089,7 +3391,7 @@
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3442,7 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -3150,7 +3452,7 @@
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3503,7 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
@@ -3211,7 +3513,7 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3257,12 +3559,12 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>{"msg":"请求成功"}</t>
+          <t>{"copper","silver","gold"}</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_res_info': {'copper': '189377', 'silver': '0', 'gold': '0'}, 'lemon_res_desc': '&lt;p&gt;青柠，是柠檬精平台的通用货币，目前青柠的唯一来源是通过参与平台内的活动、任务而获得。青柠目前可用于购买直播间特定礼物等消耗，或者按照平台的比例兑换成人民币提现。&lt;/p&gt;&lt;p&gt;金条，是柠檬精充值平台的中间货币，目前金条的唯一来源是通过充值获得。充值即视为消费，不予退款。当您在柠檬精平台直播间进行礼物打赏时，可直接用于支付。金条，不能用于兑换人民币提现。&lt;/p&gt;', 'withdrawal_switch': {'status': 1, 'jump_url': 'http://qnp.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362484#/czDrawCash'}, 'copper_withdrawal_switch': {'status': 1, 'jump_url': 'http://qnp.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587362484#/qnDrawCash'}}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
@@ -3272,7 +3574,7 @@
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3625,7 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'rmb_num': 1, 'item_id': '4', 'silver_num': 100, 'icon_text': '首充有礼'}, {'rmb_num': 6, 'item_id': '3', 'silver_num': 600, 'icon_text': ''}, {'rmb_num': 15, 'item_id': '2', 'silver_num': 1500, 'icon_text': ''}, {'rmb_num': 36, 'item_id': '1', 'silver_num': 3600, 'icon_text': ''}, {'rmb_num': 88, 'item_id': '5', 'silver_num': 8800, 'icon_text': ''}, {'rmb_num': 218, 'item_id': '6', 'silver_num': 21800, 'icon_text': ''}, {'rmb_num': 500, 'item_id': '7', 'silver_num': 50000, 'icon_text': ''}]}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
@@ -3333,7 +3635,7 @@
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3686,7 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20200372621', 'log_pay_type': 1, 'log_type': '1_1_9', 'log_time': 1585298609, 'res_type': 1, 'res_val': 188000, 'rmb_num': '', 'log_type_name': '活动获奖'}, {'log_id': '20200361762', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1584694473, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200361755', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1584693815, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131392', 'log_pay_type': 1, 'log_type': '1_1_3', 'log_time': 1582618685, 'res_type': 1, 'res_val': 620, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '202002131391', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618649, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131390', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618600, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131389', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618559, 'res_type': 1, 'res_val': 36, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131388', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618558, 'res_type': 1, 'res_val': 30, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131385', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618450, 'res_type': 1, 'res_val': 20, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131386', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618450, 'res_type': 1, 'res_val': 18, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202002131384', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1582618418, 'res_type': 1, 'res_val': 10, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '2020011238', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1579402432, 'res_type': 1, 'res_val': 15, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '202001183', 'log_pay_type': 1, 'log_type': '1_1_6', 'log_time': 1578910816, 'res_type': 1, 'res_val': 588, 'rmb_num': '', 'log_type_name': '新人福利赠送'}]}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
@@ -3394,7 +3696,7 @@
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3747,7 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
@@ -3455,7 +3757,7 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3808,7 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '202002209', 'log_pay_type': 2, 'log_type': '3_2_1', 'log_time': 1582619195, 'res_type': 3, 'res_val': 10, 'rmb_num': '¥10.00', 'log_type_name': '彩钻提现', 'log_detail': {'log_title': '彩钻提现详情', 'log_desc': '提现成功', 'contact_desc': '如有任何问题请联系小客服QQ：3404197862', 'withdraw_start_time': '2020-02-25 16:26:34', 'withdraw_end_time': '预计2020/03/06前', 'detail_list': ['到账金额：  ¥10.00', '提现账号：  支付宝（188****6982）', '创建时间：  2020-02-25 16:26:34', '到账时间：  2020-02-26 11:15:45', '柠檬精订单编号：  202002252', '支付宝订单编号：  测试订单']}, 'withdrawal_status': 1, 'withdrawal_status_name': '提现成功'}, {'log_id': '202002208', 'log_pay_type': 1, 'log_type': '3_1_5', 'log_time': 1582618825, 'res_type': 3, 'res_val': 10, 'rmb_num': '', 'log_type_name': '官方打款'}, {'log_id': '201911167', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573530673, 'res_type': 3, 'res_val': 0.57, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '201911166', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573527215, 'res_type': 3, 'res_val': 325, 'rmb_num': '', 'log_type_name': '收礼物'}, {'log_id': '201911165', 'log_pay_type': 1, 'log_type': '3_1_1', 'log_time': 1573527195, 'res_type': 3, 'res_val': 0.57, 'rmb_num': '', 'log_type_name': '收礼物'}]}}</t>
+          <t>'data'</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -3516,99 +3818,375 @@
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>报错啦</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="40" r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>他人主页详情</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_home_page/get_user_home_page_info</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>{"user_id":"603","access_token":token}</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>{"id"}</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>'data'</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>报错啦</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>关注柠檬娘</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/follow</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>{"user_id":"603","access_token":token}</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="n"/>
-      <c r="M13" s="3" t="n"/>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>'data'</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>报错啦</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>查询关注状态</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/check_user_relation</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>{"user_id":"603","access_token":token}</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-      <c r="L14" s="3" t="n"/>
-      <c r="M14" s="3" t="n"/>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>{"is_follow":1}</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>'data'</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>报错啦</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>取消关注柠檬娘</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/follow_remove</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>{"user_id":"603","access_token":token}</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>'data'</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>报错啦</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>柠檬娘关注列表</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/get_follow_list</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>{"user_id":"603","page":"1","pagesize":"20","access_token":token}</t>
+        </is>
+      </c>
       <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>'data'</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>报错啦</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>柠檬娘粉丝列表</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>个人空间</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>/api/user/get_fans_list</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>{"user_id":"603","page":"1","pagesize":"20","access_token":token}</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>'data'</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>报错啦</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="18">
       <c r="A18" s="3" t="n"/>
@@ -3684,6 +4262,21 @@
       <c r="K22" s="3" t="n"/>
       <c r="L22" s="3" t="n"/>
       <c r="M22" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3709,7 +4302,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L2" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -3846,7 +4439,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
@@ -3903,7 +4496,7 @@
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -3964,7 +4557,7 @@
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -4020,7 +4613,7 @@
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004200', 'title': '1587378857231', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004201', 'title': '1587447958992', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -4081,12 +4674,12 @@
       <c r="J6" s="3" t="n"/>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004199', 'title': '1587378717957', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004202', 'title': '1587447960448', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -4136,13 +4729,21 @@
         </is>
       </c>
       <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'type': 12, 'title': '1587447960448', 'desc': '视频2020', 'material_json': '', 'is_open': 0, 'source_obj_type': 0, 'source_obj_id': '', 'like_num': 0, 'lemon_num': 0, 'has_like': 0, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'video_list_obj': {'url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/image\\/4783d76072714796a9c710289fb5428f.jpg', 'max_height': 960, 'max_width': 720, 'length': 12100, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}, 'user_info': {'user_id': 83, 'nickname': '首席甜言蜜语轰炸官', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/83/avatar/1577261562689.jpg', 'showid': 'di83'}, 'user_id': 83, 'tags': '', 'has_share': 0, 'has_give_lemon': 0, 'allow_share_img': 0, 'allow_save_img': 0, 'is_allow_download': 0, 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448176#/video/MjAwNDIwMg==?mode=DEMO&amp;product_type=2'}}}</t>
+        </is>
+      </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="8" s="2">
       <c r="A8" s="3" t="n">
@@ -4185,13 +4786,21 @@
         </is>
       </c>
       <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '2004104', 'format_comment_id': '2004104'}}</t>
+        </is>
+      </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="9" s="2">
       <c r="A9" s="3" t="n">
@@ -4238,13 +4847,21 @@
           <t>{"comment_id"}</t>
         </is>
       </c>
-      <c r="K9" s="3" t="n"/>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '2004104', 'user_id': 83, 'message': '我酸了', 'content_time': 7009, 'comments': None}], 'count': 1}}</t>
+        </is>
+      </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="10" s="2">
       <c r="A10" s="3" t="n">
@@ -4287,13 +4904,21 @@
         </is>
       </c>
       <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': True}</t>
+        </is>
+      </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="40" r="11" s="2">
       <c r="A11" s="3" t="n"/>
@@ -4448,13 +5073,861 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="19"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="7" min="7" width="19"/>
+    <col customWidth="1" max="8" min="8" width="19"/>
+    <col customWidth="1" max="9" min="9" width="9"/>
+    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="11" min="11" width="19"/>
+    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="13" width="9"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="40" r="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>请求类型</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>请求头</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>请求参数</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>需要保存的返回字段</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>数据依赖字段</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>是否运行</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="2" s="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片相关推荐列表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_relate_rec_content_list</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "type": "9",
+ "obj_id": external_picture_id,
+ "page": "1",
+ "pagesize": "20",
+ "app_key": "lemondream_3",
+ "access_token": token
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id"}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579048299004883', 'title': None, 'content': '大概想天天了', 'like_num': 2426, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/093c65089b.jpg', 'width': 650, 'height': 620, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101828', 'title': '（ID：187240）', 'content': None, 'like_num': 544, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft6atgz9jmj30m80ikna4.jpg', 'width': 800, 'height': 668, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097414', 'title': '美图推荐——虎牙特辑', 'content': '之前看到有评论留言说想要看虎牙特辑，今天小编就满足你下你们~有虎牙的妹子感觉很调皮很可爱也很性感有没有！', 'like_num': 2977, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_57514791a7387.jpg', 'width': 360, 'height': 225, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'like_num': 2404, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'width': 2109, 'height': 2996, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096815', 'title': '基情的花式滑冰 冰上的尤里 手机壁纸', 'content': None, 'like_num': 2258, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_wallpaper/image/21-16110612155E16.jpg', 'width': 471, 'height': 375, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910622', 'title': 'へらぶな', 'content': None, 'like_num': 2665, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWgy1fym29iz637j30nm0u8n7b.jpg', 'width': 850, 'height': 1088, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19067176', 'title': '来猜猜姐姐我手上的红包里是什么吧~', 'content': '来猜猜姐姐我手上的红包里是什么吧~ido30漫展返图 第五弹出镜/米九摄影/鬼泣', 'like_num': 2884, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/o2fXkd3wd4O2JGBA.jpg', 'width': 1048, 'height': 1398, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097093', 'title': '【画师】韩国画师ソゴム / 裕珍的插画作品', 'content': '韩国画师ソゴム / 裕珍的插画作品 昵称：ソゴム / 裕珍 UID：17648188 https://www.pixiv.net/member.php?id=17648188 喜欢这位画师的作品就去P …', 'like_num': 2206, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/006yt1Omgy1g0edxjeaq4j30u00l8ay6.jpg', 'width': 1080, 'height': 764, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190650682', 'title': '满满的狂三傲娇饭', 'content': '小姐姐傲娇了时崎狂三cn:筱奕', 'like_num': 844, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QHO8SpUAEKQNV5ZQ.jpg', 'width': 650, 'height': 975, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190642311', 'title': '老攻白飞飞', 'content': '今天是七夕强势表白老攻还有啊八周年快乐❤❤❤❤', 'like_num': 608, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/OAjRaGY1f27cfolI.jpg', 'width': 720, 'height': 1552, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19098614', 'title': '【画师选】画师ryota的作品 \u200b\u200b\u200b\u200b \u200b\u200b\u200b\u200b', 'content': '画师ryota的作品 \u200b\u200b\u200b\u200b http://www.pixiv.net/member.php?id=990017 碰到喜欢的画师可以直接搜画师名关注。 \u200b\u200b\u200b\u200b 百度acg·17发现画师 &amp;nb …', 'like_num': 1623, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/a7cabc30gy1fkit3vqukoj20jg0zmk50.jpg', 'width': 700, 'height': 1282, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101637', 'title': '全世界期待已久的新作！《復仇者聯盟：終局之戰》插畫特輯', 'content': None, 'like_num': 2378, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g2wa99mzq6j30lc0u7tay.jpg', 'width': 768, 'height': 1087, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101292', 'title': '買些什麼好呢？市場特輯', 'content': None, 'like_num': 2817, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g2302bgyu9j30lc0eqaca.jpg', 'width': 768, 'height': 530, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578964535004774', 'title': None, 'content': '【cos正片】洛基潮服', 'like_num': 1180, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/1ff7901ea9.jpg', 'width': 1250, 'height': 10000, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19065028', 'title': '【cos】穹妹体操服', 'content': '我永远喜欢春日野穹！', 'like_num': 1590, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/GDPIVYCFBQEEIKWH.jpg', 'width': 3494, 'height': 2330, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579060231004559', 'title': None, 'content': '为什么相册的图都没了??????', 'like_num': 2763, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/9671eb1b25.jpg', 'width': 843, 'height': 1498, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19103071', 'title': '馬卡龍特輯 – 請享用吧♡', 'content': None, 'like_num': 2512, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007WJpLrly1g6me53h0ykj30bo0k375i.jpg', 'width': 420, 'height': 723, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190618836', 'title': '玛修cos', 'content': None, 'like_num': 2937, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1NTY4NzAxMjg4NjQ4MzAzMiM1MjAjaW1hZ2U=', 'width': 1536, 'height': 2048, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910132747', 'title': '【JOJO系列】所有主角的欧拉欧拉合集', 'content': 'JOJO的奇妙冒险', 'like_num': 2516, 'has_like': 0, 'tags': '', 'author_id': 96, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6fe72f09f4.jpg', 'width': 246, 'height': 138, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/vDkQqDf8Lmo.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1578400657004356', 'title': None, 'content': '这个绿谷好帅♡', 'like_num': 1110, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/20b001e72a.jpg', 'width': 1079, 'height': 851, 'lemon_num': 0, 'rec_package_id': ''}]}}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40" r="3" s="2">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>爬虫视频相关推荐列表</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/api/recommend/get_relate_rec_content_list</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "type": "10",
+ "obj_id": external_video_id,
+ "page": "1",
+ "pagesize": "20",
+ "app_key": "lemondream_3",
+ "access_token": token
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_video_id</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id"}</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579091526004643', 'title': None, 'content': '？歪了！', 'like_num': 833, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ff5148df53.jpg', 'width': 720, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190613336', 'title': '【第一弹新国风】屠苏', 'content': '祝各位宝宝中秋节快乐', 'like_num': 2508, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/WKZNFTNEUUAXWKQM.jpg', 'width': 2109, 'height': 3163, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1907234', 'title': '减肥成功穿上自己喜欢的小裙子', 'content': '做一个兽兽的女孩纸真的很好呢肉肉的女孩加油了哈做一个全新的自己', 'like_num': 2031, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/IhAObirZcSr76R43.jpg', 'width': 1422, 'height': 1422, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096467', 'title': '【画师】日本画师ほし的插画作品', 'content': '日本画师ほし的插画作品 昵称：ほし UID：1198913 https://www.pixiv.net/member.php?id=1198913 喜欢这位画师的作品就去关注他吧ԅ(¯﹃¯ԅ) _ …', 'like_num': 1846, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/Hb3fd730ecd674380ae212b47f2a4a6dcA.jpg', 'width': 852, 'height': 1200, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101207', 'title': '（ID：365805）', 'content': None, 'like_num': 2063, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft5xbuwj6pj30og12wkc6.jpg', 'width': 880, 'height': 1400, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097420', 'title': '【画师】日本画师菊月的插画作品', 'content': '日本画师菊月的插画作品 昵称：菊月 UID：429883 https://www.pixiv.net/member.php?id=429883 碰到喜欢的画师就去关注吧ヾ(･ω･`｡) _id=6 …', 'like_num': 2619, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/8a1c233bly1fymosd1siej20rs13akjl.jpg', 'width': 1000, 'height': 1414, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579091683004652', 'title': None, 'content': '精选美图(5)(੭ु ›ω‹ )੭ु⁾⁾♡', 'like_num': 867, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7438d02354.jpg', 'width': 990, 'height': 1488, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190630268', 'title': '一黛一露姐妹了解一下吗w', 'content': '#COS正片# #水团#  #黑泽露比# #黑泽黛雅#  我们都开学啦！这个学期露比也要和姐姐好好学习SCHOOL IDOL ！CN表            ♡出镜♡            黑泽露比:@夜咲_妹纸（原po）            黑泽黛雅:@泫沧             摄影:@夕立            妆娘:@白汪汪            后期&amp;排版:@月半', 'like_num': 2709, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/omZCilLtqdyrJC1J.jpg', 'width': 1600, 'height': 2399, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190624958', 'title': 'DC漫展场照', 'content': 'DAY2裙子:格里芬的低喃摄影:炮弹', 'like_num': 1867, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/smz32uqjpsF76tVu.jpg', 'width': 3360, 'height': 2240, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101283', 'title': '（ID：9688612）', 'content': None, 'like_num': 2705, 'has_like': 0, 'tags': '', 'author_id': 16, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft6uoqkh03j31ww1cktg4.jpg', 'width': 1024, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190623863', 'title': '漫展场照', 'content': '出镜:骷髅喵摄影:ape', 'like_num': 1063, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/uR1RTHgXeVQNkvKD.jpg', 'width': 904, 'height': 1463, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579113978004753', 'title': None, 'content': '花开满楼迟未归，待君归时花已败', 'like_num': 1479, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/8332f2d9b2.jpg', 'width': 629, 'height': 629, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910181', 'title': '战舰少女-戦艦少女', 'content': None, 'like_num': 2953, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftkyb7kcy5j30lo0umk82.jpg', 'width': 780, 'height': 1102, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579070170004315', 'title': None, 'content': '怒刷存在感！(ง·̀_·́)ง', 'like_num': 1639, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6e8c3a5349.jpg', 'width': 274, 'height': 324, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579685749004078', 'title': None, 'content': '拿图记的?哦！', 'like_num': 1051, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/677c0c969d.jpg', 'width': 662, 'height': 944, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579058275004432', 'title': None, 'content': '近一点，再近一点', 'like_num': 2233, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/39ab8678a5.jpg', 'width': 650, 'height': 1024, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19105462', 'title': '条纹内裤-縞パン', 'content': None, 'like_num': 2505, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftdapzmymsj319y0wjx6p.jpg', 'width': 1024, 'height': 725, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579066067004999', 'title': None, 'content': '看看，现在都几点了', 'like_num': 532, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ec1525f937.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191029012', 'title': 'MegamiMagazine#2222018-11', 'content': None, 'like_num': 2986, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/96772027ebdcb0f86a8d4769c680ed02.jpg', 'width': 4089, 'height': 5925, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579351953004248', 'title': None, 'content': '追凌！', 'like_num': 1269, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/848388d611.jpg', 'width': 535, 'height': 608, 'lemon_num': 0, 'rec_package_id': ''}]}}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>预设弹幕列表</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/api/comment/get_comment_default_word_list</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{"pagesize":"20","page":"1","access_token":token}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id"}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 10, 'title': '酸民报道'}, {'obj_id': 15, 'title': 'axswl'}, {'obj_id': 11, 'title': '我酸了'}, {'obj_id': 12, 'title': '滴滴'}, {'obj_id': 13, 'title': '真酸'}, {'obj_id': 14, 'title': '我我我我我'}]}}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片播放页</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/get_external_content_info</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{"content_id":external_picture_id,"access_token":token}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"content_id"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'content_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'img_obj_list': [{'url': 'http://qns.lemondream.cn/cos/images/RLZYGLMUYRSQWQUJ.jpg', 'max_height': 3021, 'max_width': 2109}], 'video_obj': None, 'type': 1, 'like_num': 2673, 'has_like': 0, 'lemon_num': 0, 'user_info': {'user_id': 58, 'nickname': '大老哥在线微笑', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/58.gif', 'showid': 'if58'}, 'has_share': 1, 'has_give_lemon': 0, 'bgm_info': {'act_id': 20087, 'title_image': '', 'bgm_url': ''}, 'allow_share_img': 1, 'allow_save_img': 1, 'share_token': 'MTkwNjU3NDU=', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448189#/invitationScraper/MTkwNjU3NDU=?mode=DEMO'}}}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>爬虫视频播放页</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/get_external_content_info</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{"content_id":external_video_id,"access_token":token}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_video_id</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>{"content_id"}</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'content_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'img_obj_list': [{'url': 'http://qns.lemondream.cn/cos/images/RLZYGLMUYRSQWQUJ.jpg', 'max_height': 3021, 'max_width': 2109}], 'video_obj': None, 'type': 1, 'like_num': 855, 'has_like': 0, 'lemon_num': 0, 'user_info': {'user_id': 58, 'nickname': '大老哥在线微笑', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/58.gif', 'showid': 'if58'}, 'has_share': 1, 'has_give_lemon': 0, 'bgm_info': {'act_id': 20087, 'title_image': '', 'bgm_url': ''}, 'allow_share_img': 1, 'allow_save_img': 1, 'share_token': 'MTkwNjU3NDU=', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448190#/invitationScraper/MTkwNjU3NDU=?mode=DEMO'}}}</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片评论列表</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+/api/External/get_external_content_new_comment_list</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>{"content_id":external_picture_id,"access_token":token}</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>{"comment_id"}</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '190656272', 'user_id': 0, 'message': '真漂亮', 'content_time': 0, 'comments': None}, {'comment_id': '190656271', 'user_id': 0, 'message': '哇好可爱，我爱了', 'content_time': 0, 'comments': None}, {'comment_id': '200414', 'user_id': 83, 'message': '哈批哈批哈批lala~~~', 'content_time': 163395, 'comments': None}, {'comment_id': '200413', 'user_id': 83, 'message': '哈批哈批哈批wow~~~', 'content_time': 163395, 'comments': None}, {'comment_id': '190656272', 'user_id': 58, 'message': '真漂亮', 'content_time': 0, 'comments': None}, {'comment_id': '190656271', 'user_id': 58, 'message': '哇好可爱，我爱了', 'content_time': 0, 'comments': None}], 'count': 4}}</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片爆柠</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_lemon/give_object_lemon</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{"access_token":token,"lemon_num":1,"obj_id":external_picture_id,"obj_type":9}</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>爬虫视频爆柠</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>/api/user_lemon/give_object_lemon</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{"access_token":token,"lemon_num":1,"obj_id":external_video_id,"obj_type":10}</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_video_id</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片发布评论</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/add_external_content_comment</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{"message":"哈批哈批哈批wow~~~","content_time":"163395","access_token":token,"content_id":external_picture_id}</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>{"comment_id"}</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200415'}}</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>爬虫图片发布评论</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/add_external_content_comment</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>{"message":"哈批哈批哈批wow~~~","content_time":"163395","access_token":token,"content_id":external_picture_id}</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>{"comment_id"}</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200413'}}</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>爬虫视频发布评论</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/add_external_content_comment</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>{"message":"哈批哈批哈批lala~~~","content_time":"163395","access_token":token,"content_id":external_video_id}</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_video_id</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>{"comment_id"}</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200414'}}</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>分享播放页</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>播放页</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>/api/External/share_external_content</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>{"access_token":token,"channel":"QQ","content_id":external_picture_id}</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>access_token,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="6"/>
@@ -4591,7 +6064,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
@@ -4648,7 +6121,7 @@
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -4704,12 +6177,12 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379692#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -4761,12 +6234,12 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379693#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379693#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448200#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448200#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
@@ -4818,12 +6291,12 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587379694#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -4874,7 +6347,7 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>{"msg":"请求成功"}</t>
+          <t>{"obj_id"}</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
@@ -4888,342 +6361,6 @@
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0">
-    <oddHeader>&amp;C&amp;P</oddHeader>
-    <oddFooter>&amp;C&amp;F</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="9"/>
-    <col customWidth="1" max="2" min="2" style="2" width="19"/>
-    <col customWidth="1" max="3" min="3" style="2" width="9"/>
-    <col customWidth="1" max="4" min="4" style="2" width="19"/>
-    <col customWidth="1" max="5" min="5" style="2" width="9"/>
-    <col customWidth="1" max="8" min="6" style="2" width="19"/>
-    <col customWidth="1" max="7" min="7" width="19"/>
-    <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" style="2" width="9"/>
-    <col customWidth="1" max="11" min="10" style="2" width="19"/>
-    <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" style="2" width="9"/>
-    <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="16384" min="14" style="2" width="9.142857142857141"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" customHeight="1" ht="40" r="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>case_name</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>模块</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>请求类型</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>请求头</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>请求参数</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>需要保存的返回字段</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>数据依赖字段</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>预期结果</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>实际结果</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>是否运行</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>测试结果</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40" r="2" s="2">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>配音列表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>配音</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>/api/web_voice_emoji_match/get_voice_emoji_work_list</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{'page':'1','pagesize':'20'}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>{"obj_id","title","content"}</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004707', 'title': '配的不是表情，是有趣的灵魂', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1004, 'type': 12, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/68e908148ec10ccac190debb507e8efd.jpg', 'width': 690, 'height': 690, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/1004/dub_game/44-1587352933322.mp4', 'user_info': {'user_id': 1004, 'nickname': '猪扒包', 'avatar': 'http://qnc-lemon.chumanapp.com/user/1004/avatar/1585122762783.jpg', 'showid': 'ea1004'}}, {'obj_id': '2004706', 'title': '好玩，好玩，还是好玩', 'content': '不要迷恋鸽，鸽只是个传说。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1023, 'type': 12, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/32bc3532749eff6f370b02764de1b2b1.jpg', 'width': 600, 'height': 600, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/1023/dub_game/44-1587352933427.mp4', 'user_info': {'user_id': 1023, 'nickname': '欢迎我老公', 'avatar': 'http://qnc-lemon.chumanapp.com/user/1023/avatar/1566874430299.jpg', 'showid': 'dc1023'}}, {'obj_id': '2004704', 'title': '好玩，好玩，还是好玩', 'content': '我自横刀向天笑，笑完我就去睡觉。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': 12, 'title_image': 'http://qnp-lemon.chumanapp.com/emoji/8825467fb17704067acabe19e75b9ddb.gif', 'width': 300, 'height': 300, 'video_url': 'http://qnuv-lemon.chumanapp.com/user/87/dub_game/43-1587350839616.mp4', 'user_info': {'user_id': 87, 'nickname': '柠檬精官', 'avatar': 'http://qnc-lemon.chumanapp.com/user/avatar/0820/87.jpg', 'showid': 'hi87'}}]}</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>开始匹配</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>配音</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>/api/web_voice_emoji_match/start_match</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>取消配音</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>配音</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>/api/web_voice_emoji_match/quit_match</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>配音结束页</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>配音</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>/api/web_voice_emoji_match/get_finish_page_info&amp;room_id=46</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>{"room_id"}</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'room_id': 46, 'rank_id': 2, 'answer_num': 1, 'like_num': 18, 'user_info': {'user_id': 2739, 'nickname': 'chooo', 'avatar': 'http://qnc-lemon.chumanapp.com/user/2739/avatar/1574834814909.jpg', 'showid': 'jd2739'}}}</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -5253,7 +6390,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L5" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75"/>
@@ -5383,13 +6520,21 @@
           <t>{"task_type"}</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'task_type': 1, 'title': '首充奖励', 'desc': '完成首充1元，奖励100青柠', 'show_copper_num': 100, 'status': 0}, {'task_type': 2, 'title': '完整阅读内容(0/10)', 'desc': '奖励5青柠/次，最多50个', 'show_copper_num': 5, 'status': 0}, {'task_type': 3, 'title': '发5字以上弹幕(3 / 3)', 'desc': '奖励18青柠/次，最多54个', 'show_copper_num': 54, 'status': 1}]}}</t>
+        </is>
+      </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="3">
       <c r="A3" s="3" t="n">
@@ -5430,12 +6575,12 @@
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_info': {'user_id': 2739, 'nickname': 'chooo', 'avatar': 'http://qnc-lemon.chumanapp.com/user/2739/avatar/1574834814909.jpg', 'showid': 'jd2739', 'avatar_type': 0}, 'invite_reg_info': {'invite_code': 'X7H39Q', 'reward_info': {'copper': 871, 'invite_num': 1}, 'popup_window': None, 'share_token': 'MjczOQ=='}, 'has_invite': 1, 'be_invite_info': {'user_info': {'user_id': 1010, 'nickname': '哈⑤', 'avatar': 'http://qnc-lemon.chumanapp.com/user/1010/avatar/1582094797040.jpg', 'showid': 'ab1010'}, 'reward_info': {'copper': 5}}}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'user_info': {'user_id': 83, 'nickname': '首席甜言蜜语轰炸官', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/83/avatar/1577261562689.jpg', 'showid': 'di83', 'avatar_type': 0}, 'invite_reg_info': {'invite_code': 'KDJPOM', 'reward_info': {'copper': 0, 'invite_num': 0}, 'popup_window': None, 'share_token': 'ODM='}, 'has_invite': 1, 'be_invite_info': {'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}, 'reward_info': {'copper': 792}}}}</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -5483,12 +6628,12 @@
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'user_info': {'user_id': 86, 'nickname': '首席哭唧唧官', 'avatar': 'http://qnc-lemon.chumanapp.com/user/avatar/0820/86.jpg', 'showid': 'gi86'}, 'res_type': 1, 'res_value': '871'}]}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -5534,21 +6679,25 @@
       <c r="H5" s="3" t="n"/>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>access_token</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>{"msg":"请求成功"}</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="n"/>
+          <t>access_token，test,external_picture_id</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 80702, 'msg': '已填写过邀请码'}</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="6">
       <c r="A6" s="3" t="n">
@@ -5593,12 +6742,12 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': '577772', 'rmb': '577.772', 'copper_rmb_rate': 1000}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': '815', 'rmb': '0.815', 'copper_rmb_rate': 1000}}</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -5638,24 +6787,24 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>{"message":"哈哈哈哈哈哈","access_token":token,"content_id":content_id}</t>
+          <t>{"message":"哈哈哈哈哈哈","access_token":token,"content_id":external_picture_id}</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>access_token,content_id</t>
+          <t>access_token,external_picture_id</t>
         </is>
       </c>
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '20043'}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200416'}}</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
@@ -5711,12 +6860,12 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 18}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 54}}</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
@@ -5756,13 +6905,13 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>{"obj_type":"9","obj_id":content_id,"read_progress":"100","read_duration":"14","access_token":token}</t>
+          <t>{"obj_type":"9","obj_id":external_picture_id,"read_progress":"100","read_duration":"14","access_token":token}</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>access_token,content_id</t>
+          <t>access_token,external_picture_id</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -5833,7 +6982,7 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 0}}</t>
+          <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 5}}</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
@@ -5870,29 +7019,29 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="19"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="8" min="6" width="19"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="19"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9"/>
+    <col customWidth="1" max="8" min="6" style="2" width="19"/>
     <col customWidth="1" max="7" min="7" width="19"/>
     <col customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="9"/>
-    <col customWidth="1" max="11" min="10" width="19"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="11" min="10" style="2" width="19"/>
     <col customWidth="1" max="11" min="11" width="19"/>
-    <col customWidth="1" max="13" min="12" width="9"/>
+    <col customWidth="1" max="13" min="12" style="2" width="9"/>
     <col customWidth="1" max="13" min="13" width="9"/>
-    <col customWidth="1" max="14" min="14" width="19"/>
+    <col customWidth="1" max="16384" min="14" style="2" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40" r="1">
+    <row customFormat="1" customHeight="1" ht="40" r="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
@@ -5959,23 +7108,23 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="2">
+    <row customFormat="1" customHeight="1" ht="40" r="2" s="2">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>漫画详情页</t>
+          <t>配音列表</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>漫画</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>/api/comic/get_comic_single_info</t>
+          <t>/api/web_voice_emoji_match/get_voice_emoji_work_list</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -5985,28 +7134,40 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token']}</t>
+          <t>{'page':'1','pagesize':'20'}</t>
         </is>
       </c>
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>access_token,comic_id</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"obj_id","title","content"}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004145', 'title': '表情配音，太逗了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1368, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1368/dub_game/288-1587024181198.mp4', 'user_info': {'user_id': 1368, 'nickname': '567', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=pXY7QvZsg1IVIFrKRXDJDA&amp;s=100&amp;t=1556244452', 'showid': 'ig1368'}}, {'obj_id': '2004141', 'title': '有趣的表情，灵魂的配音', 'content': 'Wow，这也太玩好了吧，太上头了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=1120315825,1205387636&amp;fm=26&amp;gp=0.jpg', 'width': 255, 'height': 255, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/109-1586951064236.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004140', 'title': '手速快，抢到了', 'content': '内练一口音，外练一手抢。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': 12, 'title_image': 'https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1586256681157&amp;di=a4891c0b910f55e113016c3e40c4ad78&amp;imgtype=0&amp;src=', 'width': 600, 'height': 391, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/90/dub_game/108-1586946365929.mp4', 'user_info': {'user_id': 90, 'nickname': '每天起床第一句', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/90.gif', 'showid': 'aj90'}}, {'obj_id': '2004139', 'title': '有趣的表情，灵魂的配音', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1043/dub_game/264-1586943347189.mp4', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': '2004136', 'title': '抢一图，秀一音', 'content': '你可以像猪一样的生活，但你永远都不能像猪那样快乐！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4f6966660e0b5fd2d0f4e2bfd556df92.jpg', 'width': 500, 'height': 469, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/261-1586939732539.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004134', 'title': '因趣丝听的配音', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/259-1586938953426.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}, {'obj_id': '2004132', 'title': '台上一分钟，台下十年功', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a20d6e28ba0b82763b53bdbf93b85a4e.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/259-1586938954379.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004131', 'title': '这是个有趣的配音局', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f16d894d66f5e9479d6d6af78f2d19b1.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/259-1586938953538.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004129', 'title': '不得不说，真的好玩', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/257-1586938811507.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004128', 'title': '好玩，好玩，还是好玩', 'content': '逗乐只是瞬间，配音才是永恒。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/256-1586938578222.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004127', 'title': '表情配音，太逗了', 'content': '在快乐的人群里呆久了，我发现我正常了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/256-1586938574015.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004126', 'title': '世间竟有如此好玩的事情', 'content': '表情配音好玩.我只有四句话想说.包括这句和前面的两句.我的话说完了。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/38f1994ce76a03cfcaaea2ad8991fb23.jpg', 'width': 150, 'height': 145, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/253-1586938367852.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004125', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d7a91d3768e914bcab3c65875117d610.jpg', 'width': 144, 'height': 146, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/253-1586938359203.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004123', 'title': '手速快，抢到了', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1042, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5232deb00d8dda035d3c6050d7bb76a4.jpg', 'width': 144, 'height': 152, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1042/dub_game/251-1586936464922.mp4', 'user_info': {'user_id': 1042, 'nickname': '的我是昵称最长的账号你看看吧唧', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1042/avatar/1572594106617.jpg', 'showid': 'ce1042'}}, {'obj_id': '2004122', 'title': '台上一分钟，台下十年功', 'content': '挺好玩的，这样说的每句话都是有趣的。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1004, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/248f0c211eb16e85fe059e0a428ff498.jpg', 'width': 500, 'height': 500, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1004/dub_game/249-1586935099011.mp4', 'user_info': {'user_id': 1004, 'nickname': '你好', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1004/avatar/1572523833553.jpg', 'showid': 'ea1004'}}, {'obj_id': '2004121', 'title': '表情配音，太逗了', 'content': '我说话有点雷，玩起来有点疯。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/466de73a789b117522612888380ad4eb.png', 'width': 998, 'height': 968, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/248-1586935034982.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004118', 'title': '世间竟有如此好玩的事情', 'content': '琴棋书画不会，表情配音不嫌累。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1074, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c6aedcd53a551bb59a95936c050dee84.jpg', 'width': 150, 'height': 148, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1074/dub_game/246-1586934754099.mp4', 'user_info': {'user_id': 1074, 'nickname': 'chuchu', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=W5rBAz2iaWdSU5ichqM2CaAQ&amp;s=100', 'showid': 'eh1074'}}, {'obj_id': '2004117', 'title': '世间竟有如此好玩的事情', 'content': '只想优美转身，不料华丽配音。', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1005, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/65fa860b676516017f735c869976b63e.jpg', 'width': 690, 'height': 388, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user/1005/dub_game/236-1586933290160.mp4', 'user_info': {'user_id': 1005, 'nickname': '爸爸啊啊啊', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1005/avatar/1573698076001.jpg', 'showid': 'fa1005'}}]}</t>
+        </is>
+      </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="3">
       <c r="A3" s="3" t="n">
@@ -6014,17 +7175,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>漫画评论</t>
+          <t>开始匹配</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>漫画</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>/api/comic/get_comic_single_new_comment_list</t>
+          <t>/api/web_voice_emoji_match/start_match</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -6034,28 +7195,36 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{'comic_id':comic_id['comic_id'],'access_token':token['access_token'],'page':1,'pagesize':20}</t>
-        </is>
-      </c>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>access_token,comic_id</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="4">
       <c r="A4" s="3" t="n">
@@ -6063,17 +7232,17 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>快速评论词</t>
+          <t>取消配音</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>漫画</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>/api/comment/get_comment_default_word_list</t>
+          <t>/api/web_voice_emoji_match/quit_match</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -6083,28 +7252,36 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>{'access_token':token['access_token'],'page':1,'pagesize':20}</t>
-        </is>
-      </c>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="3" t="inlineStr">
         <is>
           <t>access_token</t>
         </is>
       </c>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"msg":"请求成功"}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="5">
       <c r="A5" s="3" t="n">
@@ -6112,17 +7289,17 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>相关推荐</t>
+          <t>配音结束页</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>漫画</t>
+          <t>配音</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>/api/recommend/get_relate_rec_content_list</t>
+          <t>/api/web_voice_emoji_match/get_finish_page_info&amp;room_id=46</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -6132,28 +7309,36 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>{'type':'4','obj_id':comic_id['comic_id'],'app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
-        </is>
-      </c>
+          <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="3" t="n"/>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>access_token,comic_id</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
+          <t>access_token</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"room_id"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '请求成功', 'data': []}</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="n"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="745" activeTab="8"/>
+    <workbookView windowWidth="20325" windowHeight="11670" tabRatio="745" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="app通用0" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -92,7 +92,7 @@
     <t>{"msg":"请求成功"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '4b584b510742'}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'guest_id': '4b5848510546'}}</t>
   </si>
   <si>
     <t>yes</t>
@@ -116,7 +116,7 @@
     <t>{"flow_window_activity","fans_module"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587540351#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'flow_window_activity': {'activity_id': '00002', 'obj_type': 1, 'obj_jump_type': 2, 'title': '', 'obj_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587544262#/task', 'title_image': 'http://psb1lisd3.bkt.clouddn.com/floating_window/img_H5_pic_202002.gif'}, 'unread': {'fans_module': 0, 'user_res_log_module': 0, 'user_res_log_module_desc': ''}}}</t>
   </si>
   <si>
     <t>emoji_package</t>
@@ -134,7 +134,7 @@
     <t>{"package_id","title_image","emoji_list"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 8, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/expression/05a5628086a9c935eaae132c1c899911.png', 'emoji_list': [{'emoji': 550, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/01.svga'}, {'emoji': 551, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/02.svga'}, {'emoji': 552, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/03.svga'}, {'emoji': 553, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/04.svga'}, {'emoji': 554, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/05.svga'}, {'emoji': 555, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/06.svga'}, {'emoji': 556, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/07.svga'}, {'emoji': 557, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/08.svga'}, {'emoji': 558, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/09.svga'}, {'emoji': 559, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/10.svga'}, {'emoji': 560, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/11.svga'}, {'emoji': 561, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 50, 'mtime': 1582877567, 'is_big': 0, 'is_dynamic': 1}, {'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ffc99adeae1bbcf3e5d132c3707cc3c6.jpeg', 'emoji_list': [{'emoji': 529, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/266570269943bc54d2504af4934b698b.png', 'status': 1, 'sort': 6, 'mtime': 1566285946, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d68c62bdaa032b55eb340847e6adae92.png', 'status': 1, 'sort': 5, 'mtime': 1566285896, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0b4945fddf836e5e8b3cf62a03944ad.png', 'status': 1, 'sort': 4, 'mtime': 1566285830, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/569ce9c8a1597ad1b1bc96da5cdd9f00.png', 'status': 1, 'sort': 3, 'mtime': 1566285817, 'emoji_url': ''}, {'emoji': 525, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3dce3d7e58e38f821230fd0d02520ad9.png', 'status': 1, 'sort': 2, 'mtime': 1566285535, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d79aaa21775a51b6ca8a8cedbc5900b.png', 'status': 1, 'sort': 1, 'mtime': 1566367219, 'emoji_url': ''}], 'status': 0, 'sort': 11, 'mtime': 1566367219, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 5, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8d214494b577a02ba64e650318eae42f.png', 'emoji_list': [{'emoji': 538, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3fa0dfa27d8fd638d8da48b20bd6efca.png', 'status': 1, 'sort': 10, 'mtime': 1566367231, 'emoji_url': ''}, {'emoji': 539, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e71263a63516acac9b0df8e71b51c89.png', 'status': 1, 'sort': 10, 'mtime': 1566353239, 'emoji_url': ''}, {'emoji': 540, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/9800e643e1a1cd071e4e55aac8563673.png', 'status': 1, 'sort': 10, 'mtime': 1566353247, 'emoji_url': ''}, {'emoji': 541, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/458da521e30a6da1e583a826604dda2a.png', 'status': 1, 'sort': 10, 'mtime': 1566358782, 'emoji_url': ''}, {'emoji': 542, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e362c4b3e6438f480afa3e6b4e70ed8e.png', 'status': 1, 'sort': 10, 'mtime': 1566353351, 'emoji_url': ''}, {'emoji': 543, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b51db99c04163cad156b4100e8369b1e.png', 'status': 1, 'sort': 10, 'mtime': 1566353268, 'emoji_url': ''}, {'emoji': 544, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/94b5f4e0c3ffa14962cbec85db085ccf.png', 'status': 1, 'sort': 10, 'mtime': 1566353275, 'emoji_url': ''}, {'emoji': 545, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c13013e590e4c72ed20192be10064cf5.png', 'status': 1, 'sort': 10, 'mtime': 1566358997, 'emoji_url': ''}, {'emoji': 546, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ecc2852366cab53feec85d88ce54348b.png', 'status': 0, 'sort': 10, 'mtime': 1566442870, 'emoji_url': ''}], 'status': 1, 'sort': 10, 'mtime': 1566562782, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1587540352}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'package_id': 8, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/expression/05a5628086a9c935eaae132c1c899911.png', 'emoji_list': [{'emoji': 550, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/01.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/01.svga'}, {'emoji': 551, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/02.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/02.svga'}, {'emoji': 552, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/03.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/03.svga'}, {'emoji': 553, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/04.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/04.svga'}, {'emoji': 554, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/05.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/05.svga'}, {'emoji': 555, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/06.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/06.svga'}, {'emoji': 556, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/07.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/07.svga'}, {'emoji': 557, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/08.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/08.svga'}, {'emoji': 558, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/09.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/09.svga'}, {'emoji': 559, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/10.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/10.svga'}, {'emoji': 560, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/11.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/11.svga'}, {'emoji': 561, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/png/12.png', 'status': 1, 'sort': 10, 'mtime': 1582875855, 'emoji_url': 'http://psb1lisd3.bkt.clouddn.com/emogi/dynamic/svga/12.svga'}], 'status': 1, 'sort': 50, 'mtime': 1582877567, 'is_big': 0, 'is_dynamic': 1}, {'package_id': 6, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 547, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bf50b6d60ee70dc77363cc2fcb8c372c.jpeg', 'status': 1, 'sort': 10, 'mtime': 1566367194, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1566368172, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 7, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/baf0430b142c0b35c2187253274d0376.jpeg', 'emoji_list': [{'emoji': 548, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/fe8383eb7176a1ae4c4d8eaee05a26bb.png', 'status': 1, 'sort': 12, 'mtime': 1568628205, 'emoji_url': ''}, {'emoji': 549, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1ca025175e000d5eb2a2a973e8e01acb.png', 'status': 1, 'sort': 10, 'mtime': 1568715200, 'emoji_url': ''}], 'status': 0, 'sort': 20, 'mtime': 1568715200, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 3, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ffc99adeae1bbcf3e5d132c3707cc3c6.jpeg', 'emoji_list': [{'emoji': 529, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/266570269943bc54d2504af4934b698b.png', 'status': 1, 'sort': 6, 'mtime': 1566285946, 'emoji_url': ''}, {'emoji': 528, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/d68c62bdaa032b55eb340847e6adae92.png', 'status': 1, 'sort': 5, 'mtime': 1566285896, 'emoji_url': ''}, {'emoji': 527, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0b4945fddf836e5e8b3cf62a03944ad.png', 'status': 1, 'sort': 4, 'mtime': 1566285830, 'emoji_url': ''}, {'emoji': 526, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/569ce9c8a1597ad1b1bc96da5cdd9f00.png', 'status': 1, 'sort': 3, 'mtime': 1566285817, 'emoji_url': ''}, {'emoji': 525, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3dce3d7e58e38f821230fd0d02520ad9.png', 'status': 1, 'sort': 2, 'mtime': 1566285535, 'emoji_url': ''}, {'emoji': 524, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d79aaa21775a51b6ca8a8cedbc5900b.png', 'status': 1, 'sort': 1, 'mtime': 1566367219, 'emoji_url': ''}], 'status': 0, 'sort': 11, 'mtime': 1566367219, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 1, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/370dabb5da86c1aad463ee661ef1ae49.png', 'emoji_list': [{'emoji': 500, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/98fc5965f6af8372e2791c11745515a4.png', 'status': 0, 'sort': 20, 'mtime': 1566367207, 'emoji_url': ''}, {'emoji': 505, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2534c1917326286a0aa508b6e47a5811.png', 'status': 1, 'sort': 2, 'mtime': 1562643245, 'emoji_url': ''}, {'emoji': 506, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/206ce27042b0fc187c9548c7d19f3c2f.jpeg', 'status': 1, 'sort': 1, 'mtime': 1562663741, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566367207, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 4, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/1bb1ed255ec2433a0699548470c95775.png', 'emoji_list': [{'emoji': 531, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7318963125d85d8c2dd97f2b992d760e.png', 'status': 1, 'sort': 20, 'mtime': 1566353159, 'emoji_url': ''}, {'emoji': 532, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/42415d34dadfb22a600da74022e26792.png', 'status': 1, 'sort': 20, 'mtime': 1566353166, 'emoji_url': ''}, {'emoji': 533, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cb093503ccd2dac03e2044055d991857.png', 'status': 1, 'sort': 20, 'mtime': 1566353172, 'emoji_url': ''}, {'emoji': 530, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/f1e69577aad20a852216f487dbabd536.png', 'status': 1, 'sort': 10, 'mtime': 1566367226, 'emoji_url': ''}, {'emoji': 534, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3630320311c9d16ff3bf57a3c2a944d9.png', 'status': 1, 'sort': 10, 'mtime': 1566353181, 'emoji_url': ''}, {'emoji': 535, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bfe5111f185bbfc40a895801265e0765.png', 'status': 1, 'sort': 10, 'mtime': 1566353189, 'emoji_url': ''}, {'emoji': 536, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/be01a96c61b383fb0df7abb2b65a337d.png', 'status': 1, 'sort': 10, 'mtime': 1566353197, 'emoji_url': ''}, {'emoji': 537, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/55f831cd5c0273d3dca9f1d46fceeb02.png', 'status': 1, 'sort': 10, 'mtime': 1566353206, 'emoji_url': ''}], 'status': 0, 'sort': 10, 'mtime': 1566544900, 'is_big': 0, 'is_dynamic': 0}, {'package_id': 5, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8d214494b577a02ba64e650318eae42f.png', 'emoji_list': [{'emoji': 538, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/3fa0dfa27d8fd638d8da48b20bd6efca.png', 'status': 1, 'sort': 10, 'mtime': 1566367231, 'emoji_url': ''}, {'emoji': 539, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e71263a63516acac9b0df8e71b51c89.png', 'status': 1, 'sort': 10, 'mtime': 1566353239, 'emoji_url': ''}, {'emoji': 540, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/9800e643e1a1cd071e4e55aac8563673.png', 'status': 1, 'sort': 10, 'mtime': 1566353247, 'emoji_url': ''}, {'emoji': 541, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/458da521e30a6da1e583a826604dda2a.png', 'status': 1, 'sort': 10, 'mtime': 1566358782, 'emoji_url': ''}, {'emoji': 542, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e362c4b3e6438f480afa3e6b4e70ed8e.png', 'status': 1, 'sort': 10, 'mtime': 1566353351, 'emoji_url': ''}, {'emoji': 543, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b51db99c04163cad156b4100e8369b1e.png', 'status': 1, 'sort': 10, 'mtime': 1566353268, 'emoji_url': ''}, {'emoji': 544, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/94b5f4e0c3ffa14962cbec85db085ccf.png', 'status': 1, 'sort': 10, 'mtime': 1566353275, 'emoji_url': ''}, {'emoji': 545, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c13013e590e4c72ed20192be10064cf5.png', 'status': 1, 'sort': 10, 'mtime': 1566358997, 'emoji_url': ''}, {'emoji': 546, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/ecc2852366cab53feec85d88ce54348b.png', 'status': 0, 'sort': 10, 'mtime': 1566442870, 'emoji_url': ''}], 'status': 1, 'sort': 10, 'mtime': 1566562782, 'is_big': 1, 'is_dynamic': 0}, {'package_id': 2, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/c4373e1798e8dd5d66ec65e4e24bfae4.png', 'emoji_list': [{'emoji': 501, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/234e57a8d6a0c21a530d2d1fcd7e2cd3.png', 'status': 0, 'sort': 100, 'mtime': 1566367213, 'emoji_url': ''}, {'emoji': 507, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/4d1876d445a9faa2556098c956dea0e3.png', 'status': 1, 'sort': 100, 'mtime': 1566443058, 'emoji_url': ''}, {'emoji': 502, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/a535349b5c9a28a2e8fec7e0fd6e20f8.png', 'status': 0, 'sort': 99, 'mtime': 1562755480, 'emoji_url': ''}, {'emoji': 508, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/7d922429c25f5fa5dd971ab8517d3aad.png', 'status': 1, 'sort': 99, 'mtime': 1562739540, 'emoji_url': ''}, {'emoji': 503, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/aeabc62c44580d209f4d3c211872e2f1.png', 'status': 0, 'sort': 98, 'mtime': 1562739509, 'emoji_url': ''}, {'emoji': 509, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/10dd9bb9e603e1d296e80839b351dd2d.png', 'status': 1, 'sort': 98, 'mtime': 1562739551, 'emoji_url': ''}, {'emoji': 510, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/cdb98f2fcf26cfd7e3e3bf5f4dba83ba.png', 'status': 1, 'sort': 97, 'mtime': 1562739560, 'emoji_url': ''}, {'emoji': 511, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/52c5cfaaabb2e6d1ed910bed0d2b24ad.png', 'status': 1, 'sort': 96, 'mtime': 1562739568, 'emoji_url': ''}, {'emoji': 512, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/25d2904a218e704eae21cd14212f0797.png', 'status': 0, 'sort': 95, 'mtime': 1566443088, 'emoji_url': ''}, {'emoji': 513, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bc6adf5f2d95658a81ba30176565c8df.png', 'status': 0, 'sort': 94, 'mtime': 1566443079, 'emoji_url': ''}, {'emoji': 504, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/5174c60f40f241e346f98329c91be473.png', 'status': 0, 'sort': 94, 'mtime': 1562739510, 'emoji_url': ''}, {'emoji': 514, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/e0bd5f47d3dfbd2b51389c9cb44f5c97.png', 'status': 1, 'sort': 93, 'mtime': 1562739603, 'emoji_url': ''}, {'emoji': 515, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/bb4518fec46acb2d725954343fd75563.png', 'status': 1, 'sort': 92, 'mtime': 1562739625, 'emoji_url': ''}, {'emoji': 516, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/2b632e70264f6b22f6fdcce6568a82bd.png', 'status': 1, 'sort': 91, 'mtime': 1562739634, 'emoji_url': ''}, {'emoji': 517, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/b92d3a5d539556b7c125efa9b7daeede.png', 'status': 1, 'sort': 90, 'mtime': 1562740091, 'emoji_url': ''}, {'emoji': 518, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/eefc7bc314f2d04fa0cef903bef076e1.png', 'status': 1, 'sort': 89, 'mtime': 1562740101, 'emoji_url': ''}, {'emoji': 519, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/39eb6b653a72c89fff463b41660672ee.png', 'status': 1, 'sort': 88, 'mtime': 1562740110, 'emoji_url': ''}, {'emoji': 520, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/63ba1b06086dc979398eff47c1d59acf.png', 'status': 1, 'sort': 87, 'mtime': 1562740119, 'emoji_url': ''}, {'emoji': 521, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/147716ee132a364b66629287c75d6a5e.png', 'status': 1, 'sort': 86, 'mtime': 1562740136, 'emoji_url': ''}, {'emoji': 522, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8e244cd198c5be0c54dc2df3471e6d30.png', 'status': 0, 'sort': 85, 'mtime': 1562754144, 'emoji_url': ''}, {'emoji': 523, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/emoji/8040d1cd071068b1ca6eb6433760ee93.png', 'status': 1, 'sort': 83, 'mtime': 1562754648, 'emoji_url': ''}], 'status': 1, 'sort': 9, 'mtime': 1566562701, 'is_big': 0, 'is_dynamic': 0}], 'server_time': 1587544262}}</t>
   </si>
   <si>
     <t>get_home_page_alert</t>
@@ -161,67 +161,58 @@
     <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'x-is-optional-token':'1','channel': 'default', 'X-Token': XToken, 'Authorization': Authorization, 'biData':biData}</t>
   </si>
   <si>
-    <t>{'page':'1', 'pageSize': '20', 'app_key': 'lemondream'}</t>
-  </si>
-  <si>
-    <t>obj_id</t>
+    <t>{"page":"1","pagesize":"20","app_key":"lemondream_2","scene_id":"2001","device_token":"867672030793812"}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [], 'act_id': 20157, 'tag_show_info': {'show_tag_type': 2}}}</t>
+  </si>
+  <si>
+    <t>首页分类tab</t>
+  </si>
+  <si>
+    <t>/api/recommend/get_home_page_zone_list</t>
+  </si>
+  <si>
+    <t>{"zone_id":-1,"title":"推荐"}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20157', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 3, 'title': 'Cosplay', 'scence_info': {'scence_id': '2001003004', 'act_id': '20192', 'maidian_name': 'disp_030', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_cos', 'event_id': '001'}}, {'zone_id': 4, 'title': '段子', 'scence_info': {'scence_id': '2001003007', 'act_id': '20195', 'maidian_name': 'disp_033', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_duanzi', 'event_id': '001'}}, {'zone_id': 5, 'title': '插画', 'scence_info': {'scence_id': '2001003005', 'act_id': '20193', 'maidian_name': 'disp_031', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_chahua', 'event_id': '001'}}, {'zone_id': 6, 'title': '动漫', 'scence_info': {'scence_id': '2001003006', 'act_id': '20194', 'maidian_name': 'disp_032', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_dongman', 'event_id': '001'}}], 'act_id': 20135, 'serviceId': '19'}}</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ABtest</t>
+  </si>
+  <si>
+    <t>/api/recommend/get_rec_abtest</t>
+  </si>
+  <si>
+    <t>{'scene_id':'2002'}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 0, 'style_type': 2}, 'read_style_abtest': {'act_id': 20086, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
+  </si>
+  <si>
+    <t>推荐tab内容第一页</t>
   </si>
   <si>
     <t>{"obj_id","title","content"}</t>
   </si>
   <si>
-    <t>'list'</t>
-  </si>
-  <si>
-    <t>报错啦</t>
-  </si>
-  <si>
-    <t>首页分类tab</t>
-  </si>
-  <si>
-    <t>/api/recommend/get_home_page_zone_list</t>
-  </si>
-  <si>
-    <t>{"zone_id":-1,"title":"推荐"}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'zone_id': -1, 'title': '推荐', 'scence_info': {'scence_id': '2001003001', 'act_id': '20157', 'maidian_name': 'disp_027', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_tuijan', 'event_id': '001'}}, {'zone_id': 3, 'title': 'Cosplay', 'scence_info': {'scence_id': '2001003004', 'act_id': '20192', 'maidian_name': 'disp_030', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_cos', 'event_id': '001'}}, {'zone_id': 4, 'title': '段子', 'scence_info': {'scence_id': '2001003007', 'act_id': '20195', 'maidian_name': 'disp_033', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_duanzi', 'event_id': '001'}}, {'zone_id': 5, 'title': '插画', 'scence_info': {'scence_id': '2001003005', 'act_id': '20193', 'maidian_name': 'disp_031', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_chahua', 'event_id': '001'}}, {'zone_id': 6, 'title': '动漫', 'scence_info': {'scence_id': '2001003006', 'act_id': '20194', 'maidian_name': 'disp_032', 'tag': '1', 'act': 'display', 'pos': 'feed_rec', 'refer': 'tab_dongman', 'event_id': '001'}}], 'act_id': 20135, 'serviceId': '19'}}</t>
-  </si>
-  <si>
-    <t>ABtest</t>
-  </si>
-  <si>
-    <t>/api/recommend/get_rec_abtest</t>
-  </si>
-  <si>
-    <t>{'scene_id':'2002'}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'feed_style_abtest': {'act_id': 0, 'style_type': 2}, 'read_style_abtest': {'act_id': 20086, 'style_type': 2}, 'tab_advertise_abtest': {'-1': {'act_id': '', 'advertise_position': '10,20'}, '1': {'act_id': '', 'advertise_position': '10,20'}, '2': {'act_id': '', 'advertise_position': '10,20'}, '3': {'act_id': '', 'advertise_position': '10,20'}, '4': {'act_id': '', 'advertise_position': '10,20'}, '5': {'act_id': '', 'advertise_position': '10,20'}, '6': {'act_id': '', 'advertise_position': '10,20'}, '7': {'act_id': '', 'advertise_position': '10,20'}, '8': {'act_id': '', 'advertise_position': '10,20'}}, 'paly_page_advertise_abtest': {'act_id': '', 'advertise_position': 5}}}</t>
-  </si>
-  <si>
-    <t>推荐tab内容第一页</t>
-  </si>
-  <si>
-    <t>{'zone_id':'-1','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [], 'act_id': 20157, 'tag_show_info': {'show_tag_type': 2}}}</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
     <t>推荐tab内容第二页</t>
   </si>
   <si>
-    <t>{'zone_id':'-1','page':'2','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+    <t>{"page":"2","pagesize":"20","app_key":"lemondream_2","scene_id":"2001","device_token":"867672030793812"}</t>
   </si>
   <si>
     <t>推荐tab内容第三页</t>
   </si>
   <si>
-    <t>{'zone_id':'-1','page':'3','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
+    <t>{"page":"3","pagesize":"20","app_key":"lemondream_2","scene_id":"2001","device_token":"867672030793812"}</t>
   </si>
   <si>
     <t>首页banner</t>
@@ -245,7 +236,7 @@
     <t>{'zone_id':'8','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, '1': {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, '2': {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, '3': {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, '4': {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, '5': {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, '6': {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, '7': {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, '8': {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, '9': {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, '10': {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, '11': {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, '12': {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}, 'list': [{'obj_id': '2003186', 'title': '你是晚睡女孩吗？', 'content': '你是晚睡女孩吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021255-96105111.mp4'}, {'obj_id': '2003185', 'title': '让人无法拒绝的告白，今天你被表白了吗？', 'content': '让人无法拒绝的告白，今天你被表白了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20191228021214-68462478.mp4'}, {'obj_id': '2003184', 'title': '扶不扶？服不服？', 'content': '扶不扶？服不服？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190928020930-31077820.mp4'}, {'obj_id': '2003183', 'title': '提醒小助手集合，记得收藏哦！', 'content': '提醒小助手集合，记得收藏哦！', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190728020726-90689169.mp4'}, {'obj_id': '2003182', 'title': '你猜对了吗？这道题太难了', 'content': '你猜对了吗？这道题太难了', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190328020336-31801138.mp4'}, {'obj_id': '2003181', 'title': '福来Day快乐~周末想好怎么过了吗？', 'content': '福来Day快乐~周末想好怎么过了吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20190028020016-77452066.mp4'}, {'obj_id': '2003180', 'title': '你遇过这种神预测吗？', 'content': '你遇过这种神预测吗？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195628015631-47351519.mp4'}, {'obj_id': '2003179', 'title': '最后一种应该很难遇到', 'content': '最后一种应该很难遇到', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195528015509-89666452.mp4'}, {'obj_id': '2003178', 'title': '用姓氏造一句情话，你的是什么呢？', 'content': '用姓氏造一句情话，你的是什么呢？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195228015223-16078922.mp4'}, {'obj_id': '2003177', 'title': '原来我在你心里这么明亮啊？', 'content': '原来我在你心里这么明亮啊？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20195128015105-72896742.mp4'}, {'obj_id': '2003176', 'title': '“为了把我送给你。”', 'content': '“为了把我送给你。”', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194928014928-46862240.mp4'}, {'obj_id': '2003175', 'title': '这剧情，就差一段BGM', 'content': '这剧情，就差一段BGM', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194528014524-67390071.mp4'}, {'obj_id': '2003174', 'title': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'content': '学霸区的举手我数数！来看看你们想坐在哪个区？', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4?vframe/jpg/offset/0', 'width': 1920, 'height': 1080, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/lemon/video/small_video/douyin/20194128014121-75695082.mp4'}], 'act_id': 0}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [], 'act_id': 0}}</t>
   </si>
   <si>
     <t>首页cosplaytab</t>
@@ -257,7 +248,7 @@
     <t>{'zone_id':'3','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190641065', 'title': '【cos正片】林宪明', 'content': 'phx 文森特', 'like_num': 2626, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjI5Mzg1ODE4MzM5NDY5NCMzMjIjaW1hZ2U=', 'width': 980, 'height': 1469, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '1': {'obj_id': '190640715', 'title': '时崎狂三旗袍~', 'content': '祭奠一下从未出正片的狂三', 'like_num': 1303, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/0giBmV1Ur4rZk8vS.jpg', 'width': 1024, 'height': 1364, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '2': {'obj_id': '190640716', 'title': None, 'content': '长腿穹妹', 'like_num': 1177, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_4512343b-7cd3-4bda-9506-de0acbfc3221.png', 'width': 905, 'height': 947, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '3': {'obj_id': '190640719', 'title': None, 'content': '好霸气的小姐姐', 'like_num': 1796, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_3c937d08-0499-4eb8-8866-d6b3a5f25e59.png', 'width': 1022, 'height': 1044, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '4': {'obj_id': '190640721', 'title': None, 'content': '小圆脸????????????????????????', 'like_num': 1012, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_7c393e46-d92d-4b4d-b607-9d7941908ebb.png', 'width': 546, 'height': 341, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '5': {'obj_id': '190640724', 'title': None, 'content': '    【COS正片】和泉沙雾：原POPHX ：@-Kira酱 协助感谢：@按快门的大和 @NoelEs  抄送：@千夜文化传媒有限公司', 'like_num': 2578, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_b3920420-0143-465f-8ae5-649896a80cf8.jpg', 'width': 2048, 'height': 1365, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '6': {'obj_id': '190640725', 'title': 'cos的新萌瑟瑟发抖', 'content': '呜哇太不容易了了，毛还是没弄好，，要向大佬膜拜……♡【最后一张是什么！是什么！】CN 孤诺【求眼熟～】', 'like_num': 1564, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/uLFyhqWEF8bgLGVe.jpg', 'width': 2592, 'height': 1296, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '7': {'obj_id': '190640726', 'title': '橘里橘气！漫展攻气十足的小姐姐来袭！', 'content': '这么攻的小姐姐好少见啊啊，出的是自己的原创角色～', 'like_num': 733, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/WEOLLLIXORVMGCJC.jpg', 'width': 2109, 'height': 3163, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '8': {'obj_id': '190640727', 'title': None, 'content': '雪女觉醒前雪女 cn:@wwWeisa phx：@菠蘿菠蘿菌 ', 'like_num': 2731, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_d6eb5cba-7fe7-4d0a-b381-8167f2c93c57.jpg', 'width': 649, 'height': 2292, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '9': {'obj_id': '190640730', 'title': None, 'content': '没见你怎么吃啊', 'like_num': 2302, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_edf9b1a1-6a20-4960-a052-0b8ea913b871.png', 'width': 875, 'height': 723, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '10': {'obj_id': '190640737', 'title': '这是谁的意中人', 'content': None, 'like_num': 1240, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QGtval6CnH8naZUN.jpg', 'width': 2261, 'height': 1367, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '11': {'obj_id': '190640743', 'title': '【cos预告】街拍绿谷#', 'content': '“敌人啊，你可曾听过这样一句话，  —冲向更遥远的彼方吧！双重 底特律！Smash！！！”今天去看了小英雄的电影真的超燃的啊155551顺便去拍了街拍久的正片（发个小小的预告x我永远爱他！！！扩列可以私戳w）', 'like_num': 1607, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjgxNDIzMzQyMzI5NTk0MyM5MzYjaW1hZ2U=', 'width': 2309, 'height': 3464, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '12': {'obj_id': '190640745', 'title': '风铃毛衣加紫薯，这个搭配有点好看哎！', 'content': None, 'like_num': 2238, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjgxMTI2Mjg5MzE2NjI5MiMyODQjaW1hZ2U=', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '13': {'obj_id': '190640747', 'title': '呆～胶～布～ 今天也会努力工作的w', 'content': '37度拍的，高温小战士本人啦', 'like_num': 1754, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/7lsHETQfl4jvlurv.jpg', 'width': 2063, 'height': 2454, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '14': {'obj_id': '190640748', 'title': None, 'content': '人家虞姬姐姐才没有你这么婴儿肥呢', 'like_num': 703, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_328f9a79-317e-4c72-9ccb-b320e591f2c5.png', 'width': 832, 'height': 622, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, 'list': [{'obj_id': '190641065', 'title': '【cos正片】林宪明', 'content': 'phx 文森特', 'like_num': 2626, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjI5Mzg1ODE4MzM5NDY5NCMzMjIjaW1hZ2U=', 'width': 980, 'height': 1469, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640715', 'title': '时崎狂三旗袍~', 'content': '祭奠一下从未出正片的狂三', 'like_num': 1303, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/0giBmV1Ur4rZk8vS.jpg', 'width': 1024, 'height': 1364, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640716', 'title': None, 'content': '长腿穹妹', 'like_num': 1177, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_4512343b-7cd3-4bda-9506-de0acbfc3221.png', 'width': 905, 'height': 947, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640719', 'title': None, 'content': '好霸气的小姐姐', 'like_num': 1796, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_3c937d08-0499-4eb8-8866-d6b3a5f25e59.png', 'width': 1022, 'height': 1044, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640721', 'title': None, 'content': '小圆脸????????????????????????', 'like_num': 1012, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_7c393e46-d92d-4b4d-b607-9d7941908ebb.png', 'width': 546, 'height': 341, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640724', 'title': None, 'content': '    【COS正片】和泉沙雾：原POPHX ：@-Kira酱 协助感谢：@按快门的大和 @NoelEs  抄送：@千夜文化传媒有限公司', 'like_num': 2578, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_b3920420-0143-465f-8ae5-649896a80cf8.jpg', 'width': 2048, 'height': 1365, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640725', 'title': 'cos的新萌瑟瑟发抖', 'content': '呜哇太不容易了了，毛还是没弄好，，要向大佬膜拜……♡【最后一张是什么！是什么！】CN 孤诺【求眼熟～】', 'like_num': 1564, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/uLFyhqWEF8bgLGVe.jpg', 'width': 2592, 'height': 1296, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640726', 'title': '橘里橘气！漫展攻气十足的小姐姐来袭！', 'content': '这么攻的小姐姐好少见啊啊，出的是自己的原创角色～', 'like_num': 733, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/WEOLLLIXORVMGCJC.jpg', 'width': 2109, 'height': 3163, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640727', 'title': None, 'content': '雪女觉醒前雪女 cn:@wwWeisa phx：@菠蘿菠蘿菌 ', 'like_num': 2731, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_d6eb5cba-7fe7-4d0a-b381-8167f2c93c57.jpg', 'width': 649, 'height': 2292, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640730', 'title': None, 'content': '没见你怎么吃啊', 'like_num': 2302, 'has_like': 0, 'tags': '', 'author_id': 41, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_edf9b1a1-6a20-4960-a052-0b8ea913b871.png', 'width': 875, 'height': 723, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640737', 'title': '这是谁的意中人', 'content': None, 'like_num': 1240, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/QGtval6CnH8naZUN.jpg', 'width': 2261, 'height': 1367, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640743', 'title': '【cos预告】街拍绿谷#', 'content': '“敌人啊，你可曾听过这样一句话，  —冲向更遥远的彼方吧！双重 底特律！Smash！！！”今天去看了小英雄的电影真的超燃的啊155551顺便去拍了街拍久的正片（发个小小的预告x我永远爱他！！！扩列可以私戳w）', 'like_num': 1607, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjgxNDIzMzQyMzI5NTk0MyM5MzYjaW1hZ2U=', 'width': 2309, 'height': 3464, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640745', 'title': '风铃毛衣加紫薯，这个搭配有点好看哎！', 'content': None, 'like_num': 2238, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/starstar_cos/images/MTU1MjgxMTI2Mjg5MzE2NjI5MiMyODQjaW1hZ2U=', 'width': 1080, 'height': 1440, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640747', 'title': '呆～胶～布～ 今天也会努力工作的w', 'content': '37度拍的，高温小战士本人啦', 'like_num': 1754, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/7lsHETQfl4jvlurv.jpg', 'width': 2063, 'height': 2454, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190640748', 'title': None, 'content': '人家虞姬姐姐才没有你这么婴儿肥呢', 'like_num': 703, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/mhd/images/BodyPart_328f9a79-317e-4c72-9ccb-b320e591f2c5.png', 'width': 832, 'height': 622, 'lemon_num': 0, 'rec_package_id': 'cosplay'}], 'act_id': 0}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '190628599', 'title': '◆EGOIST◆', 'content': '出镜:荒境摄影＆后期:2兔', 'like_num': 751, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/78lJtrYoROzvUnVR.jpg', 'width': 1139, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '1': {'obj_id': '190628291', 'title': '赤城凰返图', 'content': '终于收到了返图啦！去展子出这个还是有点羞耻【并不！】太尴尬的就不发啦！！！一个假毛炸掉的赤城凰', 'like_num': 1906, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/1BkAUikxyKfPbfLu.jpg', 'width': 2160, 'height': 1215, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '2': {'obj_id': '190628294', 'title': '【fate/extra】玉藻前漆黑魔术师', 'content': '那天夜景的自拍！会努力产图的！', 'like_num': 1903, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/APOqChY6sT7tlsB3.jpg', 'width': 3265, 'height': 2448, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '3': {'obj_id': '190628296', 'title': '【场照】妖刀姬', 'content': 'phx:互相黎姐', 'like_num': 2114, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/qLthl6HR5jD7smni.jpg', 'width': 2736, 'height': 1824, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '4': {'obj_id': '190628297', 'title': '终物语 忍盔甲', 'content': '姬丝秀忒@妖少you1\r photo@风来星人', 'like_num': 2958, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yVs1N20VsFUins6B.jpg', 'width': 760, 'height': 506, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '5': {'obj_id': '190628299', 'title': 'LoveLive！|| 旗袍来袭 大家新年快乐～', 'content': '祝大家新年快乐～～\r旗袍希奉上 \r新年已经过3天～ 大家这几天怎么样 ❤️ \r\r希CN：光光\r摄影：梦玥\r后期：小半\r\r选了一套新年主题的旗袍～ 希望大家喜欢  \r再次祝大家新年快乐', 'like_num': 1249, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/JJRKRPIFUCZHOHLU.jpg', 'width': 2109, 'height': 3163, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '6': {'obj_id': '190628301', 'title': 'cos塞巴斯蒂安   场照', 'content': '#黑执事cos#  #塞巴斯蒂安#   #场照#（求kk，阿里嘎多~）塞巴斯蒂安：冰炎（原po）夏尔：艾雯妆娘：L子摄影：田宇轩后期：冰炎（原po）作为凡多母海威家的执事，连这点都做不到怎么行我想要的只有少爷，除此之外别无他物因为那是契约，我和少爷的只要是您希望的，我会陪伴您到天涯海角，就算王座崩塌，光辉闪耀的王冠褪色，数之不尽的尸骸堆积如山，在这堆积如山的尸骸上，我都陪在倒下的小国王身边直至听到喊出骑士的命令，那个时候为止', 'like_num': 1242, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/zmsqnmAEAYeNOycC.jpg', 'width': 1280, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '7': {'obj_id': '190628302', 'title': '【第一弹新国风】忘羡', 'content': '魏无羡：白术\r蓝忘机：染染', 'like_num': 1733, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/vnaniyxTDEfdY5X0.jpg', 'width': 2160, 'height': 1442, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '8': {'obj_id': '190628304', 'title': '【cos正片】妮可小恶魔', 'content': '发现忘记发正片了你们将就着看吧', 'like_num': 1246, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/GFB8LYe9v5Bv9046.jpg', 'width': 1616, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '9': {'obj_id': '190628440', 'title': '【梦间集淑女剑】', 'content': '情花相伴看尽悲欢窈窕淑女君子好逑出镜:暖笙微博:-暖笙-第一次凑不齐九宫格，因为摄影说我太凶了嘤嘤嘤', 'like_num': 527, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/EK20UJ7TRVIpXINm.jpg', 'width': 1228, 'height': 1840, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '10': {'obj_id': '190628306', 'title': '【cos預告】永遠的零·暗殺教室', 'content': '還記得那天晚上稍微有點冷(*´ω｀*)拍的那會還不知道小楓是小boss，所以表現的有點軟了還喜歡的話求個糖糖和關注咩(✽ ﾟдﾟ ✽)', 'like_num': 1301, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/Wjz6jlB2SR5eWr24.jpg', 'width': 1438, 'height': 960, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '11': {'obj_id': '190628314', 'title': '终结的炽天使 阿朱罗丸 cos试妆', 'content': '凶巴巴的阿朱罗丸|･ω･｀)\r只有157的我踮脚才能不让裙儿拖地上', 'like_num': 746, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/87B03V2nzClPNVq7.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '12': {'obj_id': '190628320', 'title': '阿离', 'content': '花了好久cos的阿离  喜欢吗  关注我哦', 'like_num': 2200, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/LlDPwhoKyT3ewrmK.jpg', 'width': 500, 'height': 334, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '13': {'obj_id': '190628323', 'title': '【cos正片】FGO 冲田总司 初始', 'content': '旧图存档～', 'like_num': 2876, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/ZfEby1yP82pjtGtj.jpg', 'width': 3008, 'height': 2008, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '14': {'obj_id': '190628325', 'title': '【cos试妆】斯卡哈', 'content': '驾驭不来驾驭不来～\r有点害羞就不打算正片啦～\r以后会考虑拍别的 ˋ( ° ▽、° )', 'like_num': 2450, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/W1mjwSThi7LO9mNk.jpg', 'width': 665, 'height': 998, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '15': {'obj_id': '190628329', 'title': '【第一弹新国风】红尘一梦，化蝶迷踪。', 'content': '冰蚕絮牵毒倾城，不惑众生惑君生。\r白月光破军毒姐嘤嘤嘤(´｡• ᵕ •｡`) \r出境\r毒姐 阿聿空空\r毒哥 六毛\r摄影 菠萝\r后期 豆腐\r团片的小组～', 'like_num': 714, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/em0DkwYyyJGnPcKO.jpg', 'width': 2880, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, '16': {'obj_id': '190628331', 'title': '好久没发图啦，宝宝们想我吗', 'content': '社团活动啊…似乎没有特别喜欢的活动呢,…和指挥官一起加入「回家部」如何?', 'like_num': 1398, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/UTDAZQTEDFTEIPLM.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, 'list': [{'obj_id': '190628599', 'title': '◆EGOIST◆', 'content': '出镜:荒境摄影＆后期:2兔', 'like_num': 751, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/78lJtrYoROzvUnVR.jpg', 'width': 1139, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628291', 'title': '赤城凰返图', 'content': '终于收到了返图啦！去展子出这个还是有点羞耻【并不！】太尴尬的就不发啦！！！一个假毛炸掉的赤城凰', 'like_num': 1906, 'has_like': 0, 'tags': '', 'author_id': 54, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/1BkAUikxyKfPbfLu.jpg', 'width': 2160, 'height': 1215, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628294', 'title': '【fate/extra】玉藻前漆黑魔术师', 'content': '那天夜景的自拍！会努力产图的！', 'like_num': 1903, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/APOqChY6sT7tlsB3.jpg', 'width': 3265, 'height': 2448, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628296', 'title': '【场照】妖刀姬', 'content': 'phx:互相黎姐', 'like_num': 2114, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/qLthl6HR5jD7smni.jpg', 'width': 2736, 'height': 1824, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628297', 'title': '终物语 忍盔甲', 'content': '姬丝秀忒@妖少you1\r photo@风来星人', 'like_num': 2958, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/yVs1N20VsFUins6B.jpg', 'width': 760, 'height': 506, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628299', 'title': 'LoveLive！|| 旗袍来袭 大家新年快乐～', 'content': '祝大家新年快乐～～\r旗袍希奉上 \r新年已经过3天～ 大家这几天怎么样 ❤️ \r\r希CN：光光\r摄影：梦玥\r后期：小半\r\r选了一套新年主题的旗袍～ 希望大家喜欢  \r再次祝大家新年快乐', 'like_num': 1249, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/JJRKRPIFUCZHOHLU.jpg', 'width': 2109, 'height': 3163, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628301', 'title': 'cos塞巴斯蒂安   场照', 'content': '#黑执事cos#  #塞巴斯蒂安#   #场照#（求kk，阿里嘎多~）塞巴斯蒂安：冰炎（原po）夏尔：艾雯妆娘：L子摄影：田宇轩后期：冰炎（原po）作为凡多母海威家的执事，连这点都做不到怎么行我想要的只有少爷，除此之外别无他物因为那是契约，我和少爷的只要是您希望的，我会陪伴您到天涯海角，就算王座崩塌，光辉闪耀的王冠褪色，数之不尽的尸骸堆积如山，在这堆积如山的尸骸上，我都陪在倒下的小国王身边直至听到喊出骑士的命令，那个时候为止', 'like_num': 1242, 'has_like': 0, 'tags': '', 'author_id': 66, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/zmsqnmAEAYeNOycC.jpg', 'width': 1280, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628302', 'title': '【第一弹新国风】忘羡', 'content': '魏无羡：白术\r蓝忘机：染染', 'like_num': 1733, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/vnaniyxTDEfdY5X0.jpg', 'width': 2160, 'height': 1442, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628304', 'title': '【cos正片】妮可小恶魔', 'content': '发现忘记发正片了你们将就着看吧', 'like_num': 1246, 'has_like': 0, 'tags': '', 'author_id': 69, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/GFB8LYe9v5Bv9046.jpg', 'width': 1616, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628440', 'title': '【梦间集淑女剑】', 'content': '情花相伴看尽悲欢窈窕淑女君子好逑出镜:暖笙微博:-暖笙-第一次凑不齐九宫格，因为摄影说我太凶了嘤嘤嘤', 'like_num': 527, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/EK20UJ7TRVIpXINm.jpg', 'width': 1228, 'height': 1840, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628306', 'title': '【cos預告】永遠的零·暗殺教室', 'content': '還記得那天晚上稍微有點冷(*´ω｀*)拍的那會還不知道小楓是小boss，所以表現的有點軟了還喜歡的話求個糖糖和關注咩(✽ ﾟдﾟ ✽)', 'like_num': 1301, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/Wjz6jlB2SR5eWr24.jpg', 'width': 1438, 'height': 960, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628314', 'title': '终结的炽天使 阿朱罗丸 cos试妆', 'content': '凶巴巴的阿朱罗丸|･ω･｀)\r只有157的我踮脚才能不让裙儿拖地上', 'like_num': 746, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/87B03V2nzClPNVq7.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628320', 'title': '阿离', 'content': '花了好久cos的阿离  喜欢吗  关注我哦', 'like_num': 2200, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/LlDPwhoKyT3ewrmK.jpg', 'width': 500, 'height': 334, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628323', 'title': '【cos正片】FGO 冲田总司 初始', 'content': '旧图存档～', 'like_num': 2876, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/ZfEby1yP82pjtGtj.jpg', 'width': 3008, 'height': 2008, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628325', 'title': '【cos试妆】斯卡哈', 'content': '驾驭不来驾驭不来～\r有点害羞就不打算正片啦～\r以后会考虑拍别的 ˋ( ° ▽、° )', 'like_num': 2450, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/W1mjwSThi7LO9mNk.jpg', 'width': 665, 'height': 998, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628329', 'title': '【第一弹新国风】红尘一梦，化蝶迷踪。', 'content': '冰蚕絮牵毒倾城，不惑众生惑君生。\r白月光破军毒姐嘤嘤嘤(´｡• ᵕ •｡`) \r出境\r毒姐 阿聿空空\r毒哥 六毛\r摄影 菠萝\r后期 豆腐\r团片的小组～', 'like_num': 714, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/em0DkwYyyJGnPcKO.jpg', 'width': 2880, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cosplay'}, {'obj_id': '190628331', 'title': '好久没发图啦，宝宝们想我吗', 'content': '社团活动啊…似乎没有特别喜欢的活动呢,…和指挥官一起加入「回家部」如何?', 'like_num': 1398, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/UTDAZQTEDFTEIPLM.jpg', 'width': 2598, 'height': 3464, 'lemon_num': 0, 'rec_package_id': 'cosplay'}], 'act_id': 0}}</t>
   </si>
   <si>
     <t>首页插画tab</t>
@@ -269,7 +260,7 @@
     <t>{'zone_id':'5','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1909173913', 'title': ' 【绅士福利】兽耳特辑 第13期', 'content': None, 'like_num': 2230, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/145f92ffab240d30cd39a9c2cbcfd3c3-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '1': {'obj_id': '1909173914', 'title': ' 【日榜】 福利满满 2017.12.01', 'content': None, 'like_num': 1376, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vzwkkxjj30xc0ni404.jpg', 'width': 1024, 'height': 722, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '2': {'obj_id': '1909173916', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 1844, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vuboxbuj31y038ojw0.jpg', 'width': 1024, 'height': 1707, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '3': {'obj_id': '1909173917', 'title': ' 【日榜】 福利满满 2017.10.26', 'content': None, 'like_num': 538, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vtvaujzj318g0xctau.jpg', 'width': 1024, 'height': 768, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '4': {'obj_id': '1909173932', 'title': ' 【日榜】 福利满满 2017.12.06', 'content': None, 'like_num': 2645, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vn7erxhj31hc0xcjta.jpg', 'width': 1024, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '5': {'obj_id': '1909173920', 'title': ' 【日榜】 福利满满 2017.10.27', 'content': None, 'like_num': 988, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vtlqxtlj31d60ystao.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '6': {'obj_id': '1909173921', 'title': ' 【日榜】 福利满满 2017.10.25', 'content': None, 'like_num': 2985, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vu3p0i8j345a2z6dm8.jpg', 'width': 1024, 'height': 735, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '7': {'obj_id': '1909173923', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 2333, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vt61ts8j31201jkwgg.jpg', 'width': 1024, 'height': 1497, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '8': {'obj_id': '1909173924', 'title': ' 【动漫】12.8号更新【262P】【百度】', 'content': None, 'like_num': 1040, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vqia57hj32ai1mcn0i.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '9': {'obj_id': '1909173925', 'title': ' 【日榜】 福利满满 2017.12.03', 'content': None, 'like_num': 1631, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vovyvtrj30rs0kiq4f.jpg', 'width': 1000, 'height': 738, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '10': {'obj_id': '1909173926', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 2998, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vq1k0l4j31rw2idwi6.jpg', 'width': 1024, 'height': 1448, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '11': {'obj_id': '1909173927', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 1221, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vqtxpvsj30rs0tm759.jpg', 'width': 1000, 'height': 1066, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '12': {'obj_id': '1909173928', 'title': ' 【日榜】 福利满满 2017.12.04', 'content': None, 'like_num': 1491, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vol9vhij30sg0k0go0.jpg', 'width': 1024, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '13': {'obj_id': '1909173931', 'title': ' 【绅士福利】兽耳特辑 第21期', 'content': None, 'like_num': 2818, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vmmln3lj326p320dlw.jpg', 'width': 1024, 'height': 1431, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '14': {'obj_id': '1909173919', 'title': ' 【绅士福利】兽耳特辑 第17期', 'content': None, 'like_num': 2977, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vsm5jn8j322k2xkaet.jpg', 'width': 1024, 'height': 1450, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '15': {'obj_id': '1909173981', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2196, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2uq2wfi6j30w11e0n0m.jpg', 'width': 1024, 'height': 1599, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '16': {'obj_id': '1909173982', 'title': ' 【日榜】 福利满满 2018.01.07', 'content': None, 'like_num': 881, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2u6sen3hj31m313dwpi.jpg', 'width': 1024, 'height': 694, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '17': {'obj_id': '1909173983', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 1812, 'has_like': 0, 'tags': '', 'author_id': 96, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2uowtiv8j30ob0whmzy.jpg', 'width': 875, 'height': 1169, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '18': {'obj_id': '1909173984', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 747, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/645d0c901654cc3bf2e093ff295e7242-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '19': {'obj_id': '1909173985', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 1963, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2udbik9ej30jg0m6wgl.jpg', 'width': 700, 'height': 798, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, 'list': [{'obj_id': '1909173913', 'title': ' 【绅士福利】兽耳特辑 第13期', 'content': None, 'like_num': 2230, 'has_like': 0, 'tags': '', 'author_id': 84, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/145f92ffab240d30cd39a9c2cbcfd3c3-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173914', 'title': ' 【日榜】 福利满满 2017.12.01', 'content': None, 'like_num': 1376, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vzwkkxjj30xc0ni404.jpg', 'width': 1024, 'height': 722, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173916', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 1844, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vuboxbuj31y038ojw0.jpg', 'width': 1024, 'height': 1707, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173917', 'title': ' 【日榜】 福利满满 2017.10.26', 'content': None, 'like_num': 538, 'has_like': 0, 'tags': '', 'author_id': 88, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vtvaujzj318g0xctau.jpg', 'width': 1024, 'height': 768, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173932', 'title': ' 【日榜】 福利满满 2017.12.06', 'content': None, 'like_num': 2645, 'has_like': 0, 'tags': '', 'author_id': 15, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vn7erxhj31hc0xcjta.jpg', 'width': 1024, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173920', 'title': ' 【日榜】 福利满满 2017.10.27', 'content': None, 'like_num': 988, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vtlqxtlj31d60ystao.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173921', 'title': ' 【日榜】 福利满满 2017.10.25', 'content': None, 'like_num': 2985, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vu3p0i8j345a2z6dm8.jpg', 'width': 1024, 'height': 735, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173923', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 2333, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vt61ts8j31201jkwgg.jpg', 'width': 1024, 'height': 1497, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173924', 'title': ' 【动漫】12.8号更新【262P】【百度】', 'content': None, 'like_num': 1040, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vqia57hj32ai1mcn0i.jpg', 'width': 1024, 'height': 724, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173925', 'title': ' 【日榜】 福利满满 2017.12.03', 'content': None, 'like_num': 1631, 'has_like': 0, 'tags': '', 'author_id': 2, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vovyvtrj30rs0kiq4f.jpg', 'width': 1000, 'height': 738, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173926', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 2998, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vq1k0l4j31rw2idwi6.jpg', 'width': 1024, 'height': 1448, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173927', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 1221, 'has_like': 0, 'tags': '', 'author_id': 4, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vqtxpvsj30rs0tm759.jpg', 'width': 1000, 'height': 1066, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173928', 'title': ' 【日榜】 福利满满 2017.12.04', 'content': None, 'like_num': 1491, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vol9vhij30sg0k0go0.jpg', 'width': 1024, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173931', 'title': ' 【绅士福利】兽耳特辑 第21期', 'content': None, 'like_num': 2818, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vmmln3lj326p320dlw.jpg', 'width': 1024, 'height': 1431, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173919', 'title': ' 【绅士福利】兽耳特辑 第17期', 'content': None, 'like_num': 2977, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2vsm5jn8j322k2xkaet.jpg', 'width': 1024, 'height': 1450, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173981', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 2196, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2uq2wfi6j30w11e0n0m.jpg', 'width': 1024, 'height': 1599, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173982', 'title': ' 【日榜】 福利满满 2018.01.07', 'content': None, 'like_num': 881, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2u6sen3hj31m313dwpi.jpg', 'width': 1024, 'height': 694, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173983', 'title': ' 【绅士日常】娜娜日常', 'content': None, 'like_num': 1812, 'has_like': 0, 'tags': '', 'author_id': 96, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2uowtiv8j30ob0whmzy.jpg', 'width': 875, 'height': 1169, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173984', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 747, 'has_like': 0, 'tags': '', 'author_id': 97, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/645d0c901654cc3bf2e093ff295e7242-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909173985', 'title': ' 【绅士热点】每日福利系列', 'content': None, 'like_num': 1963, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1fz2udbik9ej30jg0m6wgl.jpg', 'width': 700, 'height': 798, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1909174383', 'title': ' 【壁纸】2019-4-16', 'content': None, 'like_num': 655, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/c9fa7ff16b233b12e2553124a9652391-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '1': {'obj_id': '1909174384', 'title': ' 【绅士热点】每日福利系列 (2019-04-20)', 'content': None, 'like_num': 1126, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/60b0f8f32ff8ee7a81a066570e4cb818-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '2': {'obj_id': '1909174385', 'title': ' 【壁纸】2019-4-20', 'content': None, 'like_num': 628, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7b9fd782fa79ecb1ec2d1317c021d99b-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '3': {'obj_id': '1909174386', 'title': ' 【壁纸】2019-4-17', 'content': None, 'like_num': 1562, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/1383eecf0bb16883f8d9ede682fc3a12-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '4': {'obj_id': '1909174387', 'title': ' 【壁纸】2019-4-19', 'content': None, 'like_num': 1933, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/461fbbd47ad2b02d55a2a6829f42193c-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '5': {'obj_id': '1909174391', 'title': ' 【绅士热点】每日福利系列 (2019-04-22)', 'content': None, 'like_num': 1721, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/91bc05583ebdb7268217b4081f4a4d25-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '6': {'obj_id': '1909174392', 'title': ' 【绅士热点】每日福利系列 (2019-04-23)', 'content': None, 'like_num': 1007, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/0f2cfd153a7126f025a70113e372f796-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '7': {'obj_id': '1909174395', 'title': ' 【绅士热点】每日福利系列 (2019-04-21)', 'content': None, 'like_num': 1867, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/623274928ffadd0c371d87d547419567-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '8': {'obj_id': '1909174379', 'title': ' 【绅士热点】每日福利系列 (2019-04-15)', 'content': None, 'like_num': 1162, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/61cc051590d7ff9d89e008a31e661b71-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '9': {'obj_id': '1909174330', 'title': ' 【绅士热点】每日福利系列 (2019-03-10)', 'content': None, 'like_num': 787, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0x6qc1yy7j30m80v3769.jpg', 'width': 800, 'height': 1119, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '10': {'obj_id': '1909174331', 'title': ' 【绅士热点】每日福利系列 (2019-03-04)', 'content': None, 'like_num': 1634, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/372707ca898d63b0ccdb316e16fba397-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '11': {'obj_id': '1909174332', 'title': ' 【绅士热点】每日福利系列 (2019-03-05)', 'content': None, 'like_num': 1996, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/429229b9e26ceae04871cac2ae384f29-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '12': {'obj_id': '1909174333', 'title': ' 【壁纸】2019-3-5', 'content': None, 'like_num': 1109, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/534286d011959b4acd3e67b50295ed1e-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '13': {'obj_id': '1909174334', 'title': ' 【绅士福利】福利第311期', 'content': None, 'like_num': 1134, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0u761yco2j311r1hbn6w.jpg', 'width': 1024, 'height': 1446, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '14': {'obj_id': '1909174335', 'title': ' 【绅士热点】每日福利系列 (2019-03-12)', 'content': None, 'like_num': 2226, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/6fec72256b58988c920992211c77f3c4-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '15': {'obj_id': '1909174336', 'title': ' 【壁纸】2019-3-11', 'content': None, 'like_num': 2056, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0z9909qpsj318y0rsqjr.jpg', 'width': 1024, 'height': 633, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '16': {'obj_id': '1909174338', 'title': ' 【绅士热点】每日福利系列 (2019-03-13)', 'content': None, 'like_num': 633, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/19de293463bf45c7dc4f7961c1713996-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '17': {'obj_id': '1909174355', 'title': ' 【壁纸】2019-3-20', 'content': None, 'like_num': 2993, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/b4422a9c46392dacbe2271c500e3bb06-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '18': {'obj_id': '1909174341', 'title': ' 【壁纸】2019-3-9', 'content': None, 'like_num': 1332, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ef2f4d605c4389c82a8e12fd80067813-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, '19': {'obj_id': '1909174342', 'title': ' 【壁纸】2019-3-14', 'content': None, 'like_num': 801, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g13j9tjfz9j31hc0t6qco.jpg', 'width': 1024, 'height': 560, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, 'list': [{'obj_id': '1909174383', 'title': ' 【壁纸】2019-4-16', 'content': None, 'like_num': 655, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/c9fa7ff16b233b12e2553124a9652391-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174384', 'title': ' 【绅士热点】每日福利系列 (2019-04-20)', 'content': None, 'like_num': 1126, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/60b0f8f32ff8ee7a81a066570e4cb818-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174385', 'title': ' 【壁纸】2019-4-20', 'content': None, 'like_num': 628, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/7b9fd782fa79ecb1ec2d1317c021d99b-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174386', 'title': ' 【壁纸】2019-4-17', 'content': None, 'like_num': 1562, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/1383eecf0bb16883f8d9ede682fc3a12-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174387', 'title': ' 【壁纸】2019-4-19', 'content': None, 'like_num': 1933, 'has_like': 0, 'tags': '', 'author_id': 60, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/461fbbd47ad2b02d55a2a6829f42193c-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174391', 'title': ' 【绅士热点】每日福利系列 (2019-04-22)', 'content': None, 'like_num': 1721, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/91bc05583ebdb7268217b4081f4a4d25-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174392', 'title': ' 【绅士热点】每日福利系列 (2019-04-23)', 'content': None, 'like_num': 1007, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/0f2cfd153a7126f025a70113e372f796-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174395', 'title': ' 【绅士热点】每日福利系列 (2019-04-21)', 'content': None, 'like_num': 1867, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/623274928ffadd0c371d87d547419567-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174379', 'title': ' 【绅士热点】每日福利系列 (2019-04-15)', 'content': None, 'like_num': 1162, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/61cc051590d7ff9d89e008a31e661b71-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174330', 'title': ' 【绅士热点】每日福利系列 (2019-03-10)', 'content': None, 'like_num': 787, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0x6qc1yy7j30m80v3769.jpg', 'width': 800, 'height': 1119, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174331', 'title': ' 【绅士热点】每日福利系列 (2019-03-04)', 'content': None, 'like_num': 1634, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/372707ca898d63b0ccdb316e16fba397-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174332', 'title': ' 【绅士热点】每日福利系列 (2019-03-05)', 'content': None, 'like_num': 1996, 'has_like': 0, 'tags': '', 'author_id': 75, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/429229b9e26ceae04871cac2ae384f29-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174333', 'title': ' 【壁纸】2019-3-5', 'content': None, 'like_num': 1109, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/534286d011959b4acd3e67b50295ed1e-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174334', 'title': ' 【绅士福利】福利第311期', 'content': None, 'like_num': 1134, 'has_like': 0, 'tags': '', 'author_id': 77, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0u761yco2j311r1hbn6w.jpg', 'width': 1024, 'height': 1446, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174335', 'title': ' 【绅士热点】每日福利系列 (2019-03-12)', 'content': None, 'like_num': 2226, 'has_like': 0, 'tags': '', 'author_id': 78, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/6fec72256b58988c920992211c77f3c4-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174336', 'title': ' 【壁纸】2019-3-11', 'content': None, 'like_num': 2056, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g0z9909qpsj318y0rsqjr.jpg', 'width': 1024, 'height': 633, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174338', 'title': ' 【绅士热点】每日福利系列 (2019-03-13)', 'content': None, 'like_num': 633, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/19de293463bf45c7dc4f7961c1713996-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174355', 'title': ' 【壁纸】2019-3-20', 'content': None, 'like_num': 2993, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/b4422a9c46392dacbe2271c500e3bb06-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174341', 'title': ' 【壁纸】2019-3-9', 'content': None, 'like_num': 1332, 'has_like': 0, 'tags': '', 'author_id': 90, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/ef2f4d605c4389c82a8e12fd80067813-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 0, 'rec_package_id': 'illustrations'}, {'obj_id': '1909174342', 'title': ' 【壁纸】2019-3-14', 'content': None, 'like_num': 801, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/007iocwWly1g13j9tjfz9j31hc0t6qco.jpg', 'width': 1024, 'height': 560, 'lemon_num': 0, 'rec_package_id': 'illustrations'}], 'act_id': 0}}</t>
   </si>
   <si>
     <t>首页动漫tab</t>
@@ -281,7 +272,7 @@
     <t>{'zone_id':'6','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1579784833004950', 'title': None, 'content': '应该可以当壁纸吧?', 'like_num': 2456, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ccc91d68cb.jpg', 'width': 1000, 'height': 625, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '1': {'obj_id': '1579784336004931', 'title': None, 'content': '好看不可以做桌面壁纸', 'like_num': 1974, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/28fc11df6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDQzNjA1NDM4OTE1NjI5MCMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '2': {'obj_id': '1579774297004674', 'title': None, 'content': '我。。。太单纯了么？搞不懂套路（我是男的）', 'like_num': 1077, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/23eaf9e22d.jpg', 'width': 1080, 'height': 374, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '3': {'obj_id': '1579774312004675', 'title': None, 'content': '第一次发图^v^', 'like_num': 2387, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6aab2c80b9.jpg', 'width': 800, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '4': {'obj_id': '1579774320004676', 'title': None, 'content': '壁纸如何', 'like_num': 762, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/cc74d2178f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MzQ5MTYyMzM4OTg2NDkwMiM1MjUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '5': {'obj_id': '1579774359004678', 'title': None, 'content': '哟~好看不', 'like_num': 1672, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/47e3a74e17.jpg', 'width': 680, 'height': 1208, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '6': {'obj_id': '1579774364004679', 'title': None, 'content': '老婆性感，老公??。', 'like_num': 2803, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/0ff4d8196a.jpg', 'width': 700, 'height': 583, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '7': {'obj_id': '1579774385004680', 'title': None, 'content': '爱丽丝赛高！', 'like_num': 647, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/4a9548a1b3.jpg', 'width': 768, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '8': {'obj_id': '1579774417004683', 'title': None, 'content': '神tm的枪，萌新我放弃了', 'like_num': 1602, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/b6c066fea3.jpg', 'width': 2304, 'height': 2601, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '9': {'obj_id': '1579774435004684', 'title': None, 'content': '社会黑恶势力', 'like_num': 1465, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/49b743947e.jpg', 'width': 672, 'height': 950, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '10': {'obj_id': '1579774460004685', 'title': None, 'content': '支持桐人亚丝娜', 'like_num': 1877, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/19d5d495a0.jpg', 'width': 1024, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '11': {'obj_id': '1579774476004687', 'title': None, 'content': '，！！，', 'like_num': 1606, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b4993a4317.jpg', 'width': 544, 'height': 976, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2Mjk5MTMzNDc3NjExMTY4OCMyNDEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '12': {'obj_id': '1579774505004688', 'title': None, 'content': '这次全桐姥爷吧', 'like_num': 1033, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e357cd6d97.jpg', 'width': 640, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '13': {'obj_id': '1579778891004809', 'title': None, 'content': '刀剑神域·失落之歌 桐人VS皇！！！！激烈打斗！！', 'like_num': 563, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8a83d981d3.jpg', 'width': 1287, 'height': 804, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3MDYzNDgxNDczNzMxOCM3NjcjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '14': {'obj_id': '1579774577004691', 'title': None, 'content': '扑克系列', 'like_num': 796, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a7f0ba35aa.jpg', 'width': 1069, 'height': 1500, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '15': {'obj_id': '1579774608004693', 'title': None, 'content': '哈哈，你们好', 'like_num': 2814, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3da9dd20a6.jpg', 'width': 1280, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '16': {'obj_id': '1579774656004695', 'title': None, 'content': '不知道取什么题目', 'like_num': 1268, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/519713c4a8.jpg', 'width': 320, 'height': 480, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '17': {'obj_id': '1579774681004696', 'title': None, 'content': '水日常水', 'like_num': 2260, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/88fa22e014.jpg', 'width': 640, 'height': 746, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '18': {'obj_id': '1579774705004697', 'title': None, 'content': '美美亚丝娜', 'like_num': 1395, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cdc25d586b.jpg', 'width': 640, 'height': 960, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '19': {'obj_id': '1579774743004699', 'title': None, 'content': '我个人最高分', 'like_num': 2798, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/0c7bd1b6a2.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, 'list': [{'obj_id': '1579784833004950', 'title': None, 'content': '应该可以当壁纸吧?', 'like_num': 2456, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ccc91d68cb.jpg', 'width': 1000, 'height': 625, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579784336004931', 'title': None, 'content': '好看不可以做桌面壁纸', 'like_num': 1974, 'has_like': 0, 'tags': '', 'author_id': 86, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/28fc11df6c.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDQzNjA1NDM4OTE1NjI5MCMyODkjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774297004674', 'title': None, 'content': '我。。。太单纯了么？搞不懂套路（我是男的）', 'like_num': 1077, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/23eaf9e22d.jpg', 'width': 1080, 'height': 374, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774312004675', 'title': None, 'content': '第一次发图^v^', 'like_num': 2387, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6aab2c80b9.jpg', 'width': 800, 'height': 1280, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774320004676', 'title': None, 'content': '壁纸如何', 'like_num': 762, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/cc74d2178f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MzQ5MTYyMzM4OTg2NDkwMiM1MjUjbXA0.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774359004678', 'title': None, 'content': '哟~好看不', 'like_num': 1672, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/47e3a74e17.jpg', 'width': 680, 'height': 1208, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774364004679', 'title': None, 'content': '老婆性感，老公??。', 'like_num': 2803, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/0ff4d8196a.jpg', 'width': 700, 'height': 583, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774385004680', 'title': None, 'content': '爱丽丝赛高！', 'like_num': 647, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/4a9548a1b3.jpg', 'width': 768, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774417004683', 'title': None, 'content': '神tm的枪，萌新我放弃了', 'like_num': 1602, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/b6c066fea3.jpg', 'width': 2304, 'height': 2601, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774435004684', 'title': None, 'content': '社会黑恶势力', 'like_num': 1465, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/49b743947e.jpg', 'width': 672, 'height': 950, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774460004685', 'title': None, 'content': '支持桐人亚丝娜', 'like_num': 1877, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/19d5d495a0.jpg', 'width': 1024, 'height': 640, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774476004687', 'title': None, 'content': '，！！，', 'like_num': 1606, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b4993a4317.jpg', 'width': 544, 'height': 976, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2Mjk5MTMzNDc3NjExMTY4OCMyNDEjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774505004688', 'title': None, 'content': '这次全桐姥爷吧', 'like_num': 1033, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/e357cd6d97.jpg', 'width': 640, 'height': 750, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579778891004809', 'title': None, 'content': '刀剑神域·失落之歌 桐人VS皇！！！！激烈打斗！！', 'like_num': 563, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8a83d981d3.jpg', 'width': 1287, 'height': 804, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU1OTk3MDYzNDgxNDczNzMxOCM3NjcjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774577004691', 'title': None, 'content': '扑克系列', 'like_num': 796, 'has_like': 0, 'tags': '', 'author_id': 70, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a7f0ba35aa.jpg', 'width': 1069, 'height': 1500, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774608004693', 'title': None, 'content': '哈哈，你们好', 'like_num': 2814, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3da9dd20a6.jpg', 'width': 1280, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774656004695', 'title': None, 'content': '不知道取什么题目', 'like_num': 1268, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/519713c4a8.jpg', 'width': 320, 'height': 480, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774681004696', 'title': None, 'content': '水日常水', 'like_num': 2260, 'has_like': 0, 'tags': '', 'author_id': 31, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/88fa22e014.jpg', 'width': 640, 'height': 746, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774705004697', 'title': None, 'content': '美美亚丝娜', 'like_num': 1395, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cdc25d586b.jpg', 'width': 640, 'height': 960, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579774743004699', 'title': None, 'content': '我个人最高分', 'like_num': 2798, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/0c7bd1b6a2.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '1579776127004752', 'title': None, 'content': '《刀剑神域：序列之争》当我拔出第二把剑的时候，就没有人能在我面前站着', 'like_num': 517, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7d9ab7e15c.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDE5MTMzMjAzMTE2NTYyOCM3NjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '1': {'obj_id': '1579776271004756', 'title': None, 'content': '《刀剑神域序列之争》单片剪辑版', 'like_num': 2724, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/a810618982.jpg', 'width': 384, 'height': 240, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDE5Njc5OTgxMzI0NjM3NCM5MDcjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '2': {'obj_id': '1579775493004737', 'title': None, 'content': '霸屏时刻，截图纪念', 'like_num': 1818, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ec49dbdce7.jpg', 'width': 720, 'height': 1520, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '3': {'obj_id': '1579791736004270', 'title': None, 'content': '求刀剑壁纸', 'like_num': 2755, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3abe710274.jpg', 'width': 658, 'height': 385, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '4': {'obj_id': '1579791743004271', 'title': None, 'content': '别说了。水经验', 'like_num': 1519, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/4fcdba7c50.jpg', 'width': 960, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '5': {'obj_id': '1579791754004272', 'title': None, 'content': '提早祝大家圣诞快乐(ʃƪ ˘ ³˘)', 'like_num': 1283, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/5706e69ff9.jpg', 'width': 1024, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '6': {'obj_id': '1579791761004273', 'title': None, 'content': '有人喜欢这张吗（嘻嘻嘻⁽(◍˃̵͈̑ᴗ˂̵͈̑)⁽）', 'like_num': 2387, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/4f74c8525b.jpg', 'width': 1505, 'height': 2007, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '7': {'obj_id': '1579791822004274', 'title': None, 'content': '蹭蹭经验 嘿嘿', 'like_num': 2462, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c7a41fd41e.jpg', 'width': 720, 'height': 576, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NDY4MTMyNDQwNzU2NTc0NSM3MzMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '8': {'obj_id': '1579791841004276', 'title': None, 'content': '连下边的桐人', 'like_num': 878, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/f1504a2701.jpg', 'width': 1024, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '9': {'obj_id': '1579791876004278', 'title': None, 'content': '那个我是新人，刀剑神域3不是25集吗？后面的出了吗？在哪看？', 'like_num': 993, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a11ea8934f.jpg', 'width': 1206, 'height': 1005, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '10': {'obj_id': '1579791903004280', 'title': None, 'content': '这是个啥啊？', 'like_num': 623, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cd0f3e5895.jpg', 'width': 1080, 'height': 2280, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '11': {'obj_id': '1579791911004281', 'title': None, 'content': '绿化娜', 'like_num': 1819, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/f4466e16a8.jpg', 'width': 700, 'height': 896, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '12': {'obj_id': '1579792002004288', 'title': None, 'content': '求桐人相似图啊，侧脸单眼，', 'like_num': 2253, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/323ee58cb7.jpg', 'width': 2160, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '13': {'obj_id': '1579792118004289', 'title': None, 'content': '为什么进不去', 'like_num': 1306, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7fffd96753.jpg', 'width': 1520, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '14': {'obj_id': '1579790195004225', 'title': None, 'content': '你们发现了什么', 'like_num': 2913, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ed83eadb86.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '15': {'obj_id': '1579792406004293', 'title': None, 'content': '没有标题09', 'like_num': 559, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/03d61f3c82.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTA4OTc0MjYwMjA1ODk1MSM0MjgjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '16': {'obj_id': '1579792532004294', 'title': None, 'content': '没有标题08', 'like_num': 2488, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4b6e23797c.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTA4OTY2MzMxNjM5MDY0MCM0NzMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '17': {'obj_id': '1579792919004297', 'title': None, 'content': '没有标题05', 'like_num': 2211, 'has_like': 0, 'tags': '', 'author_id': 12, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/463929a39e.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTA4ODYxNTc0OTgzNDg2MyM4MDIjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '18': {'obj_id': '1579793069004298', 'title': None, 'content': '刀剑神域第二季 14', 'like_num': 800, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6e5d16a35e.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTEzNjYxMzc3MjQ1ODExOSM4MjgjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, '19': {'obj_id': '1579793230004300', 'title': None, 'content': '刀剑神域第二季 18', 'like_num': 2787, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/55ea617674.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTEzNzA3MDgyODI1NTY0NCM3NjMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, 'list': [{'obj_id': '1579776127004752', 'title': None, 'content': '《刀剑神域：序列之争》当我拔出第二把剑的时候，就没有人能在我面前站着', 'like_num': 517, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/7d9ab7e15c.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDE5MTMzMjAzMTE2NTYyOCM3NjUjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579776271004756', 'title': None, 'content': '《刀剑神域序列之争》单片剪辑版', 'like_num': 2724, 'has_like': 0, 'tags': '', 'author_id': 55, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/a810618982.jpg', 'width': 384, 'height': 240, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2MDE5Njc5OTgxMzI0NjM3NCM5MDcjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579775493004737', 'title': None, 'content': '霸屏时刻，截图纪念', 'like_num': 1818, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ec49dbdce7.jpg', 'width': 720, 'height': 1520, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791736004270', 'title': None, 'content': '求刀剑壁纸', 'like_num': 2755, 'has_like': 0, 'tags': '', 'author_id': 9, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/3abe710274.jpg', 'width': 658, 'height': 385, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791743004271', 'title': None, 'content': '别说了。水经验', 'like_num': 1519, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/4fcdba7c50.jpg', 'width': 960, 'height': 600, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791754004272', 'title': None, 'content': '提早祝大家圣诞快乐(ʃƪ ˘ ³˘)', 'like_num': 1283, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/5706e69ff9.jpg', 'width': 1024, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791761004273', 'title': None, 'content': '有人喜欢这张吗（嘻嘻嘻⁽(◍˃̵͈̑ᴗ˂̵͈̑)⁽）', 'like_num': 2387, 'has_like': 0, 'tags': '', 'author_id': 100, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/4f74c8525b.jpg', 'width': 1505, 'height': 2007, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791822004274', 'title': None, 'content': '蹭蹭经验 嘿嘿', 'like_num': 2462, 'has_like': 0, 'tags': '', 'author_id': 89, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c7a41fd41e.jpg', 'width': 720, 'height': 576, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NDY4MTMyNDQwNzU2NTc0NSM3MzMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791841004276', 'title': None, 'content': '连下边的桐人', 'like_num': 878, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/f1504a2701.jpg', 'width': 1024, 'height': 1024, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791876004278', 'title': None, 'content': '那个我是新人，刀剑神域3不是25集吗？后面的出了吗？在哪看？', 'like_num': 993, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/a11ea8934f.jpg', 'width': 1206, 'height': 1005, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791903004280', 'title': None, 'content': '这是个啥啊？', 'like_num': 623, 'has_like': 0, 'tags': '', 'author_id': 1, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/cd0f3e5895.jpg', 'width': 1080, 'height': 2280, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579791911004281', 'title': None, 'content': '绿化娜', 'like_num': 1819, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/f4466e16a8.jpg', 'width': 700, 'height': 896, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579792002004288', 'title': None, 'content': '求桐人相似图啊，侧脸单眼，', 'like_num': 2253, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/323ee58cb7.jpg', 'width': 2160, 'height': 1080, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579792118004289', 'title': None, 'content': '为什么进不去', 'like_num': 1306, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7fffd96753.jpg', 'width': 1520, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579790195004225', 'title': None, 'content': '你们发现了什么', 'like_num': 2913, 'has_like': 0, 'tags': '', 'author_id': 42, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ed83eadb86.jpg', 'width': 1280, 'height': 720, 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579792406004293', 'title': None, 'content': '没有标题09', 'like_num': 559, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/03d61f3c82.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTA4OTc0MjYwMjA1ODk1MSM0MjgjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579792532004294', 'title': None, 'content': '没有标题08', 'like_num': 2488, 'has_like': 0, 'tags': '', 'author_id': 25, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4b6e23797c.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTA4OTY2MzMxNjM5MDY0MCM0NzMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579792919004297', 'title': None, 'content': '没有标题05', 'like_num': 2211, 'has_like': 0, 'tags': '', 'author_id': 12, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/463929a39e.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTA4ODYxNTc0OTgzNDg2MyM4MDIjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579793069004298', 'title': None, 'content': '刀剑神域第二季 14', 'like_num': 800, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6e5d16a35e.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTEzNjYxMzc3MjQ1ODExOSM4MjgjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}, {'obj_id': '1579793230004300', 'title': None, 'content': '刀剑神域第二季 18', 'like_num': 2787, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/55ea617674.jpg', 'width': 1280, 'height': 720, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU2NTEzNzA3MDgyODI1NTY0NCM3NjMjbXA0-5.mp4', 'lemon_num': 0, 'rec_package_id': 'cartoon'}], 'act_id': 0}}</t>
   </si>
   <si>
     <t>首页段子tab</t>
@@ -293,7 +284,7 @@
     <t>{'zone_id':'4','page':'1','pagesize':'20','app_key':'lemondream_3','scene_id':'2001','device_token':'867672030793812'}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '191113214', 'title': None, 'content': '总感觉哪里不对劲', 'like_num': 2756, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2207ee0fb8.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620100.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '1': {'obj_id': '191113067', 'title': None, 'content': '蹦迪不咯', 'like_num': 2702, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6c96998c56.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2534050.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '2': {'obj_id': '191113212', 'title': None, 'content': '我觉得还可以别骂我', 'like_num': 2997, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/ec57997111.jpg', 'width': 960, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2618850.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '3': {'obj_id': '191113211', 'title': None, 'content': '一波骚操作', 'like_num': 504, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4b5cd607d8.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619140.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '4': {'obj_id': '191113209', 'title': None, 'content': '哈哈哈牛蛙教你怎么游蛙泳牛蛙亲身示范教游蛙泳', 'like_num': 1657, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/117ae1dcab.jpg', 'width': 360, 'height': 632, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619150.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '5': {'obj_id': '191113208', 'title': None, 'content': '李信无限变身BUG实战已经测试可以用', 'like_num': 2336, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d89ed1df31.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '6': {'obj_id': '191113207', 'title': None, 'content': '出汗越多减肥越快，拼了🤪🤪', 'like_num': 508, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b08abd172f.jpg', 'width': 352, 'height': 624, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619190.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '7': {'obj_id': '191113206', 'title': None, 'content': '这个动作好熟悉噢，哈哈哈', 'like_num': 710, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/29f6d68d4f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620150.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '8': {'obj_id': '191113205', 'title': None, 'content': '猫都成精了', 'like_num': 740, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5292cfe2b1.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2618860.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '9': {'obj_id': '191113204', 'title': None, 'content': '👹', 'like_num': 1627, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b04bbf8c59.jpg', 'width': 480, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2618870.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '10': {'obj_id': '191113203', 'title': None, 'content': '疯狂的外卖员《方言版》', 'like_num': 1067, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/efa3aa64e1.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/26188352821_1574569399056.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '11': {'obj_id': '191113197', 'title': None, 'content': '想要蜘蛛侠的网', 'like_num': 2359, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/49ae370efb.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620160.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '12': {'obj_id': '191113196', 'title': None, 'content': '金克丝的含义就是金克丝', 'like_num': 2805, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9e86c186e4.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '13': {'obj_id': '191113115', 'title': None, 'content': '应该不会跑掉吧你们❤️', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9e47ff5fc0.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2530580.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '14': {'obj_id': '191113213', 'title': None, 'content': '你大爷永远是你大爷', 'like_num': 878, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/44fa4c3474.jpg', 'width': 534, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620110.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '15': {'obj_id': '191111536', 'title': None, 'content': '这妹子哪个好看', 'like_num': 973, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b84839e86d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617390.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '16': {'obj_id': '191111535', 'title': None, 'content': '你可能永远不知道，一个戴眼镜的人眼睛究竟有多大。。。', 'like_num': 1948, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f385345a8b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617380.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '17': {'obj_id': '191111534', 'title': None, 'content': '233333', 'like_num': 2423, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/72448e318d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617420.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '18': {'obj_id': '191111533', 'title': None, 'content': '一把丢出来，气死宝宝了😂', 'like_num': 925, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c381b0c4b7.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617430.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '19': {'obj_id': '191111530', 'title': None, 'content': '大家看一下这二哈纯不纯？', 'like_num': 553, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6e6ae32008.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617480.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, 'list': [{'obj_id': '191113214', 'title': None, 'content': '总感觉哪里不对劲', 'like_num': 2756, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2207ee0fb8.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620100.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113067', 'title': None, 'content': '蹦迪不咯', 'like_num': 2702, 'has_like': 0, 'tags': '', 'author_id': 20, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6c96998c56.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2534050.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113212', 'title': None, 'content': '我觉得还可以别骂我', 'like_num': 2997, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/ec57997111.jpg', 'width': 960, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2618850.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113211', 'title': None, 'content': '一波骚操作', 'like_num': 504, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4b5cd607d8.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619140.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113209', 'title': None, 'content': '哈哈哈牛蛙教你怎么游蛙泳牛蛙亲身示范教游蛙泳', 'like_num': 1657, 'has_like': 0, 'tags': '', 'author_id': 38, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/117ae1dcab.jpg', 'width': 360, 'height': 632, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619150.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113208', 'title': None, 'content': '李信无限变身BUG实战已经测试可以用', 'like_num': 2336, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d89ed1df31.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113207', 'title': None, 'content': '出汗越多减肥越快，拼了🤪🤪', 'like_num': 508, 'has_like': 0, 'tags': '', 'author_id': 36, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b08abd172f.jpg', 'width': 352, 'height': 624, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2619190.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113206', 'title': None, 'content': '这个动作好熟悉噢，哈哈哈', 'like_num': 710, 'has_like': 0, 'tags': '', 'author_id': 35, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/29f6d68d4f.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620150.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113205', 'title': None, 'content': '猫都成精了', 'like_num': 740, 'has_like': 0, 'tags': '', 'author_id': 34, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5292cfe2b1.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2618860.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113204', 'title': None, 'content': '👹', 'like_num': 1627, 'has_like': 0, 'tags': '', 'author_id': 33, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b04bbf8c59.jpg', 'width': 480, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2618870.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113203', 'title': None, 'content': '疯狂的外卖员《方言版》', 'like_num': 1067, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/efa3aa64e1.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/26188352821_1574569399056.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113197', 'title': None, 'content': '想要蜘蛛侠的网', 'like_num': 2359, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/49ae370efb.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620160.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113196', 'title': None, 'content': '金克丝的含义就是金克丝', 'like_num': 2805, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9e86c186e4.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620170.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113115', 'title': None, 'content': '应该不会跑掉吧你们❤️', 'like_num': 1139, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9e47ff5fc0.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2530580.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191113213', 'title': None, 'content': '你大爷永远是你大爷', 'like_num': 878, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/44fa4c3474.jpg', 'width': 534, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2620110.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111536', 'title': None, 'content': '这妹子哪个好看', 'like_num': 973, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b84839e86d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617390.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111535', 'title': None, 'content': '你可能永远不知道，一个戴眼镜的人眼睛究竟有多大。。。', 'like_num': 1948, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f385345a8b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617380.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111534', 'title': None, 'content': '233333', 'like_num': 2423, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/72448e318d.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617420.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111533', 'title': None, 'content': '一把丢出来，气死宝宝了😂', 'like_num': 925, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c381b0c4b7.jpg', 'width': 544, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617430.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111530', 'title': None, 'content': '大家看一下这二哈纯不纯？', 'like_num': 553, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/6e6ae32008.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617480.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}], 'act_id': 0}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'0': {'obj_id': '191111671', 'title': None, 'content': '23333', 'like_num': 1403, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d64ed19e9b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616250.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '1': {'obj_id': '191111670', 'title': None, 'content': '手指舞😘😘这个小姐姐好嗨哦', 'like_num': 2472, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5cd30133d3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616230.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '2': {'obj_id': '191111668', 'title': None, 'content': '全能的泡面再次刷新我的世界观答应我看到最后', 'like_num': 1845, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/23824f7848.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616300.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '3': {'obj_id': '191111667', 'title': None, 'content': '2333333', 'like_num': 1407, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2ca82a2e0c.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616260.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '4': {'obj_id': '191111666', 'title': None, 'content': '233333', 'like_num': 1933, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/32c8961bdf.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616010.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '5': {'obj_id': '191111570', 'title': None, 'content': '23333', 'like_num': 1974, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/016457bf0e.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617120.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '6': {'obj_id': '191111662', 'title': None, 'content': '陈江河正在赶来的路上', 'like_num': 2405, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/3b3b1a5600.jpg', 'width': 958, 'height': 402, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616280.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '7': {'obj_id': '191111661', 'title': None, 'content': '抢了索隆的名刀秋水还让索隆切腹自尽 索隆竟然还配合他', 'like_num': 1598, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/845e8f0d8a.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616290.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '8': {'obj_id': '191111660', 'title': None, 'content': '23333', 'like_num': 1704, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/3b9fc3f530.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616320.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '9': {'obj_id': '191111659', 'title': None, 'content': '只有在梦境中，才能让自己流血的男人。', 'like_num': 1993, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/be0d8443b3.jpg', 'width': 956, 'height': 442, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616270.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '10': {'obj_id': '191111657', 'title': None, 'content': '2333333', 'like_num': 1892, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e007329b37.jpg', 'width': 698, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616020.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '11': {'obj_id': '191111656', 'title': None, 'content': '靓仔，点个赞呗', 'like_num': 10, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0984bf1e6d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616030.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '12': {'obj_id': '191111655', 'title': None, 'content': '神奇小手工', 'like_num': 1695, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/dea7396462.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616040.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '13': {'obj_id': '191111653', 'title': None, 'content': '哇 来个嘚', 'like_num': 2201, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/48aef8c217.jpg', 'width': 568, 'height': 320, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616310.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '14': {'obj_id': '191111647', 'title': None, 'content': '23333', 'like_num': 2227, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4435cc311c.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616340.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '15': {'obj_id': '191111645', 'title': None, 'content': '233333聪明的人', 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/a46c2a6f48.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616370.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '16': {'obj_id': '191111644', 'title': None, 'content': '厄加特：奶妈，你特么奶错人了。', 'like_num': 2971, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/1f430bb275.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616350.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '17': {'obj_id': '191111643', 'title': None, 'content': '第二遍，能火吗？', 'like_num': 2638, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f7ee8163d3.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616380.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '18': {'obj_id': '191111665', 'title': None, 'content': '一个村主任，你以为这就是他的身份。', 'like_num': 1052, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c0e2cefb33.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616090.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, '19': {'obj_id': '191111727', 'title': None, 'content': '把老公整迷糊了', 'like_num': 1319, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f18a1da6b9.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2615610.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, 'list': [{'obj_id': '191111671', 'title': None, 'content': '23333', 'like_num': 1403, 'has_like': 0, 'tags': '', 'author_id': 74, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/d64ed19e9b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616250.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111670', 'title': None, 'content': '手指舞😘😘这个小姐姐好嗨哦', 'like_num': 2472, 'has_like': 0, 'tags': '', 'author_id': 73, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5cd30133d3.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616230.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111668', 'title': None, 'content': '全能的泡面再次刷新我的世界观答应我看到最后', 'like_num': 1845, 'has_like': 0, 'tags': '', 'author_id': 65, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/23824f7848.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616300.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111667', 'title': None, 'content': '2333333', 'like_num': 1407, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2ca82a2e0c.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616260.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111666', 'title': None, 'content': '233333', 'like_num': 1933, 'has_like': 0, 'tags': '', 'author_id': 63, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/32c8961bdf.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616010.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111570', 'title': None, 'content': '23333', 'like_num': 1974, 'has_like': 0, 'tags': '', 'author_id': 17, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/016457bf0e.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2617120.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111662', 'title': None, 'content': '陈江河正在赶来的路上', 'like_num': 2405, 'has_like': 0, 'tags': '', 'author_id': 59, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/3b3b1a5600.jpg', 'width': 958, 'height': 402, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616280.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111661', 'title': None, 'content': '抢了索隆的名刀秋水还让索隆切腹自尽 索隆竟然还配合他', 'like_num': 1598, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/845e8f0d8a.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616290.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111660', 'title': None, 'content': '23333', 'like_num': 1704, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/3b9fc3f530.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616320.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111659', 'title': None, 'content': '只有在梦境中，才能让自己流血的男人。', 'like_num': 1993, 'has_like': 0, 'tags': '', 'author_id': 50, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/be0d8443b3.jpg', 'width': 956, 'height': 442, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616270.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111657', 'title': None, 'content': '2333333', 'like_num': 1892, 'has_like': 0, 'tags': '', 'author_id': 48, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/e007329b37.jpg', 'width': 698, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616020.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111656', 'title': None, 'content': '靓仔，点个赞呗', 'like_num': 10, 'has_like': 0, 'tags': '', 'author_id': 47, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/0984bf1e6d.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616030.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111655', 'title': None, 'content': '神奇小手工', 'like_num': 1695, 'has_like': 0, 'tags': '', 'author_id': 46, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/dea7396462.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616040.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111653', 'title': None, 'content': '哇 来个嘚', 'like_num': 2201, 'has_like': 0, 'tags': '', 'author_id': 44, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/48aef8c217.jpg', 'width': 568, 'height': 320, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616310.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111647', 'title': None, 'content': '23333', 'like_num': 2227, 'has_like': 0, 'tags': '', 'author_id': 32, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4435cc311c.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616340.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111645', 'title': None, 'content': '233333聪明的人', 'like_num': 1201, 'has_like': 0, 'tags': '', 'author_id': 30, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/a46c2a6f48.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616370.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111644', 'title': None, 'content': '厄加特：奶妈，你特么奶错人了。', 'like_num': 2971, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/1f430bb275.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616350.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111643', 'title': None, 'content': '第二遍，能火吗？', 'like_num': 2638, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f7ee8163d3.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616380.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111665', 'title': None, 'content': '一个村主任，你以为这就是他的身份。', 'like_num': 1052, 'has_like': 0, 'tags': '', 'author_id': 62, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/c0e2cefb33.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2616090.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}, {'obj_id': '191111727', 'title': None, 'content': '把老公整迷糊了', 'like_num': 1319, 'has_like': 0, 'tags': '', 'author_id': 56, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/f18a1da6b9.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2615610.mp4', 'lemon_num': 0, 'rec_package_id': 'jokes'}], 'act_id': 0}}</t>
   </si>
   <si>
     <t>第三方登陆</t>
@@ -314,9 +305,6 @@
     <t>{'code': 0, 'msg': '请求成功', 'data': {'is_bind': 1, 'access_token': '9oxe3i55e99mdlx28r7civbe6', 'refresh_token': 'z89kwwmm18zwjrhsxl0c70tro', 'expires_in': 3600, 'uid': 1060}}</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>手机号登录-发短信</t>
   </si>
   <si>
@@ -324,12 +312,15 @@
   </si>
   <si>
     <t>{
- 'device': '8676720307938121',
+ 'device': '86767203079381212333',
  'mobile': '12345678994'
 }</t>
   </si>
   <si>
-    <t>{'code': 10124, 'msg': '设备今日发送短信次数超过上限'}</t>
+    <t>{"msg":"短信发送成功"}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '短信发送成功', 'data': []}</t>
   </si>
   <si>
     <t>手机号登录-输入验证码</t>
@@ -346,7 +337,7 @@
 }</t>
   </si>
   <si>
-    <t>'data'</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'access_token': '6klvrq69q4x4ttxgnwer17f34', 'refresh_token': 'meb02os0rjnx2yy6s3ieh5ybv', 'expires_in': 3600, 'uid': 83}}</t>
   </si>
   <si>
     <t>用户信息</t>
@@ -361,7 +352,7 @@
     <t>{"id","nickname"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 88, 'showid': 'ii88', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/88.gif', 'sex': 3, 'nickname': '我是你的大笨居', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'third_type': 0, 'is_anchor': 0, 'is_anchor_ban': 0}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 83, 'showid': 'di83', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/83/avatar/1577261562689.jpg', 'sex': 3, 'nickname': '首席甜言蜜语轰炸官', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'third_type': 0, 'is_anchor': 1, 'is_anchor_ban': 0}}</t>
   </si>
   <si>
     <t>sync</t>
@@ -370,7 +361,7 @@
     <t>/api/user/sync</t>
   </si>
   <si>
-    <t>{"access_token":access_token,"device_brand":"OPPO","location":"default","device_model":"OPPO A57","device_token":"867672030793812","device_type":1,"dreampix_device_id":"V1_d0f338928d64b38a038a772d4424891ad3e177ddb94986772c2de4256121d019"}</t>
+    <t>{"access_token":access_token,"device_brand":"OPPO","location":"default","device_model":"OPPO A57","device_token":"86767203079381212333","device_type":1,"dreampix_device_id":"V1_d0f338928d64b38a038a772d4424891ad3e177ddb94986772c2de4256121d019"}</t>
   </si>
   <si>
     <t>主页详情</t>
@@ -391,6 +382,9 @@
     <t>{"id","showid","avatar"}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'id': 83, 'showid': 'di83', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/83/avatar/1577261562689.jpg', 'sex': 3, 'nickname': '首席甜言蜜语轰炸官', 'birthday': '2000-01-01', 'province': '', 'city': '', 'signature': '', 'give_lemon_num': 9, 'receive_lemon_num': 2, 'release_content_num': 241, 'tag_list': None, 'anchor_info': {'live_id': '201912265', 'is_online': 0}, 'is_follow': 0, 'follow_num': 1, 'fans_num': 0}}</t>
+  </si>
+  <si>
     <t>已发布的作品列表</t>
   </si>
   <si>
@@ -400,18 +394,27 @@
     <t>{'user_id':uid,'page':'1','pagesize':'20','access_token':access_token}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': [{'obj_id': '2004201', 'title': '1587447958992', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004200', 'title': '1587378857231', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004199', 'title': '1587378717957', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}, {'obj_id': '2004198', 'title': '1587378716825', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004197', 'title': '1587378661130', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004196', 'title': '1587378615699', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004195', 'title': '1587378532096', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004194', 'title': '1587378522212', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004193', 'title': '1587378502582', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004192', 'title': '1587378481714', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004191', 'title': '1587378459563', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004190', 'title': '1587378430489', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004189', 'title': '1587378404896', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004188', 'title': '1587378394223', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004187', 'title': '1587378385938', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004186', 'title': '1587378329930', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004185', 'title': '1587378243991', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004184', 'title': '1587377846405', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004183', 'title': '1587377708686', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}, {'obj_id': '2004182', 'title': '1587377667519', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}]}</t>
+  </si>
+  <si>
     <t>砸柠檬列表</t>
   </si>
   <si>
     <t>/api/user_home_page/get_user_give_lemon_list</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'like_num': 2792, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'width': 2109, 'height': 2996, 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'like_num': 596, 'has_like': 0, 'tags': '', 'author_id': 58, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'width': 2109, 'height': 2996, 'lemon_num': 2, 'rec_package_id': ''}, {'obj_id': '1579282157004226', 'title': None, 'content': 'emmmm🤔🤔', 'like_num': 1651, 'has_like': 0, 'tags': '', 'author_id': 67, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/82a1289b63.jpg', 'width': 720, 'height': 1290, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/MTU3NzE5MjUzNDAwMTIxNzc1NCM3MjQjbXA0.mp4', 'lemon_num': 3, 'rec_package_id': ''}, {'obj_id': '1579283019004257', 'title': None, 'content': '此景如此,此情不渝。', 'like_num': 1008, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/d7fb2bfe62.jpg', 'width': 750, 'height': 1334, 'lemon_num': 3, 'rec_package_id': ''}, {'obj_id': '19097712', 'title': '忘川河畔 彼岸花开《阴阳师》阎魔的cosplay欣赏', 'content': '这套《阴阳师》的cos图是出自杭州304的coser押切，是一位超美的妹子。拍摄的前期布景很美，满屋的彼岸花道具很到位，最后几个动图是拍摄花絮，因为图片太大只能压缩上传，原图美的窒息！（转载请经过coser本人同意）', 'like_num': 2272, 'has_like': 0, 'tags': '', 'author_id': 7, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_post/image/row_583e861b48fb5.jpg', 'width': 720, 'height': 450, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1910132394', 'title': 'EFZ  ヤグンンバ(Shiori) vs GJ部提督まくご (Mizuka)', 'content': 'GJ部', 'like_num': 5, 'has_like': 0, 'tags': '', 'author_id': 49, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/77d04c2664.jpg', 'width': 246, 'height': 138, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/8H6UHuwwrGE.mp4', 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '1910119', 'title': '安娜塔西亚-アナスタシア', 'content': None, 'like_num': 2352, 'has_like': 0, 'tags': '', 'author_id': 18, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftk8iwjnffj31hw1yu4qs.jpg', 'width': 1024, 'height': 1346, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '191037753', 'title': '[pixiv]2018.10.1第二弹', 'content': None, 'like_num': 9, 'has_like': 0, 'tags': '', 'author_id': 72, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/be7f92305c1295af61bb42858f27db88-200x300.jpg', 'width': 200, 'height': 300, 'lemon_num': 1, 'rec_package_id': ''}, {'obj_id': '19105145', 'title': '（ID：194121）', 'content': None, 'like_num': 10, 'has_like': 0, 'tags': '', 'author_id': 82, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft6bk5lmqsj30fu0lrn7v.jpg', 'width': 570, 'height': 783, 'lemon_num': 1, 'rec_package_id': ''}]}}</t>
+  </si>
+  <si>
     <t>banner</t>
   </si>
   <si>
     <t>{'type':3,'access_token':access_token}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
+  </si>
+  <si>
     <t>意见反馈</t>
   </si>
   <si>
@@ -430,6 +433,9 @@
     <t>{"copper","silver","gold"}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'user_res_info': {'copper': '874', 'silver': '0', 'gold': '0'}, 'lemon_res_desc': '&lt;p&gt;青柠，是柠檬精平台的通用货币，目前青柠的唯一来源是通过参与平台内的活动、任务而获得。青柠目前可用于购买直播间特定礼物等消耗，或者按照平台的比例兑换成人民币提现。&lt;/p&gt;&lt;p&gt;金条，是柠檬精充值平台的中间货币，目前金条的唯一来源是通过充值获得。充值即视为消费，不予退款。当您在柠檬精平台直播间进行礼物打赏时，可直接用于支付。金条，不能用于兑换人民币提现。&lt;/p&gt;&lt;p&gt;彩钻，是用户通过直播表演，获得礼物后，所产生的货币。彩钻可按照平台的比例兑换成人民币提现。&lt;/p&gt;', 'withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587544285#/czDrawCash'}, 'copper_withdrawal_switch': {'status': 1, 'jump_url': 'http://m-demo.lemondream.cn/m/lemondreamInvited/index.html?timestamp=1587544285#/qnDrawCash'}}}</t>
+  </si>
+  <si>
     <t>充值资源商品列表</t>
   </si>
   <si>
@@ -442,6 +448,9 @@
     <t>{"rmb_num","item_id","silver_num"}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'rmb_num': 1, 'item_id': '10', 'silver_num': 100, 'icon_text': '首充有礼'}, {'rmb_num': 0.01, 'item_id': '1', 'silver_num': 1, 'icon_text': ''}, {'rmb_num': 0.06, 'item_id': '2', 'silver_num': 6, 'icon_text': ''}, {'rmb_num': 0.15, 'item_id': '5', 'silver_num': 15, 'icon_text': ''}, {'rmb_num': 0.36, 'item_id': '6', 'silver_num': 36, 'icon_text': ''}, {'rmb_num': 0.88, 'item_id': '7', 'silver_num': 88, 'icon_text': ''}, {'rmb_num': 2.18, 'item_id': '8', 'silver_num': 218, 'icon_text': ''}, {'rmb_num': 5, 'item_id': '11', 'silver_num': 500, 'icon_text': ''}]}}</t>
+  </si>
+  <si>
     <t>用户青柠收支记录</t>
   </si>
   <si>
@@ -451,15 +460,15 @@
     <t>{'type':'1','page':'1','pagesize':'20','access_token':access_token}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'log_id': '20200445', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1587449601, 'res_type': 1, 'res_val': 5, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200444', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1587449599, 'res_type': 1, 'res_val': 54, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200443', 'log_pay_type': 1, 'log_type': '1_1_4', 'log_time': 1587448212, 'res_type': 1, 'res_val': 792, 'rmb_num': '', 'log_type_name': '邀好友注册奖励'}, {'log_id': '20200441', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1587373136, 'res_type': 1, 'res_val': 5, 'rmb_num': '', 'log_type_name': '每日任务奖励'}, {'log_id': '20200439', 'log_pay_type': 1, 'log_type': '1_1_7', 'log_time': 1587372725, 'res_type': 1, 'res_val': 18, 'rmb_num': '', 'log_type_name': '每日任务奖励'}]}}</t>
+  </si>
+  <si>
     <t>用户金条收支记录</t>
   </si>
   <si>
     <t>{'type':'2','page':'1','pagesize':'20','access_token':access_token}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': []}}</t>
-  </si>
-  <si>
     <t>用户彩钻收支记录</t>
   </si>
   <si>
@@ -562,10 +571,16 @@
     <t>{"create_type":1,"desc":"图片2020","img_list":"[{\"u\":\"user\/88\/image\/edb1285c7a7e48d19de11f45b4fb6819.jpg\",\"w\":1080,\"h\":1920}]","is_open":0,"material_json":"user\/88\/data\/0092f2c4eaa0486c8219cadaf1819d28.json","material_type":"","title":timestamp,"title_image":"{\"u\":\"user\/88\/image\/f808471729d44cef9e9087ac114367a3.jpg\",\"w\":1080,\"h\":1920}","type":11,"access_token":access_token}</t>
   </si>
   <si>
+    <t>release_id</t>
+  </si>
+  <si>
     <t>access_token,timestamp</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004201', 'title': '1587447958992', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
+    <t>{"msg":"请求成功",}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004281', 'title': '1587544077309', 'content': '图片2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'width': 1080, 'height': 1920}}</t>
   </si>
   <si>
     <t>发布原创视频</t>
@@ -574,7 +589,7 @@
     <t>{"create_type":2,"desc":"视频2020","is_open":0,"material_type":"","title":timestamp,"title_image":"{\"u\":\"user\/88\/image\/4783d76072714796a9c710289fb5428f.jpg\",\"w\":720,\"h\":960}","type":12,"video_list":"{\"u\":\"user\\\/88\\\/image\\\/4783d76072714796a9c710289fb5428f.jpg\",\"v\":\"user\\\/88\\\/video\\\/5781f01a33824882b3443979c0717374.mp4\",\"w\":720,\"h\":960,\"l\":12100}","access_token":access_token}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004202', 'title': '1587447960448', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'obj_id': '2004282', 'title': '1587544078483', 'content': '视频2020', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 83, 'type': 12, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'width': 720, 'height': 960, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}}</t>
   </si>
   <si>
     <t>用户发布内容详情</t>
@@ -589,7 +604,7 @@
     <t>access_token,release_picture_id</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'type': 12, 'title': '1587447960448', 'desc': '视频2020', 'material_json': '', 'is_open': 0, 'source_obj_type': 0, 'source_obj_id': '', 'like_num': 0, 'lemon_num': 0, 'has_like': 0, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/4783d76072714796a9c710289fb5428f.jpg', 'video_list_obj': {'url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/image\\/4783d76072714796a9c710289fb5428f.jpg', 'max_height': 960, 'max_width': 720, 'length': 12100, 'video_url': 'http://psb1lisd3.bkt.clouddn.com/user\\/88\\/video\\/5781f01a33824882b3443979c0717374.mp4'}, 'user_info': {'user_id': 83, 'nickname': '首席甜言蜜语轰炸官', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/83/avatar/1577261562689.jpg', 'showid': 'di83'}, 'user_id': 83, 'tags': '', 'has_share': 0, 'has_give_lemon': 0, 'allow_share_img': 0, 'allow_save_img': 0, 'is_allow_download': 0, 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448176#/video/MjAwNDIwMg==?mode=DEMO&amp;product_type=2'}}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'type': 11, 'title': '1587544077309', 'desc': '图片2020', 'material_json': 'http://psb1lisd3.bkt.clouddn.com/user\\\\/88\\\\/data\\\\/0092f2c4eaa0486c8219cadaf1819d28.json', 'is_open': 0, 'source_obj_type': 0, 'source_obj_id': '', 'like_num': 0, 'lemon_num': 0, 'has_like': 0, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/f808471729d44cef9e9087ac114367a3.jpg', 'img_list_obj': [{'url': 'http://psb1lisd3.bkt.clouddn.com/user/88/image/edb1285c7a7e48d19de11f45b4fb6819.jpg', 'max_height': 1920, 'max_width': 1080}], 'user_info': {'user_id': 83, 'nickname': '首席甜言蜜语轰炸官', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/83/avatar/1577261562689.jpg', 'showid': 'di83'}, 'user_id': 83, 'tags': '', 'has_share': 0, 'has_give_lemon': 0, 'allow_share_img': 1, 'allow_save_img': 0, 'is_allow_download': 0, 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544296#/invitation/MjAwNDI4MQ==?mode=DEMO&amp;product_type=2'}}}</t>
   </si>
   <si>
     <t>评论用户发布的内容</t>
@@ -601,7 +616,7 @@
     <t>{"message":"我酸了","content_time":"7009","access_token":access_token,"release_id":release_picture_id}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '2004104', 'format_comment_id': '2004104'}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '2004110', 'format_comment_id': '2004110'}}</t>
   </si>
   <si>
     <t>用户发布的作品评论列表</t>
@@ -613,10 +628,7 @@
     <t>{"pagesize":"20","page":"1","release_id":release_picture_id,"access_token":access_token}</t>
   </si>
   <si>
-    <t>{"comment_id"}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '2004104', 'user_id': 83, 'message': '我酸了', 'content_time': 7009, 'comments': None}], 'count': 1}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '2004110', 'user_id': 83, 'message': '我酸了', 'content_time': 7009, 'comments': None}], 'count': 1}}</t>
   </si>
   <si>
     <t>删除用户发布的内容</t>
@@ -643,7 +655,7 @@
  "page": "1",
  "pagesize": "20",
  "app_key": "lemondream_3",
- "access_token": token
+ "access_token": access_token
 }</t>
   </si>
   <si>
@@ -665,14 +677,14 @@
  "page": "1",
  "pagesize": "20",
  "app_key": "lemondream_3",
- "access_token": token
+ "access_token": access_token
 }</t>
   </si>
   <si>
     <t>access_token,external_video_id</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '1579091526004643', 'title': None, 'content': '？歪了！', 'like_num': 833, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ff5148df53.jpg', 'width': 720, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190613336', 'title': '【第一弹新国风】屠苏', 'content': '祝各位宝宝中秋节快乐', 'like_num': 2508, 'has_like': 0, 'tags': '', 'author_id': 3, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/WKZNFTNEUUAXWKQM.jpg', 'width': 2109, 'height': 3163, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1907234', 'title': '减肥成功穿上自己喜欢的小裙子', 'content': '做一个兽兽的女孩纸真的很好呢肉肉的女孩加油了哈做一个全新的自己', 'like_num': 2031, 'has_like': 0, 'tags': '', 'author_id': 37, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/IhAObirZcSr76R43.jpg', 'width': 1422, 'height': 1422, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19096467', 'title': '【画师】日本画师ほし的插画作品', 'content': '日本画师ほし的插画作品 昵称：ほし UID：1198913 https://www.pixiv.net/member.php?id=1198913 喜欢这位画师的作品就去关注他吧ԅ(¯﹃¯ԅ) _ …', 'like_num': 1846, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/Hb3fd730ecd674380ae212b47f2a4a6dcA.jpg', 'width': 852, 'height': 1200, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101207', 'title': '（ID：365805）', 'content': None, 'like_num': 2063, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft5xbuwj6pj30og12wkc6.jpg', 'width': 880, 'height': 1400, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19097420', 'title': '【画师】日本画师菊月的插画作品', 'content': '日本画师菊月的插画作品 昵称：菊月 UID：429883 https://www.pixiv.net/member.php?id=429883 碰到喜欢的画师就去关注吧ヾ(･ω･`｡) _id=6 …', 'like_num': 2619, 'has_like': 0, 'tags': '', 'author_id': 53, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_comics_ac/image/8a1c233bly1fymosd1siej20rs13akjl.jpg', 'width': 1000, 'height': 1414, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579091683004652', 'title': None, 'content': '精选美图(5)(੭ु ›ω‹ )੭ु⁾⁾♡', 'like_num': 867, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/7438d02354.jpg', 'width': 990, 'height': 1488, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190630268', 'title': '一黛一露姐妹了解一下吗w', 'content': '#COS正片# #水团#  #黑泽露比# #黑泽黛雅#  我们都开学啦！这个学期露比也要和姐姐好好学习SCHOOL IDOL ！CN表            ♡出镜♡            黑泽露比:@夜咲_妹纸（原po）            黑泽黛雅:@泫沧             摄影:@夕立            妆娘:@白汪汪            后期&amp;排版:@月半', 'like_num': 2709, 'has_like': 0, 'tags': '', 'author_id': 81, 'type': '9', 'title_image': 'http://qns.lemondream.cn/cos/images/omZCilLtqdyrJC1J.jpg', 'width': 1600, 'height': 2399, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190624958', 'title': 'DC漫展场照', 'content': 'DAY2裙子:格里芬的低喃摄影:炮弹', 'like_num': 1867, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/smz32uqjpsF76tVu.jpg', 'width': 3360, 'height': 2240, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19101283', 'title': '（ID：9688612）', 'content': None, 'like_num': 2705, 'has_like': 0, 'tags': '', 'author_id': 16, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ft6uoqkh03j31ww1cktg4.jpg', 'width': 1024, 'height': 722, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '190623863', 'title': '漫展场照', 'content': '出镜:骷髅喵摄影:ape', 'like_num': 1063, 'has_like': 0, 'tags': '', 'author_id': 64, 'type': '9', 'title_image': 'http://qns.lemondream.cn/girls/images/uR1RTHgXeVQNkvKD.jpg', 'width': 904, 'height': 1463, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579113978004753', 'title': None, 'content': '花开满楼迟未归，待君归时花已败', 'like_num': 1479, 'has_like': 0, 'tags': '', 'author_id': 76, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/8332f2d9b2.jpg', 'width': 629, 'height': 629, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1910181', 'title': '战舰少女-戦艦少女', 'content': None, 'like_num': 2953, 'has_like': 0, 'tags': '', 'author_id': 22, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftkyb7kcy5j30lo0umk82.jpg', 'width': 780, 'height': 1102, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579070170004315', 'title': None, 'content': '怒刷存在感！(ง·̀_·́)ง', 'like_num': 1639, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/6e8c3a5349.jpg', 'width': 274, 'height': 324, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579685749004078', 'title': None, 'content': '拿图记的?哦！', 'like_num': 1051, 'has_like': 0, 'tags': '', 'author_id': 61, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/677c0c969d.jpg', 'width': 662, 'height': 944, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579058275004432', 'title': None, 'content': '近一点，再近一点', 'like_num': 2233, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/39ab8678a5.jpg', 'width': 650, 'height': 1024, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '19105462', 'title': '条纹内裤-縞パン', 'content': None, 'like_num': 2505, 'has_like': 0, 'tags': '', 'author_id': 79, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/006DgsQsly1ftdapzmymsj319y0wjx6p.jpg', 'width': 1024, 'height': 725, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579066067004999', 'title': None, 'content': '看看，现在都几点了', 'like_num': 532, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/ec1525f937.jpg', 'width': 1080, 'height': 1920, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191029012', 'title': 'MegamiMagazine#2222018-11', 'content': None, 'like_num': 2986, 'has_like': 0, 'tags': '', 'author_id': 71, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/image/96772027ebdcb0f86a8d4769c680ed02.jpg', 'width': 4089, 'height': 5925, 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '1579351953004248', 'title': None, 'content': '追凌！', 'like_num': 1269, 'has_like': 0, 'tags': '', 'author_id': 57, 'type': '9', 'title_image': 'http://qns.lemondream.cn/lemon_image/cover/848388d611.jpg', 'width': 535, 'height': 608, 'lemon_num': 0, 'rec_package_id': ''}]}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': '191121238', 'title': None, 'content': '地表最“二”搞笑天团 国乒承包了我全年的笑点   \u200b\u200b\u200b', 'like_num': 1475, 'has_like': 0, 'tags': '', 'author_id': 29, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4555f0f5ac.jpg', 'width': 852, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/817030.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121237', 'title': None, 'content': '男人如风妖娆妩媚，呸，我撒谎了', 'like_num': 512, 'has_like': 0, 'tags': '', 'author_id': 28, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/5cc8c73fd6.jpg', 'width': 540, 'height': 954, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/19349336286_1562784558017.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121236', 'title': None, 'content': '假如只能说一个字 你觉得哪个字会讲最多次？篮球', 'like_num': 1241, 'has_like': 0, 'tags': '', 'author_id': 27, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/9b249db731.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1330650.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121235', 'title': None, 'content': '黄飞鸿方警官组男团，十三姨欲再探“好大侠”', 'like_num': 2042, 'has_like': 0, 'tags': '', 'author_id': 26, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b961537632.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1993220.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121233', 'title': None, 'content': '真正的有趣的灵魂万里挑一，哈哈哈哈。', 'like_num': 2059, 'has_like': 0, 'tags': '', 'author_id': 24, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8b674c5c2b.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1824580.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121232', 'title': None, 'content': '有女朋友最好不要穿黑裤子     ', 'like_num': 735, 'has_like': 0, 'tags': '', 'author_id': 23, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/eaaff54147.jpg', 'width': 480, 'height': 852, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/394500.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121230', 'title': None, 'content': '没事就笑一笑哈哈哈哈哈', 'like_num': 2877, 'has_like': 0, 'tags': '', 'author_id': 21, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/8d9880d27e.jpg', 'width': 960, 'height': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1898060.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121229', 'title': None, 'content': '来，一波了', 'like_num': 1697, 'has_like': 0, 'tags': '', 'author_id': 14, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/ea596c5462.jpg', 'width': 960, 'height': 492, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/12409724791_1559223684348.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121228', 'title': None, 'content': '带上耳机世界都是我的！', 'like_num': 1045, 'has_like': 0, 'tags': '', 'author_id': 13, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/ea51af38a6.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1952780.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121225', 'title': None, 'content': '如何辨别南方姑娘与北方姑娘', 'like_num': 2391, 'has_like': 0, 'tags': '', 'author_id': 10, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/ab2819c758.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/13944920257_1560248859631.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121272', 'title': None, 'content': '陈小春版鹿鼎记内心OS小剧场合集！赶快享享艳福！', 'like_num': 1765, 'has_like': 0, 'tags': '', 'author_id': 87, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/3651e99029.jpg', 'width': 720, 'height': 476, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2163430.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121223', 'title': None, 'content': '老爷子醒酒的绝技', 'like_num': 2909, 'has_like': 0, 'tags': '', 'author_id': 8, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/808ebd2056.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2083530.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121221', 'title': None, 'content': '老鼠：我都装了半天了，这猫怎么还不走！', 'like_num': 950, 'has_like': 0, 'tags': '', 'author_id': 6, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/24a40f629f.jpg', 'width': 720, 'height': 1104, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/927864333855630336524.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121220', 'title': None, 'content': ',,,,', 'like_num': 1181, 'has_like': 0, 'tags': '', 'author_id': 5, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/222f321b0a.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/25933135689_1573970098117.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121219', 'title': None, 'content': '你认为在工作中，能力与品德，哪个更重要？', 'like_num': 1664, 'has_like': 0, 'tags': '', 'author_id': 98, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/81922d96e2.jpg', 'width': 540, 'height': 960, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2044620.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121217', 'title': None, 'content': '现在的猫都这么会骗人了吗？', 'like_num': 758, 'has_like': 0, 'tags': '', 'author_id': 96, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2d41e92b62.jpg', 'width': 576, 'height': 1024, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2088040.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121216', 'title': None, 'content': '爸妈套路深，我要去农村！！！', 'like_num': 955, 'has_like': 0, 'tags': '', 'author_id': 95, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4eb078e324.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1897580.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121215', 'title': None, 'content': '爆笑北方话与台湾腔的终极碰撞！', 'like_num': 517, 'has_like': 0, 'tags': '', 'author_id': 94, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/b6114afe3b.jpg', 'width': 720, 'height': 480, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1344920.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121213', 'title': None, 'content': '爸爸妈妈去上班，我去幼儿园......         ', 'like_num': 2661, 'has_like': 0, 'tags': '', 'author_id': 92, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/cefe54ec62.jpg', 'width': 720, 'height': 1280, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/2022830.mp4', 'lemon_num': 0, 'rec_package_id': ''}, {'obj_id': '191121212', 'title': None, 'content': '二哈你别这样，过几天就长出来了.....  ', 'like_num': 2324, 'has_like': 0, 'tags': '', 'author_id': 91, 'type': '10', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/2c276440cb.jpg', 'width': 360, 'height': 632, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1894170.mp4', 'lemon_num': 0, 'rec_package_id': ''}]}}</t>
   </si>
   <si>
     <t>预设弹幕列表</t>
@@ -699,7 +711,7 @@
     <t>{"content_id"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'content_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'img_obj_list': [{'url': 'http://qns.lemondream.cn/cos/images/RLZYGLMUYRSQWQUJ.jpg', 'max_height': 3021, 'max_width': 2109}], 'video_obj': None, 'type': 1, 'like_num': 2673, 'has_like': 0, 'lemon_num': 0, 'user_info': {'user_id': 58, 'nickname': '大老哥在线微笑', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/58.gif', 'showid': 'if58'}, 'has_share': 1, 'has_give_lemon': 0, 'bgm_info': {'act_id': 20087, 'title_image': '', 'bgm_url': ''}, 'allow_share_img': 1, 'allow_save_img': 1, 'share_token': 'MTkwNjU3NDU=', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448189#/invitationScraper/MTkwNjU3NDU=?mode=DEMO'}}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'content_id': '190920027', 'title': ' 【动漫】校服福利第十弹', 'content': None, 'title_image': 'http://qns.lemondream.cn/lemon_image/image/167f95914b64d2937ff9dde3481bc23e-800x566.jpg', 'img_obj_list': [{'url': 'http://qns.lemondream.cn/lemon_image/image/167f95914b64d2937ff9dde3481bc23e.jpg', 'max_height': 1000, 'max_width': 1414}, {'url': 'http://qns.lemondream.cn/lemon_image/image/3efb8b42457322f639866f60785ad6e4.jpg', 'max_height': 878, 'max_width': 1200}, {'url': 'http://qns.lemondream.cn/lemon_image/image/938ad875b6d3c65b291884761a6aba3b.jpg', 'max_height': 738, 'max_width': 1192}, {'url': 'http://qns.lemondream.cn/lemon_image/image/b6c211dc30b0db2009634a9760af56d9.jpg', 'max_height': 729, 'max_width': 516}, {'url': 'http://qns.lemondream.cn/lemon_image/image/9754404276c9746f3d2cb909479d6f18.jpg', 'max_height': 1062, 'max_width': 752}, {'url': 'http://qns.lemondream.cn/lemon_image/image/2c5d95a03dbd373dbda00f48cdd54f44.jpg', 'max_height': 1063, 'max_width': 1500}, {'url': 'http://qns.lemondream.cn/lemon_image/image/3b13b78c47d98a27daff293ec28c7fa2.jpg', 'max_height': 1119, 'max_width': 800}, {'url': 'http://qns.lemondream.cn/lemon_image/image/05ba7c8374989874517087b3c88ec1b5.jpg', 'max_height': 684, 'max_width': 500}], 'video_obj': None, 'type': 1, 'like_num': 1676, 'has_like': 0, 'lemon_num': 1, 'user_info': {'user_id': 96, 'nickname': '首席哭的大声官', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/96.jpg', 'showid': 'gj96'}, 'has_share': 1, 'has_give_lemon': 0, 'bgm_info': {'act_id': 20086, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/external_content/bgm/10008.jpg', 'bgm_url': 'http://psb1lisd3.bkt.clouddn.com/external_content/bgm/10008.mp3'}, 'allow_share_img': 1, 'allow_save_img': 1, 'share_token': 'MTkwOTIwMDI3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544307#/invitationScraper/MTkwOTIwMDI3?mode=DEMO'}}}</t>
   </si>
   <si>
     <t>爬虫视频播放页</t>
@@ -708,7 +720,7 @@
     <t>{"content_id":external_video_id,"access_token":access_token}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'content_id': '19065745', 'title': '被日本评价第一最可爱的中国初音未来', 'content': '【中國コスプレ少女一番可愛いです】服がとても綺麗ですd(^_^o)❤️初音未来China：歳纳鱼蛋Miku暗示：投喂给小姐姐吧 #初音ミク #初音未来 #Cosplay', 'title_image': 'http://qns.lemondream.cn/cos/images/CPBPEVCUIBUKCIJK.jpg', 'img_obj_list': [{'url': 'http://qns.lemondream.cn/cos/images/RLZYGLMUYRSQWQUJ.jpg', 'max_height': 3021, 'max_width': 2109}], 'video_obj': None, 'type': 1, 'like_num': 855, 'has_like': 0, 'lemon_num': 0, 'user_info': {'user_id': 58, 'nickname': '大老哥在线微笑', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/58.gif', 'showid': 'if58'}, 'has_share': 1, 'has_give_lemon': 0, 'bgm_info': {'act_id': 20087, 'title_image': '', 'bgm_url': ''}, 'allow_share_img': 1, 'allow_save_img': 1, 'share_token': 'MTkwNjU3NDU=', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448190#/invitationScraper/MTkwNjU3NDU=?mode=DEMO'}}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'content_id': '191115783', 'title': None, 'content': '我还没喝就这么能吹了，要是来二两你们觉得我会是啥样', 'title_image': 'http://qnv.lemondream.cn/lemon_image/cover/4f480080fb.jpg', 'img_obj_list': None, 'video_obj': {'url': '', 'max_height': 960, 'max_width': 540, 'video_url': 'http://qnv.lemondream.cn/lemon_video/video/1481590.mp4', 'length': 0}, 'type': 2, 'like_num': 1106, 'has_like': 0, 'lemon_num': 1, 'user_info': {'user_id': 32, 'nickname': '首席撒娇师', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/32.jpg', 'showid': 'cd32'}, 'has_share': 0, 'has_give_lemon': 0, 'bgm_info': None, 'allow_share_img': 0, 'allow_save_img': 0, 'share_token': 'MTkxMTE1Nzgz', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544308#/videoScraper/MTkxMTE1Nzgz?mode=DEMO'}}}</t>
   </si>
   <si>
     <t>爬虫图片评论列表</t>
@@ -718,7 +730,10 @@
 /api/External/get_external_content_new_comment_list</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '190656272', 'user_id': 0, 'message': '真漂亮', 'content_time': 0, 'comments': None}, {'comment_id': '190656271', 'user_id': 0, 'message': '哇好可爱，我爱了', 'content_time': 0, 'comments': None}, {'comment_id': '200414', 'user_id': 83, 'message': '哈批哈批哈批lala~~~', 'content_time': 163395, 'comments': None}, {'comment_id': '200413', 'user_id': 83, 'message': '哈批哈批哈批wow~~~', 'content_time': 163395, 'comments': None}, {'comment_id': '190656272', 'user_id': 58, 'message': '真漂亮', 'content_time': 0, 'comments': None}, {'comment_id': '190656271', 'user_id': 58, 'message': '哇好可爱，我爱了', 'content_time': 0, 'comments': None}], 'count': 4}}</t>
+    <t>{"comment_id"}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'comment_id': '200437', 'user_id': 83, 'message': '哈批哈批哈批wow~~~', 'content_time': 163395, 'comments': None}, {'comment_id': '200436', 'user_id': 1042, 'message': '哈哈哈哈哈哈', 'content_time': 0, 'comments': None}, {'comment_id': '200435', 'user_id': 1042, 'message': '哈批哈批哈批wow~~~', 'content_time': 163395, 'comments': None}, {'comment_id': '200433', 'user_id': 1042, 'message': '哈批哈批哈批wow~~~', 'content_time': 163395, 'comments': None}, {'comment_id': '1909323055', 'user_id': 96, 'message': '我知道你不搞事的，嘴里叼菊花几个意思？', 'content_time': 0, 'comments': None}], 'count': 5}}</t>
   </si>
   <si>
     <t>爬虫图片爆柠</t>
@@ -745,10 +760,10 @@
     <t>{"message":"哈批哈批哈批wow~~~","content_time":"163395","access_token":access_token,"content_id":external_picture_id}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200415'}}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200413'}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200439'}}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200437'}}</t>
   </si>
   <si>
     <t>爬虫视频发布评论</t>
@@ -757,7 +772,7 @@
     <t>{"message":"哈批哈批哈批lala~~~","content_time":"163395","access_token":access_token,"content_id":external_video_id}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200414'}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200438'}}</t>
   </si>
   <si>
     <t>分享播放页</t>
@@ -805,7 +820,7 @@
     <t>trace_release_id</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448199#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544317#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544317#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544317#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544317#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544317#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}]}}</t>
   </si>
   <si>
     <t>cos赛道配音列表</t>
@@ -814,7 +829,7 @@
     <t>/api/web_trace_activity/get_trace_work_voice_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448200#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448200#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'type': 11, 'obj_id': 2003236, 'title': '男声变声配音', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544321#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2'}, {'type': 11, 'obj_id': 2003235, 'title': 'iirr', 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544321#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2'}]}}</t>
   </si>
   <si>
     <t>cos赛道最新列表</t>
@@ -823,7 +838,7 @@
     <t>/api/web_trace_activity/get_trace_work_new_list&amp;trace_id=4&amp;page=1&amp;pagesize=20</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587448201#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'obj_id': 2003236, 'title': '男声变声配音', 'content': '额', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 85, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/85/image/2e81640b3c504a4f956e1ac453170969.jpg', 'width': 720, 'height': 1071, 'rank_id': 5, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/85/audio/6f2afb415923407b8426be5076fe649f.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544322#/invitation/MjAwMzIzNg==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 85, 'nickname': '小姐姐专属暖男', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/avatar/0820/85.jpg', 'showid': 'fi85'}}, {'obj_id': 2003235, 'title': 'iirr', 'content': 'uirir', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/b4fe8a6510e34c21aebaa9c883e73835.jpg', 'width': 720, 'height': 1280, 'rank_id': 4, 'vote_num': 0, 'voice_type': 1, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/user/1060/audio/2ba26755a08f46b4ad308ab9b6313e5e.mp3', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544322#/invitation/MjAwMzIzNQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003234, 'title': 'zzzzzzzzzZzzz', 'content': 'tt', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1060, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1060/image/9726b1d1dcca4e59a8c49f16e904efb1.jpg', 'width': 1000, 'height': 1650, 'rank_id': 3, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544322#/invitation/MjAwMzIzNA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1060, 'nickname': '嗯啦', 'avatar': 'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015', 'showid': 'ag1060'}}, {'obj_id': 2003229, 'title': '高铁', 'content': '偷', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1043, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1043/image/31199849ac3843c6868fc60cd3ae8385.jpg', 'width': 1736, 'height': 2312, 'rank_id': 2, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544322#/invitation/MjAwMzIyOQ==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1043, 'nickname': '柠檬1043', 'avatar': '', 'showid': 'de1043'}}, {'obj_id': 2003228, 'title': '哈哈哈哈', 'content': '开播啦啦', 'like_num': 0, 'has_like': 0, 'tags': '', 'author_id': 1003, 'type': 11, 'title_image': 'http://psb1lisd3.bkt.clouddn.com/user/1003/image/a4bd43cfca5446e695da1aea79fb0c46.jpg', 'width': 1080, 'height': 1920, 'rank_id': 1, 'vote_num': 0, 'voice_type': 0, 'voice_url': 'http://psb1lisd3.bkt.clouddn.com/', 'share_url': 'http://m-demo.lemondream.cn/m/lemondream/index.html?timestamp=1587544322#/invitation/MjAwMzIyOA==?mode=DEMO&amp;product_type=2', 'user_info': {'user_id': 1003, 'nickname': '大哥棒呆了', 'avatar': 'http://psb1lisd3.bkt.clouddn.com/user/1003/avatar/1568719484754.jpg', 'showid': 'da1003'}}]}}</t>
   </si>
   <si>
     <t>参赛作品详情</t>
@@ -835,10 +850,10 @@
     <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'accessToken': accessToken, 'Authorization': Authorization,'X-Token': XToken,'biData':biData}</t>
   </si>
   <si>
-    <t>{"access_token":access_token,"obj_id":trace_release_id}</t>
-  </si>
-  <si>
-    <t>access_token,trace_release_id</t>
+    <t>{"access_token":access_token,"obj_id":trace_release_pid}</t>
+  </si>
+  <si>
+    <t>access_token,trace_release_pid</t>
   </si>
   <si>
     <t>{'code': 0, 'msg': '请求成功', 'data': {'info': {'trace_id': 4, 'obj_id': 2003228, 'title': '赛道444', 'status': 3, 'vote_num': 0, 'rank_id': 1, 'work_status': 1, 'left_vote_num': 20, 'target_user_id': 1003}}}</t>
@@ -853,13 +868,13 @@
     <t>/api/share/get_user_task_list</t>
   </si>
   <si>
-    <t>{'Content-Type': 'application/json','accessToken':token}</t>
+    <t>{'Content-Type': 'application/json','accessToken':accessToken}</t>
   </si>
   <si>
     <t>{"task_type"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'task_type': 1, 'title': '首充奖励', 'desc': '完成首充1元，奖励100青柠', 'show_copper_num': 100, 'status': 0}, {'task_type': 2, 'title': '完整阅读内容(0/10)', 'desc': '奖励5青柠/次，最多50个', 'show_copper_num': 5, 'status': 0}, {'task_type': 3, 'title': '发5字以上弹幕(3 / 3)', 'desc': '奖励18青柠/次，最多54个', 'show_copper_num': 54, 'status': 1}]}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'list': [{'task_type': 1, 'title': '首充奖励', 'desc': '完成首充1元，奖励100青柠', 'show_copper_num': 100, 'status': 0}, {'task_type': 2, 'title': '完整阅读内容(0/10)', 'desc': '奖励5青柠/次，最多50个', 'show_copper_num': 5, 'status': 0}, {'task_type': 3, 'title': '发5字以上弹幕(2 / 3)', 'desc': '奖励18青柠/次，最多54个', 'show_copper_num': 36, 'status': 1}]}}</t>
   </si>
   <si>
     <t>我的邀请详情</t>
@@ -901,19 +916,19 @@
     <t>{"copper_rmb_rate":1000}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': '815', 'rmb': '0.815', 'copper_rmb_rate': 1000}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': '874', 'rmb': '0.874', 'copper_rmb_rate': 1000}}</t>
   </si>
   <si>
     <t>做任务-发弹幕</t>
   </si>
   <si>
-    <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization,'accessToken':token}</t>
+    <t>{'versionCode':versionCode,'Content-Type': 'application/json', 'channel': 'default', 'X-Token': XToken, 'Authorization': Authorization,'accessToken':accessToken}</t>
   </si>
   <si>
     <t>{"message":"哈哈哈哈哈哈","access_token":access_token,"content_id":external_picture_id}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200416'}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'comment_id': '200440'}}</t>
   </si>
   <si>
     <t>领弹幕任务奖励</t>
@@ -928,7 +943,7 @@
     <t>{"copper"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 54}}</t>
+    <t>{'code': 0, 'msg': '请求成功', 'data': {'copper': 36}}</t>
   </si>
   <si>
     <t>做任务-阅读帖子</t>
@@ -1061,7 +1076,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1072,6 +1087,27 @@
       <color rgb="FF000000"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1096,6 +1132,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1106,7 +1188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1129,6 +1211,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1136,51 +1225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1195,31 +1240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1234,19 +1255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,72 +1286,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,6 +1315,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1372,7 +1399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,25 +1423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,11 +1449,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,6 +1499,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,202 +1546,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2005,7 +2029,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="5"/>
@@ -2313,31 +2337,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -2346,31 +2370,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -2379,31 +2403,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -2412,31 +2436,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -2522,31 +2546,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -2555,31 +2579,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -2588,31 +2612,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -2635,7 +2659,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2714,21 +2738,17 @@
       <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:13">
@@ -2736,13 +2756,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -2754,13 +2774,13 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>24</v>
@@ -2771,13 +2791,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -2786,16 +2806,16 @@
         <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>24</v>
@@ -2806,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -2821,21 +2841,21 @@
         <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:13">
@@ -2843,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -2858,21 +2878,21 @@
         <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:13">
@@ -2880,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -2895,21 +2915,21 @@
         <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:13">
@@ -2917,13 +2937,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -2932,16 +2952,16 @@
         <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>24</v>
@@ -2952,13 +2972,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -2967,21 +2987,21 @@
         <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:13">
@@ -2989,30 +3009,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>23</v>
@@ -3026,33 +3046,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>24</v>
@@ -3063,33 +3083,33 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>24</v>
@@ -3100,33 +3120,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>24</v>
@@ -3166,7 +3186,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="5"/>
@@ -3229,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -3244,18 +3264,18 @@
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>24</v>
@@ -3266,13 +3286,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -3281,19 +3301,21 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:13">
@@ -3301,13 +3323,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -3316,15 +3338,15 @@
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -3338,13 +3360,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3353,19 +3375,19 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>23</v>
@@ -3379,13 +3401,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -3394,11 +3416,11 @@
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
@@ -3432,7 +3454,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -3494,13 +3516,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -3509,23 +3531,23 @@
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:13">
@@ -3533,13 +3555,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -3548,23 +3570,23 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:13">
@@ -3572,13 +3594,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -3587,23 +3609,23 @@
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:13">
@@ -3614,10 +3636,10 @@
         <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3630,19 +3652,19 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:13">
@@ -3650,13 +3672,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -3665,23 +3687,23 @@
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:13">
@@ -3689,13 +3711,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -3704,23 +3726,23 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:13">
@@ -3728,13 +3750,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -3743,23 +3765,23 @@
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:13">
@@ -3767,13 +3789,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -3782,23 +3804,23 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:13">
@@ -3806,13 +3828,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -3821,17 +3843,17 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>23</v>
@@ -3845,13 +3867,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -3860,17 +3882,17 @@
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>23</v>
@@ -3884,13 +3906,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -3899,17 +3921,17 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>23</v>
@@ -3923,13 +3945,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -3938,11 +3960,11 @@
         <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
@@ -3962,13 +3984,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -3977,17 +3999,17 @@
         <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>23</v>
@@ -4001,13 +4023,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
@@ -4016,11 +4038,11 @@
         <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>21</v>
@@ -4040,13 +4062,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
@@ -4055,17 +4077,17 @@
         <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>23</v>
@@ -4079,13 +4101,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -4094,17 +4116,17 @@
         <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>23</v>
@@ -4222,7 +4244,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J5" sqref="J5:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -4286,13 +4308,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -4301,15 +4323,15 @@
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
@@ -4323,13 +4345,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -4338,15 +4360,15 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>23</v>
@@ -4360,13 +4382,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -4375,17 +4397,17 @@
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -4399,13 +4421,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -4414,17 +4436,19 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>23</v>
@@ -4438,13 +4462,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -4453,17 +4477,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>23</v>
@@ -4477,13 +4503,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -4492,15 +4518,17 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
@@ -4514,13 +4542,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -4529,15 +4557,17 @@
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>23</v>
@@ -4551,13 +4581,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -4566,17 +4596,17 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
@@ -4590,13 +4620,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -4605,15 +4635,17 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>23</v>
@@ -4773,8 +4805,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -4836,13 +4868,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -4851,17 +4883,17 @@
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
@@ -4875,13 +4907,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -4890,17 +4922,17 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>23</v>
@@ -4914,13 +4946,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -4929,17 +4961,17 @@
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -4953,13 +4985,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -4968,17 +5000,17 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>23</v>
@@ -4992,13 +5024,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -5007,17 +5039,17 @@
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>23</v>
@@ -5031,13 +5063,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -5046,17 +5078,17 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
@@ -5070,13 +5102,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -5085,11 +5117,11 @@
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
@@ -5109,13 +5141,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -5124,11 +5156,11 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>21</v>
@@ -5148,13 +5180,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -5163,17 +5195,17 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L10" s="1" t="s">
     